--- a/assets/posesaxl.xlsx
+++ b/assets/posesaxl.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jam/go/i9posesa/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F4BE9A-2033-564A-B173-28410A243971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17280" yWindow="760" windowWidth="17280" windowHeight="20180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ImageSets" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
     <sheet name="Transitions" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Exercises!$A$2:$DC$150</definedName>
+    <definedName hidden="true" localSheetId="1" name="_xlnm._FilterDatabase">Exercises!$A$2:$DC$150</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12629" uniqueCount="7197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12636" uniqueCount="7203">
   <si>
     <t>ID</t>
   </si>
@@ -21628,20 +21627,38 @@
     <t>Plank Walkout Half Way</t>
   </si>
   <si>
-    <t>Pushup Down</t>
-  </si>
-  <si>
     <t>Standing T Pose Squat Stance</t>
   </si>
   <si>
     <t>Forearm Plank Hips Up</t>
+  </si>
+  <si>
+    <t>Kneeling on Knee - Both</t>
+  </si>
+  <si>
+    <t>Squat Stance Toes</t>
+  </si>
+  <si>
+    <t>Squat Stance Left High Knee</t>
+  </si>
+  <si>
+    <t>Squat Stance Right High Knee</t>
+  </si>
+  <si>
+    <t>Squat Stance Left High Knee Out</t>
+  </si>
+  <si>
+    <t>Squat Stance Right High Knee Out</t>
+  </si>
+  <si>
+    <t>Downward Walkout</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -21685,12 +21702,12 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -21707,7 +21724,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -21720,7 +21737,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office 2013 - 2022 Theme">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -22016,10 +22033,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0C6FEDB-7242-034A-A2CD-5F1C567957CE}">
-  <dimension ref="A1:AA258"/>
+  <dimension ref="A1:AA265"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A233" workbookViewId="0">
+      <selection activeCell="B266" sqref="B266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23311,7 +23328,7 @@
       </c>
     </row>
     <row r="17" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C17" t="s">
@@ -23791,7 +23808,7 @@
       </c>
     </row>
     <row r="23" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>151</v>
       </c>
       <c r="C23" t="s">
@@ -24431,7 +24448,7 @@
       </c>
     </row>
     <row r="31" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>171</v>
       </c>
       <c r="C31" t="s">
@@ -24911,7 +24928,7 @@
       </c>
     </row>
     <row r="37" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>177</v>
       </c>
       <c r="C37" t="s">
@@ -28271,7 +28288,7 @@
       </c>
     </row>
     <row r="79" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B79" s="4" t="s">
+      <c r="B79" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C79" t="s">
@@ -29071,7 +29088,7 @@
       </c>
     </row>
     <row r="89" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B89" s="4" t="s">
+      <c r="B89" s="3" t="s">
         <v>168</v>
       </c>
       <c r="C89" t="s">
@@ -29151,7 +29168,7 @@
       </c>
     </row>
     <row r="90" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B90" s="4" t="s">
+      <c r="B90" s="3" t="s">
         <v>169</v>
       </c>
       <c r="C90" t="s">
@@ -29471,7 +29488,7 @@
       </c>
     </row>
     <row r="94" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B94" s="4" t="s">
+      <c r="B94" s="3" t="s">
         <v>78</v>
       </c>
       <c r="C94" t="s">
@@ -29631,7 +29648,7 @@
       </c>
     </row>
     <row r="96" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B96" s="4" t="s">
+      <c r="B96" s="3" t="s">
         <v>544</v>
       </c>
       <c r="C96" t="s">
@@ -30111,7 +30128,7 @@
       </c>
     </row>
     <row r="102" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B102" s="4" t="s">
+      <c r="B102" s="3" t="s">
         <v>546</v>
       </c>
       <c r="C102" t="s">
@@ -30191,7 +30208,7 @@
       </c>
     </row>
     <row r="103" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B103" s="4" t="s">
+      <c r="B103" s="3" t="s">
         <v>549</v>
       </c>
       <c r="C103" t="s">
@@ -30271,7 +30288,7 @@
       </c>
     </row>
     <row r="104" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B104" s="4" t="s">
+      <c r="B104" s="3" t="s">
         <v>550</v>
       </c>
       <c r="C104" t="s">
@@ -30351,7 +30368,7 @@
       </c>
     </row>
     <row r="105" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B105" s="4" t="s">
+      <c r="B105" s="3" t="s">
         <v>548</v>
       </c>
       <c r="C105" t="s">
@@ -31071,7 +31088,7 @@
       </c>
     </row>
     <row r="114" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B114" s="4" t="s">
+      <c r="B114" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C114" t="s">
@@ -31151,7 +31168,7 @@
       </c>
     </row>
     <row r="115" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B115" s="4" t="s">
+      <c r="B115" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C115" t="s">
@@ -31231,7 +31248,7 @@
       </c>
     </row>
     <row r="116" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B116" s="4" t="s">
+      <c r="B116" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C116" t="s">
@@ -31391,7 +31408,7 @@
       </c>
     </row>
     <row r="118" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B118" s="4" t="s">
+      <c r="B118" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C118" t="s">
@@ -31471,7 +31488,7 @@
       </c>
     </row>
     <row r="119" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B119" s="4" t="s">
+      <c r="B119" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C119" t="s">
@@ -31951,7 +31968,7 @@
       </c>
     </row>
     <row r="125" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B125" s="4" t="s">
+      <c r="B125" s="3" t="s">
         <v>86</v>
       </c>
       <c r="C125" t="s">
@@ -34751,7 +34768,7 @@
       </c>
     </row>
     <row r="160" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B160" s="4" t="s">
+      <c r="B160" s="3" t="s">
         <v>112</v>
       </c>
       <c r="C160" t="s">
@@ -35951,7 +35968,7 @@
       </c>
     </row>
     <row r="175" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B175" s="4" t="s">
+      <c r="B175" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C175" t="s">
@@ -36031,7 +36048,7 @@
       </c>
     </row>
     <row r="176" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B176" s="4" t="s">
+      <c r="B176" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C176" t="s">
@@ -38671,7 +38688,7 @@
       </c>
     </row>
     <row r="209" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B209" s="4" t="s">
+      <c r="B209" s="3" t="s">
         <v>214</v>
       </c>
       <c r="C209" t="s">
@@ -38751,7 +38768,7 @@
       </c>
     </row>
     <row r="210" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B210" s="4" t="s">
+      <c r="B210" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C210" t="s">
@@ -38831,7 +38848,7 @@
       </c>
     </row>
     <row r="211" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B211" s="4" t="s">
+      <c r="B211" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C211" t="s">
@@ -38911,7 +38928,7 @@
       </c>
     </row>
     <row r="212" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B212" s="4" t="s">
+      <c r="B212" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C212" t="s">
@@ -41391,7 +41408,7 @@
       </c>
     </row>
     <row r="243" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B243" s="4" t="s">
+      <c r="B243" s="3" t="s">
         <v>7179</v>
       </c>
       <c r="C243" t="s">
@@ -41399,7 +41416,7 @@
       </c>
     </row>
     <row r="244" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B244" s="4" t="s">
+      <c r="B244" s="3" t="s">
         <v>7181</v>
       </c>
       <c r="C244" t="str">
@@ -41408,7 +41425,7 @@
       </c>
     </row>
     <row r="245" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B245" s="4" t="s">
+      <c r="B245" s="3" t="s">
         <v>7182</v>
       </c>
       <c r="C245" t="str">
@@ -41417,7 +41434,7 @@
       </c>
     </row>
     <row r="246" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B246" s="4" t="s">
+      <c r="B246" s="3" t="s">
         <v>7183</v>
       </c>
       <c r="C246" t="str">
@@ -41426,7 +41443,7 @@
       </c>
     </row>
     <row r="247" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B247" s="4" t="s">
+      <c r="B247" s="3" t="s">
         <v>7184</v>
       </c>
       <c r="C247" t="str">
@@ -41435,7 +41452,7 @@
       </c>
     </row>
     <row r="248" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B248" s="4" t="s">
+      <c r="B248" s="3" t="s">
         <v>7185</v>
       </c>
       <c r="C248" t="str">
@@ -41444,7 +41461,7 @@
       </c>
     </row>
     <row r="249" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B249" s="4" t="s">
+      <c r="B249" s="3" t="s">
         <v>7186</v>
       </c>
       <c r="C249" t="str">
@@ -41453,7 +41470,7 @@
       </c>
     </row>
     <row r="250" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B250" s="4" t="s">
+      <c r="B250" s="3" t="s">
         <v>7187</v>
       </c>
       <c r="C250" t="str">
@@ -41462,7 +41479,7 @@
       </c>
     </row>
     <row r="251" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B251" s="4" t="s">
+      <c r="B251" s="3" t="s">
         <v>7188</v>
       </c>
       <c r="C251" t="str">
@@ -41471,16 +41488,16 @@
       </c>
     </row>
     <row r="252" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B252" s="4" t="s">
+      <c r="B252" s="3" t="s">
         <v>7189</v>
       </c>
       <c r="C252" t="str">
-        <f t="shared" ref="C252:C258" si="1">LOWER(SUBSTITUTE(SUBSTITUTE(B252," ","-"),"---","-"))</f>
+        <f t="shared" ref="C252:C265" si="1">LOWER(SUBSTITUTE(SUBSTITUTE(B252," ","-"),"---","-"))</f>
         <v>jumping-jack-half</v>
       </c>
     </row>
     <row r="253" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B253" s="4" t="s">
+      <c r="B253" s="3" t="s">
         <v>7190</v>
       </c>
       <c r="C253" t="str">
@@ -41489,7 +41506,7 @@
       </c>
     </row>
     <row r="254" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B254" s="4" t="s">
+      <c r="B254" s="3" t="s">
         <v>7191</v>
       </c>
       <c r="C254" t="str">
@@ -41498,7 +41515,7 @@
       </c>
     </row>
     <row r="255" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B255" s="4" t="s">
+      <c r="B255" s="3" t="s">
         <v>7192</v>
       </c>
       <c r="C255" t="str">
@@ -41507,7 +41524,7 @@
       </c>
     </row>
     <row r="256" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B256" s="4" t="s">
+      <c r="B256" s="3" t="s">
         <v>7193</v>
       </c>
       <c r="C256" t="str">
@@ -41516,8 +41533,8 @@
       </c>
     </row>
     <row r="257" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B257" s="4" t="s">
-        <v>7195</v>
+      <c r="B257" s="3" t="s">
+        <v>7194</v>
       </c>
       <c r="C257" t="str">
         <f t="shared" si="1"/>
@@ -41525,16 +41542,79 @@
       </c>
     </row>
     <row r="258" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B258" s="4" t="s">
-        <v>7196</v>
+      <c r="B258" s="3" t="s">
+        <v>7195</v>
       </c>
       <c r="C258" t="str">
         <f t="shared" si="1"/>
         <v>forearm-plank-hips-up</v>
       </c>
     </row>
+    <row r="259" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B259" s="3" t="s">
+        <v>7196</v>
+      </c>
+      <c r="C259" t="str">
+        <f t="shared" si="1"/>
+        <v>kneeling-on-knee-both</v>
+      </c>
+    </row>
+    <row r="260" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B260" s="3" t="s">
+        <v>7197</v>
+      </c>
+      <c r="C260" t="str">
+        <f t="shared" si="1"/>
+        <v>squat-stance-toes</v>
+      </c>
+    </row>
+    <row r="261" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B261" s="3" t="s">
+        <v>7198</v>
+      </c>
+      <c r="C261" t="str">
+        <f t="shared" si="1"/>
+        <v>squat-stance-left-high-knee</v>
+      </c>
+    </row>
+    <row r="262" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B262" s="3" t="s">
+        <v>7199</v>
+      </c>
+      <c r="C262" t="str">
+        <f t="shared" si="1"/>
+        <v>squat-stance-right-high-knee</v>
+      </c>
+    </row>
+    <row r="263" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B263" s="3" t="s">
+        <v>7200</v>
+      </c>
+      <c r="C263" t="str">
+        <f t="shared" si="1"/>
+        <v>squat-stance-left-high-knee-out</v>
+      </c>
+    </row>
+    <row r="264" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B264" s="3" t="s">
+        <v>7201</v>
+      </c>
+      <c r="C264" t="str">
+        <f t="shared" si="1"/>
+        <v>squat-stance-right-high-knee-out</v>
+      </c>
+    </row>
+    <row r="265" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B265" s="3" t="s">
+        <v>7202</v>
+      </c>
+      <c r="C265" t="str">
+        <f t="shared" si="1"/>
+        <v>downward-walkout</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D3:AA242">
+  <conditionalFormatting sqref="D3:AA242 D243:D249">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -41546,11 +41626,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9B5179E-762C-124B-A240-3A035CE5971A}">
   <dimension ref="A1:DC150"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="G32" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="L43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H42" sqref="H42"/>
+      <selection pane="bottomRight" activeCell="M55" sqref="M55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -41668,146 +41748,146 @@
       <c r="F1" t="s">
         <v>380</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3" t="s">
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3" t="s">
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3" t="s">
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3" t="s">
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="3"/>
-      <c r="AF1" s="3"/>
-      <c r="AG1" s="3" t="s">
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="4"/>
+      <c r="AF1" s="4"/>
+      <c r="AG1" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="AH1" s="3"/>
-      <c r="AI1" s="3"/>
-      <c r="AJ1" s="3"/>
-      <c r="AK1" s="3"/>
-      <c r="AL1" s="3" t="s">
+      <c r="AH1" s="4"/>
+      <c r="AI1" s="4"/>
+      <c r="AJ1" s="4"/>
+      <c r="AK1" s="4"/>
+      <c r="AL1" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="AM1" s="3"/>
-      <c r="AN1" s="3"/>
-      <c r="AO1" s="3"/>
-      <c r="AP1" s="3"/>
-      <c r="AQ1" s="3" t="s">
+      <c r="AM1" s="4"/>
+      <c r="AN1" s="4"/>
+      <c r="AO1" s="4"/>
+      <c r="AP1" s="4"/>
+      <c r="AQ1" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="AR1" s="3"/>
-      <c r="AS1" s="3"/>
-      <c r="AT1" s="3"/>
-      <c r="AU1" s="3"/>
-      <c r="AV1" s="3" t="s">
+      <c r="AR1" s="4"/>
+      <c r="AS1" s="4"/>
+      <c r="AT1" s="4"/>
+      <c r="AU1" s="4"/>
+      <c r="AV1" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="AW1" s="3"/>
-      <c r="AX1" s="3"/>
-      <c r="AY1" s="3"/>
-      <c r="AZ1" s="3"/>
-      <c r="BA1" s="3" t="s">
+      <c r="AW1" s="4"/>
+      <c r="AX1" s="4"/>
+      <c r="AY1" s="4"/>
+      <c r="AZ1" s="4"/>
+      <c r="BA1" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="BB1" s="3"/>
-      <c r="BC1" s="3"/>
-      <c r="BD1" s="3"/>
-      <c r="BE1" s="3"/>
-      <c r="BF1" s="3" t="s">
+      <c r="BB1" s="4"/>
+      <c r="BC1" s="4"/>
+      <c r="BD1" s="4"/>
+      <c r="BE1" s="4"/>
+      <c r="BF1" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="BG1" s="3"/>
-      <c r="BH1" s="3"/>
-      <c r="BI1" s="3"/>
-      <c r="BJ1" s="3"/>
-      <c r="BK1" s="3" t="s">
+      <c r="BG1" s="4"/>
+      <c r="BH1" s="4"/>
+      <c r="BI1" s="4"/>
+      <c r="BJ1" s="4"/>
+      <c r="BK1" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="BL1" s="3"/>
-      <c r="BM1" s="3"/>
-      <c r="BN1" s="3"/>
-      <c r="BO1" s="3"/>
-      <c r="BP1" s="3" t="s">
+      <c r="BL1" s="4"/>
+      <c r="BM1" s="4"/>
+      <c r="BN1" s="4"/>
+      <c r="BO1" s="4"/>
+      <c r="BP1" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="BQ1" s="3"/>
-      <c r="BR1" s="3"/>
-      <c r="BS1" s="3"/>
-      <c r="BT1" s="3"/>
-      <c r="BU1" s="3" t="s">
+      <c r="BQ1" s="4"/>
+      <c r="BR1" s="4"/>
+      <c r="BS1" s="4"/>
+      <c r="BT1" s="4"/>
+      <c r="BU1" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="BV1" s="3"/>
-      <c r="BW1" s="3"/>
-      <c r="BX1" s="3"/>
-      <c r="BY1" s="3"/>
-      <c r="BZ1" s="3" t="s">
+      <c r="BV1" s="4"/>
+      <c r="BW1" s="4"/>
+      <c r="BX1" s="4"/>
+      <c r="BY1" s="4"/>
+      <c r="BZ1" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="CA1" s="3"/>
-      <c r="CB1" s="3"/>
-      <c r="CC1" s="3"/>
-      <c r="CD1" s="3"/>
-      <c r="CE1" s="3" t="s">
+      <c r="CA1" s="4"/>
+      <c r="CB1" s="4"/>
+      <c r="CC1" s="4"/>
+      <c r="CD1" s="4"/>
+      <c r="CE1" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="CF1" s="3"/>
-      <c r="CG1" s="3"/>
-      <c r="CH1" s="3"/>
-      <c r="CI1" s="3"/>
-      <c r="CJ1" s="3" t="s">
+      <c r="CF1" s="4"/>
+      <c r="CG1" s="4"/>
+      <c r="CH1" s="4"/>
+      <c r="CI1" s="4"/>
+      <c r="CJ1" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="CK1" s="3"/>
-      <c r="CL1" s="3"/>
-      <c r="CM1" s="3"/>
-      <c r="CN1" s="3"/>
-      <c r="CO1" s="3" t="s">
+      <c r="CK1" s="4"/>
+      <c r="CL1" s="4"/>
+      <c r="CM1" s="4"/>
+      <c r="CN1" s="4"/>
+      <c r="CO1" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="CP1" s="3"/>
-      <c r="CQ1" s="3"/>
-      <c r="CR1" s="3"/>
-      <c r="CS1" s="3"/>
-      <c r="CT1" s="3" t="s">
+      <c r="CP1" s="4"/>
+      <c r="CQ1" s="4"/>
+      <c r="CR1" s="4"/>
+      <c r="CS1" s="4"/>
+      <c r="CT1" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="CU1" s="3"/>
-      <c r="CV1" s="3"/>
-      <c r="CW1" s="3"/>
-      <c r="CX1" s="3"/>
-      <c r="CY1" s="3" t="s">
+      <c r="CU1" s="4"/>
+      <c r="CV1" s="4"/>
+      <c r="CW1" s="4"/>
+      <c r="CX1" s="4"/>
+      <c r="CY1" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="CZ1" s="3"/>
-      <c r="DA1" s="3"/>
-      <c r="DB1" s="3"/>
-      <c r="DC1" s="3"/>
+      <c r="CZ1" s="4"/>
+      <c r="DA1" s="4"/>
+      <c r="DB1" s="4"/>
+      <c r="DC1" s="4"/>
     </row>
     <row r="2" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -42282,7 +42362,7 @@
         <v>946</v>
       </c>
       <c r="H5" t="s">
-        <v>7195</v>
+        <v>7194</v>
       </c>
       <c r="I5" t="s">
         <v>381</v>
@@ -42356,7 +42436,7 @@
         <v>381</v>
       </c>
       <c r="H6" t="s">
-        <v>7195</v>
+        <v>7194</v>
       </c>
       <c r="I6" t="s">
         <v>381</v>
@@ -42436,10 +42516,13 @@
         <v>92</v>
       </c>
       <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>381</v>
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="M7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q7">
+        <v>0.33300000000000002</v>
       </c>
       <c r="V7" t="s">
         <v>381</v>
@@ -42498,10 +42581,13 @@
         <v>93</v>
       </c>
       <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>381</v>
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="M8" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q8">
+        <v>0.33300000000000002</v>
       </c>
       <c r="V8" t="s">
         <v>381</v>
@@ -43220,14 +43306,13 @@
         <v>381</v>
       </c>
       <c r="Q18">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="R18" t="s">
         <v>71</v>
       </c>
       <c r="V18">
-        <f>1-Q18-L18</f>
-        <v>0.45000000000000007</v>
+        <v>0.35</v>
       </c>
       <c r="AA18" t="s">
         <v>381</v>
@@ -43304,14 +43389,13 @@
         <v>381</v>
       </c>
       <c r="Q19">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="R19" t="s">
         <v>154</v>
       </c>
       <c r="V19">
-        <f t="shared" ref="V19:V21" si="0">1-Q19-L19</f>
-        <v>0.45000000000000007</v>
+        <v>0.35</v>
       </c>
       <c r="AA19" t="s">
         <v>381</v>
@@ -43394,14 +43478,13 @@
         <v>381</v>
       </c>
       <c r="Q20">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="R20" t="s">
         <v>70</v>
       </c>
       <c r="V20">
-        <f t="shared" si="0"/>
-        <v>0.45000000000000007</v>
+        <v>0.35</v>
       </c>
       <c r="AA20" t="s">
         <v>381</v>
@@ -43478,14 +43561,13 @@
         <v>381</v>
       </c>
       <c r="Q21">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="R21" t="s">
         <v>155</v>
       </c>
       <c r="V21">
-        <f t="shared" si="0"/>
-        <v>0.45000000000000007</v>
+        <v>0.35</v>
       </c>
       <c r="AA21" t="s">
         <v>381</v>
@@ -43861,13 +43943,13 @@
         <v>381</v>
       </c>
       <c r="L26">
-        <v>0.22500000000000001</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="M26" t="s">
         <v>14</v>
       </c>
       <c r="Q26">
-        <v>0.77500000000000002</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="V26" t="s">
         <v>381</v>
@@ -43935,13 +44017,13 @@
         <v>381</v>
       </c>
       <c r="L27">
-        <v>0.22500000000000001</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="M27" t="s">
         <v>15</v>
       </c>
       <c r="Q27">
-        <v>0.77500000000000002</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="V27" t="s">
         <v>381</v>
@@ -44187,7 +44269,6 @@
         <v>541</v>
       </c>
       <c r="AA30">
-        <f>1-AF30-V30-Q30-L30</f>
         <v>0.35</v>
       </c>
       <c r="AB30" t="s">
@@ -44277,7 +44358,6 @@
         <v>542</v>
       </c>
       <c r="AA31">
-        <f>1-AF31-V31-Q31-L31</f>
         <v>0.35</v>
       </c>
       <c r="AB31" t="s">
@@ -44355,7 +44435,7 @@
         <v>1</v>
       </c>
       <c r="O32">
-        <v>0.3</v>
+        <v>0.375</v>
       </c>
       <c r="Q32" t="s">
         <v>381</v>
@@ -44432,7 +44512,7 @@
         <v>1</v>
       </c>
       <c r="O33">
-        <v>0.3</v>
+        <v>0.375</v>
       </c>
       <c r="Q33" t="s">
         <v>381</v>
@@ -44699,7 +44779,7 @@
         <v>381</v>
       </c>
       <c r="L36">
-        <v>0.1</v>
+        <v>0.13750000000000001</v>
       </c>
       <c r="M36" t="s">
         <v>199</v>
@@ -44714,7 +44794,7 @@
         <v>381</v>
       </c>
       <c r="Q36">
-        <v>0.1</v>
+        <v>0.13750000000000001</v>
       </c>
       <c r="R36" t="s">
         <v>545</v>
@@ -44729,7 +44809,7 @@
         <v>381</v>
       </c>
       <c r="V36">
-        <v>0.1</v>
+        <v>0.13750000000000001</v>
       </c>
       <c r="W36" t="s">
         <v>546</v>
@@ -44744,7 +44824,7 @@
         <v>381</v>
       </c>
       <c r="AA36">
-        <v>0.3</v>
+        <v>0.22500000000000006</v>
       </c>
       <c r="AB36" t="s">
         <v>545</v>
@@ -44759,13 +44839,13 @@
         <v>381</v>
       </c>
       <c r="AF36">
-        <v>0.3</v>
+        <v>0.22500000000000006</v>
       </c>
       <c r="AG36" t="s">
         <v>199</v>
       </c>
       <c r="AK36">
-        <v>0.1</v>
+        <v>0.13750000000000001</v>
       </c>
       <c r="AP36" t="s">
         <v>381</v>
@@ -44818,7 +44898,7 @@
         <v>381</v>
       </c>
       <c r="L37">
-        <v>0.1</v>
+        <v>0.13750000000000001</v>
       </c>
       <c r="M37" t="s">
         <v>205</v>
@@ -44833,7 +44913,7 @@
         <v>381</v>
       </c>
       <c r="Q37">
-        <v>0.1</v>
+        <v>0.13750000000000001</v>
       </c>
       <c r="R37" t="s">
         <v>547</v>
@@ -44848,7 +44928,7 @@
         <v>381</v>
       </c>
       <c r="V37">
-        <v>0.1</v>
+        <v>0.13750000000000001</v>
       </c>
       <c r="W37" t="s">
         <v>548</v>
@@ -44863,7 +44943,7 @@
         <v>381</v>
       </c>
       <c r="AA37">
-        <v>0.3</v>
+        <v>0.22500000000000006</v>
       </c>
       <c r="AB37" t="s">
         <v>547</v>
@@ -44878,13 +44958,13 @@
         <v>381</v>
       </c>
       <c r="AF37">
-        <v>0.3</v>
+        <v>0.22500000000000006</v>
       </c>
       <c r="AG37" t="s">
         <v>205</v>
       </c>
       <c r="AK37">
-        <v>0.1</v>
+        <v>0.13750000000000001</v>
       </c>
       <c r="AP37" t="s">
         <v>381</v>
@@ -44963,7 +45043,7 @@
       <c r="R38" t="s">
         <v>7183</v>
       </c>
-      <c r="V38" s="4">
+      <c r="V38" s="3">
         <v>0.125</v>
       </c>
       <c r="W38" t="s">
@@ -45079,7 +45159,7 @@
       <c r="R39" t="s">
         <v>7184</v>
       </c>
-      <c r="V39" s="4">
+      <c r="V39" s="3">
         <v>0.125</v>
       </c>
       <c r="W39" t="s">
@@ -45201,7 +45281,7 @@
       <c r="R40" t="s">
         <v>7183</v>
       </c>
-      <c r="V40" s="4">
+      <c r="V40" s="3">
         <v>0.1</v>
       </c>
       <c r="W40" t="s">
@@ -45341,7 +45421,7 @@
       <c r="R41" t="s">
         <v>7184</v>
       </c>
-      <c r="V41" s="4">
+      <c r="V41" s="3">
         <v>0.1</v>
       </c>
       <c r="W41" t="s">
@@ -45467,13 +45547,13 @@
         <v>381</v>
       </c>
       <c r="L42">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="M42" t="s">
         <v>195</v>
       </c>
       <c r="Q42">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="V42" t="s">
         <v>381</v>
@@ -45541,13 +45621,13 @@
         <v>381</v>
       </c>
       <c r="L43">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="M43" t="s">
         <v>195</v>
       </c>
       <c r="Q43">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="V43" t="s">
         <v>381</v>
@@ -45618,19 +45698,25 @@
         <v>381</v>
       </c>
       <c r="L44">
-        <v>0.5</v>
+        <v>0.36</v>
       </c>
       <c r="M44" t="s">
+        <v>7189</v>
+      </c>
+      <c r="Q44">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="R44" t="s">
         <v>201</v>
       </c>
-      <c r="Q44">
-        <v>0.5</v>
-      </c>
-      <c r="V44" t="s">
-        <v>381</v>
-      </c>
-      <c r="AA44" t="s">
-        <v>381</v>
+      <c r="V44">
+        <v>0.36</v>
+      </c>
+      <c r="W44" t="s">
+        <v>7189</v>
+      </c>
+      <c r="AA44">
+        <v>0.14000000000000001</v>
       </c>
       <c r="AF44" t="s">
         <v>381</v>
@@ -45695,19 +45781,25 @@
         <v>381</v>
       </c>
       <c r="L45">
-        <v>0.5</v>
+        <v>0.36</v>
       </c>
       <c r="M45" t="s">
+        <v>7190</v>
+      </c>
+      <c r="Q45">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="R45" t="s">
         <v>198</v>
       </c>
-      <c r="Q45">
-        <v>0.5</v>
-      </c>
-      <c r="V45" t="s">
-        <v>381</v>
-      </c>
-      <c r="AA45" t="s">
-        <v>381</v>
+      <c r="V45">
+        <v>0.36</v>
+      </c>
+      <c r="W45" t="s">
+        <v>7190</v>
+      </c>
+      <c r="AA45">
+        <v>0.14000000000000001</v>
       </c>
       <c r="AF45" t="s">
         <v>381</v>
@@ -45772,19 +45864,25 @@
         <v>381</v>
       </c>
       <c r="L46">
-        <v>0.5</v>
+        <v>0.36</v>
       </c>
       <c r="M46" t="s">
+        <v>7189</v>
+      </c>
+      <c r="Q46">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="R46" t="s">
         <v>201</v>
       </c>
-      <c r="Q46">
-        <v>0.5</v>
-      </c>
-      <c r="V46" t="s">
-        <v>381</v>
-      </c>
-      <c r="AA46" t="s">
-        <v>381</v>
+      <c r="V46">
+        <v>0.36</v>
+      </c>
+      <c r="W46" t="s">
+        <v>7189</v>
+      </c>
+      <c r="AA46">
+        <v>0.14000000000000001</v>
       </c>
       <c r="AF46" t="s">
         <v>381</v>
@@ -45843,19 +45941,25 @@
         <v>381</v>
       </c>
       <c r="L47">
-        <v>0.5</v>
+        <v>0.36</v>
       </c>
       <c r="M47" t="s">
+        <v>7190</v>
+      </c>
+      <c r="Q47">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="R47" t="s">
         <v>198</v>
       </c>
-      <c r="Q47">
-        <v>0.5</v>
-      </c>
-      <c r="V47" t="s">
-        <v>381</v>
-      </c>
-      <c r="AA47" t="s">
-        <v>381</v>
+      <c r="V47">
+        <v>0.36</v>
+      </c>
+      <c r="W47" t="s">
+        <v>7190</v>
+      </c>
+      <c r="AA47">
+        <v>0.14000000000000001</v>
       </c>
       <c r="AF47" t="s">
         <v>381</v>
@@ -45920,13 +46024,13 @@
         <v>381</v>
       </c>
       <c r="L48">
-        <v>0.5</v>
+        <v>0.64</v>
       </c>
       <c r="M48" t="s">
         <v>41</v>
       </c>
       <c r="Q48">
-        <v>0.25</v>
+        <v>0.18</v>
       </c>
       <c r="R48" t="s">
         <v>196</v>
@@ -45935,7 +46039,7 @@
         <v>1</v>
       </c>
       <c r="T48">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="V48" t="s">
         <v>381</v>
@@ -45944,7 +46048,7 @@
         <v>41</v>
       </c>
       <c r="AA48">
-        <v>0.25</v>
+        <v>0.18</v>
       </c>
       <c r="AF48" t="s">
         <v>381</v>
@@ -46009,13 +46113,13 @@
         <v>381</v>
       </c>
       <c r="L49">
-        <v>0.5</v>
+        <v>0.64</v>
       </c>
       <c r="M49" t="s">
         <v>41</v>
       </c>
       <c r="Q49">
-        <v>0.25</v>
+        <v>0.18</v>
       </c>
       <c r="R49" t="s">
         <v>72</v>
@@ -46024,7 +46128,7 @@
         <v>1</v>
       </c>
       <c r="T49">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="V49" t="s">
         <v>381</v>
@@ -46033,7 +46137,7 @@
         <v>41</v>
       </c>
       <c r="AA49">
-        <v>0.25</v>
+        <v>0.18</v>
       </c>
       <c r="AF49" t="s">
         <v>381</v>
@@ -46092,13 +46196,13 @@
         <v>381</v>
       </c>
       <c r="L50">
-        <v>0.5</v>
+        <v>0.64</v>
       </c>
       <c r="M50" t="s">
         <v>41</v>
       </c>
       <c r="Q50">
-        <v>0.25</v>
+        <v>0.18</v>
       </c>
       <c r="R50" t="s">
         <v>156</v>
@@ -46107,7 +46211,7 @@
         <v>1</v>
       </c>
       <c r="T50">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="V50" t="s">
         <v>381</v>
@@ -46116,7 +46220,7 @@
         <v>41</v>
       </c>
       <c r="AA50">
-        <v>0.25</v>
+        <v>0.18</v>
       </c>
       <c r="AF50" t="s">
         <v>381</v>
@@ -47521,7 +47625,7 @@
         <v>381</v>
       </c>
       <c r="L64">
-        <v>0.15000000000000002</v>
+        <v>0.17142857142857146</v>
       </c>
       <c r="M64" t="s">
         <v>26</v>
@@ -47536,7 +47640,7 @@
         <v>381</v>
       </c>
       <c r="Q64">
-        <v>0.15000000000000002</v>
+        <v>0.17142857142857146</v>
       </c>
       <c r="R64" t="s">
         <v>129</v>
@@ -47551,7 +47655,7 @@
         <v>381</v>
       </c>
       <c r="V64">
-        <v>0.15000000000000002</v>
+        <v>0.17142857142857146</v>
       </c>
       <c r="W64" t="s">
         <v>131</v>
@@ -47566,7 +47670,7 @@
         <v>381</v>
       </c>
       <c r="AA64">
-        <v>7.5000000000000011E-2</v>
+        <v>8.5714285714285729E-2</v>
       </c>
       <c r="AB64" t="s">
         <v>129</v>
@@ -47581,7 +47685,7 @@
         <v>381</v>
       </c>
       <c r="AF64">
-        <v>7.5000000000000011E-2</v>
+        <v>8.5714285714285729E-2</v>
       </c>
       <c r="AG64" t="s">
         <v>26</v>
@@ -47596,10 +47700,10 @@
         <v>381</v>
       </c>
       <c r="AK64">
-        <v>0.15000000000000002</v>
+        <v>0.17142857142857146</v>
       </c>
       <c r="AL64" t="s">
-        <v>7185</v>
+        <v>168</v>
       </c>
       <c r="AM64" t="s">
         <v>381</v>
@@ -47611,13 +47715,7 @@
         <v>381</v>
       </c>
       <c r="AP64">
-        <v>0.125</v>
-      </c>
-      <c r="AQ64" t="s">
-        <v>168</v>
-      </c>
-      <c r="AU64">
-        <v>0.125</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="AZ64" t="s">
         <v>381</v>
@@ -48695,7 +48793,7 @@
         <v>381</v>
       </c>
       <c r="L75">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="M75" t="s">
         <v>131</v>
@@ -48710,16 +48808,28 @@
         <v>381</v>
       </c>
       <c r="Q75">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="R75" t="s">
         <v>115</v>
       </c>
       <c r="V75">
-        <v>0.3</v>
-      </c>
-      <c r="AA75" t="s">
-        <v>381</v>
+        <v>0.25</v>
+      </c>
+      <c r="W75" t="s">
+        <v>131</v>
+      </c>
+      <c r="X75" t="s">
+        <v>381</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>381</v>
+      </c>
+      <c r="Z75" t="s">
+        <v>381</v>
+      </c>
+      <c r="AA75">
+        <v>0.25</v>
       </c>
       <c r="AF75" t="s">
         <v>381</v>
@@ -48778,7 +48888,7 @@
         <v>381</v>
       </c>
       <c r="L76">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="M76" t="s">
         <v>131</v>
@@ -48793,16 +48903,28 @@
         <v>381</v>
       </c>
       <c r="Q76">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="R76" t="s">
         <v>119</v>
       </c>
       <c r="V76">
-        <v>0.3</v>
-      </c>
-      <c r="AA76" t="s">
-        <v>381</v>
+        <v>0.25</v>
+      </c>
+      <c r="W76" t="s">
+        <v>131</v>
+      </c>
+      <c r="X76" t="s">
+        <v>381</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>381</v>
+      </c>
+      <c r="Z76" t="s">
+        <v>381</v>
+      </c>
+      <c r="AA76">
+        <v>0.25</v>
       </c>
       <c r="AF76" t="s">
         <v>381</v>
@@ -49495,13 +49617,13 @@
         <v>381</v>
       </c>
       <c r="L85">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="M85" t="s">
         <v>195</v>
       </c>
       <c r="Q85">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="V85" t="s">
         <v>381</v>
@@ -49569,13 +49691,13 @@
         <v>381</v>
       </c>
       <c r="L86">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="M86" t="s">
         <v>195</v>
       </c>
       <c r="Q86">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="V86" t="s">
         <v>381</v>
@@ -49646,7 +49768,7 @@
         <v>381</v>
       </c>
       <c r="L87">
-        <v>0.8</v>
+        <v>0.375</v>
       </c>
       <c r="M87" t="s">
         <v>195</v>
@@ -49661,7 +49783,7 @@
         <v>381</v>
       </c>
       <c r="Q87">
-        <v>0.2</v>
+        <v>0.125</v>
       </c>
       <c r="R87" t="s">
         <v>172</v>
@@ -49675,14 +49797,14 @@
       <c r="U87" t="s">
         <v>381</v>
       </c>
-      <c r="V87" t="s">
-        <v>381</v>
+      <c r="V87">
+        <v>0.375</v>
       </c>
       <c r="W87" t="s">
         <v>195</v>
       </c>
-      <c r="AA87" t="s">
-        <v>381</v>
+      <c r="AA87">
+        <v>0.125</v>
       </c>
       <c r="AF87" t="s">
         <v>381</v>
@@ -49744,7 +49866,7 @@
         <v>381</v>
       </c>
       <c r="L88">
-        <v>0.8</v>
+        <v>0.375</v>
       </c>
       <c r="M88" t="s">
         <v>195</v>
@@ -49759,7 +49881,7 @@
         <v>381</v>
       </c>
       <c r="Q88">
-        <v>0.2</v>
+        <v>0.125</v>
       </c>
       <c r="R88" t="s">
         <v>175</v>
@@ -49773,14 +49895,14 @@
       <c r="U88" t="s">
         <v>381</v>
       </c>
-      <c r="V88" t="s">
-        <v>381</v>
+      <c r="V88">
+        <v>0.375</v>
       </c>
       <c r="W88" t="s">
         <v>195</v>
       </c>
-      <c r="AA88" t="s">
-        <v>381</v>
+      <c r="AA88">
+        <v>0.125</v>
       </c>
       <c r="AF88" t="s">
         <v>381</v>
@@ -50802,7 +50924,7 @@
         <v>381</v>
       </c>
       <c r="L101">
-        <v>0.1</v>
+        <v>0.13750000000000001</v>
       </c>
       <c r="M101" t="s">
         <v>199</v>
@@ -50817,7 +50939,7 @@
         <v>381</v>
       </c>
       <c r="Q101">
-        <v>0.1</v>
+        <v>0.13750000000000001</v>
       </c>
       <c r="R101" t="s">
         <v>545</v>
@@ -50832,7 +50954,7 @@
         <v>381</v>
       </c>
       <c r="V101">
-        <v>0.1</v>
+        <v>0.13750000000000001</v>
       </c>
       <c r="W101" t="s">
         <v>549</v>
@@ -50847,7 +50969,7 @@
         <v>381</v>
       </c>
       <c r="AA101">
-        <v>0.3</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="AB101" t="s">
         <v>545</v>
@@ -50862,13 +50984,13 @@
         <v>381</v>
       </c>
       <c r="AF101">
-        <v>0.3</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="AG101" t="s">
         <v>199</v>
       </c>
       <c r="AK101">
-        <v>0.1</v>
+        <v>0.13750000000000001</v>
       </c>
       <c r="AP101" t="s">
         <v>381</v>
@@ -50924,7 +51046,7 @@
         <v>381</v>
       </c>
       <c r="L102">
-        <v>0.1</v>
+        <v>0.13750000000000001</v>
       </c>
       <c r="M102" t="s">
         <v>205</v>
@@ -50939,7 +51061,7 @@
         <v>381</v>
       </c>
       <c r="Q102">
-        <v>0.1</v>
+        <v>0.13750000000000001</v>
       </c>
       <c r="R102" t="s">
         <v>547</v>
@@ -50954,7 +51076,7 @@
         <v>381</v>
       </c>
       <c r="V102">
-        <v>0.1</v>
+        <v>0.13750000000000001</v>
       </c>
       <c r="W102" t="s">
         <v>550</v>
@@ -50969,7 +51091,7 @@
         <v>381</v>
       </c>
       <c r="AA102">
-        <v>0.3</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="AB102" t="s">
         <v>547</v>
@@ -50984,13 +51106,13 @@
         <v>381</v>
       </c>
       <c r="AF102">
-        <v>0.3</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="AG102" t="s">
         <v>205</v>
       </c>
       <c r="AK102">
-        <v>0.1</v>
+        <v>0.13750000000000001</v>
       </c>
       <c r="AP102" t="s">
         <v>381</v>
@@ -51559,7 +51681,7 @@
         <v>0.25</v>
       </c>
       <c r="R109" t="s">
-        <v>170</v>
+        <v>7185</v>
       </c>
       <c r="S109" t="s">
         <v>381</v>
@@ -51573,8 +51695,8 @@
       <c r="V109">
         <v>0.15</v>
       </c>
-      <c r="W109" t="s">
-        <v>67</v>
+      <c r="W109" s="3" t="s">
+        <v>7198</v>
       </c>
       <c r="AA109">
         <v>0.3</v>
@@ -51657,7 +51779,7 @@
         <v>0.25</v>
       </c>
       <c r="R110" t="s">
-        <v>170</v>
+        <v>7185</v>
       </c>
       <c r="S110" t="s">
         <v>381</v>
@@ -51671,8 +51793,8 @@
       <c r="V110">
         <v>0.15</v>
       </c>
-      <c r="W110" t="s">
-        <v>151</v>
+      <c r="W110" s="3" t="s">
+        <v>7199</v>
       </c>
       <c r="AA110">
         <v>0.3</v>
@@ -51758,7 +51880,7 @@
         <v>0.22500000000000001</v>
       </c>
       <c r="R111" t="s">
-        <v>170</v>
+        <v>7185</v>
       </c>
       <c r="S111" t="s">
         <v>381</v>
@@ -51772,11 +51894,8 @@
       <c r="V111">
         <v>0.125</v>
       </c>
-      <c r="W111" t="s">
-        <v>69</v>
-      </c>
-      <c r="X111" t="s">
-        <v>381</v>
+      <c r="W111" s="3" t="s">
+        <v>7198</v>
       </c>
       <c r="Y111" t="s">
         <v>381</v>
@@ -51785,13 +51904,13 @@
         <v>381</v>
       </c>
       <c r="AA111">
-        <v>0.125</v>
-      </c>
-      <c r="AB111" t="s">
-        <v>67</v>
+        <v>0.16250000000000001</v>
+      </c>
+      <c r="AB111" s="3" t="s">
+        <v>7200</v>
       </c>
       <c r="AF111">
-        <v>0.25</v>
+        <v>0.21249999999999999</v>
       </c>
       <c r="AK111" t="s">
         <v>381</v>
@@ -51868,7 +51987,7 @@
         <v>0.22500000000000001</v>
       </c>
       <c r="R112" t="s">
-        <v>170</v>
+        <v>7185</v>
       </c>
       <c r="S112" t="s">
         <v>381</v>
@@ -51882,11 +52001,8 @@
       <c r="V112">
         <v>0.125</v>
       </c>
-      <c r="W112" t="s">
-        <v>153</v>
-      </c>
-      <c r="X112" t="s">
-        <v>381</v>
+      <c r="W112" s="3" t="s">
+        <v>7199</v>
       </c>
       <c r="Y112" t="s">
         <v>381</v>
@@ -51895,13 +52011,13 @@
         <v>381</v>
       </c>
       <c r="AA112">
-        <v>0.125</v>
-      </c>
-      <c r="AB112" t="s">
-        <v>151</v>
+        <v>0.16250000000000001</v>
+      </c>
+      <c r="AB112" s="3" t="s">
+        <v>7201</v>
       </c>
       <c r="AF112">
-        <v>0.25</v>
+        <v>0.21249999999999999</v>
       </c>
       <c r="AK112" t="s">
         <v>381</v>
@@ -52034,7 +52150,7 @@
         <v>1020</v>
       </c>
       <c r="H114" t="s">
-        <v>29</v>
+        <v>7202</v>
       </c>
       <c r="I114" t="s">
         <v>381</v>
@@ -52207,7 +52323,7 @@
         <v>1021</v>
       </c>
       <c r="H115" t="s">
-        <v>29</v>
+        <v>7202</v>
       </c>
       <c r="I115" t="s">
         <v>381</v>
@@ -53038,7 +53154,7 @@
         <v>0.32500000000000001</v>
       </c>
       <c r="R124" t="s">
-        <v>170</v>
+        <v>7185</v>
       </c>
       <c r="S124" t="s">
         <v>381</v>
@@ -53053,7 +53169,7 @@
         <v>0.17499999999999999</v>
       </c>
       <c r="W124" t="s">
-        <v>176</v>
+        <v>7197</v>
       </c>
       <c r="AA124">
         <v>0.17499999999999999</v>
@@ -53465,7 +53581,7 @@
         <v>0.15</v>
       </c>
       <c r="R129" t="s">
-        <v>7194</v>
+        <v>131</v>
       </c>
       <c r="V129">
         <v>0.17499999999999999</v>
@@ -53486,7 +53602,7 @@
         <v>0.17499999999999999</v>
       </c>
       <c r="AB129" t="s">
-        <v>7194</v>
+        <v>131</v>
       </c>
       <c r="AF129">
         <v>0.17499999999999999</v>
@@ -53504,7 +53620,6 @@
         <v>381</v>
       </c>
       <c r="AK129">
-        <f>1-AF129-AA129-V129-Q129-L129</f>
         <v>0.17499999999999996</v>
       </c>
       <c r="AM129" t="s">
@@ -53585,7 +53700,7 @@
         <v>0.15</v>
       </c>
       <c r="R130" t="s">
-        <v>7194</v>
+        <v>131</v>
       </c>
       <c r="V130">
         <v>0.17499999999999999</v>
@@ -53606,7 +53721,7 @@
         <v>0.17499999999999999</v>
       </c>
       <c r="AB130" t="s">
-        <v>7194</v>
+        <v>131</v>
       </c>
       <c r="AF130">
         <v>0.17499999999999999</v>
@@ -53615,7 +53730,6 @@
         <v>36</v>
       </c>
       <c r="AK130">
-        <f>1-AF130-AA130-V130-Q130-L130</f>
         <v>0.17499999999999996</v>
       </c>
     </row>
@@ -54415,7 +54529,7 @@
         <v>1036</v>
       </c>
       <c r="H138" t="s">
-        <v>29</v>
+        <v>7202</v>
       </c>
       <c r="I138" t="s">
         <v>381</v>
@@ -54701,7 +54815,7 @@
         <v>381</v>
       </c>
       <c r="L140">
-        <v>0.14080000000000001</v>
+        <v>0.15533980582524273</v>
       </c>
       <c r="M140" t="s">
         <v>26</v>
@@ -54716,7 +54830,7 @@
         <v>381</v>
       </c>
       <c r="Q140">
-        <v>0.14080000000000001</v>
+        <v>0.15533980582524273</v>
       </c>
       <c r="R140" t="s">
         <v>129</v>
@@ -54731,7 +54845,7 @@
         <v>381</v>
       </c>
       <c r="V140">
-        <v>4.8000000000000001E-2</v>
+        <v>5.8252427184466021E-2</v>
       </c>
       <c r="W140" t="s">
         <v>132</v>
@@ -54746,7 +54860,7 @@
         <v>381</v>
       </c>
       <c r="AA140">
-        <v>0.14080000000000001</v>
+        <v>0.15533980582524273</v>
       </c>
       <c r="AB140" t="s">
         <v>109</v>
@@ -54761,7 +54875,7 @@
         <v>381</v>
       </c>
       <c r="AF140">
-        <v>7.0400000000000004E-2</v>
+        <v>7.7669902912621366E-2</v>
       </c>
       <c r="AG140" t="s">
         <v>132</v>
@@ -54776,7 +54890,7 @@
         <v>381</v>
       </c>
       <c r="AK140">
-        <v>4.8000000000000001E-2</v>
+        <v>5.8252427184466021E-2</v>
       </c>
       <c r="AL140" t="s">
         <v>129</v>
@@ -54791,7 +54905,7 @@
         <v>381</v>
       </c>
       <c r="AP140">
-        <v>7.0400000000000004E-2</v>
+        <v>7.7669902912621366E-2</v>
       </c>
       <c r="AQ140" t="s">
         <v>26</v>
@@ -54806,10 +54920,10 @@
         <v>381</v>
       </c>
       <c r="AU140">
-        <v>0.14080000000000001</v>
+        <v>0.15533980582524273</v>
       </c>
       <c r="AV140" t="s">
-        <v>7185</v>
+        <v>168</v>
       </c>
       <c r="AW140" t="s">
         <v>381</v>
@@ -54821,13 +54935,7 @@
         <v>381</v>
       </c>
       <c r="AZ140">
-        <v>0.1</v>
-      </c>
-      <c r="BA140" t="s">
-        <v>168</v>
-      </c>
-      <c r="BE140">
-        <v>0.1</v>
+        <v>0.10679611650485438</v>
       </c>
       <c r="BJ140" t="s">
         <v>381</v>
@@ -55928,6 +56036,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:DC150" xr:uid="{E9B5179E-762C-124B-A240-3A035CE5971A}"/>
   <mergeCells count="20">
     <mergeCell ref="BK1:BO1"/>
     <mergeCell ref="H1:L1"/>
@@ -55958,8 +56067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899AC92B-5D4B-8E46-9E29-8D79D673E29D}">
   <dimension ref="A1:BC44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -55982,106 +56091,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3" t="s">
+      <c r="G1" s="4"/>
+      <c r="H1" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3" t="s">
+      <c r="I1" s="4"/>
+      <c r="J1" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3" t="s">
+      <c r="K1" s="4"/>
+      <c r="L1" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3" t="s">
+      <c r="M1" s="4"/>
+      <c r="N1" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3" t="s">
+      <c r="O1" s="4"/>
+      <c r="P1" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3" t="s">
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3" t="s">
+      <c r="S1" s="4"/>
+      <c r="T1" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3" t="s">
+      <c r="U1" s="4"/>
+      <c r="V1" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3" t="s">
+      <c r="W1" s="4"/>
+      <c r="X1" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3" t="s">
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3" t="s">
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3" t="s">
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="AE1" s="3"/>
-      <c r="AF1" s="3" t="s">
+      <c r="AE1" s="4"/>
+      <c r="AF1" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="AG1" s="3"/>
-      <c r="AH1" s="3" t="s">
+      <c r="AG1" s="4"/>
+      <c r="AH1" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="AI1" s="3"/>
-      <c r="AJ1" s="3" t="s">
+      <c r="AI1" s="4"/>
+      <c r="AJ1" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="AK1" s="3"/>
-      <c r="AL1" s="3" t="s">
+      <c r="AK1" s="4"/>
+      <c r="AL1" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="AM1" s="3"/>
-      <c r="AN1" s="3" t="s">
+      <c r="AM1" s="4"/>
+      <c r="AN1" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="AO1" s="3"/>
-      <c r="AP1" s="3" t="s">
+      <c r="AO1" s="4"/>
+      <c r="AP1" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="AQ1" s="3"/>
-      <c r="AR1" s="3" t="s">
+      <c r="AQ1" s="4"/>
+      <c r="AR1" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="AS1" s="3"/>
-      <c r="AT1" s="3" t="s">
+      <c r="AS1" s="4"/>
+      <c r="AT1" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="AU1" s="3"/>
-      <c r="AV1" s="3" t="s">
+      <c r="AU1" s="4"/>
+      <c r="AV1" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="AW1" s="3"/>
-      <c r="AX1" s="3" t="s">
+      <c r="AW1" s="4"/>
+      <c r="AX1" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="AY1" s="3"/>
-      <c r="AZ1" s="3" t="s">
+      <c r="AY1" s="4"/>
+      <c r="AZ1" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="BA1" s="3"/>
-      <c r="BB1" s="3" t="s">
+      <c r="BA1" s="4"/>
+      <c r="BB1" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="BC1" s="3"/>
+      <c r="BC1" s="4"/>
     </row>
     <row r="2" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -56680,7 +56789,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>723</v>
       </c>
@@ -56706,7 +56815,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>409</v>
       </c>
@@ -56726,7 +56835,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>724</v>
       </c>
@@ -56752,7 +56861,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>410</v>
       </c>
@@ -56772,7 +56881,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>725</v>
       </c>
@@ -56798,7 +56907,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>411</v>
       </c>
@@ -56818,7 +56927,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>726</v>
       </c>
@@ -56844,7 +56953,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>412</v>
       </c>
@@ -56864,7 +56973,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>727</v>
       </c>
@@ -56890,7 +56999,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>728</v>
       </c>
@@ -56916,7 +57025,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>414</v>
       </c>
@@ -56936,7 +57045,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>729</v>
       </c>
@@ -56962,7 +57071,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>415</v>
       </c>
@@ -56982,7 +57091,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>730</v>
       </c>
@@ -56999,22 +57108,28 @@
         <v>50</v>
       </c>
       <c r="G30">
-        <v>0.25</v>
+        <v>0.21</v>
       </c>
       <c r="H30" t="s">
         <v>51</v>
       </c>
       <c r="I30">
-        <v>0.5</v>
+        <v>0.37</v>
       </c>
       <c r="J30" t="s">
         <v>50</v>
       </c>
       <c r="K30">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.21</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>7196</v>
+      </c>
+      <c r="M30">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>416</v>
       </c>
@@ -57025,22 +57140,28 @@
         <v>52</v>
       </c>
       <c r="G31">
-        <v>0.25</v>
+        <v>0.21</v>
       </c>
       <c r="H31" t="s">
         <v>53</v>
       </c>
       <c r="I31">
-        <v>0.5</v>
+        <v>0.37</v>
       </c>
       <c r="J31" t="s">
         <v>52</v>
       </c>
       <c r="K31">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.21</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>7196</v>
+      </c>
+      <c r="M31">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>731</v>
       </c>
@@ -57421,7 +57542,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -57868,11 +57989,12 @@
   <dimension ref="A1:I156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.83203125" customWidth="1"/>
@@ -59031,7 +59153,7 @@
         <v>609</v>
       </c>
       <c r="E58">
-        <v>2.75</v>
+        <v>2.125</v>
       </c>
       <c r="I58" t="s">
         <v>554</v>
@@ -59211,7 +59333,7 @@
         <v>609</v>
       </c>
       <c r="E67">
-        <v>1.75</v>
+        <v>1.375</v>
       </c>
       <c r="I67" t="s">
         <v>554</v>
@@ -59371,7 +59493,7 @@
         <v>609</v>
       </c>
       <c r="E75">
-        <v>0.3125</v>
+        <v>0.4</v>
       </c>
       <c r="I75" t="s">
         <v>554</v>
@@ -59391,7 +59513,7 @@
         <v>609</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>1.125</v>
       </c>
       <c r="I76" t="s">
         <v>554</v>
@@ -59411,7 +59533,7 @@
         <v>609</v>
       </c>
       <c r="E77">
-        <v>1</v>
+        <v>1.125</v>
       </c>
       <c r="I77" t="s">
         <v>554</v>
@@ -59431,7 +59553,7 @@
         <v>609</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>1.125</v>
       </c>
       <c r="I78" t="s">
         <v>554</v>
@@ -59451,7 +59573,7 @@
         <v>609</v>
       </c>
       <c r="E79">
-        <v>2.5</v>
+        <v>2.85</v>
       </c>
       <c r="I79" t="s">
         <v>554</v>
@@ -59471,7 +59593,7 @@
         <v>609</v>
       </c>
       <c r="E80">
-        <v>2.5</v>
+        <v>2.85</v>
       </c>
       <c r="I80" t="s">
         <v>554</v>
@@ -59811,7 +59933,7 @@
         <v>609</v>
       </c>
       <c r="E97">
-        <v>1</v>
+        <v>1.125</v>
       </c>
       <c r="I97" t="s">
         <v>554</v>
@@ -59851,7 +59973,7 @@
         <v>609</v>
       </c>
       <c r="E99">
-        <v>1</v>
+        <v>1.125</v>
       </c>
       <c r="I99" t="s">
         <v>554</v>
@@ -59871,7 +59993,7 @@
         <v>609</v>
       </c>
       <c r="E100">
-        <v>1</v>
+        <v>1.125</v>
       </c>
       <c r="I100" t="s">
         <v>554</v>
@@ -59891,7 +60013,7 @@
         <v>609</v>
       </c>
       <c r="E101">
-        <v>1</v>
+        <v>1.125</v>
       </c>
       <c r="I101" t="s">
         <v>554</v>
@@ -59911,7 +60033,7 @@
         <v>609</v>
       </c>
       <c r="E102">
-        <v>1</v>
+        <v>1.125</v>
       </c>
       <c r="I102" t="s">
         <v>554</v>
@@ -59971,7 +60093,7 @@
         <v>609</v>
       </c>
       <c r="E105">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="I105" t="s">
         <v>554</v>
@@ -59991,7 +60113,7 @@
         <v>609</v>
       </c>
       <c r="E106">
-        <v>1</v>
+        <v>1.125</v>
       </c>
       <c r="I106" t="s">
         <v>554</v>
@@ -60011,7 +60133,7 @@
         <v>609</v>
       </c>
       <c r="E107">
-        <v>1</v>
+        <v>1.125</v>
       </c>
       <c r="I107" t="s">
         <v>554</v>
@@ -60031,7 +60153,7 @@
         <v>609</v>
       </c>
       <c r="E108">
-        <v>1</v>
+        <v>1.125</v>
       </c>
       <c r="I108" t="s">
         <v>554</v>
@@ -60091,7 +60213,7 @@
         <v>609</v>
       </c>
       <c r="E111">
-        <v>0.3125</v>
+        <v>0.4</v>
       </c>
       <c r="I111" t="s">
         <v>554</v>
@@ -60111,7 +60233,7 @@
         <v>609</v>
       </c>
       <c r="E112">
-        <v>0.625</v>
+        <v>0.8</v>
       </c>
       <c r="I112" t="s">
         <v>554</v>
@@ -60151,7 +60273,7 @@
         <v>609</v>
       </c>
       <c r="E114">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="I114" t="s">
         <v>554</v>
@@ -60171,7 +60293,7 @@
         <v>609</v>
       </c>
       <c r="E115">
-        <v>1.875</v>
+        <v>1.333</v>
       </c>
       <c r="I115" t="s">
         <v>554</v>
@@ -60191,7 +60313,7 @@
         <v>609</v>
       </c>
       <c r="E116">
-        <v>2</v>
+        <v>1.64</v>
       </c>
       <c r="I116" t="s">
         <v>554</v>
@@ -60331,7 +60453,7 @@
         <v>609</v>
       </c>
       <c r="E123">
-        <v>3.625</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="I123" t="s">
         <v>554</v>
@@ -60411,7 +60533,7 @@
         <v>609</v>
       </c>
       <c r="E127">
-        <v>0.625</v>
+        <v>0.875</v>
       </c>
       <c r="I127" t="s">
         <v>554</v>
@@ -60491,7 +60613,7 @@
         <v>609</v>
       </c>
       <c r="E131">
-        <v>1.75</v>
+        <v>2.35</v>
       </c>
       <c r="I131" t="s">
         <v>554</v>
@@ -60691,7 +60813,7 @@
         <v>609</v>
       </c>
       <c r="E141">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="I141" t="s">
         <v>554</v>
@@ -60771,7 +60893,7 @@
         <v>609</v>
       </c>
       <c r="E145">
-        <v>1</v>
+        <v>1.125</v>
       </c>
       <c r="I145" t="s">
         <v>554</v>
@@ -60811,7 +60933,7 @@
         <v>609</v>
       </c>
       <c r="E147">
-        <v>1</v>
+        <v>1.125</v>
       </c>
       <c r="I147" t="s">
         <v>554</v>
@@ -60831,7 +60953,7 @@
         <v>609</v>
       </c>
       <c r="E148">
-        <v>1</v>
+        <v>1.125</v>
       </c>
       <c r="I148" t="s">
         <v>554</v>
@@ -60851,7 +60973,7 @@
         <v>609</v>
       </c>
       <c r="E149">
-        <v>1</v>
+        <v>1.125</v>
       </c>
       <c r="I149" t="s">
         <v>554</v>
@@ -60871,7 +60993,7 @@
         <v>609</v>
       </c>
       <c r="E150">
-        <v>1</v>
+        <v>1.125</v>
       </c>
       <c r="I150" t="s">
         <v>554</v>
@@ -60891,7 +61013,7 @@
         <v>609</v>
       </c>
       <c r="E151">
-        <v>1</v>
+        <v>1.125</v>
       </c>
       <c r="I151" t="s">
         <v>554</v>
@@ -60911,7 +61033,7 @@
         <v>609</v>
       </c>
       <c r="E152">
-        <v>1</v>
+        <v>1.125</v>
       </c>
       <c r="I152" t="s">
         <v>554</v>
@@ -60931,7 +61053,7 @@
         <v>609</v>
       </c>
       <c r="E153">
-        <v>1.875</v>
+        <v>2.5249999999999999</v>
       </c>
       <c r="I153" t="s">
         <v>554</v>
@@ -61050,36 +61172,36 @@
       <c r="B1" t="s">
         <v>1077</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3" t="s">
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3" t="s">
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3" t="s">
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3" t="s">
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" t="s">

--- a/assets/posesaxl.xlsx
+++ b/assets/posesaxl.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jam/go/i9posesa/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demet\go\i9posesa\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20060" activeTab="1"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ImageSets" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12636" uniqueCount="7203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7213" uniqueCount="7213">
   <si>
     <t>ID</t>
   </si>
@@ -21652,6 +21652,36 @@
   </si>
   <si>
     <t>Downward Walkout</t>
+  </si>
+  <si>
+    <t>Knee Pushup Step Burpees</t>
+  </si>
+  <si>
+    <t>Non-Pushup Step Burpees</t>
+  </si>
+  <si>
+    <t>Start: Standing Up Straight&lt;br&gt;Crouch down so that your hands are on the ground slightly in front of you. Step your right leg, then left leg back so that you are in pushup position.&lt;br&gt;Step your left leg forward, then right leg while keeping your hands on the ground, so you are in a crouched position. Rise back up to the standing position and repeat.&lt;br&gt;Primary Body Parts Used: Left Quad, Right Quad, Abs, Lower Back</t>
+  </si>
+  <si>
+    <t>Start: Standing Up Straight&lt;br&gt;Crouch down so that your hands are on the ground slightly in front of you. Step your right leg, then left leg back so that you are in pushup position. Lower your knees to the ground, entering knee pushup position. Bend your arms and squeeze your shoulder blades to go down in a pushup, then rise back up. Keeping your hands on the ground, use your feet to push and straighten your knees, re-entering regular pushup position.&lt;br&gt;Step your left leg forward, then right leg while keeping your hands on the ground, so you are in a crouched position. Rise back up to the standing position and repeat.&lt;br&gt;Primary Body Parts Used: Left Quad, Right Quad, Abs, Lower Back, Left Tricep, Right Tricep, Left Shoulder, Right Shoulder</t>
+  </si>
+  <si>
+    <t>66427ff2fe756517596a03f6</t>
+  </si>
+  <si>
+    <t>66427ff2fe756517596a03f5</t>
+  </si>
+  <si>
+    <t>6642808be58eff8b7586550a</t>
+  </si>
+  <si>
+    <t>6642808be58eff8b7586550b</t>
+  </si>
+  <si>
+    <t>664280a1e58eff8b7586550c</t>
+  </si>
+  <si>
+    <t>664280a1e58eff8b7586550d</t>
   </si>
 </sst>
 </file>
@@ -22039,18 +22069,18 @@
       <selection activeCell="B266" sqref="B266"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.1640625" customWidth="1"/>
+    <col min="1" max="1" width="43.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.125" customWidth="1"/>
     <col min="4" max="9" width="54" bestFit="1" customWidth="1"/>
-    <col min="10" max="15" width="54.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="15" width="54.125" bestFit="1" customWidth="1"/>
     <col min="16" max="21" width="54.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="27" width="57.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="27" width="57.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>2</v>
       </c>
@@ -22124,7 +22154,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -22207,7 +22237,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>6</v>
       </c>
@@ -22287,7 +22317,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>16</v>
       </c>
@@ -22367,7 +22397,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>17</v>
       </c>
@@ -22447,7 +22477,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>18</v>
       </c>
@@ -22527,7 +22557,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>19</v>
       </c>
@@ -22607,7 +22637,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>20</v>
       </c>
@@ -22687,7 +22717,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>27</v>
       </c>
@@ -22767,7 +22797,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>28</v>
       </c>
@@ -22847,7 +22877,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>38</v>
       </c>
@@ -22927,7 +22957,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>48</v>
       </c>
@@ -23007,7 +23037,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>49</v>
       </c>
@@ -23087,7 +23117,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>54</v>
       </c>
@@ -23167,7 +23197,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>55</v>
       </c>
@@ -23247,7 +23277,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>66</v>
       </c>
@@ -23327,7 +23357,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>67</v>
       </c>
@@ -23407,7 +23437,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>68</v>
       </c>
@@ -23487,7 +23517,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>69</v>
       </c>
@@ -23567,7 +23597,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>70</v>
       </c>
@@ -23647,7 +23677,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>71</v>
       </c>
@@ -23727,7 +23757,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>150</v>
       </c>
@@ -23807,7 +23837,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="23" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>151</v>
       </c>
@@ -23887,7 +23917,7 @@
         <v>1581</v>
       </c>
     </row>
-    <row r="24" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>152</v>
       </c>
@@ -23967,7 +23997,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="25" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>153</v>
       </c>
@@ -24047,7 +24077,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="26" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>154</v>
       </c>
@@ -24127,7 +24157,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="27" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>155</v>
       </c>
@@ -24207,7 +24237,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>159</v>
       </c>
@@ -24287,7 +24317,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="29" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>160</v>
       </c>
@@ -24367,7 +24397,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="30" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>170</v>
       </c>
@@ -24447,7 +24477,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="31" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
         <v>171</v>
       </c>
@@ -24527,7 +24557,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="32" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>172</v>
       </c>
@@ -24607,7 +24637,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>173</v>
       </c>
@@ -24687,7 +24717,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>174</v>
       </c>
@@ -24767,7 +24797,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>175</v>
       </c>
@@ -24847,7 +24877,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="36" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>176</v>
       </c>
@@ -24927,7 +24957,7 @@
         <v>1893</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
         <v>177</v>
       </c>
@@ -25007,7 +25037,7 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>178</v>
       </c>
@@ -25087,7 +25117,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>179</v>
       </c>
@@ -25167,7 +25197,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>180</v>
       </c>
@@ -25247,7 +25277,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>181</v>
       </c>
@@ -25327,7 +25357,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>182</v>
       </c>
@@ -25407,7 +25437,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>183</v>
       </c>
@@ -25487,7 +25517,7 @@
         <v>2061</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>184</v>
       </c>
@@ -25567,7 +25597,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>185</v>
       </c>
@@ -25647,7 +25677,7 @@
         <v>2109</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>186</v>
       </c>
@@ -25727,7 +25757,7 @@
         <v>2133</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>187</v>
       </c>
@@ -25807,7 +25837,7 @@
         <v>2157</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>188</v>
       </c>
@@ -25887,7 +25917,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="49" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>189</v>
       </c>
@@ -25967,7 +25997,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="50" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>191</v>
       </c>
@@ -26047,7 +26077,7 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="51" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>192</v>
       </c>
@@ -26127,7 +26157,7 @@
         <v>2253</v>
       </c>
     </row>
-    <row r="52" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>193</v>
       </c>
@@ -26207,7 +26237,7 @@
         <v>2277</v>
       </c>
     </row>
-    <row r="53" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>194</v>
       </c>
@@ -26287,7 +26317,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="54" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>198</v>
       </c>
@@ -26367,7 +26397,7 @@
         <v>2325</v>
       </c>
     </row>
-    <row r="55" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>200</v>
       </c>
@@ -26447,7 +26477,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="56" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>545</v>
       </c>
@@ -26527,7 +26557,7 @@
         <v>2373</v>
       </c>
     </row>
-    <row r="57" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>547</v>
       </c>
@@ -26607,7 +26637,7 @@
         <v>2397</v>
       </c>
     </row>
-    <row r="58" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>201</v>
       </c>
@@ -26687,7 +26717,7 @@
         <v>2421</v>
       </c>
     </row>
-    <row r="59" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>202</v>
       </c>
@@ -26767,7 +26797,7 @@
         <v>2445</v>
       </c>
     </row>
-    <row r="60" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>203</v>
       </c>
@@ -26847,7 +26877,7 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="61" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>206</v>
       </c>
@@ -26927,7 +26957,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="62" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>207</v>
       </c>
@@ -27007,7 +27037,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="63" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>209</v>
       </c>
@@ -27087,7 +27117,7 @@
         <v>2541</v>
       </c>
     </row>
-    <row r="64" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>210</v>
       </c>
@@ -27167,7 +27197,7 @@
         <v>2565</v>
       </c>
     </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>211</v>
       </c>
@@ -27247,7 +27277,7 @@
         <v>2589</v>
       </c>
     </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>212</v>
       </c>
@@ -27327,7 +27357,7 @@
         <v>2613</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>216</v>
       </c>
@@ -27407,7 +27437,7 @@
         <v>2637</v>
       </c>
     </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>217</v>
       </c>
@@ -27487,7 +27517,7 @@
         <v>2661</v>
       </c>
     </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>218</v>
       </c>
@@ -27567,7 +27597,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>219</v>
       </c>
@@ -27647,7 +27677,7 @@
         <v>2709</v>
       </c>
     </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>220</v>
       </c>
@@ -27727,7 +27757,7 @@
         <v>2733</v>
       </c>
     </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>221</v>
       </c>
@@ -27807,7 +27837,7 @@
         <v>2757</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>222</v>
       </c>
@@ -27887,7 +27917,7 @@
         <v>2781</v>
       </c>
     </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>223</v>
       </c>
@@ -27967,7 +27997,7 @@
         <v>2805</v>
       </c>
     </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>426</v>
       </c>
@@ -28047,7 +28077,7 @@
         <v>2829</v>
       </c>
     </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>224</v>
       </c>
@@ -28127,7 +28157,7 @@
         <v>2853</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>230</v>
       </c>
@@ -28207,7 +28237,7 @@
         <v>2877</v>
       </c>
     </row>
-    <row r="78" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>231</v>
       </c>
@@ -28287,7 +28317,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B79" s="3" t="s">
         <v>47</v>
       </c>
@@ -28367,7 +28397,7 @@
         <v>2925</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>72</v>
       </c>
@@ -28447,7 +28477,7 @@
         <v>2949</v>
       </c>
     </row>
-    <row r="81" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>73</v>
       </c>
@@ -28527,7 +28557,7 @@
         <v>2973</v>
       </c>
     </row>
-    <row r="82" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>156</v>
       </c>
@@ -28607,7 +28637,7 @@
         <v>2997</v>
       </c>
     </row>
-    <row r="83" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>157</v>
       </c>
@@ -28687,7 +28717,7 @@
         <v>3021</v>
       </c>
     </row>
-    <row r="84" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>195</v>
       </c>
@@ -28767,7 +28797,7 @@
         <v>3045</v>
       </c>
     </row>
-    <row r="85" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>196</v>
       </c>
@@ -28847,7 +28877,7 @@
         <v>3069</v>
       </c>
     </row>
-    <row r="86" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>208</v>
       </c>
@@ -28927,7 +28957,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="87" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>37</v>
       </c>
@@ -29007,7 +29037,7 @@
         <v>3117</v>
       </c>
     </row>
-    <row r="88" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>41</v>
       </c>
@@ -29087,7 +29117,7 @@
         <v>3141</v>
       </c>
     </row>
-    <row r="89" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B89" s="3" t="s">
         <v>168</v>
       </c>
@@ -29167,7 +29197,7 @@
         <v>3165</v>
       </c>
     </row>
-    <row r="90" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B90" s="3" t="s">
         <v>169</v>
       </c>
@@ -29247,7 +29277,7 @@
         <v>3189</v>
       </c>
     </row>
-    <row r="91" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>215</v>
       </c>
@@ -29327,7 +29357,7 @@
         <v>3213</v>
       </c>
     </row>
-    <row r="92" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>232</v>
       </c>
@@ -29407,7 +29437,7 @@
         <v>3237</v>
       </c>
     </row>
-    <row r="93" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>233</v>
       </c>
@@ -29487,7 +29517,7 @@
         <v>3261</v>
       </c>
     </row>
-    <row r="94" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B94" s="3" t="s">
         <v>78</v>
       </c>
@@ -29567,7 +29597,7 @@
         <v>3285</v>
       </c>
     </row>
-    <row r="95" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>79</v>
       </c>
@@ -29647,7 +29677,7 @@
         <v>3309</v>
       </c>
     </row>
-    <row r="96" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B96" s="3" t="s">
         <v>544</v>
       </c>
@@ -29727,7 +29757,7 @@
         <v>3333</v>
       </c>
     </row>
-    <row r="97" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>541</v>
       </c>
@@ -29807,7 +29837,7 @@
         <v>3357</v>
       </c>
     </row>
-    <row r="98" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>543</v>
       </c>
@@ -29887,7 +29917,7 @@
         <v>3381</v>
       </c>
     </row>
-    <row r="99" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>542</v>
       </c>
@@ -29967,7 +29997,7 @@
         <v>3405</v>
       </c>
     </row>
-    <row r="100" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>80</v>
       </c>
@@ -30047,7 +30077,7 @@
         <v>3429</v>
       </c>
     </row>
-    <row r="101" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>81</v>
       </c>
@@ -30127,7 +30157,7 @@
         <v>3453</v>
       </c>
     </row>
-    <row r="102" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B102" s="3" t="s">
         <v>546</v>
       </c>
@@ -30207,7 +30237,7 @@
         <v>3477</v>
       </c>
     </row>
-    <row r="103" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B103" s="3" t="s">
         <v>549</v>
       </c>
@@ -30287,7 +30317,7 @@
         <v>3501</v>
       </c>
     </row>
-    <row r="104" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B104" s="3" t="s">
         <v>550</v>
       </c>
@@ -30367,7 +30397,7 @@
         <v>3525</v>
       </c>
     </row>
-    <row r="105" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B105" s="3" t="s">
         <v>548</v>
       </c>
@@ -30447,7 +30477,7 @@
         <v>3549</v>
       </c>
     </row>
-    <row r="106" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>197</v>
       </c>
@@ -30527,7 +30557,7 @@
         <v>3573</v>
       </c>
     </row>
-    <row r="107" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>199</v>
       </c>
@@ -30607,7 +30637,7 @@
         <v>3597</v>
       </c>
     </row>
-    <row r="108" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>204</v>
       </c>
@@ -30687,7 +30717,7 @@
         <v>3621</v>
       </c>
     </row>
-    <row r="109" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>205</v>
       </c>
@@ -30767,7 +30797,7 @@
         <v>3645</v>
       </c>
     </row>
-    <row r="110" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>7</v>
       </c>
@@ -30847,7 +30877,7 @@
         <v>3669</v>
       </c>
     </row>
-    <row r="111" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>8</v>
       </c>
@@ -30927,7 +30957,7 @@
         <v>3693</v>
       </c>
     </row>
-    <row r="112" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>9</v>
       </c>
@@ -31007,7 +31037,7 @@
         <v>3717</v>
       </c>
     </row>
-    <row r="113" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>10</v>
       </c>
@@ -31087,7 +31117,7 @@
         <v>3741</v>
       </c>
     </row>
-    <row r="114" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B114" s="3" t="s">
         <v>11</v>
       </c>
@@ -31167,7 +31197,7 @@
         <v>3765</v>
       </c>
     </row>
-    <row r="115" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B115" s="3" t="s">
         <v>12</v>
       </c>
@@ -31247,7 +31277,7 @@
         <v>3789</v>
       </c>
     </row>
-    <row r="116" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B116" s="3" t="s">
         <v>13</v>
       </c>
@@ -31327,7 +31357,7 @@
         <v>3813</v>
       </c>
     </row>
-    <row r="117" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>190</v>
       </c>
@@ -31407,7 +31437,7 @@
         <v>3837</v>
       </c>
     </row>
-    <row r="118" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B118" s="3" t="s">
         <v>29</v>
       </c>
@@ -31487,7 +31517,7 @@
         <v>3861</v>
       </c>
     </row>
-    <row r="119" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B119" s="3" t="s">
         <v>30</v>
       </c>
@@ -31567,7 +31597,7 @@
         <v>3885</v>
       </c>
     </row>
-    <row r="120" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>31</v>
       </c>
@@ -31647,7 +31677,7 @@
         <v>3909</v>
       </c>
     </row>
-    <row r="121" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>82</v>
       </c>
@@ -31727,7 +31757,7 @@
         <v>3933</v>
       </c>
     </row>
-    <row r="122" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>83</v>
       </c>
@@ -31807,7 +31837,7 @@
         <v>3957</v>
       </c>
     </row>
-    <row r="123" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
         <v>84</v>
       </c>
@@ -31887,7 +31917,7 @@
         <v>3981</v>
       </c>
     </row>
-    <row r="124" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
         <v>85</v>
       </c>
@@ -31967,7 +31997,7 @@
         <v>4005</v>
       </c>
     </row>
-    <row r="125" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B125" s="3" t="s">
         <v>86</v>
       </c>
@@ -32047,7 +32077,7 @@
         <v>4029</v>
       </c>
     </row>
-    <row r="126" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
         <v>87</v>
       </c>
@@ -32127,7 +32157,7 @@
         <v>4053</v>
       </c>
     </row>
-    <row r="127" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
         <v>88</v>
       </c>
@@ -32207,7 +32237,7 @@
         <v>4077</v>
       </c>
     </row>
-    <row r="128" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
         <v>89</v>
       </c>
@@ -32287,7 +32317,7 @@
         <v>4101</v>
       </c>
     </row>
-    <row r="129" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>90</v>
       </c>
@@ -32367,7 +32397,7 @@
         <v>4125</v>
       </c>
     </row>
-    <row r="130" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>105</v>
       </c>
@@ -32447,7 +32477,7 @@
         <v>4149</v>
       </c>
     </row>
-    <row r="131" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
         <v>127</v>
       </c>
@@ -32527,7 +32557,7 @@
         <v>4173</v>
       </c>
     </row>
-    <row r="132" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
         <v>129</v>
       </c>
@@ -32607,7 +32637,7 @@
         <v>4197</v>
       </c>
     </row>
-    <row r="133" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
         <v>130</v>
       </c>
@@ -32687,7 +32717,7 @@
         <v>4221</v>
       </c>
     </row>
-    <row r="134" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
         <v>132</v>
       </c>
@@ -32767,7 +32797,7 @@
         <v>4245</v>
       </c>
     </row>
-    <row r="135" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
         <v>133</v>
       </c>
@@ -32847,7 +32877,7 @@
         <v>4269</v>
       </c>
     </row>
-    <row r="136" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
         <v>134</v>
       </c>
@@ -32927,7 +32957,7 @@
         <v>4293</v>
       </c>
     </row>
-    <row r="137" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
         <v>135</v>
       </c>
@@ -33007,7 +33037,7 @@
         <v>4317</v>
       </c>
     </row>
-    <row r="138" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
         <v>136</v>
       </c>
@@ -33087,7 +33117,7 @@
         <v>4341</v>
       </c>
     </row>
-    <row r="139" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
         <v>137</v>
       </c>
@@ -33167,7 +33197,7 @@
         <v>4365</v>
       </c>
     </row>
-    <row r="140" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
         <v>138</v>
       </c>
@@ -33247,7 +33277,7 @@
         <v>4389</v>
       </c>
     </row>
-    <row r="141" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
         <v>139</v>
       </c>
@@ -33327,7 +33357,7 @@
         <v>4413</v>
       </c>
     </row>
-    <row r="142" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
         <v>140</v>
       </c>
@@ -33407,7 +33437,7 @@
         <v>4437</v>
       </c>
     </row>
-    <row r="143" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
         <v>141</v>
       </c>
@@ -33487,7 +33517,7 @@
         <v>4461</v>
       </c>
     </row>
-    <row r="144" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
         <v>142</v>
       </c>
@@ -33567,7 +33597,7 @@
         <v>4485</v>
       </c>
     </row>
-    <row r="145" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
         <v>143</v>
       </c>
@@ -33647,7 +33677,7 @@
         <v>4509</v>
       </c>
     </row>
-    <row r="146" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
         <v>144</v>
       </c>
@@ -33727,7 +33757,7 @@
         <v>4533</v>
       </c>
     </row>
-    <row r="147" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
         <v>145</v>
       </c>
@@ -33807,7 +33837,7 @@
         <v>4557</v>
       </c>
     </row>
-    <row r="148" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
         <v>146</v>
       </c>
@@ -33887,7 +33917,7 @@
         <v>4581</v>
       </c>
     </row>
-    <row r="149" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
         <v>147</v>
       </c>
@@ -33967,7 +33997,7 @@
         <v>4605</v>
       </c>
     </row>
-    <row r="150" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
         <v>148</v>
       </c>
@@ -34047,7 +34077,7 @@
         <v>4629</v>
       </c>
     </row>
-    <row r="151" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
         <v>128</v>
       </c>
@@ -34127,7 +34157,7 @@
         <v>4653</v>
       </c>
     </row>
-    <row r="152" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
         <v>149</v>
       </c>
@@ -34207,7 +34237,7 @@
         <v>4677</v>
       </c>
     </row>
-    <row r="153" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
         <v>106</v>
       </c>
@@ -34287,7 +34317,7 @@
         <v>4701</v>
       </c>
     </row>
-    <row r="154" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
         <v>131</v>
       </c>
@@ -34367,7 +34397,7 @@
         <v>4725</v>
       </c>
     </row>
-    <row r="155" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
         <v>107</v>
       </c>
@@ -34447,7 +34477,7 @@
         <v>4749</v>
       </c>
     </row>
-    <row r="156" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
         <v>108</v>
       </c>
@@ -34527,7 +34557,7 @@
         <v>4773</v>
       </c>
     </row>
-    <row r="157" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
         <v>109</v>
       </c>
@@ -34607,7 +34637,7 @@
         <v>4797</v>
       </c>
     </row>
-    <row r="158" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
         <v>110</v>
       </c>
@@ -34687,7 +34717,7 @@
         <v>4821</v>
       </c>
     </row>
-    <row r="159" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
         <v>111</v>
       </c>
@@ -34767,7 +34797,7 @@
         <v>4845</v>
       </c>
     </row>
-    <row r="160" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B160" s="3" t="s">
         <v>112</v>
       </c>
@@ -34847,7 +34877,7 @@
         <v>4869</v>
       </c>
     </row>
-    <row r="161" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
         <v>113</v>
       </c>
@@ -34927,7 +34957,7 @@
         <v>4893</v>
       </c>
     </row>
-    <row r="162" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
         <v>114</v>
       </c>
@@ -35007,7 +35037,7 @@
         <v>4917</v>
       </c>
     </row>
-    <row r="163" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
         <v>115</v>
       </c>
@@ -35087,7 +35117,7 @@
         <v>4941</v>
       </c>
     </row>
-    <row r="164" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
         <v>116</v>
       </c>
@@ -35167,7 +35197,7 @@
         <v>4965</v>
       </c>
     </row>
-    <row r="165" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
         <v>117</v>
       </c>
@@ -35247,7 +35277,7 @@
         <v>4989</v>
       </c>
     </row>
-    <row r="166" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
         <v>118</v>
       </c>
@@ -35327,7 +35357,7 @@
         <v>5013</v>
       </c>
     </row>
-    <row r="167" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
         <v>119</v>
       </c>
@@ -35407,7 +35437,7 @@
         <v>5037</v>
       </c>
     </row>
-    <row r="168" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
         <v>120</v>
       </c>
@@ -35487,7 +35517,7 @@
         <v>5061</v>
       </c>
     </row>
-    <row r="169" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
         <v>121</v>
       </c>
@@ -35567,7 +35597,7 @@
         <v>5085</v>
       </c>
     </row>
-    <row r="170" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
         <v>122</v>
       </c>
@@ -35647,7 +35677,7 @@
         <v>5109</v>
       </c>
     </row>
-    <row r="171" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
         <v>123</v>
       </c>
@@ -35727,7 +35757,7 @@
         <v>5133</v>
       </c>
     </row>
-    <row r="172" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
         <v>124</v>
       </c>
@@ -35807,7 +35837,7 @@
         <v>5157</v>
       </c>
     </row>
-    <row r="173" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
         <v>125</v>
       </c>
@@ -35887,7 +35917,7 @@
         <v>5181</v>
       </c>
     </row>
-    <row r="174" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
         <v>126</v>
       </c>
@@ -35967,7 +35997,7 @@
         <v>5205</v>
       </c>
     </row>
-    <row r="175" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B175" s="3" t="s">
         <v>32</v>
       </c>
@@ -36047,7 +36077,7 @@
         <v>5229</v>
       </c>
     </row>
-    <row r="176" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B176" s="3" t="s">
         <v>33</v>
       </c>
@@ -36127,7 +36157,7 @@
         <v>5253</v>
       </c>
     </row>
-    <row r="177" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
         <v>34</v>
       </c>
@@ -36207,7 +36237,7 @@
         <v>5277</v>
       </c>
     </row>
-    <row r="178" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
         <v>35</v>
       </c>
@@ -36287,7 +36317,7 @@
         <v>5301</v>
       </c>
     </row>
-    <row r="179" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
         <v>36</v>
       </c>
@@ -36367,7 +36397,7 @@
         <v>5325</v>
       </c>
     </row>
-    <row r="180" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
         <v>161</v>
       </c>
@@ -36447,7 +36477,7 @@
         <v>5349</v>
       </c>
     </row>
-    <row r="181" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
         <v>162</v>
       </c>
@@ -36527,7 +36557,7 @@
         <v>5373</v>
       </c>
     </row>
-    <row r="182" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
         <v>551</v>
       </c>
@@ -36607,7 +36637,7 @@
         <v>5397</v>
       </c>
     </row>
-    <row r="183" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
         <v>97</v>
       </c>
@@ -36687,7 +36717,7 @@
         <v>5421</v>
       </c>
     </row>
-    <row r="184" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
         <v>98</v>
       </c>
@@ -36767,7 +36797,7 @@
         <v>5445</v>
       </c>
     </row>
-    <row r="185" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
         <v>99</v>
       </c>
@@ -36847,7 +36877,7 @@
         <v>5469</v>
       </c>
     </row>
-    <row r="186" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
         <v>100</v>
       </c>
@@ -36927,7 +36957,7 @@
         <v>5493</v>
       </c>
     </row>
-    <row r="187" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
         <v>101</v>
       </c>
@@ -37007,7 +37037,7 @@
         <v>5517</v>
       </c>
     </row>
-    <row r="188" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
         <v>21</v>
       </c>
@@ -37087,7 +37117,7 @@
         <v>5541</v>
       </c>
     </row>
-    <row r="189" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
         <v>22</v>
       </c>
@@ -37167,7 +37197,7 @@
         <v>5565</v>
       </c>
     </row>
-    <row r="190" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
         <v>23</v>
       </c>
@@ -37247,7 +37277,7 @@
         <v>5589</v>
       </c>
     </row>
-    <row r="191" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
         <v>24</v>
       </c>
@@ -37327,7 +37357,7 @@
         <v>5613</v>
       </c>
     </row>
-    <row r="192" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
         <v>25</v>
       </c>
@@ -37407,7 +37437,7 @@
         <v>5637</v>
       </c>
     </row>
-    <row r="193" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
         <v>26</v>
       </c>
@@ -37487,7 +37517,7 @@
         <v>5661</v>
       </c>
     </row>
-    <row r="194" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
         <v>50</v>
       </c>
@@ -37567,7 +37597,7 @@
         <v>5685</v>
       </c>
     </row>
-    <row r="195" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
         <v>51</v>
       </c>
@@ -37647,7 +37677,7 @@
         <v>5709</v>
       </c>
     </row>
-    <row r="196" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
         <v>52</v>
       </c>
@@ -37727,7 +37757,7 @@
         <v>5733</v>
       </c>
     </row>
-    <row r="197" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
         <v>53</v>
       </c>
@@ -37807,7 +37837,7 @@
         <v>5757</v>
       </c>
     </row>
-    <row r="198" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
         <v>102</v>
       </c>
@@ -37887,7 +37917,7 @@
         <v>5781</v>
       </c>
     </row>
-    <row r="199" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
         <v>14</v>
       </c>
@@ -37967,7 +37997,7 @@
         <v>5805</v>
       </c>
     </row>
-    <row r="200" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
         <v>15</v>
       </c>
@@ -38047,7 +38077,7 @@
         <v>5829</v>
       </c>
     </row>
-    <row r="201" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B201" t="s">
         <v>103</v>
       </c>
@@ -38127,7 +38157,7 @@
         <v>5853</v>
       </c>
     </row>
-    <row r="202" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
         <v>104</v>
       </c>
@@ -38207,7 +38237,7 @@
         <v>5877</v>
       </c>
     </row>
-    <row r="203" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
         <v>163</v>
       </c>
@@ -38287,7 +38317,7 @@
         <v>5901</v>
       </c>
     </row>
-    <row r="204" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B204" t="s">
         <v>164</v>
       </c>
@@ -38367,7 +38397,7 @@
         <v>5925</v>
       </c>
     </row>
-    <row r="205" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B205" t="s">
         <v>165</v>
       </c>
@@ -38447,7 +38477,7 @@
         <v>5949</v>
       </c>
     </row>
-    <row r="206" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B206" t="s">
         <v>166</v>
       </c>
@@ -38527,7 +38557,7 @@
         <v>5973</v>
       </c>
     </row>
-    <row r="207" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B207" t="s">
         <v>167</v>
       </c>
@@ -38607,7 +38637,7 @@
         <v>5997</v>
       </c>
     </row>
-    <row r="208" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B208" t="s">
         <v>213</v>
       </c>
@@ -38687,7 +38717,7 @@
         <v>6021</v>
       </c>
     </row>
-    <row r="209" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B209" s="3" t="s">
         <v>214</v>
       </c>
@@ -38767,7 +38797,7 @@
         <v>6045</v>
       </c>
     </row>
-    <row r="210" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B210" s="3" t="s">
         <v>42</v>
       </c>
@@ -38847,7 +38877,7 @@
         <v>6069</v>
       </c>
     </row>
-    <row r="211" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B211" s="3" t="s">
         <v>43</v>
       </c>
@@ -38927,7 +38957,7 @@
         <v>6093</v>
       </c>
     </row>
-    <row r="212" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B212" s="3" t="s">
         <v>44</v>
       </c>
@@ -39007,7 +39037,7 @@
         <v>6117</v>
       </c>
     </row>
-    <row r="213" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B213" t="s">
         <v>45</v>
       </c>
@@ -39087,7 +39117,7 @@
         <v>6141</v>
       </c>
     </row>
-    <row r="214" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
         <v>46</v>
       </c>
@@ -39167,7 +39197,7 @@
         <v>6165</v>
       </c>
     </row>
-    <row r="215" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B215" t="s">
         <v>56</v>
       </c>
@@ -39247,7 +39277,7 @@
         <v>6189</v>
       </c>
     </row>
-    <row r="216" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B216" t="s">
         <v>57</v>
       </c>
@@ -39327,7 +39357,7 @@
         <v>6213</v>
       </c>
     </row>
-    <row r="217" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B217" t="s">
         <v>58</v>
       </c>
@@ -39407,7 +39437,7 @@
         <v>6237</v>
       </c>
     </row>
-    <row r="218" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B218" t="s">
         <v>59</v>
       </c>
@@ -39487,7 +39517,7 @@
         <v>6261</v>
       </c>
     </row>
-    <row r="219" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B219" t="s">
         <v>60</v>
       </c>
@@ -39567,7 +39597,7 @@
         <v>6285</v>
       </c>
     </row>
-    <row r="220" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B220" t="s">
         <v>61</v>
       </c>
@@ -39647,7 +39677,7 @@
         <v>6309</v>
       </c>
     </row>
-    <row r="221" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B221" t="s">
         <v>62</v>
       </c>
@@ -39727,7 +39757,7 @@
         <v>6333</v>
       </c>
     </row>
-    <row r="222" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B222" t="s">
         <v>552</v>
       </c>
@@ -39807,7 +39837,7 @@
         <v>6357</v>
       </c>
     </row>
-    <row r="223" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B223" t="s">
         <v>158</v>
       </c>
@@ -39887,7 +39917,7 @@
         <v>6381</v>
       </c>
     </row>
-    <row r="224" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B224" t="s">
         <v>63</v>
       </c>
@@ -39967,7 +39997,7 @@
         <v>6405</v>
       </c>
     </row>
-    <row r="225" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
         <v>64</v>
       </c>
@@ -40047,7 +40077,7 @@
         <v>6429</v>
       </c>
     </row>
-    <row r="226" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B226" t="s">
         <v>65</v>
       </c>
@@ -40127,7 +40157,7 @@
         <v>6453</v>
       </c>
     </row>
-    <row r="227" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B227" t="s">
         <v>74</v>
       </c>
@@ -40207,7 +40237,7 @@
         <v>6477</v>
       </c>
     </row>
-    <row r="228" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B228" t="s">
         <v>75</v>
       </c>
@@ -40287,7 +40317,7 @@
         <v>6501</v>
       </c>
     </row>
-    <row r="229" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B229" t="s">
         <v>76</v>
       </c>
@@ -40367,7 +40397,7 @@
         <v>6525</v>
       </c>
     </row>
-    <row r="230" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B230" t="s">
         <v>77</v>
       </c>
@@ -40447,7 +40477,7 @@
         <v>6549</v>
       </c>
     </row>
-    <row r="231" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B231" t="s">
         <v>91</v>
       </c>
@@ -40527,7 +40557,7 @@
         <v>6573</v>
       </c>
     </row>
-    <row r="232" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B232" t="s">
         <v>92</v>
       </c>
@@ -40607,7 +40637,7 @@
         <v>6597</v>
       </c>
     </row>
-    <row r="233" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B233" t="s">
         <v>93</v>
       </c>
@@ -40687,7 +40717,7 @@
         <v>6621</v>
       </c>
     </row>
-    <row r="234" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B234" t="s">
         <v>94</v>
       </c>
@@ -40767,7 +40797,7 @@
         <v>6645</v>
       </c>
     </row>
-    <row r="235" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B235" t="s">
         <v>95</v>
       </c>
@@ -40847,7 +40877,7 @@
         <v>6669</v>
       </c>
     </row>
-    <row r="236" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B236" t="s">
         <v>96</v>
       </c>
@@ -40927,7 +40957,7 @@
         <v>6693</v>
       </c>
     </row>
-    <row r="237" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B237" t="s">
         <v>225</v>
       </c>
@@ -41007,7 +41037,7 @@
         <v>6717</v>
       </c>
     </row>
-    <row r="238" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B238" t="s">
         <v>226</v>
       </c>
@@ -41087,7 +41117,7 @@
         <v>6741</v>
       </c>
     </row>
-    <row r="239" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B239" t="s">
         <v>227</v>
       </c>
@@ -41167,7 +41197,7 @@
         <v>6765</v>
       </c>
     </row>
-    <row r="240" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B240" t="s">
         <v>228</v>
       </c>
@@ -41247,7 +41277,7 @@
         <v>6789</v>
       </c>
     </row>
-    <row r="241" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B241" t="s">
         <v>229</v>
       </c>
@@ -41327,7 +41357,7 @@
         <v>6813</v>
       </c>
     </row>
-    <row r="242" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B242" t="s">
         <v>553</v>
       </c>
@@ -41407,7 +41437,7 @@
         <v>6837</v>
       </c>
     </row>
-    <row r="243" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B243" s="3" t="s">
         <v>7179</v>
       </c>
@@ -41415,7 +41445,7 @@
         <v>7180</v>
       </c>
     </row>
-    <row r="244" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B244" s="3" t="s">
         <v>7181</v>
       </c>
@@ -41424,7 +41454,7 @@
         <v>left-high-knee-stretch</v>
       </c>
     </row>
-    <row r="245" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B245" s="3" t="s">
         <v>7182</v>
       </c>
@@ -41433,7 +41463,7 @@
         <v>right-high-knee-stretch</v>
       </c>
     </row>
-    <row r="246" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B246" s="3" t="s">
         <v>7183</v>
       </c>
@@ -41442,7 +41472,7 @@
         <v>lunge-out-left</v>
       </c>
     </row>
-    <row r="247" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B247" s="3" t="s">
         <v>7184</v>
       </c>
@@ -41451,7 +41481,7 @@
         <v>lunge-out-right</v>
       </c>
     </row>
-    <row r="248" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B248" s="3" t="s">
         <v>7185</v>
       </c>
@@ -41460,7 +41490,7 @@
         <v>squat-stance</v>
       </c>
     </row>
-    <row r="249" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B249" s="3" t="s">
         <v>7186</v>
       </c>
@@ -41469,7 +41499,7 @@
         <v>side-plank-half-left</v>
       </c>
     </row>
-    <row r="250" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B250" s="3" t="s">
         <v>7187</v>
       </c>
@@ -41478,7 +41508,7 @@
         <v>side-plank-half-right</v>
       </c>
     </row>
-    <row r="251" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B251" s="3" t="s">
         <v>7188</v>
       </c>
@@ -41487,7 +41517,7 @@
         <v>mountain-climber-half-jump</v>
       </c>
     </row>
-    <row r="252" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B252" s="3" t="s">
         <v>7189</v>
       </c>
@@ -41496,7 +41526,7 @@
         <v>jumping-jack-half</v>
       </c>
     </row>
-    <row r="253" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B253" s="3" t="s">
         <v>7190</v>
       </c>
@@ -41505,7 +41535,7 @@
         <v>jumping-jack-front-half</v>
       </c>
     </row>
-    <row r="254" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B254" s="3" t="s">
         <v>7191</v>
       </c>
@@ -41514,7 +41544,7 @@
         <v>pushup-position-legs-apart-jumped</v>
       </c>
     </row>
-    <row r="255" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B255" s="3" t="s">
         <v>7192</v>
       </c>
@@ -41523,7 +41553,7 @@
         <v>standing-legs-half-apart</v>
       </c>
     </row>
-    <row r="256" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B256" s="3" t="s">
         <v>7193</v>
       </c>
@@ -41532,7 +41562,7 @@
         <v>plank-walkout-half-way</v>
       </c>
     </row>
-    <row r="257" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="257" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B257" s="3" t="s">
         <v>7194</v>
       </c>
@@ -41541,7 +41571,7 @@
         <v>standing-t-pose-squat-stance</v>
       </c>
     </row>
-    <row r="258" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="258" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B258" s="3" t="s">
         <v>7195</v>
       </c>
@@ -41550,7 +41580,7 @@
         <v>forearm-plank-hips-up</v>
       </c>
     </row>
-    <row r="259" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="259" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B259" s="3" t="s">
         <v>7196</v>
       </c>
@@ -41559,7 +41589,7 @@
         <v>kneeling-on-knee-both</v>
       </c>
     </row>
-    <row r="260" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="260" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B260" s="3" t="s">
         <v>7197</v>
       </c>
@@ -41568,7 +41598,7 @@
         <v>squat-stance-toes</v>
       </c>
     </row>
-    <row r="261" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="261" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B261" s="3" t="s">
         <v>7198</v>
       </c>
@@ -41577,7 +41607,7 @@
         <v>squat-stance-left-high-knee</v>
       </c>
     </row>
-    <row r="262" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="262" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B262" s="3" t="s">
         <v>7199</v>
       </c>
@@ -41586,7 +41616,7 @@
         <v>squat-stance-right-high-knee</v>
       </c>
     </row>
-    <row r="263" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="263" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B263" s="3" t="s">
         <v>7200</v>
       </c>
@@ -41595,7 +41625,7 @@
         <v>squat-stance-left-high-knee-out</v>
       </c>
     </row>
-    <row r="264" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="264" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B264" s="3" t="s">
         <v>7201</v>
       </c>
@@ -41604,7 +41634,7 @@
         <v>squat-stance-right-high-knee-out</v>
       </c>
     </row>
-    <row r="265" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="265" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B265" s="3" t="s">
         <v>7202</v>
       </c>
@@ -41624,127 +41654,127 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9B5179E-762C-124B-A240-3A035CE5971A}">
-  <dimension ref="A1:DC150"/>
+  <dimension ref="A1:DC152"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="L43" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M55" sqref="M55"/>
+    <sheetView tabSelected="true" zoomScaleNormal="100" workbookViewId="0">
+      <pane activePane="bottomRight" state="frozen" topLeftCell="C124" xSplit="2" ySplit="2"/>
+      <selection activeCell="C1" pane="topRight" sqref="C1"/>
+      <selection activeCell="A3" pane="bottomLeft" sqref="A3"/>
+      <selection activeCell="B151" pane="bottomRight" sqref="B151"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="23.5" customWidth="1"/>
-    <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="41" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="41.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="40" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="25" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="28.83203125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="25" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col customWidth="true" max="1" min="1" width="23.5"/>
+    <col bestFit="true" customWidth="true" max="2" min="2" width="31"/>
+    <col customWidth="true" max="3" min="3" width="16"/>
+    <col customWidth="true" max="4" min="4" width="18"/>
+    <col bestFit="true" customWidth="true" max="5" min="5" width="17.875"/>
+    <col bestFit="true" customWidth="true" max="6" min="6" width="25"/>
+    <col bestFit="true" customWidth="true" max="7" min="7" width="24.875"/>
+    <col bestFit="true" customWidth="true" max="8" min="8" width="41"/>
+    <col bestFit="true" customWidth="true" max="9" min="9" width="12.5"/>
+    <col bestFit="true" customWidth="true" max="10" min="10" width="14.875"/>
+    <col bestFit="true" customWidth="true" max="11" min="11" width="8.875"/>
+    <col bestFit="true" customWidth="true" max="12" min="12" width="11.875"/>
+    <col bestFit="true" customWidth="true" max="13" min="13" width="41.625"/>
+    <col bestFit="true" customWidth="true" max="14" min="14" width="12.5"/>
+    <col bestFit="true" customWidth="true" max="15" min="15" width="14.875"/>
+    <col bestFit="true" customWidth="true" max="16" min="16" width="8.875"/>
+    <col bestFit="true" customWidth="true" max="17" min="17" width="11.875"/>
+    <col bestFit="true" customWidth="true" max="18" min="18" width="40"/>
+    <col bestFit="true" customWidth="true" max="19" min="19" width="12.5"/>
+    <col bestFit="true" customWidth="true" max="20" min="20" width="14.875"/>
+    <col bestFit="true" customWidth="true" max="21" min="21" width="8.875"/>
+    <col bestFit="true" customWidth="true" max="22" min="22" width="11.875"/>
+    <col bestFit="true" customWidth="true" max="23" min="23" width="37.375"/>
+    <col bestFit="true" customWidth="true" max="24" min="24" width="12.5"/>
+    <col bestFit="true" customWidth="true" max="25" min="25" width="14.875"/>
+    <col bestFit="true" customWidth="true" max="26" min="26" width="8.875"/>
+    <col bestFit="true" customWidth="true" max="27" min="27" width="11.875"/>
+    <col bestFit="true" customWidth="true" max="28" min="28" width="28.375"/>
+    <col bestFit="true" customWidth="true" max="29" min="29" width="12.5"/>
+    <col bestFit="true" customWidth="true" max="30" min="30" width="14.875"/>
+    <col bestFit="true" customWidth="true" max="31" min="31" width="8.875"/>
+    <col bestFit="true" customWidth="true" max="32" min="32" width="11.875"/>
+    <col bestFit="true" customWidth="true" max="33" min="33" width="37.375"/>
+    <col bestFit="true" customWidth="true" max="34" min="34" width="12.5"/>
+    <col bestFit="true" customWidth="true" max="35" min="35" width="14.875"/>
+    <col bestFit="true" customWidth="true" max="36" min="36" width="8.875"/>
+    <col bestFit="true" customWidth="true" max="37" min="37" width="11.875"/>
+    <col bestFit="true" customWidth="true" max="38" min="38" width="30.375"/>
+    <col bestFit="true" customWidth="true" max="39" min="39" width="12.5"/>
+    <col bestFit="true" customWidth="true" max="40" min="40" width="14.875"/>
+    <col bestFit="true" customWidth="true" max="41" min="41" width="8.875"/>
+    <col bestFit="true" customWidth="true" max="42" min="42" width="11.875"/>
+    <col bestFit="true" customWidth="true" max="43" min="43" width="37.375"/>
+    <col bestFit="true" customWidth="true" max="44" min="44" width="12.5"/>
+    <col bestFit="true" customWidth="true" max="45" min="45" width="14.875"/>
+    <col bestFit="true" customWidth="true" max="46" min="46" width="8.875"/>
+    <col bestFit="true" customWidth="true" max="47" min="47" width="11.875"/>
+    <col bestFit="true" customWidth="true" max="48" min="48" width="25"/>
+    <col bestFit="true" customWidth="true" max="49" min="49" width="12.5"/>
+    <col bestFit="true" customWidth="true" max="50" min="50" width="14.875"/>
+    <col bestFit="true" customWidth="true" max="51" min="51" width="8.875"/>
+    <col bestFit="true" customWidth="true" max="52" min="52" width="11.875"/>
+    <col bestFit="true" customWidth="true" max="53" min="53" width="28.875"/>
+    <col bestFit="true" customWidth="true" max="54" min="54" width="12.5"/>
+    <col bestFit="true" customWidth="true" max="55" min="55" width="14.875"/>
+    <col bestFit="true" customWidth="true" max="56" min="56" width="8.875"/>
+    <col bestFit="true" customWidth="true" max="57" min="57" width="11.875"/>
+    <col bestFit="true" customWidth="true" max="58" min="58" width="25"/>
+    <col bestFit="true" customWidth="true" max="59" min="59" width="12.5"/>
+    <col bestFit="true" customWidth="true" max="60" min="60" width="14.875"/>
+    <col bestFit="true" customWidth="true" max="61" min="61" width="8.875"/>
+    <col bestFit="true" customWidth="true" max="62" min="62" width="11.875"/>
+    <col bestFit="true" customWidth="true" max="63" min="63" width="26.375"/>
+    <col bestFit="true" customWidth="true" max="64" min="64" width="12.5"/>
+    <col bestFit="true" customWidth="true" max="65" min="65" width="14.875"/>
+    <col bestFit="true" customWidth="true" max="66" min="66" width="8.875"/>
+    <col bestFit="true" customWidth="true" max="67" min="67" width="11.875"/>
+    <col bestFit="true" customWidth="true" max="68" min="68" width="13.875"/>
+    <col bestFit="true" customWidth="true" max="69" min="69" width="12.5"/>
+    <col bestFit="true" customWidth="true" max="70" min="70" width="14.875"/>
+    <col bestFit="true" customWidth="true" max="71" min="71" width="8.875"/>
+    <col bestFit="true" customWidth="true" max="72" min="72" width="11.875"/>
+    <col bestFit="true" customWidth="true" max="73" min="73" width="13.875"/>
+    <col bestFit="true" customWidth="true" max="74" min="74" width="12.5"/>
+    <col bestFit="true" customWidth="true" max="75" min="75" width="14.875"/>
+    <col bestFit="true" customWidth="true" max="76" min="76" width="8.875"/>
+    <col bestFit="true" customWidth="true" max="77" min="77" width="11.875"/>
+    <col bestFit="true" customWidth="true" max="78" min="78" width="13.875"/>
+    <col bestFit="true" customWidth="true" max="79" min="79" width="12.5"/>
+    <col bestFit="true" customWidth="true" max="80" min="80" width="14.875"/>
+    <col bestFit="true" customWidth="true" max="81" min="81" width="8.875"/>
+    <col bestFit="true" customWidth="true" max="82" min="82" width="11.875"/>
+    <col bestFit="true" customWidth="true" max="83" min="83" width="13.875"/>
+    <col bestFit="true" customWidth="true" max="84" min="84" width="12.5"/>
+    <col bestFit="true" customWidth="true" max="85" min="85" width="14.875"/>
+    <col bestFit="true" customWidth="true" max="86" min="86" width="8.875"/>
+    <col bestFit="true" customWidth="true" max="87" min="87" width="11.875"/>
+    <col bestFit="true" customWidth="true" max="88" min="88" width="13.875"/>
+    <col bestFit="true" customWidth="true" max="89" min="89" width="12.5"/>
+    <col bestFit="true" customWidth="true" max="90" min="90" width="14.875"/>
+    <col bestFit="true" customWidth="true" max="91" min="91" width="8.875"/>
+    <col bestFit="true" customWidth="true" max="92" min="92" width="11.875"/>
+    <col bestFit="true" customWidth="true" max="93" min="93" width="13.875"/>
+    <col bestFit="true" customWidth="true" max="94" min="94" width="12.5"/>
+    <col bestFit="true" customWidth="true" max="95" min="95" width="14.875"/>
+    <col bestFit="true" customWidth="true" max="96" min="96" width="8.875"/>
+    <col bestFit="true" customWidth="true" max="97" min="97" width="11.875"/>
+    <col bestFit="true" customWidth="true" max="98" min="98" width="13.875"/>
+    <col bestFit="true" customWidth="true" max="99" min="99" width="12.5"/>
+    <col bestFit="true" customWidth="true" max="100" min="100" width="14.875"/>
+    <col bestFit="true" customWidth="true" max="101" min="101" width="8.875"/>
+    <col bestFit="true" customWidth="true" max="102" min="102" width="11.875"/>
+    <col bestFit="true" customWidth="true" max="103" min="103" width="13.875"/>
+    <col bestFit="true" customWidth="true" max="104" min="104" width="12.5"/>
+    <col bestFit="true" customWidth="true" max="105" min="105" width="14.875"/>
+    <col bestFit="true" customWidth="true" max="106" min="106" width="8.875"/>
+    <col bestFit="true" customWidth="true" max="107" min="107" width="11.875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:107">
       <c r="F1" t="s">
         <v>380</v>
       </c>
@@ -41889,7 +41919,7 @@
       <c r="DB1" s="4"/>
       <c r="DC1" s="4"/>
     </row>
-    <row r="2" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:107">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -42212,7 +42242,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="3" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:107">
       <c r="A3" t="s">
         <v>610</v>
       </c>
@@ -42277,7 +42307,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="4" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:107">
       <c r="B4" t="s">
         <v>427</v>
       </c>
@@ -42339,7 +42369,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="5" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:107">
       <c r="A5" t="s">
         <v>611</v>
       </c>
@@ -42416,7 +42446,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="6" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:107">
       <c r="B6" t="s">
         <v>428</v>
       </c>
@@ -42490,7 +42520,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="7" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:107">
       <c r="A7" t="s">
         <v>612</v>
       </c>
@@ -42558,7 +42588,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="8" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:107">
       <c r="B8" t="s">
         <v>429</v>
       </c>
@@ -42623,7 +42653,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="9" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:107">
       <c r="A9" t="s">
         <v>613</v>
       </c>
@@ -42700,7 +42730,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="10" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:107">
       <c r="A10" t="s">
         <v>614</v>
       </c>
@@ -42777,7 +42807,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="11" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:107">
       <c r="B11" t="s">
         <v>431</v>
       </c>
@@ -42851,7 +42881,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="12" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:107">
       <c r="A12" t="s">
         <v>615</v>
       </c>
@@ -42928,7 +42958,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="13" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:107">
       <c r="B13" t="s">
         <v>432</v>
       </c>
@@ -43002,7 +43032,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="14" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:107">
       <c r="A14" t="s">
         <v>616</v>
       </c>
@@ -43067,7 +43097,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="15" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:107">
       <c r="B15" t="s">
         <v>433</v>
       </c>
@@ -43129,7 +43159,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="16" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:107">
       <c r="A16" t="s">
         <v>617</v>
       </c>
@@ -43194,7 +43224,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="17" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:72">
       <c r="B17" t="s">
         <v>434</v>
       </c>
@@ -43256,7 +43286,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="18" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:72">
       <c r="A18" t="s">
         <v>618</v>
       </c>
@@ -43345,7 +43375,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="19" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:72">
       <c r="B19" t="s">
         <v>435</v>
       </c>
@@ -43428,7 +43458,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="20" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:72">
       <c r="A20" t="s">
         <v>619</v>
       </c>
@@ -43517,7 +43547,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="21" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:72">
       <c r="B21" t="s">
         <v>436</v>
       </c>
@@ -43600,7 +43630,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="22" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:72">
       <c r="A22" t="s">
         <v>620</v>
       </c>
@@ -43677,7 +43707,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="23" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:72">
       <c r="A23" t="s">
         <v>621</v>
       </c>
@@ -43754,7 +43784,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="24" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:72">
       <c r="A24" t="s">
         <v>622</v>
       </c>
@@ -43831,7 +43861,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="25" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:72">
       <c r="A25" t="s">
         <v>623</v>
       </c>
@@ -43908,7 +43938,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="26" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:72">
       <c r="A26" t="s">
         <v>624</v>
       </c>
@@ -43985,7 +44015,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="27" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:72">
       <c r="B27" t="s">
         <v>441</v>
       </c>
@@ -44059,7 +44089,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="28" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:72">
       <c r="A28" t="s">
         <v>625</v>
       </c>
@@ -44136,7 +44166,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="29" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:72">
       <c r="B29" t="s">
         <v>442</v>
       </c>
@@ -44207,7 +44237,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="30" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:72">
       <c r="A30" t="s">
         <v>626</v>
       </c>
@@ -44302,7 +44332,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="31" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:72">
       <c r="B31" t="s">
         <v>443</v>
       </c>
@@ -44391,7 +44421,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="32" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:72">
       <c r="A32" t="s">
         <v>627</v>
       </c>
@@ -44474,7 +44504,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="33" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:77">
       <c r="B33" t="s">
         <v>444</v>
       </c>
@@ -44551,7 +44581,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="34" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:77">
       <c r="A34" t="s">
         <v>628</v>
       </c>
@@ -44652,7 +44682,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="35" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:77">
       <c r="B35" t="s">
         <v>445</v>
       </c>
@@ -44747,7 +44777,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="36" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:77">
       <c r="A36" t="s">
         <v>629</v>
       </c>
@@ -44869,7 +44899,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="37" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:77">
       <c r="B37" t="s">
         <v>446</v>
       </c>
@@ -44988,7 +45018,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="38" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:77">
       <c r="A38" t="s">
         <v>630</v>
       </c>
@@ -45110,7 +45140,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="39" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:77">
       <c r="B39" t="s">
         <v>447</v>
       </c>
@@ -45226,7 +45256,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="40" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:77">
       <c r="A40" t="s">
         <v>631</v>
       </c>
@@ -45372,7 +45402,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="41" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:77">
       <c r="B41" t="s">
         <v>448</v>
       </c>
@@ -45512,7 +45542,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="42" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:77">
       <c r="A42" t="s">
         <v>632</v>
       </c>
@@ -45589,7 +45619,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="43" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:77">
       <c r="B43" t="s">
         <v>449</v>
       </c>
@@ -45663,7 +45693,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="44" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:77">
       <c r="A44" t="s">
         <v>633</v>
       </c>
@@ -45746,7 +45776,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="45" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:77">
       <c r="A45" t="s">
         <v>634</v>
       </c>
@@ -45829,7 +45859,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="46" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:77">
       <c r="A46" t="s">
         <v>635</v>
       </c>
@@ -45912,7 +45942,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="47" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:77">
       <c r="B47" t="s">
         <v>452</v>
       </c>
@@ -45989,7 +46019,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="48" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:77">
       <c r="A48" t="s">
         <v>636</v>
       </c>
@@ -46078,7 +46108,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="49" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:72">
       <c r="A49" t="s">
         <v>637</v>
       </c>
@@ -46167,7 +46197,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="50" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:72">
       <c r="B50" t="s">
         <v>454</v>
       </c>
@@ -46250,7 +46280,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="51" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:72">
       <c r="A51" t="s">
         <v>638</v>
       </c>
@@ -46327,7 +46357,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="52" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:72">
       <c r="A52" t="s">
         <v>639</v>
       </c>
@@ -46413,7 +46443,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="53" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:72">
       <c r="A53" t="s">
         <v>640</v>
       </c>
@@ -46490,7 +46520,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="54" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:72">
       <c r="A54" t="s">
         <v>641</v>
       </c>
@@ -46567,7 +46597,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="55" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:72">
       <c r="A55" t="s">
         <v>642</v>
       </c>
@@ -46644,7 +46674,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="56" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:72">
       <c r="A56" t="s">
         <v>643</v>
       </c>
@@ -46745,7 +46775,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="57" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:72">
       <c r="A57" t="s">
         <v>644</v>
       </c>
@@ -46870,7 +46900,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="58" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:72">
       <c r="A58" t="s">
         <v>645</v>
       </c>
@@ -46956,7 +46986,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="59" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:72">
       <c r="B59" t="s">
         <v>462</v>
       </c>
@@ -47036,7 +47066,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="60" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:72">
       <c r="A60" t="s">
         <v>646</v>
       </c>
@@ -47179,7 +47209,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="61" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:72">
       <c r="A61" t="s">
         <v>647</v>
       </c>
@@ -47328,7 +47358,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="62" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:72">
       <c r="A62" t="s">
         <v>648</v>
       </c>
@@ -47447,7 +47477,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="63" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:72">
       <c r="A63" t="s">
         <v>649</v>
       </c>
@@ -47590,7 +47620,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="64" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:72">
       <c r="A64" t="s">
         <v>650</v>
       </c>
@@ -47733,7 +47763,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="65" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:72">
       <c r="A65" t="s">
         <v>651</v>
       </c>
@@ -47876,7 +47906,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="66" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:72">
       <c r="A66" t="s">
         <v>652</v>
       </c>
@@ -48019,7 +48049,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="67" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:72">
       <c r="A67" t="s">
         <v>653</v>
       </c>
@@ -48186,7 +48216,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="68" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:72">
       <c r="A68" t="s">
         <v>654</v>
       </c>
@@ -48263,7 +48293,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="69" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:72">
       <c r="A69" t="s">
         <v>655</v>
       </c>
@@ -48355,7 +48385,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="70" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:72">
       <c r="A70" t="s">
         <v>656</v>
       </c>
@@ -48432,7 +48462,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="71" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:72">
       <c r="A71" t="s">
         <v>657</v>
       </c>
@@ -48509,7 +48539,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="72" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:72">
       <c r="A72" t="s">
         <v>658</v>
       </c>
@@ -48586,7 +48616,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="73" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:72">
       <c r="A73" t="s">
         <v>659</v>
       </c>
@@ -48663,7 +48693,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="74" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:72">
       <c r="A74" t="s">
         <v>660</v>
       </c>
@@ -48758,7 +48788,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="75" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:72">
       <c r="A75" t="s">
         <v>661</v>
       </c>
@@ -48859,7 +48889,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="76" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:72">
       <c r="B76" t="s">
         <v>478</v>
       </c>
@@ -48954,7 +48984,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="77" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:72">
       <c r="A77" t="s">
         <v>662</v>
       </c>
@@ -49031,7 +49061,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="78" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:72">
       <c r="B78" t="s">
         <v>479</v>
       </c>
@@ -49102,7 +49132,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="79" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:72">
       <c r="A79" t="s">
         <v>663</v>
       </c>
@@ -49179,7 +49209,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="80" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:72">
       <c r="A80" t="s">
         <v>664</v>
       </c>
@@ -49256,7 +49286,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="81" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:72">
       <c r="A81" t="s">
         <v>665</v>
       </c>
@@ -49333,7 +49363,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="82" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:72">
       <c r="A82" t="s">
         <v>666</v>
       </c>
@@ -49410,7 +49440,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="83" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:72">
       <c r="B83" t="s">
         <v>483</v>
       </c>
@@ -49481,7 +49511,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="84" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:72">
       <c r="A84" s="2" t="s">
         <v>667</v>
       </c>
@@ -49582,7 +49612,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="85" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:72">
       <c r="A85" t="s">
         <v>668</v>
       </c>
@@ -49659,7 +49689,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="86" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:72">
       <c r="B86" t="s">
         <v>485</v>
       </c>
@@ -49733,7 +49763,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="87" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:72">
       <c r="A87" t="s">
         <v>669</v>
       </c>
@@ -49834,7 +49864,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="88" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:72">
       <c r="B88" t="s">
         <v>486</v>
       </c>
@@ -49932,7 +49962,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="89" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:72">
       <c r="A89" t="s">
         <v>670</v>
       </c>
@@ -50009,7 +50039,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="90" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:72">
       <c r="B90" t="s">
         <v>487</v>
       </c>
@@ -50083,7 +50113,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="91" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:72">
       <c r="A91" t="s">
         <v>671</v>
       </c>
@@ -50160,7 +50190,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="92" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:72">
       <c r="B92" t="s">
         <v>488</v>
       </c>
@@ -50234,7 +50264,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="93" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:72">
       <c r="A93" t="s">
         <v>672</v>
       </c>
@@ -50317,7 +50347,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="94" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:72">
       <c r="A94" t="s">
         <v>673</v>
       </c>
@@ -50394,7 +50424,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="95" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:72">
       <c r="B95" t="s">
         <v>490</v>
       </c>
@@ -50468,7 +50498,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="96" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:72">
       <c r="A96" t="s">
         <v>674</v>
       </c>
@@ -50566,7 +50596,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="97" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:72">
       <c r="B97" t="s">
         <v>491</v>
       </c>
@@ -50661,7 +50691,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="98" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:72">
       <c r="A98" t="s">
         <v>675</v>
       </c>
@@ -50738,7 +50768,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="99" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:72">
       <c r="A99" t="s">
         <v>676</v>
       </c>
@@ -50815,7 +50845,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="100" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:72">
       <c r="B100" t="s">
         <v>493</v>
       </c>
@@ -50889,7 +50919,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="101" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:72">
       <c r="A101" t="s">
         <v>677</v>
       </c>
@@ -51014,7 +51044,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="102" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:72">
       <c r="B102" t="s">
         <v>494</v>
       </c>
@@ -51136,7 +51166,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="103" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:72">
       <c r="A103" t="s">
         <v>678</v>
       </c>
@@ -51237,7 +51267,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="104" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:72">
       <c r="A104" t="s">
         <v>679</v>
       </c>
@@ -51314,7 +51344,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="105" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:72">
       <c r="A105" t="s">
         <v>680</v>
       </c>
@@ -51391,7 +51421,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="106" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:72">
       <c r="B106" t="s">
         <v>497</v>
       </c>
@@ -51465,7 +51495,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="107" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:72">
       <c r="A107" t="s">
         <v>681</v>
       </c>
@@ -51548,7 +51578,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="108" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:72">
       <c r="B108" t="s">
         <v>498</v>
       </c>
@@ -51628,7 +51658,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="109" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:72">
       <c r="A109" t="s">
         <v>682</v>
       </c>
@@ -51729,7 +51759,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="110" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:72">
       <c r="B110" t="s">
         <v>499</v>
       </c>
@@ -51827,7 +51857,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="111" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:72">
       <c r="A111" t="s">
         <v>683</v>
       </c>
@@ -51937,7 +51967,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="112" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:72">
       <c r="B112" t="s">
         <v>500</v>
       </c>
@@ -52044,7 +52074,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="113" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:72">
       <c r="A113" t="s">
         <v>684</v>
       </c>
@@ -52127,7 +52157,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="114" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:72">
       <c r="A114" t="s">
         <v>685</v>
       </c>
@@ -52300,7 +52330,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="115" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:72">
       <c r="A115" t="s">
         <v>686</v>
       </c>
@@ -52449,7 +52479,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="116" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:72">
       <c r="A116" t="s">
         <v>687</v>
       </c>
@@ -52526,7 +52556,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="117" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:72">
       <c r="A117" t="s">
         <v>688</v>
       </c>
@@ -52651,7 +52681,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="118" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:72">
       <c r="A118" t="s">
         <v>689</v>
       </c>
@@ -52725,7 +52755,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="119" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:72">
       <c r="B119" t="s">
         <v>506</v>
       </c>
@@ -52799,7 +52829,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="120" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:72">
       <c r="A120" t="s">
         <v>690</v>
       </c>
@@ -52876,7 +52906,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="121" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:72">
       <c r="B121" t="s">
         <v>507</v>
       </c>
@@ -52950,7 +52980,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="122" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:72">
       <c r="A122" t="s">
         <v>691</v>
       </c>
@@ -53027,7 +53057,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="123" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:72">
       <c r="B123" t="s">
         <v>508</v>
       </c>
@@ -53101,7 +53131,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="124" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:72">
       <c r="A124" t="s">
         <v>692</v>
       </c>
@@ -53202,7 +53232,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="125" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:72">
       <c r="A125" t="s">
         <v>693</v>
       </c>
@@ -53279,7 +53309,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="126" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:72">
       <c r="B126" t="s">
         <v>510</v>
       </c>
@@ -53353,7 +53383,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="127" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:72">
       <c r="A127" t="s">
         <v>694</v>
       </c>
@@ -53442,7 +53472,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="128" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:72">
       <c r="B128" t="s">
         <v>511</v>
       </c>
@@ -53528,7 +53558,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="129" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:72">
       <c r="A129" t="s">
         <v>695</v>
       </c>
@@ -53662,7 +53692,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="130" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:72">
       <c r="B130" t="s">
         <v>512</v>
       </c>
@@ -53733,7 +53763,7 @@
         <v>0.17499999999999996</v>
       </c>
     </row>
-    <row r="131" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:72">
       <c r="A131" t="s">
         <v>696</v>
       </c>
@@ -53858,7 +53888,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="132" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:72">
       <c r="A132" t="s">
         <v>697</v>
       </c>
@@ -53935,7 +53965,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="133" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:72">
       <c r="B133" t="s">
         <v>514</v>
       </c>
@@ -54009,7 +54039,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="134" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:72">
       <c r="A134" t="s">
         <v>698</v>
       </c>
@@ -54092,7 +54122,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="135" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:72">
       <c r="B135" t="s">
         <v>515</v>
       </c>
@@ -54172,7 +54202,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="136" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:72">
       <c r="A136" t="s">
         <v>699</v>
       </c>
@@ -54339,7 +54369,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="137" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:72">
       <c r="A137" t="s">
         <v>700</v>
       </c>
@@ -54506,7 +54536,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="138" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:72">
       <c r="A138" t="s">
         <v>701</v>
       </c>
@@ -54703,7 +54733,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="139" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:72">
       <c r="A139" t="s">
         <v>702</v>
       </c>
@@ -54780,7 +54810,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="140" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:72">
       <c r="A140" t="s">
         <v>703</v>
       </c>
@@ -54947,7 +54977,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="141" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:72">
       <c r="A141" t="s">
         <v>704</v>
       </c>
@@ -55024,7 +55054,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="142" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:72">
       <c r="A142" t="s">
         <v>705</v>
       </c>
@@ -55101,7 +55131,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="143" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:72">
       <c r="A143" t="s">
         <v>706</v>
       </c>
@@ -55178,7 +55208,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="144" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:72">
       <c r="A144" t="s">
         <v>707</v>
       </c>
@@ -55255,7 +55285,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="145" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:82">
       <c r="A145" t="s">
         <v>708</v>
       </c>
@@ -55332,7 +55362,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="146" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:82">
       <c r="A146" t="s">
         <v>709</v>
       </c>
@@ -55409,7 +55439,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="147" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:82">
       <c r="A147" t="s">
         <v>710</v>
       </c>
@@ -55534,7 +55564,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="148" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:82">
       <c r="A148" t="s">
         <v>711</v>
       </c>
@@ -55701,7 +55731,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="149" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:82">
       <c r="A149" t="s">
         <v>712</v>
       </c>
@@ -55868,7 +55898,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="150" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:82">
       <c r="A150" t="s">
         <v>713</v>
       </c>
@@ -56035,9 +56065,507 @@
         <v>381</v>
       </c>
     </row>
+    <row r="151" spans="1:82">
+      <c r="A151" t="s">
+        <v>7209</v>
+      </c>
+      <c r="B151" t="s">
+        <v>7203</v>
+      </c>
+      <c r="C151">
+        <v>13</v>
+      </c>
+      <c r="D151">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E151" t="s">
+        <v>536</v>
+      </c>
+      <c r="G151" t="s">
+        <v>7208</v>
+      </c>
+      <c r="H151" t="s">
+        <v>170</v>
+      </c>
+      <c r="I151" t="s">
+        <v>381</v>
+      </c>
+      <c r="J151" t="s">
+        <v>381</v>
+      </c>
+      <c r="K151" t="s">
+        <v>381</v>
+      </c>
+      <c r="L151">
+        <v>0.17241379310344829</v>
+      </c>
+      <c r="M151" t="s">
+        <v>26</v>
+      </c>
+      <c r="N151" t="s">
+        <v>381</v>
+      </c>
+      <c r="O151" t="s">
+        <v>381</v>
+      </c>
+      <c r="P151" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q151">
+        <v>0.12931034482758622</v>
+      </c>
+      <c r="R151" t="s">
+        <v>84</v>
+      </c>
+      <c r="S151" t="s">
+        <v>381</v>
+      </c>
+      <c r="T151" t="s">
+        <v>381</v>
+      </c>
+      <c r="U151" t="s">
+        <v>381</v>
+      </c>
+      <c r="V151">
+        <v>0.10775862068965518</v>
+      </c>
+      <c r="W151" t="s">
+        <v>129</v>
+      </c>
+      <c r="X151" t="s">
+        <v>381</v>
+      </c>
+      <c r="Y151" t="s">
+        <v>381</v>
+      </c>
+      <c r="Z151" t="s">
+        <v>381</v>
+      </c>
+      <c r="AA151">
+        <v>6.8965517241379323E-2</v>
+      </c>
+      <c r="AB151" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC151" t="s">
+        <v>381</v>
+      </c>
+      <c r="AD151" t="s">
+        <v>381</v>
+      </c>
+      <c r="AE151" t="s">
+        <v>381</v>
+      </c>
+      <c r="AF151">
+        <v>8.6206896551724144E-2</v>
+      </c>
+      <c r="AG151" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH151" t="s">
+        <v>381</v>
+      </c>
+      <c r="AI151" t="s">
+        <v>381</v>
+      </c>
+      <c r="AJ151" t="s">
+        <v>381</v>
+      </c>
+      <c r="AK151">
+        <v>8.6206896551724144E-2</v>
+      </c>
+      <c r="AL151" t="s">
+        <v>132</v>
+      </c>
+      <c r="AM151" t="s">
+        <v>381</v>
+      </c>
+      <c r="AN151" t="s">
+        <v>381</v>
+      </c>
+      <c r="AO151" t="s">
+        <v>381</v>
+      </c>
+      <c r="AP151">
+        <v>6.8965517241379323E-2</v>
+      </c>
+      <c r="AQ151" t="s">
+        <v>129</v>
+      </c>
+      <c r="AR151" t="s">
+        <v>381</v>
+      </c>
+      <c r="AS151" t="s">
+        <v>381</v>
+      </c>
+      <c r="AT151" t="s">
+        <v>381</v>
+      </c>
+      <c r="AU151">
+        <v>8.6206896551724144E-2</v>
+      </c>
+      <c r="AV151" t="s">
+        <v>84</v>
+      </c>
+      <c r="AW151" t="s">
+        <v>381</v>
+      </c>
+      <c r="AX151" t="s">
+        <v>381</v>
+      </c>
+      <c r="AY151" t="s">
+        <v>381</v>
+      </c>
+      <c r="AZ151">
+        <v>8.6206896551724144E-2</v>
+      </c>
+      <c r="BA151" t="s">
+        <v>26</v>
+      </c>
+      <c r="BB151" t="s">
+        <v>381</v>
+      </c>
+      <c r="BC151" t="s">
+        <v>381</v>
+      </c>
+      <c r="BD151" t="s">
+        <v>381</v>
+      </c>
+      <c r="BE151">
+        <v>0.10775862068965518</v>
+      </c>
+      <c r="BF151" t="s">
+        <v>381</v>
+      </c>
+      <c r="BG151" t="s">
+        <v>381</v>
+      </c>
+      <c r="BH151" t="s">
+        <v>381</v>
+      </c>
+      <c r="BI151" t="s">
+        <v>381</v>
+      </c>
+      <c r="BJ151" t="s">
+        <v>381</v>
+      </c>
+      <c r="BK151" t="s">
+        <v>381</v>
+      </c>
+      <c r="BL151" t="s">
+        <v>381</v>
+      </c>
+      <c r="BM151" t="s">
+        <v>381</v>
+      </c>
+      <c r="BN151" t="s">
+        <v>381</v>
+      </c>
+      <c r="BO151" t="s">
+        <v>381</v>
+      </c>
+      <c r="BP151" t="s">
+        <v>381</v>
+      </c>
+      <c r="BQ151" t="s">
+        <v>381</v>
+      </c>
+      <c r="BR151" t="s">
+        <v>381</v>
+      </c>
+      <c r="BS151" t="s">
+        <v>381</v>
+      </c>
+      <c r="BT151" t="s">
+        <v>381</v>
+      </c>
+      <c r="BU151" t="s">
+        <v>381</v>
+      </c>
+      <c r="BV151" t="s">
+        <v>381</v>
+      </c>
+      <c r="BW151" t="s">
+        <v>381</v>
+      </c>
+      <c r="BX151" t="s">
+        <v>381</v>
+      </c>
+      <c r="BY151" t="s">
+        <v>381</v>
+      </c>
+      <c r="BZ151" t="s">
+        <v>381</v>
+      </c>
+      <c r="CA151" t="s">
+        <v>381</v>
+      </c>
+      <c r="CB151" t="s">
+        <v>381</v>
+      </c>
+      <c r="CC151" t="s">
+        <v>381</v>
+      </c>
+      <c r="CD151" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="152" spans="1:82">
+      <c r="A152" t="s">
+        <v>7210</v>
+      </c>
+      <c r="B152" t="s">
+        <v>7204</v>
+      </c>
+      <c r="C152">
+        <v>10</v>
+      </c>
+      <c r="D152">
+        <v>1.85</v>
+      </c>
+      <c r="E152" t="s">
+        <v>536</v>
+      </c>
+      <c r="G152" t="s">
+        <v>7207</v>
+      </c>
+      <c r="H152" t="s">
+        <v>170</v>
+      </c>
+      <c r="I152" t="s">
+        <v>381</v>
+      </c>
+      <c r="J152" t="s">
+        <v>381</v>
+      </c>
+      <c r="K152" t="s">
+        <v>381</v>
+      </c>
+      <c r="L152">
+        <v>0.25</v>
+      </c>
+      <c r="M152" t="s">
+        <v>26</v>
+      </c>
+      <c r="N152" t="s">
+        <v>381</v>
+      </c>
+      <c r="O152" t="s">
+        <v>381</v>
+      </c>
+      <c r="P152" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q152">
+        <v>0.1875</v>
+      </c>
+      <c r="R152" t="s">
+        <v>84</v>
+      </c>
+      <c r="S152" t="s">
+        <v>381</v>
+      </c>
+      <c r="T152" t="s">
+        <v>381</v>
+      </c>
+      <c r="U152" t="s">
+        <v>381</v>
+      </c>
+      <c r="V152">
+        <v>0.15625</v>
+      </c>
+      <c r="W152" t="s">
+        <v>129</v>
+      </c>
+      <c r="X152" t="s">
+        <v>381</v>
+      </c>
+      <c r="Y152" t="s">
+        <v>381</v>
+      </c>
+      <c r="Z152" t="s">
+        <v>381</v>
+      </c>
+      <c r="AA152">
+        <v>0.125</v>
+      </c>
+      <c r="AB152" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC152" t="s">
+        <v>381</v>
+      </c>
+      <c r="AD152" t="s">
+        <v>381</v>
+      </c>
+      <c r="AE152" t="s">
+        <v>381</v>
+      </c>
+      <c r="AF152">
+        <v>0.125</v>
+      </c>
+      <c r="AG152" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH152" t="s">
+        <v>381</v>
+      </c>
+      <c r="AI152" t="s">
+        <v>381</v>
+      </c>
+      <c r="AJ152" t="s">
+        <v>381</v>
+      </c>
+      <c r="AK152">
+        <v>0.15625</v>
+      </c>
+      <c r="AL152" t="s">
+        <v>381</v>
+      </c>
+      <c r="AM152" t="s">
+        <v>381</v>
+      </c>
+      <c r="AN152" t="s">
+        <v>381</v>
+      </c>
+      <c r="AO152" t="s">
+        <v>381</v>
+      </c>
+      <c r="AP152" t="s">
+        <v>381</v>
+      </c>
+      <c r="AQ152" t="s">
+        <v>381</v>
+      </c>
+      <c r="AR152" t="s">
+        <v>381</v>
+      </c>
+      <c r="AS152" t="s">
+        <v>381</v>
+      </c>
+      <c r="AT152" t="s">
+        <v>381</v>
+      </c>
+      <c r="AU152" t="s">
+        <v>381</v>
+      </c>
+      <c r="AV152" t="s">
+        <v>381</v>
+      </c>
+      <c r="AW152" t="s">
+        <v>381</v>
+      </c>
+      <c r="AX152" t="s">
+        <v>381</v>
+      </c>
+      <c r="AY152" t="s">
+        <v>381</v>
+      </c>
+      <c r="AZ152" t="s">
+        <v>381</v>
+      </c>
+      <c r="BA152" t="s">
+        <v>381</v>
+      </c>
+      <c r="BB152" t="s">
+        <v>381</v>
+      </c>
+      <c r="BC152" t="s">
+        <v>381</v>
+      </c>
+      <c r="BD152" t="s">
+        <v>381</v>
+      </c>
+      <c r="BE152" t="s">
+        <v>381</v>
+      </c>
+      <c r="BF152" t="s">
+        <v>381</v>
+      </c>
+      <c r="BG152" t="s">
+        <v>381</v>
+      </c>
+      <c r="BH152" t="s">
+        <v>381</v>
+      </c>
+      <c r="BI152" t="s">
+        <v>381</v>
+      </c>
+      <c r="BJ152" t="s">
+        <v>381</v>
+      </c>
+      <c r="BK152" t="s">
+        <v>381</v>
+      </c>
+      <c r="BL152" t="s">
+        <v>381</v>
+      </c>
+      <c r="BM152" t="s">
+        <v>381</v>
+      </c>
+      <c r="BN152" t="s">
+        <v>381</v>
+      </c>
+      <c r="BO152" t="s">
+        <v>381</v>
+      </c>
+      <c r="BP152" t="s">
+        <v>381</v>
+      </c>
+      <c r="BQ152" t="s">
+        <v>381</v>
+      </c>
+      <c r="BR152" t="s">
+        <v>381</v>
+      </c>
+      <c r="BS152" t="s">
+        <v>381</v>
+      </c>
+      <c r="BT152" t="s">
+        <v>381</v>
+      </c>
+      <c r="BU152" t="s">
+        <v>381</v>
+      </c>
+      <c r="BV152" t="s">
+        <v>381</v>
+      </c>
+      <c r="BW152" t="s">
+        <v>381</v>
+      </c>
+      <c r="BX152" t="s">
+        <v>381</v>
+      </c>
+      <c r="BY152" t="s">
+        <v>381</v>
+      </c>
+      <c r="BZ152" t="s">
+        <v>381</v>
+      </c>
+      <c r="CA152" t="s">
+        <v>381</v>
+      </c>
+      <c r="CB152" t="s">
+        <v>381</v>
+      </c>
+      <c r="CC152" t="s">
+        <v>381</v>
+      </c>
+      <c r="CD152" t="s">
+        <v>381</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:DC150" xr:uid="{E9B5179E-762C-124B-A240-3A035CE5971A}"/>
+  <autoFilter ref="A2:DC150"/>
   <mergeCells count="20">
+    <mergeCell ref="CT1:CX1"/>
+    <mergeCell ref="CY1:DC1"/>
+    <mergeCell ref="BP1:BT1"/>
+    <mergeCell ref="BU1:BY1"/>
+    <mergeCell ref="BZ1:CD1"/>
+    <mergeCell ref="CE1:CI1"/>
+    <mergeCell ref="CJ1:CN1"/>
+    <mergeCell ref="CO1:CS1"/>
     <mergeCell ref="BK1:BO1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
@@ -56050,14 +56578,6 @@
     <mergeCell ref="AV1:AZ1"/>
     <mergeCell ref="BA1:BE1"/>
     <mergeCell ref="BF1:BJ1"/>
-    <mergeCell ref="CT1:CX1"/>
-    <mergeCell ref="CY1:DC1"/>
-    <mergeCell ref="BP1:BT1"/>
-    <mergeCell ref="BU1:BY1"/>
-    <mergeCell ref="BZ1:CD1"/>
-    <mergeCell ref="CE1:CI1"/>
-    <mergeCell ref="CJ1:CN1"/>
-    <mergeCell ref="CO1:CS1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -56071,17 +56591,17 @@
       <selection activeCell="C1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" customWidth="1"/>
-    <col min="2" max="2" width="42.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.375" customWidth="1"/>
+    <col min="2" max="2" width="42.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="35.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="45.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="45.125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="30.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.5" bestFit="1" customWidth="1"/>
@@ -56090,7 +56610,7 @@
     <col min="16" max="105" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.25">
       <c r="F1" s="4" t="s">
         <v>243</v>
       </c>
@@ -56192,7 +56712,7 @@
       </c>
       <c r="BC1" s="4"/>
     </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -56359,7 +56879,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>714</v>
       </c>
@@ -56397,7 +56917,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>715</v>
       </c>
@@ -56435,7 +56955,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>716</v>
       </c>
@@ -56461,7 +56981,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>402</v>
       </c>
@@ -56481,7 +57001,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>717</v>
       </c>
@@ -56522,7 +57042,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>403</v>
       </c>
@@ -56557,7 +57077,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>718</v>
       </c>
@@ -56598,7 +57118,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>404</v>
       </c>
@@ -56633,7 +57153,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>719</v>
       </c>
@@ -56659,7 +57179,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>405</v>
       </c>
@@ -56679,7 +57199,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>720</v>
       </c>
@@ -56717,7 +57237,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>721</v>
       </c>
@@ -56743,7 +57263,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>722</v>
       </c>
@@ -56769,7 +57289,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>408</v>
       </c>
@@ -56789,7 +57309,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>723</v>
       </c>
@@ -56815,7 +57335,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>409</v>
       </c>
@@ -56835,7 +57355,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>724</v>
       </c>
@@ -56861,7 +57381,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>410</v>
       </c>
@@ -56881,7 +57401,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>725</v>
       </c>
@@ -56907,7 +57427,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>411</v>
       </c>
@@ -56927,7 +57447,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>726</v>
       </c>
@@ -56953,7 +57473,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>412</v>
       </c>
@@ -56973,7 +57493,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>727</v>
       </c>
@@ -56999,7 +57519,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>728</v>
       </c>
@@ -57025,7 +57545,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>414</v>
       </c>
@@ -57045,7 +57565,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>729</v>
       </c>
@@ -57071,7 +57591,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>415</v>
       </c>
@@ -57091,7 +57611,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>730</v>
       </c>
@@ -57129,7 +57649,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>416</v>
       </c>
@@ -57161,7 +57681,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>731</v>
       </c>
@@ -57187,7 +57707,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>732</v>
       </c>
@@ -57225,7 +57745,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>733</v>
       </c>
@@ -57251,7 +57771,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>1049</v>
       </c>
@@ -57271,7 +57791,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>734</v>
       </c>
@@ -57297,7 +57817,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>735</v>
       </c>
@@ -57323,7 +57843,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>736</v>
       </c>
@@ -57349,7 +57869,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>421</v>
       </c>
@@ -57369,7 +57889,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>737</v>
       </c>
@@ -57395,7 +57915,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>738</v>
       </c>
@@ -57421,7 +57941,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>739</v>
       </c>
@@ -57447,7 +57967,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>740</v>
       </c>
@@ -57479,7 +57999,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>425</v>
       </c>
@@ -57507,20 +58027,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="AN1:AO1"/>
-    <mergeCell ref="AP1:AQ1"/>
-    <mergeCell ref="AR1:AS1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:O1"/>
     <mergeCell ref="AV1:AW1"/>
     <mergeCell ref="AX1:AY1"/>
     <mergeCell ref="AZ1:BA1"/>
@@ -57532,6 +58038,20 @@
     <mergeCell ref="AJ1:AK1"/>
     <mergeCell ref="AL1:AM1"/>
     <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="AP1:AQ1"/>
+    <mergeCell ref="AR1:AS1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -57545,16 +58065,16 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -57571,7 +58091,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>741</v>
       </c>
@@ -57588,7 +58108,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>742</v>
       </c>
@@ -57605,7 +58125,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>743</v>
       </c>
@@ -57622,7 +58142,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>744</v>
       </c>
@@ -57639,7 +58159,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>745</v>
       </c>
@@ -57656,7 +58176,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>746</v>
       </c>
@@ -57673,7 +58193,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>747</v>
       </c>
@@ -57690,7 +58210,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>748</v>
       </c>
@@ -57707,7 +58227,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>749</v>
       </c>
@@ -57724,7 +58244,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>750</v>
       </c>
@@ -57741,7 +58261,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>751</v>
       </c>
@@ -57758,7 +58278,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>752</v>
       </c>
@@ -57775,7 +58295,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>753</v>
       </c>
@@ -57792,7 +58312,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>754</v>
       </c>
@@ -57809,7 +58329,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>755</v>
       </c>
@@ -57826,7 +58346,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>756</v>
       </c>
@@ -57843,7 +58363,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>757</v>
       </c>
@@ -57860,7 +58380,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>758</v>
       </c>
@@ -57877,7 +58397,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>759</v>
       </c>
@@ -57894,7 +58414,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>760</v>
       </c>
@@ -57911,7 +58431,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>761</v>
       </c>
@@ -57928,7 +58448,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>762</v>
       </c>
@@ -57945,7 +58465,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>763</v>
       </c>
@@ -57962,7 +58482,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>764</v>
       </c>
@@ -57986,23 +58506,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7DE52F0-FA25-3147-9398-011447F75847}">
-  <dimension ref="A1:I156"/>
+  <dimension ref="A1:I158"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="A157" sqref="A157"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.83203125" customWidth="1"/>
-    <col min="8" max="8" width="23.1640625" customWidth="1"/>
-    <col min="23" max="23" width="120.6640625" bestFit="1" customWidth="1"/>
+    <col bestFit="true" customWidth="true" max="1" min="1" width="25.375"/>
+    <col bestFit="true" customWidth="true" max="2" min="2" width="41.125"/>
+    <col bestFit="true" customWidth="true" max="4" min="4" width="16.875"/>
+    <col customWidth="true" max="7" min="7" width="20.875"/>
+    <col customWidth="true" max="8" min="8" width="23.125"/>
+    <col bestFit="true" customWidth="true" max="23" min="23" width="120.625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -58019,7 +58539,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>765</v>
       </c>
@@ -58039,7 +58559,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>766</v>
       </c>
@@ -58059,7 +58579,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>767</v>
       </c>
@@ -58079,7 +58599,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>768</v>
       </c>
@@ -58099,7 +58619,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>769</v>
       </c>
@@ -58119,7 +58639,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>770</v>
       </c>
@@ -58139,7 +58659,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>771</v>
       </c>
@@ -58159,7 +58679,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>772</v>
       </c>
@@ -58179,7 +58699,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>773</v>
       </c>
@@ -58199,7 +58719,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>774</v>
       </c>
@@ -58219,7 +58739,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>775</v>
       </c>
@@ -58239,7 +58759,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>776</v>
       </c>
@@ -58259,7 +58779,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>777</v>
       </c>
@@ -58279,7 +58799,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>778</v>
       </c>
@@ -58299,7 +58819,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>779</v>
       </c>
@@ -58319,7 +58839,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>780</v>
       </c>
@@ -58339,7 +58859,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>781</v>
       </c>
@@ -58359,7 +58879,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>782</v>
       </c>
@@ -58379,7 +58899,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>783</v>
       </c>
@@ -58399,7 +58919,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>784</v>
       </c>
@@ -58419,7 +58939,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>785</v>
       </c>
@@ -58439,7 +58959,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>786</v>
       </c>
@@ -58459,7 +58979,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>787</v>
       </c>
@@ -58479,7 +58999,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>788</v>
       </c>
@@ -58499,7 +59019,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>789</v>
       </c>
@@ -58519,7 +59039,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>790</v>
       </c>
@@ -58539,7 +59059,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
         <v>791</v>
       </c>
@@ -58559,7 +59079,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>792</v>
       </c>
@@ -58579,7 +59099,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
         <v>793</v>
       </c>
@@ -58599,7 +59119,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>794</v>
       </c>
@@ -58619,7 +59139,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
         <v>795</v>
       </c>
@@ -58639,7 +59159,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
         <v>796</v>
       </c>
@@ -58659,7 +59179,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
         <v>797</v>
       </c>
@@ -58679,7 +59199,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
         <v>798</v>
       </c>
@@ -58699,7 +59219,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
         <v>799</v>
       </c>
@@ -58719,7 +59239,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
         <v>800</v>
       </c>
@@ -58739,7 +59259,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
         <v>801</v>
       </c>
@@ -58759,7 +59279,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
         <v>802</v>
       </c>
@@ -58779,7 +59299,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
         <v>803</v>
       </c>
@@ -58799,7 +59319,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
         <v>804</v>
       </c>
@@ -58819,7 +59339,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
         <v>805</v>
       </c>
@@ -58839,7 +59359,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
         <v>806</v>
       </c>
@@ -58859,7 +59379,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
         <v>807</v>
       </c>
@@ -58879,7 +59399,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
         <v>808</v>
       </c>
@@ -58899,7 +59419,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
         <v>809</v>
       </c>
@@ -58919,7 +59439,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
         <v>810</v>
       </c>
@@ -58939,7 +59459,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
         <v>811</v>
       </c>
@@ -58959,7 +59479,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
         <v>812</v>
       </c>
@@ -58979,7 +59499,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
         <v>813</v>
       </c>
@@ -58999,7 +59519,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
         <v>814</v>
       </c>
@@ -59019,7 +59539,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
         <v>815</v>
       </c>
@@ -59039,7 +59559,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
         <v>816</v>
       </c>
@@ -59059,7 +59579,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
         <v>817</v>
       </c>
@@ -59079,7 +59599,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9">
       <c r="A55" t="s">
         <v>818</v>
       </c>
@@ -59099,7 +59619,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
         <v>819</v>
       </c>
@@ -59119,7 +59639,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
         <v>820</v>
       </c>
@@ -59139,7 +59659,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9">
       <c r="A58" t="s">
         <v>821</v>
       </c>
@@ -59159,7 +59679,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9">
       <c r="A59" t="s">
         <v>822</v>
       </c>
@@ -59179,7 +59699,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
         <v>823</v>
       </c>
@@ -59199,7 +59719,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9">
       <c r="A61" t="s">
         <v>824</v>
       </c>
@@ -59219,7 +59739,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9">
       <c r="A62" t="s">
         <v>825</v>
       </c>
@@ -59239,7 +59759,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9">
       <c r="A63" t="s">
         <v>826</v>
       </c>
@@ -59259,7 +59779,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9">
       <c r="A64" t="s">
         <v>827</v>
       </c>
@@ -59279,7 +59799,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
         <v>828</v>
       </c>
@@ -59299,7 +59819,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9">
       <c r="A66" t="s">
         <v>829</v>
       </c>
@@ -59319,7 +59839,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9">
       <c r="A67" t="s">
         <v>830</v>
       </c>
@@ -59339,7 +59859,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9">
       <c r="A68" t="s">
         <v>831</v>
       </c>
@@ -59359,7 +59879,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9">
       <c r="A69" t="s">
         <v>832</v>
       </c>
@@ -59379,7 +59899,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9">
       <c r="A70" t="s">
         <v>833</v>
       </c>
@@ -59399,7 +59919,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9">
       <c r="A71" t="s">
         <v>834</v>
       </c>
@@ -59419,7 +59939,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9">
       <c r="A72" t="s">
         <v>835</v>
       </c>
@@ -59439,7 +59959,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9">
       <c r="A73" t="s">
         <v>836</v>
       </c>
@@ -59459,7 +59979,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9">
       <c r="A74" t="s">
         <v>837</v>
       </c>
@@ -59479,7 +59999,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9">
       <c r="A75" t="s">
         <v>838</v>
       </c>
@@ -59499,7 +60019,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9">
       <c r="A76" t="s">
         <v>839</v>
       </c>
@@ -59519,7 +60039,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9">
       <c r="A77" t="s">
         <v>840</v>
       </c>
@@ -59539,7 +60059,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9">
       <c r="A78" t="s">
         <v>841</v>
       </c>
@@ -59559,7 +60079,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9">
       <c r="A79" t="s">
         <v>842</v>
       </c>
@@ -59579,7 +60099,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9">
       <c r="A80" t="s">
         <v>843</v>
       </c>
@@ -59599,7 +60119,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9">
       <c r="A81" t="s">
         <v>844</v>
       </c>
@@ -59619,7 +60139,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9">
       <c r="A82" t="s">
         <v>845</v>
       </c>
@@ -59639,7 +60159,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9">
       <c r="A83" t="s">
         <v>846</v>
       </c>
@@ -59659,7 +60179,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9">
       <c r="A84" t="s">
         <v>847</v>
       </c>
@@ -59679,7 +60199,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9">
       <c r="A85" t="s">
         <v>848</v>
       </c>
@@ -59699,7 +60219,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9">
       <c r="A86" t="s">
         <v>849</v>
       </c>
@@ -59719,7 +60239,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9">
       <c r="A87" t="s">
         <v>850</v>
       </c>
@@ -59739,7 +60259,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9">
       <c r="A88" t="s">
         <v>851</v>
       </c>
@@ -59759,7 +60279,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9">
       <c r="A89" t="s">
         <v>852</v>
       </c>
@@ -59779,7 +60299,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9">
       <c r="A90" t="s">
         <v>853</v>
       </c>
@@ -59793,13 +60313,13 @@
         <v>609</v>
       </c>
       <c r="E90">
-        <v>6.5</v>
+        <v>6.75</v>
       </c>
       <c r="I90" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9">
       <c r="A91" t="s">
         <v>854</v>
       </c>
@@ -59819,7 +60339,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9">
       <c r="A92" t="s">
         <v>855</v>
       </c>
@@ -59839,7 +60359,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9">
       <c r="A93" t="s">
         <v>856</v>
       </c>
@@ -59859,7 +60379,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9">
       <c r="A94" t="s">
         <v>857</v>
       </c>
@@ -59879,7 +60399,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9">
       <c r="A95" t="s">
         <v>858</v>
       </c>
@@ -59899,7 +60419,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9">
       <c r="A96" t="s">
         <v>859</v>
       </c>
@@ -59919,7 +60439,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9">
       <c r="A97" t="s">
         <v>860</v>
       </c>
@@ -59939,7 +60459,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9">
       <c r="A98" t="s">
         <v>861</v>
       </c>
@@ -59959,7 +60479,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9">
       <c r="A99" t="s">
         <v>862</v>
       </c>
@@ -59979,7 +60499,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9">
       <c r="A100" t="s">
         <v>863</v>
       </c>
@@ -59999,7 +60519,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9">
       <c r="A101" t="s">
         <v>864</v>
       </c>
@@ -60019,7 +60539,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9">
       <c r="A102" t="s">
         <v>865</v>
       </c>
@@ -60039,7 +60559,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9">
       <c r="A103" t="s">
         <v>866</v>
       </c>
@@ -60059,7 +60579,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9">
       <c r="A104" t="s">
         <v>867</v>
       </c>
@@ -60079,7 +60599,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9">
       <c r="A105" t="s">
         <v>868</v>
       </c>
@@ -60099,7 +60619,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9">
       <c r="A106" t="s">
         <v>869</v>
       </c>
@@ -60119,7 +60639,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9">
       <c r="A107" t="s">
         <v>870</v>
       </c>
@@ -60139,7 +60659,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9">
       <c r="A108" t="s">
         <v>871</v>
       </c>
@@ -60159,7 +60679,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9">
       <c r="A109" t="s">
         <v>872</v>
       </c>
@@ -60179,7 +60699,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9">
       <c r="A110" s="2" t="s">
         <v>873</v>
       </c>
@@ -60199,7 +60719,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9">
       <c r="A111" t="s">
         <v>874</v>
       </c>
@@ -60219,7 +60739,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9">
       <c r="A112" t="s">
         <v>875</v>
       </c>
@@ -60239,7 +60759,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9">
       <c r="A113" t="s">
         <v>876</v>
       </c>
@@ -60259,7 +60779,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9">
       <c r="A114" t="s">
         <v>877</v>
       </c>
@@ -60279,7 +60799,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9">
       <c r="A115" t="s">
         <v>878</v>
       </c>
@@ -60299,7 +60819,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9">
       <c r="A116" t="s">
         <v>879</v>
       </c>
@@ -60319,7 +60839,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9">
       <c r="A117" t="s">
         <v>880</v>
       </c>
@@ -60339,7 +60859,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9">
       <c r="A118" t="s">
         <v>881</v>
       </c>
@@ -60359,7 +60879,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9">
       <c r="A119" t="s">
         <v>882</v>
       </c>
@@ -60379,7 +60899,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9">
       <c r="A120" t="s">
         <v>883</v>
       </c>
@@ -60399,7 +60919,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9">
       <c r="A121" t="s">
         <v>884</v>
       </c>
@@ -60419,7 +60939,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9">
       <c r="A122" t="s">
         <v>885</v>
       </c>
@@ -60439,7 +60959,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9">
       <c r="A123" t="s">
         <v>886</v>
       </c>
@@ -60459,7 +60979,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9">
       <c r="A124" t="s">
         <v>887</v>
       </c>
@@ -60479,7 +60999,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9">
       <c r="A125" t="s">
         <v>888</v>
       </c>
@@ -60499,7 +61019,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9">
       <c r="A126" t="s">
         <v>889</v>
       </c>
@@ -60519,7 +61039,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9">
       <c r="A127" t="s">
         <v>890</v>
       </c>
@@ -60539,7 +61059,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9">
       <c r="A128" t="s">
         <v>891</v>
       </c>
@@ -60559,7 +61079,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9">
       <c r="A129" t="s">
         <v>892</v>
       </c>
@@ -60579,7 +61099,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9">
       <c r="A130" t="s">
         <v>893</v>
       </c>
@@ -60599,7 +61119,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9">
       <c r="A131" t="s">
         <v>894</v>
       </c>
@@ -60619,7 +61139,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9">
       <c r="A132" t="s">
         <v>895</v>
       </c>
@@ -60639,7 +61159,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9">
       <c r="A133" t="s">
         <v>896</v>
       </c>
@@ -60659,7 +61179,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9">
       <c r="A134" t="s">
         <v>897</v>
       </c>
@@ -60679,7 +61199,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9">
       <c r="A135" t="s">
         <v>898</v>
       </c>
@@ -60699,7 +61219,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9">
       <c r="A136" t="s">
         <v>899</v>
       </c>
@@ -60719,7 +61239,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9">
       <c r="A137" t="s">
         <v>900</v>
       </c>
@@ -60739,7 +61259,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9">
       <c r="A138" t="s">
         <v>901</v>
       </c>
@@ -60759,7 +61279,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9">
       <c r="A139" t="s">
         <v>902</v>
       </c>
@@ -60779,7 +61299,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9">
       <c r="A140" t="s">
         <v>903</v>
       </c>
@@ -60799,7 +61319,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9">
       <c r="A141" t="s">
         <v>904</v>
       </c>
@@ -60819,7 +61339,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9">
       <c r="A142" t="s">
         <v>905</v>
       </c>
@@ -60839,7 +61359,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9">
       <c r="A143" t="s">
         <v>906</v>
       </c>
@@ -60859,7 +61379,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9">
       <c r="A144" t="s">
         <v>907</v>
       </c>
@@ -60879,7 +61399,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9">
       <c r="A145" t="s">
         <v>908</v>
       </c>
@@ -60899,7 +61419,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9">
       <c r="A146" t="s">
         <v>909</v>
       </c>
@@ -60919,7 +61439,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9">
       <c r="A147" t="s">
         <v>910</v>
       </c>
@@ -60939,7 +61459,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9">
       <c r="A148" t="s">
         <v>911</v>
       </c>
@@ -60959,7 +61479,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9">
       <c r="A149" t="s">
         <v>912</v>
       </c>
@@ -60979,7 +61499,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9">
       <c r="A150" t="s">
         <v>913</v>
       </c>
@@ -60999,7 +61519,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9">
       <c r="A151" t="s">
         <v>914</v>
       </c>
@@ -61019,7 +61539,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9">
       <c r="A152" t="s">
         <v>915</v>
       </c>
@@ -61039,7 +61559,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9">
       <c r="A153" t="s">
         <v>916</v>
       </c>
@@ -61059,7 +61579,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9">
       <c r="A154" t="s">
         <v>917</v>
       </c>
@@ -61079,7 +61599,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9">
       <c r="A155" t="s">
         <v>918</v>
       </c>
@@ -61099,7 +61619,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9">
       <c r="A156" t="s">
         <v>919</v>
       </c>
@@ -61117,6 +61637,40 @@
       </c>
       <c r="I156" t="s">
         <v>554</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157" t="s">
+        <v>7211</v>
+      </c>
+      <c r="B157" t="s">
+        <v>7203</v>
+      </c>
+      <c r="C157" t="s">
+        <v>7206</v>
+      </c>
+      <c r="D157" t="s">
+        <v>609</v>
+      </c>
+      <c r="E157">
+        <v>6.875</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="A158" t="s">
+        <v>7212</v>
+      </c>
+      <c r="B158" t="s">
+        <v>7204</v>
+      </c>
+      <c r="C158" t="s">
+        <v>7205</v>
+      </c>
+      <c r="D158" t="s">
+        <v>609</v>
+      </c>
+      <c r="E158">
+        <v>5.875</v>
       </c>
     </row>
   </sheetData>
@@ -61132,40 +61686,40 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="7.1640625" customWidth="1"/>
+    <col min="1" max="2" width="7.125" customWidth="1"/>
     <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.375" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="51.5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.875" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="9" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>377</v>
       </c>
@@ -61203,7 +61757,7 @@
       <c r="V1" s="4"/>
       <c r="W1" s="4"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>370</v>
       </c>
@@ -61274,7 +61828,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -61333,7 +61887,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -61398,7 +61952,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -61463,7 +62017,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -61528,7 +62082,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -61593,7 +62147,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -61655,7 +62209,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -61723,7 +62277,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -61791,7 +62345,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -61856,7 +62410,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -61918,7 +62472,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -61980,7 +62534,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -62045,7 +62599,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -62104,7 +62658,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -62163,7 +62717,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -62222,7 +62776,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -62281,7 +62835,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -62346,7 +62900,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -62414,7 +62968,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -62482,7 +63036,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -62541,7 +63095,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -62609,7 +63163,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -62677,7 +63231,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
@@ -62742,7 +63296,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2</v>
       </c>
@@ -62801,7 +63355,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
@@ -62860,7 +63414,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2</v>
       </c>
@@ -62919,7 +63473,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2</v>
       </c>
@@ -62978,7 +63532,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
@@ -63043,7 +63597,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2</v>
       </c>
@@ -63111,7 +63665,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2</v>
       </c>
@@ -63179,7 +63733,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2</v>
       </c>
@@ -63238,7 +63792,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2</v>
       </c>
@@ -63306,7 +63860,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2</v>
       </c>
@@ -63374,7 +63928,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3</v>
       </c>
@@ -63439,7 +63993,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3</v>
       </c>
@@ -63498,7 +64052,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3</v>
       </c>
@@ -63557,7 +64111,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3</v>
       </c>
@@ -63616,7 +64170,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3</v>
       </c>
@@ -63675,7 +64229,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>3</v>
       </c>
@@ -63740,7 +64294,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>3</v>
       </c>
@@ -63808,7 +64362,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>3</v>
       </c>
@@ -63876,7 +64430,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>3</v>
       </c>
@@ -63935,7 +64489,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>3</v>
       </c>
@@ -64003,7 +64557,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>3</v>
       </c>
@@ -64071,7 +64625,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>4</v>
       </c>
@@ -64136,7 +64690,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>4</v>
       </c>
@@ -64195,7 +64749,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>4</v>
       </c>
@@ -64254,7 +64808,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>4</v>
       </c>
@@ -64313,7 +64867,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>4</v>
       </c>
@@ -64372,7 +64926,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>4</v>
       </c>
@@ -64437,7 +64991,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>4</v>
       </c>
@@ -64505,7 +65059,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>4</v>
       </c>
@@ -64573,7 +65127,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>4</v>
       </c>
@@ -64632,7 +65186,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>4</v>
       </c>
@@ -64700,7 +65254,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>4</v>
       </c>
@@ -64768,7 +65322,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>5</v>
       </c>
@@ -64830,7 +65384,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>5</v>
       </c>
@@ -64895,7 +65449,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>5</v>
       </c>
@@ -64960,7 +65514,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>5</v>
       </c>
@@ -65025,7 +65579,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>5</v>
       </c>
@@ -65090,7 +65644,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>5</v>
       </c>
@@ -65149,7 +65703,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>5</v>
       </c>
@@ -65217,7 +65771,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>5</v>
       </c>
@@ -65285,7 +65839,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>5</v>
       </c>
@@ -65350,7 +65904,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>5</v>
       </c>
@@ -65415,7 +65969,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>5</v>
       </c>
@@ -65480,7 +66034,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>6</v>
       </c>
@@ -65548,7 +66102,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>6</v>
       </c>
@@ -65616,7 +66170,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>6</v>
       </c>
@@ -65684,7 +66238,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>6</v>
       </c>
@@ -65752,7 +66306,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>6</v>
       </c>
@@ -65820,7 +66374,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>6</v>
       </c>
@@ -65888,7 +66442,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>6</v>
       </c>
@@ -65947,7 +66501,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>6</v>
       </c>
@@ -66006,7 +66560,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>6</v>
       </c>
@@ -66074,7 +66628,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>6</v>
       </c>
@@ -66145,7 +66699,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>6</v>
       </c>
@@ -66216,7 +66770,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>7</v>
       </c>
@@ -66284,7 +66838,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>7</v>
       </c>
@@ -66352,7 +66906,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>7</v>
       </c>
@@ -66420,7 +66974,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>7</v>
       </c>
@@ -66488,7 +67042,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>7</v>
       </c>
@@ -66556,7 +67110,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>7</v>
       </c>
@@ -66624,7 +67178,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>7</v>
       </c>
@@ -66683,7 +67237,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>7</v>
       </c>
@@ -66742,7 +67296,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>7</v>
       </c>
@@ -66810,7 +67364,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>7</v>
       </c>
@@ -66881,7 +67435,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>7</v>
       </c>
@@ -66952,7 +67506,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>8</v>
       </c>
@@ -67017,7 +67571,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>8</v>
       </c>
@@ -67076,7 +67630,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>8</v>
       </c>
@@ -67135,7 +67689,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>8</v>
       </c>
@@ -67194,7 +67748,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>8</v>
       </c>
@@ -67253,7 +67807,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>8</v>
       </c>
@@ -67318,7 +67872,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>8</v>
       </c>
@@ -67386,7 +67940,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>8</v>
       </c>
@@ -67454,7 +68008,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>8</v>
       </c>
@@ -67513,7 +68067,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>8</v>
       </c>
@@ -67581,7 +68135,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>8</v>
       </c>
@@ -67649,7 +68203,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>9</v>
       </c>
@@ -67708,7 +68262,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>9</v>
       </c>
@@ -67773,7 +68327,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>9</v>
       </c>
@@ -67838,7 +68392,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>9</v>
       </c>
@@ -67903,7 +68457,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>9</v>
       </c>
@@ -67968,7 +68522,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>9</v>
       </c>
@@ -68030,7 +68584,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>9</v>
       </c>
@@ -68098,7 +68652,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>9</v>
       </c>
@@ -68166,7 +68720,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>9</v>
       </c>
@@ -68231,7 +68785,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>9</v>
       </c>
@@ -68290,7 +68844,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>9</v>
       </c>
@@ -68349,7 +68903,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>10</v>
       </c>
@@ -68411,7 +68965,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>10</v>
       </c>
@@ -68479,7 +69033,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>10</v>
       </c>
@@ -68547,7 +69101,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>10</v>
       </c>
@@ -68615,7 +69169,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>10</v>
       </c>
@@ -68683,7 +69237,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>10</v>
       </c>
@@ -68748,7 +69302,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>10</v>
       </c>
@@ -68819,7 +69373,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>10</v>
       </c>
@@ -68890,7 +69444,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>10</v>
       </c>
@@ -68958,7 +69512,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>10</v>
       </c>
@@ -69020,7 +69574,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>10</v>
       </c>

--- a/assets/posesaxl.xlsx
+++ b/assets/posesaxl.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ImageSets" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7213" uniqueCount="7213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12786" uniqueCount="7213">
   <si>
     <t>ID</t>
   </si>
@@ -21399,48 +21399,12 @@
     <t>Start: Standing Up Straight&lt;br&gt;Crouch down so that your hands are on the ground slightly in front of you. Kick both of your legs back and straighten your back to be in pushup position. Bend your arms and squeeze your shoulder blades to go down in a pushup. Push up in an explosive manner so your arms are off the ground and clap your hands together before your hands land on the ground.&lt;br&gt;Return to original pushup position, then jump forward, keeping your hands on the ground so you are in a crouched position. Rise back up to the standing position and jump up around 6 inches off the ground.&lt;br&gt;Once you land, repeat.&lt;br&gt;Primary Body Parts Used: Left Calf, Right Calf, Left Quad, Right Quad, Abs, Lower Back, Left Tricep, Right Tricep, Left Shoulder, Right Shoulder, Chest, Left Hip, Right Hip</t>
   </si>
   <si>
-    <t>Start: Normal Pushup Position&lt;br&gt;Bend your arms and squeeze your shoulder blades to go down in a pushup, keeping elbows in an "arrow" position (45 degrees from your torso). Your chest should be just slightly above the ground. Pause briefly, then straighten your arms and release your shoulder blades, returning back to pushup position.&lt;br&gt;Repeat.&lt;br&gt;Primary Body Parts Used: Left Tricep, Right Tricep, Left Shoulder, Right Shoulder, Chest</t>
-  </si>
-  <si>
-    <t>Start: Normal Pushup Position&lt;br&gt;Bend your arms and squeeze your shoulder blades to go down in a pushup, keeping elbows in an "arrow" position (45 degrees from your torso). Your chest should be just slightly above the ground. Push up in an explosive manner so your arms are off the ground and clap your hands together before your hands land on the ground.&lt;br&gt;Return back to pushup position and repeat.&lt;br&gt;Primary Body Parts Used: Left Tricep, Right Tricep, Left Shoulder, Right Shoulder, Chest</t>
-  </si>
-  <si>
-    <t>Start: Pushup Position with Knees on Ground&lt;br&gt;Bend your arms and squeeze your shoulder blades to go down in a pushup, keeping elbows in an "arrow" position (45 degrees from your torso). Your chest should be just slightly above the ground. Pause briefly, then straighten your arms and release your shoulder blades, returning back to knee pushup position.&lt;br&gt;Repeat.&lt;br&gt;Primary Body Parts Used: Left Tricep, Right Tricep, Left Shoulder, Right Shoulder, Chest</t>
-  </si>
-  <si>
-    <t>Start: Standing Leaned Over Steeply with Hands on Wall&lt;br&gt;Bend your arms and squeeze your shoulder blades to go down, keeping elbows in an "arrow" position (45 degrees from your torso). Your chest should be just slightly away from the wall. Pause briefly, then straighten your arms and release your shoulder blades, returning back to original position.&lt;br&gt;Repeat.&lt;br&gt;Primary Body Parts Used: Left Tricep, Right Tricep, Left Shoulder, Right Shoulder, Chest</t>
-  </si>
-  <si>
-    <t>Start: Standing Leaned Over with Hands on Wall&lt;br&gt;Bend your arms and squeeze your shoulder blades to go down, keeping elbows in an "arrow" position (45 degrees from your torso). Your chest should be just slightly away from the wall. Pause briefly, then straighten your arms and release your shoulder blades, returning back to original position.&lt;br&gt;Repeat.&lt;br&gt;Primary Body Parts Used: Left Tricep, Right Tricep, Left Shoulder, Right Shoulder, Chest</t>
-  </si>
-  <si>
-    <t>Start: Pushup Position with Hands Touching and Legs Apart&lt;br&gt;Bend your arms and squeeze your shoulder blades to go down in a pushup, keeping elbows in an "arrow" position (45 degrees from your torso). Your chest should be just slightly above the ground. Pause briefly, then straighten your arms and release your shoulder blades, returning back to diamond pushup position.&lt;br&gt;Repeat.&lt;br&gt;Primary Body Parts Used: Left Tricep, Right Tricep, Left Shoulder, Right Shoulder, Chest</t>
-  </si>
-  <si>
-    <t>Start: Normal Pushup Position&lt;br&gt;Bend your arms and squeeze your shoulder blades to go down in a pushup, keeping elbows in an "arrow" position (45 degrees from your torso). Your chest should be just slightly above the ground. Push up in an explosive manner so your arms are off the ground.&lt;br&gt;Return back to pushup position and repeat.&lt;br&gt;Primary Body Parts Used: Left Tricep, Right Tricep, Left Shoulder, Right Shoulder, Chest</t>
-  </si>
-  <si>
-    <t>Start: Normal Pushup Position&lt;br&gt;Bend your arms and squeeze your shoulder blades to go down in a pushup, keeping elbows in an "arrow" position (45 degrees from your torso). Your chest should be just slightly above the ground. While going down, raise your left leg to your left side by bending at the left knee and hip. Try to touch your left knee to your left elbow. Pause briefly, then straighten your arms and release your shoulder blades, returning back to pushup position.&lt;br&gt;Repeat for right side.&lt;br&gt;Primary Body Parts Used: Left Quad, Right Quad, Left Tricep, Right Tricep, Left Shoulder, Right Shoulder, Chest, Left Hip, Right Hip</t>
-  </si>
-  <si>
-    <t>Start: Normal Pushup Position&lt;br&gt;Bend your arms and squeeze your shoulder blades to go down in a pushup, keeping elbows in an "arrow" position (45 degrees from your torso). Your chest should be just slightly above the ground. Push up in an explosive manner so your arms are off the ground. Land with your left hand further in front of you and your right hand further behind.&lt;br&gt;Go down in a pushup again and, ensuring elbows are in an "arrow" position and your chest is slightly above the ground. Push up in an explosive manner again and land with your right hand further in front of you and your left hand further behind.&lt;br&gt;Repeat.&lt;br&gt;Primary Body Parts Used: Left Tricep, Right Tricep, Left Shoulder, Right Shoulder, Chest</t>
-  </si>
-  <si>
-    <t>Start: Normal Pushup Position Hands Wide Apart&lt;br&gt;Bend your arms and squeeze your shoulder blades to go down in a pushup, keeping elbows in an "arrow" position (45 degrees from your torso). Your chest should be just slightly above the ground. Pause briefly, then straighten your arms and release your shoulder blades, returning back to wide pushup position.&lt;br&gt;Repeat.&lt;br&gt;Primary Body Parts Used: Left Tricep, Right Tricep, Left Shoulder, Right Shoulder, Chest</t>
-  </si>
-  <si>
-    <t>Start: Normal Pushup Position Hands Close Together&lt;br&gt;Bend your arms and squeeze your shoulder blades to go down in a pushup, keeping elbows in an "arrow" position (45 degrees from your torso). Your chest should be just slightly above the ground. Pause briefly, then straighten your arms and release your shoulder blades, returning back to narrow pushup position.&lt;br&gt;Repeat.&lt;br&gt;Primary Body Parts Used: Left Tricep, Right Tricep, Left Shoulder, Right Shoulder, Chest</t>
-  </si>
-  <si>
     <t>Start: Downward Dog Position&lt;br&gt;Bend your arms and squeeze your shoulder blades to go down in a pushup-like motion while keeping your hips high in downward dog . Your head should be just slightly above the ground. Pause briefly, then straighten your arms and release your shoulder blades, returning back to downward dog position.&lt;br&gt;Repeat.&lt;br&gt;Primary Body Parts Used: Left Tricep, Right Tricep, Left Shoulder, Right Shoulder, Chest</t>
   </si>
   <si>
     <t>Start: Normal Pushup Position Hands Wide Apart&lt;br&gt;Bend your left arm while keeping your right arm straight, to go down so your chest is slightly above the ground and close to your left hand. Pause briefly, then straighten your left arm to push back up to wide pushup position.&lt;br&gt;Bend your right arm while keeping your left arm straight, to go down so your chest is slightly above the ground and close to your right hand. Pause briefly, then straighten your right arm to push back up to wide pushup position.&lt;br&gt;Repeat&lt;br&gt;Primary Body Parts Used: Left Tricep, Right Tricep, Left Shoulder, Right Shoulder, Chest</t>
   </si>
   <si>
-    <t>Start: Downward Dog Position&lt;br&gt;Bend your arms and squeeze your shoulder blades to go down in a pushup-like motion while keeping your hips high in downward dog . Your head should be just slightly above the ground. Pause briefly, then lower your hips and shift your shoulders forward without straightening your arms or moving your legs, ending in regular pushup down position. Straighten your arms to push back up and raise your hips to re-enter downward dog position.&lt;br&gt;Repeat.&lt;br&gt;Primary Body Parts Used: Left Tricep, Right Tricep, Left Shoulder, Right Shoulder, Chest</t>
-  </si>
-  <si>
     <t>Start: Standing Up Straight&lt;br&gt;Jump up around 6 inches (or as high as you are able) off the ground and land your feet slightly in front of where they were originally. Jump back up to the approximate same height and land your feet slightly to the right of where they were originally.&lt;br&gt;Repeat.&lt;br&gt;Primary Body Parts Used: Left Calf, Right Calf, Left Quad, Right Quad</t>
   </si>
   <si>
@@ -21492,27 +21456,18 @@
     <t>Start: Normal Pushup Position&lt;br&gt;Keeping your hands on the ground, in a "hopping" motion, separate your legs as much as you are able. Pause briefly, then hop again to bring your legs back together in the original pushup position.&lt;br&gt;Repeat.&lt;br&gt;Primary Body Parts Used: Abs, Lower Back, Left Tricep, Right Tricep, Left Shoulder, Right Shoulder</t>
   </si>
   <si>
-    <t>Start: Downward Dog Position&lt;br&gt;Keeping your legs on the ground, walk your hands forward and straighten your back until you are in pushup position. Bend your arms and squeeze your shoulder blades to go down in a pushup, keeping elbows in an "arrow" position (45 degrees from your torso). Your chest should be just slightly above the ground. Pause briefly, then straighten your arms and release your shoulder blades, returning back to pushup position.&lt;br&gt;Walk your hands back while raising your hips until you are back in downward dog position, and repeat.&lt;br&gt;Primary Body Parts Used: Abs, Lower Back, Left Tricep, Right Tricep, Left Shoulder, Right Shoulder, Neck, Chest</t>
-  </si>
-  <si>
     <t>Start: Downward Dog Position&lt;br&gt;Keeping your legs on the ground, walk your hands forward and straighten your back until you are in pushup position. Pause briefly, then walk your hands back while raising your hips until you are back in downward dog position.&lt;br&gt;Repeat.&lt;br&gt;Primary Body Parts Used: Abs, Lower Back, Left Tricep, Right Tricep, Left Shoulder, Right Shoulder</t>
   </si>
   <si>
     <t>Start: Laying Flat on Stomach with Arms Extended Out in Front&lt;br&gt;Flex your lower back, upper back, and buttocks so that your feet, knees, and arms come off the ground slightly. Bend your elbows and drive them towards your back as far as you are able.&lt;br&gt;Hold this position briefly, then return to the original position and repeat.&lt;br&gt;Primary Body Parts Used: Glutes, Lower Back</t>
   </si>
   <si>
-    <t>Start: Normal Pushup Position &lt;br&gt;Bend your arms and squeeze your shoulder blades to go down in a pushup, keeping elbows in an "arrow" position (45 degrees from your torso). Go down until your chest touches to floor. Flex your lower back, upper back, and buttocks so that your feet, knees, and arms come off the ground slightly. Bend your elbows and drive them towards your back as far as you are able.&lt;br&gt;Hold briefly, then put your hands and feet back on the ground and push back up so your arms are straight and you are back in original pushup position.&lt;br&gt;Repeat.&lt;br&gt;Primary Body Parts Used: Glutes, Lower Back, Left Tricep, Right Tricep, Left Shoulder, Right Shoulder, Chest</t>
-  </si>
-  <si>
     <t>Start: Feet on Ground with Knees Bent and Hands Under Shoulders, with Torso Parallel to Ground&lt;br&gt;Keeping your left hand and right foot on the ground for balance and support, raise your right arm and left knee. Touch your left knee with your right hand above your torso and pause briefly.&lt;br&gt;Return to original table position and repeat with your left hand and right knee raised, and right hand and left foot on the ground.&lt;br&gt;Primary Body Parts Used: Left Hamstring, Right Hamstring, Glutes, Abs, Lower Back</t>
   </si>
   <si>
     <t>Start: Feet on Ground with Knees Bent and Hands Under Shoulders, with Torso Parallel to Ground&lt;br&gt;Keeping your left hand and right foot on the ground for balance and support, raise your right arm and left knee. Twist your left leg and bend your left knee to touch your left foot with your right hand above your torso. Pause briefly.&lt;br&gt;Return to original table position and repeat with your left hand and right knee raised, and right hand and left foot on the ground.&lt;br&gt;Primary Body Parts Used: Left Hamstring, Right Hamstring, Glutes, Abs, Lower Back</t>
   </si>
   <si>
-    <t>Start: Normal Pushup Position &lt;br&gt;Bend your arms and squeeze your shoulder blades to go down in a pushup, keeping elbows in an "arrow" position (45 degrees from your torso). Your chest should be just slightly above the ground. While going down, raise your left leg up behind you about 1 foot, while keeping your knee unbent. Pause briefly, then straighten your arms and release your shoulder blades, returning back to pushup position.&lt;br&gt;Repeat for right side.&lt;br&gt;Primary Body Parts Used: Glutes, Lower Back, Left Tricep, Right Tricep, Left Shoulder, Right Shoulder, Chest</t>
-  </si>
-  <si>
     <t>Start: Standing with Legs Shoulder-Width Apart&lt;br&gt;Keeping your feet in the same position, squat (bend your knees and hinge at your hips to lower your hips down) so that your quads are approximately parallel to the ground. Pause, then rise back up to original position and flex your calves to end up standing on your toes as high as you can.&lt;br&gt;Repeat, then return to original position and repeat.&lt;br&gt;Primary Body Parts Used: Left Calf, Right Calf, Left Quad, Right Quad, Glutes</t>
   </si>
   <si>
@@ -21540,36 +21495,9 @@
     <t>Start: Standing Up Straight&lt;br&gt;Crouch down so that your hands are on the ground slightly in front of you. Kick both of your legs back and straighten your back to be in regular pushup position. Lower your knees to the ground, entering knee pushup position. Bend your arms and squeeze your shoulder blades to go down in a pushup, then rise back up. Keeping your hands on the ground, use your feet to push and straighten your knees, re-entering regular pushup position.&lt;br&gt;Jump forward, keeping your hands on the ground so you are in a crouched position. Rise back up to the standing position and jump up around 6 inches off the ground.&lt;br&gt;Once you land, repeat.&lt;br&gt;Primary Body Parts Used: Left Calf, Right Calf, Left Quad, Right Quad, Abs, Lower Back, Left Tricep, Right Tricep, Left Shoulder, Right Shoulder, Chest, Left Hip, Right Hip</t>
   </si>
   <si>
-    <t>Start: Downward Dog Position&lt;br&gt;Keeping your legs on the ground, walk your hands forward and straighten your back until you are in pushup position. Lower your knees to the ground, entering knee pushup position. Bend your arms and squeeze your shoulder blades to go down in a pushup, keeping elbows in an "arrow" position (45 degrees from your torso). Your chest should be just slightly above the ground.&lt;br&gt;Straighten your arms and release your shoulder blades, going back to knee pushup position. Keeping your hands on the ground, use your feet to push and straighten your knees, re-entering regular pushup position.&lt;br&gt;Walk your hands back while raising your hips until you are back in downward dog position, and repeat.&lt;br&gt;Primary Body Parts Used: Abs, Lower Back, Left Tricep, Right Tricep, Left Shoulder, Right Shoulder, Neck, Chest</t>
-  </si>
-  <si>
-    <t>Start: Pushup Position with Knees on Ground and Hands Touching&lt;br&gt;Bend your arms and squeeze your shoulder blades to go down in a pushup, keeping elbows in an "arrow" position (45 degrees from your torso). Your chest should be just slightly above the ground. Pause briefly, then straighten your arms and release your shoulder blades, returning back to knee pushup position.&lt;br&gt;Repeat.&lt;br&gt;Primary Body Parts Used: Left Tricep, Right Tricep, Left Shoulder, Right Shoulder, Chest</t>
-  </si>
-  <si>
     <t>Start: Standing with Legs Shoulder-Width Apart&lt;br&gt;Crouch down so that your hands are on the ground slightly in front of you. Kick both of your legs back and straighten your back to be in regular pushup position. Lower your knees to the ground, entering knee pushup position. Bend your arms and squeeze your shoulder blades to go down in a pushup, then rise back up. Keeping your hands on the ground, use your feet to push and straighten your knees, re-entering regular pushup position.&lt;br&gt;Jump forward, keeping your hands on the ground so you are in a crouched position. Rise back up to the standing position, then squat down so that your quads are approximately parallel to the ground.&lt;br&gt;Rise back up and repeat.&lt;br&gt;Primary Body Parts Used: Left Quad, Right Quad, Abs, Lower Back, Left Tricep, Right Tricep, Left Shoulder, Right Shoulder, Chest, Left Hip, Right Hip</t>
   </si>
   <si>
-    <t>Start: Pushup Position with Knees on Ground and Hands Wide Apart&lt;br&gt;Bend your arms and squeeze your shoulder blades to go down in a pushup, keeping elbows in an "arrow" position (45 degrees from your torso). Your chest should be just slightly above the ground. Pause briefly, then straighten your arms and release your shoulder blades, returning back to knee pushup position.&lt;br&gt;Repeat.&lt;br&gt;Primary Body Parts Used: Left Tricep, Right Tricep, Left Shoulder, Right Shoulder, Chest</t>
-  </si>
-  <si>
-    <t>Start: Pushup Position with Knees on Ground and Hands Close Together&lt;br&gt;Bend your arms and squeeze your shoulder blades to go down in a pushup, keeping elbows in an "arrow" position (45 degrees from your torso). Your chest should be just slightly above the ground. Pause briefly, then straighten your arms and release your shoulder blades, returning back to knee pushup position.&lt;br&gt;Repeat.&lt;br&gt;Primary Body Parts Used: Left Tricep, Right Tricep, Left Shoulder, Right Shoulder, Chest</t>
-  </si>
-  <si>
-    <t>Start: Standing Leaned Over Steeply with Hands on Wall, Wide Apart&lt;br&gt;Bend your arms and squeeze your shoulder blades to go down, keeping elbows in an "arrow" position (45 degrees from your torso). Your chest should be just slightly away from the wall. Pause briefly, then straighten your arms and release your shoulder blades, returning back to original position.&lt;br&gt;Repeat.&lt;br&gt;Primary Body Parts Used: Left Tricep, Right Tricep, Left Shoulder, Right Shoulder, Chest</t>
-  </si>
-  <si>
-    <t>Start: Standing Leaned Over Steeply with Hands on Wall, Close Together&lt;br&gt;Bend your arms and squeeze your shoulder blades to go down, keeping elbows in an "arrow" position (45 degrees from your torso). Your chest should be just slightly away from the wall. Pause briefly, then straighten your arms and release your shoulder blades, returning back to original position.&lt;br&gt;Repeat.&lt;br&gt;Primary Body Parts Used: Left Tricep, Right Tricep, Left Shoulder, Right Shoulder, Chest</t>
-  </si>
-  <si>
-    <t>Start: Standing Leaned Over with Hands on Wall, Wide Apart&lt;br&gt;Bend your arms and squeeze your shoulder blades to go down, keeping elbows in an "arrow" position (45 degrees from your torso). Your chest should be just slightly away from the wall. Pause briefly, then straighten your arms and release your shoulder blades, returning back to original position.&lt;br&gt;Repeat.&lt;br&gt;Primary Body Parts Used: Left Tricep, Right Tricep, Left Shoulder, Right Shoulder, Chest</t>
-  </si>
-  <si>
-    <t>Start: Standing Leaned Over with Hands on Wall, Close Together&lt;br&gt;Bend your arms and squeeze your shoulder blades to go down, keeping elbows in an "arrow" position (45 degrees from your torso). Your chest should be just slightly away from the wall. Pause briefly, then straighten your arms and release your shoulder blades, returning back to original position.&lt;br&gt;Repeat.&lt;br&gt;Primary Body Parts Used: Left Tricep, Right Tricep, Left Shoulder, Right Shoulder, Chest</t>
-  </si>
-  <si>
-    <t>Start: Normal Pushup Position&lt;br&gt;Bend your arms and squeeze your shoulder blades to go down in a pushup, keeping elbows in an "arrow" position (45 degrees from your torso). Go down until your chest touches to floor. Flex your lower back, upper back, and buttocks so that your feet, knees, and arms come off the ground slightly. Bend your elbows and drive them towards your back as far as you are able.&lt;br&gt;Hold briefly, then put your hands and feet back on the ground and push back up so your arms are straight and you are back in knee pushup position.&lt;br&gt;Repeat.&lt;br&gt;Primary Body Parts Used: Glutes, Lower Back, Left Tricep, Right Tricep, Left Shoulder, Right Shoulder, Chest</t>
-  </si>
-  <si>
     <t>Start: Standing Up Straight&lt;br&gt;Crouch down so that your hands are on the ground slightly in front of you. Kick both of your legs back and straighten your back to be in regular pushup position. Lower your knees to the ground, entering knee pushup position. Bend your arms and squeeze your shoulder blades to go down in a pushup, then rise back up. Keeping your hands on the ground, use your feet to push and straighten your knees, re-entering regular pushup position.&lt;br&gt;Jump forward, keeping your hands on the ground so you are in a crouched position. Rise back up to the standing position and jump up, raising your knees and tucking them into your chest (or as high as you can raise them)&lt;br&gt;Once you land, repeat.&lt;br&gt;Primary Body Parts Used: Left Calf, Right Calf, Left Quad, Right Quad, Abs, Lower Back, Left Tricep, Right Tricep, Left Shoulder, Right Shoulder, Chest, Left Hip, Right Hip</t>
   </si>
   <si>
@@ -21660,28 +21588,100 @@
     <t>Non-Pushup Step Burpees</t>
   </si>
   <si>
+    <t>66427ff2fe756517596a03f6</t>
+  </si>
+  <si>
+    <t>66427ff2fe756517596a03f5</t>
+  </si>
+  <si>
+    <t>6642808be58eff8b7586550a</t>
+  </si>
+  <si>
+    <t>6642808be58eff8b7586550b</t>
+  </si>
+  <si>
+    <t>664280a1e58eff8b7586550c</t>
+  </si>
+  <si>
+    <t>664280a1e58eff8b7586550d</t>
+  </si>
+  <si>
+    <t>Start: Normal Pushup Position&lt;br&gt;Bend your arms and squeeze your shoulder blades to go down in a pushup, keeping your abs tight and elbows in an "arrow" position (45 degrees from your torso). Your chest should be just slightly above the ground. Pause briefly, then straighten your arms and release your shoulder blades, returning back to pushup position.&lt;br&gt;Repeat.&lt;br&gt;Primary Body Parts Used: Left Tricep, Right Tricep, Left Shoulder, Right Shoulder, Chest</t>
+  </si>
+  <si>
+    <t>Start: Normal Pushup Position&lt;br&gt;Bend your arms and squeeze your shoulder blades to go down in a pushup, keeping your abs tight and elbows in an "arrow" position (45 degrees from your torso). Your chest should be just slightly above the ground. Push up in an explosive manner so your arms are off the ground and clap your hands together before your hands land on the ground.&lt;br&gt;Return back to pushup position and repeat.&lt;br&gt;Primary Body Parts Used: Left Tricep, Right Tricep, Left Shoulder, Right Shoulder, Chest</t>
+  </si>
+  <si>
+    <t>Start: Pushup Position with Knees on Ground&lt;br&gt;Bend your arms and squeeze your shoulder blades to go down in a pushup, keeping your abs tight and elbows in an "arrow" position (45 degrees from your torso). Your chest should be just slightly above the ground. Pause briefly, then straighten your arms and release your shoulder blades, returning back to knee pushup position.&lt;br&gt;Repeat.&lt;br&gt;Primary Body Parts Used: Left Tricep, Right Tricep, Left Shoulder, Right Shoulder, Chest</t>
+  </si>
+  <si>
+    <t>Start: Standing Leaned Over Steeply with Hands on Wall&lt;br&gt;Bend your arms and squeeze your shoulder blades to go down, keeping your abs tight and elbows in an "arrow" position (45 degrees from your torso). Your chest should be just slightly away from the wall. Pause briefly, then straighten your arms and release your shoulder blades, returning back to original position.&lt;br&gt;Repeat.&lt;br&gt;Primary Body Parts Used: Left Tricep, Right Tricep, Left Shoulder, Right Shoulder, Chest</t>
+  </si>
+  <si>
+    <t>Start: Standing Leaned Over with Hands on Wall&lt;br&gt;Bend your arms and squeeze your shoulder blades to go down, keeping your abs tight and elbows in an "arrow" position (45 degrees from your torso). Your chest should be just slightly away from the wall. Pause briefly, then straighten your arms and release your shoulder blades, returning back to original position.&lt;br&gt;Repeat.&lt;br&gt;Primary Body Parts Used: Left Tricep, Right Tricep, Left Shoulder, Right Shoulder, Chest</t>
+  </si>
+  <si>
+    <t>Start: Pushup Position with Hands Touching and Legs Apart&lt;br&gt;Bend your arms and squeeze your shoulder blades to go down in a pushup, keeping your abs tight and elbows in an "arrow" position (45 degrees from your torso). Your chest should be just slightly above the ground. Pause briefly, then straighten your arms and release your shoulder blades, returning back to diamond pushup position.&lt;br&gt;Repeat.&lt;br&gt;Primary Body Parts Used: Left Tricep, Right Tricep, Left Shoulder, Right Shoulder, Chest</t>
+  </si>
+  <si>
+    <t>Start: Normal Pushup Position&lt;br&gt;Bend your arms and squeeze your shoulder blades to go down in a pushup, keeping your abs tight and elbows in an "arrow" position (45 degrees from your torso). Your chest should be just slightly above the ground. Push up in an explosive manner so your arms are off the ground.&lt;br&gt;Return back to pushup position and repeat.&lt;br&gt;Primary Body Parts Used: Left Tricep, Right Tricep, Left Shoulder, Right Shoulder, Chest</t>
+  </si>
+  <si>
+    <t>Start: Normal Pushup Position&lt;br&gt;Bend your arms and squeeze your shoulder blades to go down in a pushup, keeping your abs tight and elbows in an "arrow" position (45 degrees from your torso). Your chest should be just slightly above the ground. While going down, raise your left leg to your left side by bending at the left knee and hip. Try to touch your left knee to your left elbow. Pause briefly, then straighten your arms and release your shoulder blades, returning back to pushup position.&lt;br&gt;Repeat for right side.&lt;br&gt;Primary Body Parts Used: Left Quad, Right Quad, Left Tricep, Right Tricep, Left Shoulder, Right Shoulder, Chest, Left Hip, Right Hip</t>
+  </si>
+  <si>
+    <t>Start: Normal Pushup Position&lt;br&gt;Bend your arms and squeeze your shoulder blades to go down in a pushup, keeping your abs tight and elbows in an "arrow" position (45 degrees from your torso). Your chest should be just slightly above the ground. Push up in an explosive manner so your arms are off the ground. Land with your left hand further in front of you and your right hand further behind.&lt;br&gt;Go down in a pushup again and, ensuring elbows are in an "arrow" position and your chest is slightly above the ground. Push up in an explosive manner again and land with your right hand further in front of you and your left hand further behind.&lt;br&gt;Repeat.&lt;br&gt;Primary Body Parts Used: Left Tricep, Right Tricep, Left Shoulder, Right Shoulder, Chest</t>
+  </si>
+  <si>
+    <t>Start: Normal Pushup Position Hands Wide Apart&lt;br&gt;Bend your arms and squeeze your shoulder blades to go down in a pushup, keeping your abs tight and elbows in an "arrow" position (45 degrees from your torso). Your chest should be just slightly above the ground. Pause briefly, then straighten your arms and release your shoulder blades, returning back to wide pushup position.&lt;br&gt;Repeat.&lt;br&gt;Primary Body Parts Used: Left Tricep, Right Tricep, Left Shoulder, Right Shoulder, Chest</t>
+  </si>
+  <si>
+    <t>Start: Normal Pushup Position Hands Close Together&lt;br&gt;Bend your arms and squeeze your shoulder blades to go down in a pushup, keeping your abs tight and elbows in an "arrow" position (45 degrees from your torso). Your chest should be just slightly above the ground. Pause briefly, then straighten your arms and release your shoulder blades, returning back to narrow pushup position.&lt;br&gt;Repeat.&lt;br&gt;Primary Body Parts Used: Left Tricep, Right Tricep, Left Shoulder, Right Shoulder, Chest</t>
+  </si>
+  <si>
+    <t>Start: Downward Dog Position&lt;br&gt;Bend your arms and squeeze your shoulder blades to go down in a pushup-like motion while keeping your abs right and hips high in downward dog . Your head should be just slightly above the ground. Pause briefly, then lower your hips and shift your shoulders forward without straightening your arms or moving your legs, ending in regular pushup down position. Straighten your arms to push back up and raise your hips to re-enter downward dog position.&lt;br&gt;Repeat.&lt;br&gt;Primary Body Parts Used: Left Tricep, Right Tricep, Left Shoulder, Right Shoulder, Chest</t>
+  </si>
+  <si>
+    <t>Start: Downward Dog Position&lt;br&gt;Keeping your legs on the ground, walk your hands forward and straighten your back until you are in pushup position. Bend your arms and squeeze your shoulder blades to go down in a pushup, keeping your abs tight and elbows in an "arrow" position (45 degrees from your torso). Your chest should be just slightly above the ground. Pause briefly, then straighten your arms and release your shoulder blades, returning back to pushup position.&lt;br&gt;Walk your hands back while raising your hips until you are back in downward dog position, and repeat.&lt;br&gt;Primary Body Parts Used: Abs, Lower Back, Left Tricep, Right Tricep, Left Shoulder, Right Shoulder, Neck, Chest</t>
+  </si>
+  <si>
+    <t>Start: Normal Pushup Position &lt;br&gt;Bend your arms and squeeze your shoulder blades to go down in a pushup, keeping your abs tight and elbows in an "arrow" position (45 degrees from your torso). Go down until your chest touches to floor. Flex your lower back, upper back, and buttocks so that your feet, knees, and arms come off the ground slightly. Bend your elbows and drive them towards your back as far as you are able.&lt;br&gt;Hold briefly, then put your hands and feet back on the ground and push back up so your arms are straight and you are back in original pushup position.&lt;br&gt;Repeat.&lt;br&gt;Primary Body Parts Used: Glutes, Lower Back, Left Tricep, Right Tricep, Left Shoulder, Right Shoulder, Chest</t>
+  </si>
+  <si>
+    <t>Start: Normal Pushup Position &lt;br&gt;Bend your arms and squeeze your shoulder blades to go down in a pushup, keeping your abs tight and elbows in an "arrow" position (45 degrees from your torso). Your chest should be just slightly above the ground. While going down, raise your left leg up behind you about 1 foot, while keeping your knee unbent. Pause briefly, then straighten your arms and release your shoulder blades, returning back to pushup position.&lt;br&gt;Repeat for right side.&lt;br&gt;Primary Body Parts Used: Glutes, Lower Back, Left Tricep, Right Tricep, Left Shoulder, Right Shoulder, Chest</t>
+  </si>
+  <si>
+    <t>Start: Downward Dog Position&lt;br&gt;Keeping your legs on the ground, walk your hands forward and straighten your back until you are in pushup position. Lower your knees to the ground, entering knee pushup position. Bend your arms and squeeze your shoulder blades to go down in a pushup, keeping your abs tight and elbows in an "arrow" position (45 degrees from your torso). Your chest should be just slightly above the ground.&lt;br&gt;Straighten your arms and release your shoulder blades, going back to knee pushup position. Keeping your hands on the ground, use your feet to push and straighten your knees, re-entering regular pushup position.&lt;br&gt;Walk your hands back while raising your hips until you are back in downward dog position, and repeat.&lt;br&gt;Primary Body Parts Used: Abs, Lower Back, Left Tricep, Right Tricep, Left Shoulder, Right Shoulder, Neck, Chest</t>
+  </si>
+  <si>
+    <t>Start: Pushup Position with Knees on Ground and Hands Touching&lt;br&gt;Bend your arms and squeeze your shoulder blades to go down in a pushup, keeping your abs tight and elbows in an "arrow" position (45 degrees from your torso). Your chest should be just slightly above the ground. Pause briefly, then straighten your arms and release your shoulder blades, returning back to knee pushup position.&lt;br&gt;Repeat.&lt;br&gt;Primary Body Parts Used: Left Tricep, Right Tricep, Left Shoulder, Right Shoulder, Chest</t>
+  </si>
+  <si>
+    <t>Start: Pushup Position with Knees on Ground and Hands Wide Apart&lt;br&gt;Bend your arms and squeeze your shoulder blades to go down in a pushup, keeping your abs tight and elbows in an "arrow" position (45 degrees from your torso). Your chest should be just slightly above the ground. Pause briefly, then straighten your arms and release your shoulder blades, returning back to knee pushup position.&lt;br&gt;Repeat.&lt;br&gt;Primary Body Parts Used: Left Tricep, Right Tricep, Left Shoulder, Right Shoulder, Chest</t>
+  </si>
+  <si>
+    <t>Start: Pushup Position with Knees on Ground and Hands Close Together&lt;br&gt;Bend your arms and squeeze your shoulder blades to go down in a pushup, keeping your abs tight and elbows in an "arrow" position (45 degrees from your torso). Your chest should be just slightly above the ground. Pause briefly, then straighten your arms and release your shoulder blades, returning back to knee pushup position.&lt;br&gt;Repeat.&lt;br&gt;Primary Body Parts Used: Left Tricep, Right Tricep, Left Shoulder, Right Shoulder, Chest</t>
+  </si>
+  <si>
+    <t>Start: Standing Leaned Over Steeply with Hands on Wall, Wide Apart&lt;br&gt;Bend your arms and squeeze your shoulder blades to go down, keeping your abs tight and elbows in an "arrow" position (45 degrees from your torso). Your chest should be just slightly away from the wall. Pause briefly, then straighten your arms and release your shoulder blades, returning back to original position.&lt;br&gt;Repeat.&lt;br&gt;Primary Body Parts Used: Left Tricep, Right Tricep, Left Shoulder, Right Shoulder, Chest</t>
+  </si>
+  <si>
+    <t>Start: Standing Leaned Over Steeply with Hands on Wall, Close Together&lt;br&gt;Bend your arms and squeeze your shoulder blades to go down, keeping your abs tight and elbows in an "arrow" position (45 degrees from your torso). Your chest should be just slightly away from the wall. Pause briefly, then straighten your arms and release your shoulder blades, returning back to original position.&lt;br&gt;Repeat.&lt;br&gt;Primary Body Parts Used: Left Tricep, Right Tricep, Left Shoulder, Right Shoulder, Chest</t>
+  </si>
+  <si>
+    <t>Start: Standing Leaned Over with Hands on Wall, Wide Apart&lt;br&gt;Bend your arms and squeeze your shoulder blades to go down, keeping your abs tight and elbows in an "arrow" position (45 degrees from your torso). Your chest should be just slightly away from the wall. Pause briefly, then straighten your arms and release your shoulder blades, returning back to original position.&lt;br&gt;Repeat.&lt;br&gt;Primary Body Parts Used: Left Tricep, Right Tricep, Left Shoulder, Right Shoulder, Chest</t>
+  </si>
+  <si>
+    <t>Start: Standing Leaned Over with Hands on Wall, Close Together&lt;br&gt;Bend your arms and squeeze your shoulder blades to go down, keeping your abs tight and elbows in an "arrow" position (45 degrees from your torso). Your chest should be just slightly away from the wall. Pause briefly, then straighten your arms and release your shoulder blades, returning back to original position.&lt;br&gt;Repeat.&lt;br&gt;Primary Body Parts Used: Left Tricep, Right Tricep, Left Shoulder, Right Shoulder, Chest</t>
+  </si>
+  <si>
+    <t>Start: Normal Pushup Position&lt;br&gt;Bend your arms and squeeze your shoulder blades to go down in a pushup, keeping your abs tight and elbows in an "arrow" position (45 degrees from your torso). Go down until your chest touches to floor. Flex your lower back, upper back, and buttocks so that your feet, knees, and arms come off the ground slightly. Bend your elbows and drive them towards your back as far as you are able.&lt;br&gt;Hold briefly, then put your hands and feet back on the ground and push back up so your arms are straight and you are back in knee pushup position.&lt;br&gt;Repeat.&lt;br&gt;Primary Body Parts Used: Glutes, Lower Back, Left Tricep, Right Tricep, Left Shoulder, Right Shoulder, Chest</t>
+  </si>
+  <si>
+    <t>Start: Standing Up Straight&lt;br&gt;Crouch down so that your hands are on the ground slightly in front of you. Step your right leg, then left leg back so that you are in pushup position. Lower your knees to the ground, entering knee pushup position. Bend your arms and squeeze your shoulder blades to go down in a pushup, then rise back up. Keeping your hands on the ground, use your feet to push and straighten your knees, re-entering regular pushup position.&lt;br&gt;Step your left leg forward, then right leg while keeping your hands on the ground, so you are in a crouched position. Rise back up to the standing position and repeat.&lt;br&gt;Primary Body Parts Used: Left Quad, Right Quad, Abs, Lower Back, Left Tricep, Right Tricep, Left Shoulder, Right Shoulder</t>
+  </si>
+  <si>
     <t>Start: Standing Up Straight&lt;br&gt;Crouch down so that your hands are on the ground slightly in front of you. Step your right leg, then left leg back so that you are in pushup position.&lt;br&gt;Step your left leg forward, then right leg while keeping your hands on the ground, so you are in a crouched position. Rise back up to the standing position and repeat.&lt;br&gt;Primary Body Parts Used: Left Quad, Right Quad, Abs, Lower Back</t>
-  </si>
-  <si>
-    <t>Start: Standing Up Straight&lt;br&gt;Crouch down so that your hands are on the ground slightly in front of you. Step your right leg, then left leg back so that you are in pushup position. Lower your knees to the ground, entering knee pushup position. Bend your arms and squeeze your shoulder blades to go down in a pushup, then rise back up. Keeping your hands on the ground, use your feet to push and straighten your knees, re-entering regular pushup position.&lt;br&gt;Step your left leg forward, then right leg while keeping your hands on the ground, so you are in a crouched position. Rise back up to the standing position and repeat.&lt;br&gt;Primary Body Parts Used: Left Quad, Right Quad, Abs, Lower Back, Left Tricep, Right Tricep, Left Shoulder, Right Shoulder</t>
-  </si>
-  <si>
-    <t>66427ff2fe756517596a03f6</t>
-  </si>
-  <si>
-    <t>66427ff2fe756517596a03f5</t>
-  </si>
-  <si>
-    <t>6642808be58eff8b7586550a</t>
-  </si>
-  <si>
-    <t>6642808be58eff8b7586550b</t>
-  </si>
-  <si>
-    <t>664280a1e58eff8b7586550c</t>
-  </si>
-  <si>
-    <t>664280a1e58eff8b7586550d</t>
   </si>
 </sst>
 </file>
@@ -41439,15 +41439,15 @@
     </row>
     <row r="243" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B243" s="3" t="s">
-        <v>7179</v>
+        <v>7155</v>
       </c>
       <c r="C243" t="s">
-        <v>7180</v>
+        <v>7156</v>
       </c>
     </row>
     <row r="244" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B244" s="3" t="s">
-        <v>7181</v>
+        <v>7157</v>
       </c>
       <c r="C244" t="str">
         <f>LOWER(SUBSTITUTE(B244," ","-"))</f>
@@ -41456,7 +41456,7 @@
     </row>
     <row r="245" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B245" s="3" t="s">
-        <v>7182</v>
+        <v>7158</v>
       </c>
       <c r="C245" t="str">
         <f>LOWER(SUBSTITUTE(B245," ","-"))</f>
@@ -41465,7 +41465,7 @@
     </row>
     <row r="246" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B246" s="3" t="s">
-        <v>7183</v>
+        <v>7159</v>
       </c>
       <c r="C246" t="str">
         <f t="shared" ref="C246:C248" si="0">LOWER(SUBSTITUTE(B246," ","-"))</f>
@@ -41474,7 +41474,7 @@
     </row>
     <row r="247" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B247" s="3" t="s">
-        <v>7184</v>
+        <v>7160</v>
       </c>
       <c r="C247" t="str">
         <f t="shared" si="0"/>
@@ -41483,7 +41483,7 @@
     </row>
     <row r="248" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B248" s="3" t="s">
-        <v>7185</v>
+        <v>7161</v>
       </c>
       <c r="C248" t="str">
         <f t="shared" si="0"/>
@@ -41492,7 +41492,7 @@
     </row>
     <row r="249" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B249" s="3" t="s">
-        <v>7186</v>
+        <v>7162</v>
       </c>
       <c r="C249" t="str">
         <f>LOWER(SUBSTITUTE(SUBSTITUTE(B249," ","-"),"---","-"))</f>
@@ -41501,7 +41501,7 @@
     </row>
     <row r="250" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B250" s="3" t="s">
-        <v>7187</v>
+        <v>7163</v>
       </c>
       <c r="C250" t="str">
         <f>LOWER(SUBSTITUTE(SUBSTITUTE(B250," ","-"),"---","-"))</f>
@@ -41510,7 +41510,7 @@
     </row>
     <row r="251" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B251" s="3" t="s">
-        <v>7188</v>
+        <v>7164</v>
       </c>
       <c r="C251" t="str">
         <f>LOWER(SUBSTITUTE(SUBSTITUTE(B251," ","-"),"---","-"))</f>
@@ -41519,7 +41519,7 @@
     </row>
     <row r="252" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B252" s="3" t="s">
-        <v>7189</v>
+        <v>7165</v>
       </c>
       <c r="C252" t="str">
         <f t="shared" ref="C252:C265" si="1">LOWER(SUBSTITUTE(SUBSTITUTE(B252," ","-"),"---","-"))</f>
@@ -41528,7 +41528,7 @@
     </row>
     <row r="253" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B253" s="3" t="s">
-        <v>7190</v>
+        <v>7166</v>
       </c>
       <c r="C253" t="str">
         <f t="shared" si="1"/>
@@ -41537,7 +41537,7 @@
     </row>
     <row r="254" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B254" s="3" t="s">
-        <v>7191</v>
+        <v>7167</v>
       </c>
       <c r="C254" t="str">
         <f t="shared" si="1"/>
@@ -41546,7 +41546,7 @@
     </row>
     <row r="255" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B255" s="3" t="s">
-        <v>7192</v>
+        <v>7168</v>
       </c>
       <c r="C255" t="str">
         <f t="shared" si="1"/>
@@ -41555,7 +41555,7 @@
     </row>
     <row r="256" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B256" s="3" t="s">
-        <v>7193</v>
+        <v>7169</v>
       </c>
       <c r="C256" t="str">
         <f t="shared" si="1"/>
@@ -41564,7 +41564,7 @@
     </row>
     <row r="257" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B257" s="3" t="s">
-        <v>7194</v>
+        <v>7170</v>
       </c>
       <c r="C257" t="str">
         <f t="shared" si="1"/>
@@ -41573,7 +41573,7 @@
     </row>
     <row r="258" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B258" s="3" t="s">
-        <v>7195</v>
+        <v>7171</v>
       </c>
       <c r="C258" t="str">
         <f t="shared" si="1"/>
@@ -41582,7 +41582,7 @@
     </row>
     <row r="259" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B259" s="3" t="s">
-        <v>7196</v>
+        <v>7172</v>
       </c>
       <c r="C259" t="str">
         <f t="shared" si="1"/>
@@ -41591,7 +41591,7 @@
     </row>
     <row r="260" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B260" s="3" t="s">
-        <v>7197</v>
+        <v>7173</v>
       </c>
       <c r="C260" t="str">
         <f t="shared" si="1"/>
@@ -41600,7 +41600,7 @@
     </row>
     <row r="261" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B261" s="3" t="s">
-        <v>7198</v>
+        <v>7174</v>
       </c>
       <c r="C261" t="str">
         <f t="shared" si="1"/>
@@ -41609,7 +41609,7 @@
     </row>
     <row r="262" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B262" s="3" t="s">
-        <v>7199</v>
+        <v>7175</v>
       </c>
       <c r="C262" t="str">
         <f t="shared" si="1"/>
@@ -41618,7 +41618,7 @@
     </row>
     <row r="263" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B263" s="3" t="s">
-        <v>7200</v>
+        <v>7176</v>
       </c>
       <c r="C263" t="str">
         <f t="shared" si="1"/>
@@ -41627,7 +41627,7 @@
     </row>
     <row r="264" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B264" s="3" t="s">
-        <v>7201</v>
+        <v>7177</v>
       </c>
       <c r="C264" t="str">
         <f t="shared" si="1"/>
@@ -41636,7 +41636,7 @@
     </row>
     <row r="265" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B265" s="3" t="s">
-        <v>7202</v>
+        <v>7178</v>
       </c>
       <c r="C265" t="str">
         <f t="shared" si="1"/>
@@ -41656,125 +41656,125 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9B5179E-762C-124B-A240-3A035CE5971A}">
   <dimension ref="A1:DC152"/>
   <sheetViews>
-    <sheetView tabSelected="true" zoomScaleNormal="100" workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="C124" xSplit="2" ySplit="2"/>
-      <selection activeCell="C1" pane="topRight" sqref="C1"/>
-      <selection activeCell="A3" pane="bottomLeft" sqref="A3"/>
-      <selection activeCell="B151" pane="bottomRight" sqref="B151"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C124" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B151" sqref="B151"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="true" max="1" min="1" width="23.5"/>
-    <col bestFit="true" customWidth="true" max="2" min="2" width="31"/>
-    <col customWidth="true" max="3" min="3" width="16"/>
-    <col customWidth="true" max="4" min="4" width="18"/>
-    <col bestFit="true" customWidth="true" max="5" min="5" width="17.875"/>
-    <col bestFit="true" customWidth="true" max="6" min="6" width="25"/>
-    <col bestFit="true" customWidth="true" max="7" min="7" width="24.875"/>
-    <col bestFit="true" customWidth="true" max="8" min="8" width="41"/>
-    <col bestFit="true" customWidth="true" max="9" min="9" width="12.5"/>
-    <col bestFit="true" customWidth="true" max="10" min="10" width="14.875"/>
-    <col bestFit="true" customWidth="true" max="11" min="11" width="8.875"/>
-    <col bestFit="true" customWidth="true" max="12" min="12" width="11.875"/>
-    <col bestFit="true" customWidth="true" max="13" min="13" width="41.625"/>
-    <col bestFit="true" customWidth="true" max="14" min="14" width="12.5"/>
-    <col bestFit="true" customWidth="true" max="15" min="15" width="14.875"/>
-    <col bestFit="true" customWidth="true" max="16" min="16" width="8.875"/>
-    <col bestFit="true" customWidth="true" max="17" min="17" width="11.875"/>
-    <col bestFit="true" customWidth="true" max="18" min="18" width="40"/>
-    <col bestFit="true" customWidth="true" max="19" min="19" width="12.5"/>
-    <col bestFit="true" customWidth="true" max="20" min="20" width="14.875"/>
-    <col bestFit="true" customWidth="true" max="21" min="21" width="8.875"/>
-    <col bestFit="true" customWidth="true" max="22" min="22" width="11.875"/>
-    <col bestFit="true" customWidth="true" max="23" min="23" width="37.375"/>
-    <col bestFit="true" customWidth="true" max="24" min="24" width="12.5"/>
-    <col bestFit="true" customWidth="true" max="25" min="25" width="14.875"/>
-    <col bestFit="true" customWidth="true" max="26" min="26" width="8.875"/>
-    <col bestFit="true" customWidth="true" max="27" min="27" width="11.875"/>
-    <col bestFit="true" customWidth="true" max="28" min="28" width="28.375"/>
-    <col bestFit="true" customWidth="true" max="29" min="29" width="12.5"/>
-    <col bestFit="true" customWidth="true" max="30" min="30" width="14.875"/>
-    <col bestFit="true" customWidth="true" max="31" min="31" width="8.875"/>
-    <col bestFit="true" customWidth="true" max="32" min="32" width="11.875"/>
-    <col bestFit="true" customWidth="true" max="33" min="33" width="37.375"/>
-    <col bestFit="true" customWidth="true" max="34" min="34" width="12.5"/>
-    <col bestFit="true" customWidth="true" max="35" min="35" width="14.875"/>
-    <col bestFit="true" customWidth="true" max="36" min="36" width="8.875"/>
-    <col bestFit="true" customWidth="true" max="37" min="37" width="11.875"/>
-    <col bestFit="true" customWidth="true" max="38" min="38" width="30.375"/>
-    <col bestFit="true" customWidth="true" max="39" min="39" width="12.5"/>
-    <col bestFit="true" customWidth="true" max="40" min="40" width="14.875"/>
-    <col bestFit="true" customWidth="true" max="41" min="41" width="8.875"/>
-    <col bestFit="true" customWidth="true" max="42" min="42" width="11.875"/>
-    <col bestFit="true" customWidth="true" max="43" min="43" width="37.375"/>
-    <col bestFit="true" customWidth="true" max="44" min="44" width="12.5"/>
-    <col bestFit="true" customWidth="true" max="45" min="45" width="14.875"/>
-    <col bestFit="true" customWidth="true" max="46" min="46" width="8.875"/>
-    <col bestFit="true" customWidth="true" max="47" min="47" width="11.875"/>
-    <col bestFit="true" customWidth="true" max="48" min="48" width="25"/>
-    <col bestFit="true" customWidth="true" max="49" min="49" width="12.5"/>
-    <col bestFit="true" customWidth="true" max="50" min="50" width="14.875"/>
-    <col bestFit="true" customWidth="true" max="51" min="51" width="8.875"/>
-    <col bestFit="true" customWidth="true" max="52" min="52" width="11.875"/>
-    <col bestFit="true" customWidth="true" max="53" min="53" width="28.875"/>
-    <col bestFit="true" customWidth="true" max="54" min="54" width="12.5"/>
-    <col bestFit="true" customWidth="true" max="55" min="55" width="14.875"/>
-    <col bestFit="true" customWidth="true" max="56" min="56" width="8.875"/>
-    <col bestFit="true" customWidth="true" max="57" min="57" width="11.875"/>
-    <col bestFit="true" customWidth="true" max="58" min="58" width="25"/>
-    <col bestFit="true" customWidth="true" max="59" min="59" width="12.5"/>
-    <col bestFit="true" customWidth="true" max="60" min="60" width="14.875"/>
-    <col bestFit="true" customWidth="true" max="61" min="61" width="8.875"/>
-    <col bestFit="true" customWidth="true" max="62" min="62" width="11.875"/>
-    <col bestFit="true" customWidth="true" max="63" min="63" width="26.375"/>
-    <col bestFit="true" customWidth="true" max="64" min="64" width="12.5"/>
-    <col bestFit="true" customWidth="true" max="65" min="65" width="14.875"/>
-    <col bestFit="true" customWidth="true" max="66" min="66" width="8.875"/>
-    <col bestFit="true" customWidth="true" max="67" min="67" width="11.875"/>
-    <col bestFit="true" customWidth="true" max="68" min="68" width="13.875"/>
-    <col bestFit="true" customWidth="true" max="69" min="69" width="12.5"/>
-    <col bestFit="true" customWidth="true" max="70" min="70" width="14.875"/>
-    <col bestFit="true" customWidth="true" max="71" min="71" width="8.875"/>
-    <col bestFit="true" customWidth="true" max="72" min="72" width="11.875"/>
-    <col bestFit="true" customWidth="true" max="73" min="73" width="13.875"/>
-    <col bestFit="true" customWidth="true" max="74" min="74" width="12.5"/>
-    <col bestFit="true" customWidth="true" max="75" min="75" width="14.875"/>
-    <col bestFit="true" customWidth="true" max="76" min="76" width="8.875"/>
-    <col bestFit="true" customWidth="true" max="77" min="77" width="11.875"/>
-    <col bestFit="true" customWidth="true" max="78" min="78" width="13.875"/>
-    <col bestFit="true" customWidth="true" max="79" min="79" width="12.5"/>
-    <col bestFit="true" customWidth="true" max="80" min="80" width="14.875"/>
-    <col bestFit="true" customWidth="true" max="81" min="81" width="8.875"/>
-    <col bestFit="true" customWidth="true" max="82" min="82" width="11.875"/>
-    <col bestFit="true" customWidth="true" max="83" min="83" width="13.875"/>
-    <col bestFit="true" customWidth="true" max="84" min="84" width="12.5"/>
-    <col bestFit="true" customWidth="true" max="85" min="85" width="14.875"/>
-    <col bestFit="true" customWidth="true" max="86" min="86" width="8.875"/>
-    <col bestFit="true" customWidth="true" max="87" min="87" width="11.875"/>
-    <col bestFit="true" customWidth="true" max="88" min="88" width="13.875"/>
-    <col bestFit="true" customWidth="true" max="89" min="89" width="12.5"/>
-    <col bestFit="true" customWidth="true" max="90" min="90" width="14.875"/>
-    <col bestFit="true" customWidth="true" max="91" min="91" width="8.875"/>
-    <col bestFit="true" customWidth="true" max="92" min="92" width="11.875"/>
-    <col bestFit="true" customWidth="true" max="93" min="93" width="13.875"/>
-    <col bestFit="true" customWidth="true" max="94" min="94" width="12.5"/>
-    <col bestFit="true" customWidth="true" max="95" min="95" width="14.875"/>
-    <col bestFit="true" customWidth="true" max="96" min="96" width="8.875"/>
-    <col bestFit="true" customWidth="true" max="97" min="97" width="11.875"/>
-    <col bestFit="true" customWidth="true" max="98" min="98" width="13.875"/>
-    <col bestFit="true" customWidth="true" max="99" min="99" width="12.5"/>
-    <col bestFit="true" customWidth="true" max="100" min="100" width="14.875"/>
-    <col bestFit="true" customWidth="true" max="101" min="101" width="8.875"/>
-    <col bestFit="true" customWidth="true" max="102" min="102" width="11.875"/>
-    <col bestFit="true" customWidth="true" max="103" min="103" width="13.875"/>
-    <col bestFit="true" customWidth="true" max="104" min="104" width="12.5"/>
-    <col bestFit="true" customWidth="true" max="105" min="105" width="14.875"/>
-    <col bestFit="true" customWidth="true" max="106" min="106" width="8.875"/>
-    <col bestFit="true" customWidth="true" max="107" min="107" width="11.875"/>
+    <col min="1" max="1" width="23.5" customWidth="1"/>
+    <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="41" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="41.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="40" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="37.375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="28.375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="37.375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="30.375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="37.375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="25" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="28.875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="25" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:107">
+    <row r="1" spans="1:107" x14ac:dyDescent="0.25">
       <c r="F1" t="s">
         <v>380</v>
       </c>
@@ -41919,7 +41919,7 @@
       <c r="DB1" s="4"/>
       <c r="DC1" s="4"/>
     </row>
-    <row r="2" spans="1:107">
+    <row r="2" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -42242,7 +42242,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="3" spans="1:107">
+    <row r="3" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>610</v>
       </c>
@@ -42307,7 +42307,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="4" spans="1:107">
+    <row r="4" spans="1:107" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>427</v>
       </c>
@@ -42369,7 +42369,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="5" spans="1:107">
+    <row r="5" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>611</v>
       </c>
@@ -42392,7 +42392,7 @@
         <v>946</v>
       </c>
       <c r="H5" t="s">
-        <v>7194</v>
+        <v>7170</v>
       </c>
       <c r="I5" t="s">
         <v>381</v>
@@ -42446,7 +42446,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="6" spans="1:107">
+    <row r="6" spans="1:107" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>428</v>
       </c>
@@ -42466,7 +42466,7 @@
         <v>381</v>
       </c>
       <c r="H6" t="s">
-        <v>7194</v>
+        <v>7170</v>
       </c>
       <c r="I6" t="s">
         <v>381</v>
@@ -42520,7 +42520,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="7" spans="1:107">
+    <row r="7" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>612</v>
       </c>
@@ -42588,7 +42588,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="8" spans="1:107">
+    <row r="8" spans="1:107" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>429</v>
       </c>
@@ -42653,7 +42653,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="9" spans="1:107">
+    <row r="9" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>613</v>
       </c>
@@ -42730,7 +42730,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="10" spans="1:107">
+    <row r="10" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>614</v>
       </c>
@@ -42807,7 +42807,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="11" spans="1:107">
+    <row r="11" spans="1:107" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>431</v>
       </c>
@@ -42881,7 +42881,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="12" spans="1:107">
+    <row r="12" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>615</v>
       </c>
@@ -42958,7 +42958,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="13" spans="1:107">
+    <row r="13" spans="1:107" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>432</v>
       </c>
@@ -43032,7 +43032,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="14" spans="1:107">
+    <row r="14" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>616</v>
       </c>
@@ -43097,7 +43097,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="15" spans="1:107">
+    <row r="15" spans="1:107" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>433</v>
       </c>
@@ -43159,7 +43159,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="16" spans="1:107">
+    <row r="16" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>617</v>
       </c>
@@ -43224,7 +43224,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="17" spans="1:72">
+    <row r="17" spans="1:72" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>434</v>
       </c>
@@ -43286,7 +43286,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="18" spans="1:72">
+    <row r="18" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>618</v>
       </c>
@@ -43375,7 +43375,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="19" spans="1:72">
+    <row r="19" spans="1:72" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>435</v>
       </c>
@@ -43458,7 +43458,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="20" spans="1:72">
+    <row r="20" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>619</v>
       </c>
@@ -43547,7 +43547,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="21" spans="1:72">
+    <row r="21" spans="1:72" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>436</v>
       </c>
@@ -43630,7 +43630,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="22" spans="1:72">
+    <row r="22" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>620</v>
       </c>
@@ -43707,7 +43707,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="23" spans="1:72">
+    <row r="23" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>621</v>
       </c>
@@ -43784,7 +43784,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="24" spans="1:72">
+    <row r="24" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>622</v>
       </c>
@@ -43861,7 +43861,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="25" spans="1:72">
+    <row r="25" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>623</v>
       </c>
@@ -43938,7 +43938,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="26" spans="1:72">
+    <row r="26" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>624</v>
       </c>
@@ -44015,7 +44015,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="27" spans="1:72">
+    <row r="27" spans="1:72" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>441</v>
       </c>
@@ -44089,7 +44089,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="28" spans="1:72">
+    <row r="28" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>625</v>
       </c>
@@ -44166,7 +44166,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="29" spans="1:72">
+    <row r="29" spans="1:72" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>442</v>
       </c>
@@ -44237,7 +44237,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="30" spans="1:72">
+    <row r="30" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>626</v>
       </c>
@@ -44290,7 +44290,7 @@
         <v>0.125</v>
       </c>
       <c r="R30" t="s">
-        <v>7183</v>
+        <v>7159</v>
       </c>
       <c r="V30">
         <v>0.17499999999999999</v>
@@ -44302,7 +44302,7 @@
         <v>0.35</v>
       </c>
       <c r="AB30" t="s">
-        <v>7183</v>
+        <v>7159</v>
       </c>
       <c r="AF30">
         <v>0.2</v>
@@ -44332,7 +44332,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="31" spans="1:72">
+    <row r="31" spans="1:72" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>443</v>
       </c>
@@ -44379,7 +44379,7 @@
         <v>0.125</v>
       </c>
       <c r="R31" t="s">
-        <v>7184</v>
+        <v>7160</v>
       </c>
       <c r="V31">
         <v>0.17499999999999999</v>
@@ -44391,7 +44391,7 @@
         <v>0.35</v>
       </c>
       <c r="AB31" t="s">
-        <v>7184</v>
+        <v>7160</v>
       </c>
       <c r="AF31">
         <v>0.2</v>
@@ -44421,7 +44421,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="32" spans="1:72">
+    <row r="32" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>627</v>
       </c>
@@ -44504,7 +44504,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="33" spans="1:77">
+    <row r="33" spans="1:77" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>444</v>
       </c>
@@ -44581,7 +44581,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="34" spans="1:77">
+    <row r="34" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>628</v>
       </c>
@@ -44682,7 +44682,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="35" spans="1:77">
+    <row r="35" spans="1:77" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>445</v>
       </c>
@@ -44777,7 +44777,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="36" spans="1:77">
+    <row r="36" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>629</v>
       </c>
@@ -44899,7 +44899,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="37" spans="1:77">
+    <row r="37" spans="1:77" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>446</v>
       </c>
@@ -45018,7 +45018,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="38" spans="1:77">
+    <row r="38" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>630</v>
       </c>
@@ -45071,7 +45071,7 @@
         <v>0.13125000000000001</v>
       </c>
       <c r="R38" t="s">
-        <v>7183</v>
+        <v>7159</v>
       </c>
       <c r="V38" s="3">
         <v>0.125</v>
@@ -45113,7 +45113,7 @@
         <v>0.17499999999999999</v>
       </c>
       <c r="AL38" t="s">
-        <v>7183</v>
+        <v>7159</v>
       </c>
       <c r="AP38">
         <v>0.13750000000000001</v>
@@ -45140,7 +45140,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="39" spans="1:77">
+    <row r="39" spans="1:77" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>447</v>
       </c>
@@ -45187,7 +45187,7 @@
         <v>0.13125000000000001</v>
       </c>
       <c r="R39" t="s">
-        <v>7184</v>
+        <v>7160</v>
       </c>
       <c r="V39" s="3">
         <v>0.125</v>
@@ -45229,7 +45229,7 @@
         <v>0.17499999999999999</v>
       </c>
       <c r="AL39" t="s">
-        <v>7184</v>
+        <v>7160</v>
       </c>
       <c r="AP39">
         <v>0.13750000000000001</v>
@@ -45256,7 +45256,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="40" spans="1:77">
+    <row r="40" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>631</v>
       </c>
@@ -45309,7 +45309,7 @@
         <v>0.1</v>
       </c>
       <c r="R40" t="s">
-        <v>7183</v>
+        <v>7159</v>
       </c>
       <c r="V40" s="3">
         <v>0.1</v>
@@ -45381,7 +45381,7 @@
         <v>0.16</v>
       </c>
       <c r="AV40" t="s">
-        <v>7183</v>
+        <v>7159</v>
       </c>
       <c r="AZ40">
         <v>0.1</v>
@@ -45402,7 +45402,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="41" spans="1:77">
+    <row r="41" spans="1:77" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>448</v>
       </c>
@@ -45449,7 +45449,7 @@
         <v>0.1</v>
       </c>
       <c r="R41" t="s">
-        <v>7184</v>
+        <v>7160</v>
       </c>
       <c r="V41" s="3">
         <v>0.1</v>
@@ -45521,7 +45521,7 @@
         <v>0.16</v>
       </c>
       <c r="AV41" t="s">
-        <v>7184</v>
+        <v>7160</v>
       </c>
       <c r="AZ41">
         <v>0.1</v>
@@ -45542,7 +45542,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="42" spans="1:77">
+    <row r="42" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>632</v>
       </c>
@@ -45619,7 +45619,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="43" spans="1:77">
+    <row r="43" spans="1:77" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>449</v>
       </c>
@@ -45693,7 +45693,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="44" spans="1:77">
+    <row r="44" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>633</v>
       </c>
@@ -45731,7 +45731,7 @@
         <v>0.36</v>
       </c>
       <c r="M44" t="s">
-        <v>7189</v>
+        <v>7165</v>
       </c>
       <c r="Q44">
         <v>0.14000000000000001</v>
@@ -45743,7 +45743,7 @@
         <v>0.36</v>
       </c>
       <c r="W44" t="s">
-        <v>7189</v>
+        <v>7165</v>
       </c>
       <c r="AA44">
         <v>0.14000000000000001</v>
@@ -45776,7 +45776,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="45" spans="1:77">
+    <row r="45" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>634</v>
       </c>
@@ -45814,7 +45814,7 @@
         <v>0.36</v>
       </c>
       <c r="M45" t="s">
-        <v>7190</v>
+        <v>7166</v>
       </c>
       <c r="Q45">
         <v>0.14000000000000001</v>
@@ -45826,7 +45826,7 @@
         <v>0.36</v>
       </c>
       <c r="W45" t="s">
-        <v>7190</v>
+        <v>7166</v>
       </c>
       <c r="AA45">
         <v>0.14000000000000001</v>
@@ -45859,7 +45859,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="46" spans="1:77">
+    <row r="46" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>635</v>
       </c>
@@ -45897,7 +45897,7 @@
         <v>0.36</v>
       </c>
       <c r="M46" t="s">
-        <v>7189</v>
+        <v>7165</v>
       </c>
       <c r="Q46">
         <v>0.14000000000000001</v>
@@ -45909,7 +45909,7 @@
         <v>0.36</v>
       </c>
       <c r="W46" t="s">
-        <v>7189</v>
+        <v>7165</v>
       </c>
       <c r="AA46">
         <v>0.14000000000000001</v>
@@ -45942,7 +45942,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="47" spans="1:77">
+    <row r="47" spans="1:77" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>452</v>
       </c>
@@ -45974,7 +45974,7 @@
         <v>0.36</v>
       </c>
       <c r="M47" t="s">
-        <v>7190</v>
+        <v>7166</v>
       </c>
       <c r="Q47">
         <v>0.14000000000000001</v>
@@ -45986,7 +45986,7 @@
         <v>0.36</v>
       </c>
       <c r="W47" t="s">
-        <v>7190</v>
+        <v>7166</v>
       </c>
       <c r="AA47">
         <v>0.14000000000000001</v>
@@ -46019,7 +46019,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="48" spans="1:77">
+    <row r="48" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>636</v>
       </c>
@@ -46108,7 +46108,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="49" spans="1:72">
+    <row r="49" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>637</v>
       </c>
@@ -46197,7 +46197,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="50" spans="1:72">
+    <row r="50" spans="1:72" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>454</v>
       </c>
@@ -46280,7 +46280,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="51" spans="1:72">
+    <row r="51" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>638</v>
       </c>
@@ -46303,7 +46303,7 @@
         <v>973</v>
       </c>
       <c r="H51" t="s">
-        <v>7185</v>
+        <v>7161</v>
       </c>
       <c r="I51" t="s">
         <v>381</v>
@@ -46357,7 +46357,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="52" spans="1:72">
+    <row r="52" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>639</v>
       </c>
@@ -46380,7 +46380,7 @@
         <v>974</v>
       </c>
       <c r="H52" t="s">
-        <v>7185</v>
+        <v>7161</v>
       </c>
       <c r="I52" t="s">
         <v>381</v>
@@ -46443,7 +46443,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="53" spans="1:72">
+    <row r="53" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>640</v>
       </c>
@@ -46466,7 +46466,7 @@
         <v>975</v>
       </c>
       <c r="H53" t="s">
-        <v>7192</v>
+        <v>7168</v>
       </c>
       <c r="I53" t="s">
         <v>381</v>
@@ -46520,7 +46520,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="54" spans="1:72">
+    <row r="54" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>641</v>
       </c>
@@ -46597,7 +46597,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="55" spans="1:72">
+    <row r="55" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>642</v>
       </c>
@@ -46620,7 +46620,7 @@
         <v>977</v>
       </c>
       <c r="H55" t="s">
-        <v>7185</v>
+        <v>7161</v>
       </c>
       <c r="I55" t="s">
         <v>381</v>
@@ -46674,7 +46674,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="56" spans="1:72">
+    <row r="56" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>643</v>
       </c>
@@ -46697,7 +46697,7 @@
         <v>978</v>
       </c>
       <c r="H56" t="s">
-        <v>7185</v>
+        <v>7161</v>
       </c>
       <c r="I56" t="s">
         <v>381</v>
@@ -46775,7 +46775,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="57" spans="1:72">
+    <row r="57" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>644</v>
       </c>
@@ -46798,7 +46798,7 @@
         <v>979</v>
       </c>
       <c r="H57" t="s">
-        <v>7185</v>
+        <v>7161</v>
       </c>
       <c r="I57" t="s">
         <v>381</v>
@@ -46900,7 +46900,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="58" spans="1:72">
+    <row r="58" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>645</v>
       </c>
@@ -46923,7 +46923,7 @@
         <v>980</v>
       </c>
       <c r="H58" t="s">
-        <v>7185</v>
+        <v>7161</v>
       </c>
       <c r="I58" t="s">
         <v>381</v>
@@ -46986,7 +46986,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="59" spans="1:72">
+    <row r="59" spans="1:72" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>462</v>
       </c>
@@ -47003,7 +47003,7 @@
         <v>381</v>
       </c>
       <c r="H59" t="s">
-        <v>7192</v>
+        <v>7168</v>
       </c>
       <c r="I59" t="s">
         <v>381</v>
@@ -47066,7 +47066,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="60" spans="1:72">
+    <row r="60" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>646</v>
       </c>
@@ -47209,7 +47209,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="61" spans="1:72">
+    <row r="61" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>647</v>
       </c>
@@ -47358,7 +47358,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="62" spans="1:72">
+    <row r="62" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>648</v>
       </c>
@@ -47477,7 +47477,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="63" spans="1:72">
+    <row r="63" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>649</v>
       </c>
@@ -47620,7 +47620,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="64" spans="1:72">
+    <row r="64" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>650</v>
       </c>
@@ -47643,7 +47643,7 @@
         <v>985</v>
       </c>
       <c r="H64" t="s">
-        <v>7185</v>
+        <v>7161</v>
       </c>
       <c r="I64" t="s">
         <v>381</v>
@@ -47763,7 +47763,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="65" spans="1:72">
+    <row r="65" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>651</v>
       </c>
@@ -47906,7 +47906,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="66" spans="1:72">
+    <row r="66" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>652</v>
       </c>
@@ -48049,7 +48049,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="67" spans="1:72">
+    <row r="67" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>653</v>
       </c>
@@ -48216,7 +48216,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="68" spans="1:72">
+    <row r="68" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>654</v>
       </c>
@@ -48293,7 +48293,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="69" spans="1:72">
+    <row r="69" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>655</v>
       </c>
@@ -48385,7 +48385,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="70" spans="1:72">
+    <row r="70" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>656</v>
       </c>
@@ -48462,7 +48462,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="71" spans="1:72">
+    <row r="71" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>657</v>
       </c>
@@ -48539,7 +48539,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="72" spans="1:72">
+    <row r="72" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>658</v>
       </c>
@@ -48616,7 +48616,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="73" spans="1:72">
+    <row r="73" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>659</v>
       </c>
@@ -48693,7 +48693,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="74" spans="1:72">
+    <row r="74" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>660</v>
       </c>
@@ -48788,7 +48788,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="75" spans="1:72">
+    <row r="75" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>661</v>
       </c>
@@ -48889,7 +48889,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="76" spans="1:72">
+    <row r="76" spans="1:72" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>478</v>
       </c>
@@ -48984,7 +48984,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="77" spans="1:72">
+    <row r="77" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>662</v>
       </c>
@@ -49061,7 +49061,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="78" spans="1:72">
+    <row r="78" spans="1:72" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>479</v>
       </c>
@@ -49132,7 +49132,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="79" spans="1:72">
+    <row r="79" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>663</v>
       </c>
@@ -49209,7 +49209,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="80" spans="1:72">
+    <row r="80" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>664</v>
       </c>
@@ -49286,7 +49286,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="81" spans="1:72">
+    <row r="81" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>665</v>
       </c>
@@ -49363,7 +49363,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="82" spans="1:72">
+    <row r="82" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>666</v>
       </c>
@@ -49440,7 +49440,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="83" spans="1:72">
+    <row r="83" spans="1:72" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>483</v>
       </c>
@@ -49511,7 +49511,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="84" spans="1:72">
+    <row r="84" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>667</v>
       </c>
@@ -49612,7 +49612,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="85" spans="1:72">
+    <row r="85" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>668</v>
       </c>
@@ -49689,7 +49689,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="86" spans="1:72">
+    <row r="86" spans="1:72" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>485</v>
       </c>
@@ -49763,7 +49763,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="87" spans="1:72">
+    <row r="87" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>669</v>
       </c>
@@ -49864,7 +49864,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="88" spans="1:72">
+    <row r="88" spans="1:72" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>486</v>
       </c>
@@ -49962,7 +49962,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="89" spans="1:72">
+    <row r="89" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>670</v>
       </c>
@@ -50039,7 +50039,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="90" spans="1:72">
+    <row r="90" spans="1:72" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>487</v>
       </c>
@@ -50113,7 +50113,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="91" spans="1:72">
+    <row r="91" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>671</v>
       </c>
@@ -50136,7 +50136,7 @@
         <v>1006</v>
       </c>
       <c r="H91" t="s">
-        <v>7188</v>
+        <v>7164</v>
       </c>
       <c r="L91">
         <v>0.35</v>
@@ -50190,7 +50190,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="92" spans="1:72">
+    <row r="92" spans="1:72" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>488</v>
       </c>
@@ -50210,7 +50210,7 @@
         <v>381</v>
       </c>
       <c r="H92" t="s">
-        <v>7188</v>
+        <v>7164</v>
       </c>
       <c r="L92">
         <v>0.35</v>
@@ -50264,7 +50264,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="93" spans="1:72">
+    <row r="93" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>672</v>
       </c>
@@ -50302,7 +50302,7 @@
         <v>0.3</v>
       </c>
       <c r="M93" t="s">
-        <v>7188</v>
+        <v>7164</v>
       </c>
       <c r="Q93">
         <v>0.2</v>
@@ -50314,7 +50314,7 @@
         <v>0.3</v>
       </c>
       <c r="W93" t="s">
-        <v>7188</v>
+        <v>7164</v>
       </c>
       <c r="AA93">
         <v>0.2</v>
@@ -50347,7 +50347,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="94" spans="1:72">
+    <row r="94" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>673</v>
       </c>
@@ -50370,7 +50370,7 @@
         <v>1008</v>
       </c>
       <c r="H94" t="s">
-        <v>7188</v>
+        <v>7164</v>
       </c>
       <c r="L94">
         <v>0.35</v>
@@ -50424,7 +50424,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="95" spans="1:72">
+    <row r="95" spans="1:72" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>490</v>
       </c>
@@ -50444,7 +50444,7 @@
         <v>381</v>
       </c>
       <c r="H95" t="s">
-        <v>7188</v>
+        <v>7164</v>
       </c>
       <c r="L95">
         <v>0.35</v>
@@ -50498,7 +50498,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="96" spans="1:72">
+    <row r="96" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>674</v>
       </c>
@@ -50596,7 +50596,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="97" spans="1:72">
+    <row r="97" spans="1:72" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>491</v>
       </c>
@@ -50691,7 +50691,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="98" spans="1:72">
+    <row r="98" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>675</v>
       </c>
@@ -50768,7 +50768,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="99" spans="1:72">
+    <row r="99" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>676</v>
       </c>
@@ -50845,7 +50845,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="100" spans="1:72">
+    <row r="100" spans="1:72" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>493</v>
       </c>
@@ -50919,7 +50919,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="101" spans="1:72">
+    <row r="101" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>677</v>
       </c>
@@ -51044,7 +51044,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="102" spans="1:72">
+    <row r="102" spans="1:72" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>494</v>
       </c>
@@ -51166,7 +51166,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="103" spans="1:72">
+    <row r="103" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>678</v>
       </c>
@@ -51267,7 +51267,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="104" spans="1:72">
+    <row r="104" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>679</v>
       </c>
@@ -51344,7 +51344,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="105" spans="1:72">
+    <row r="105" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>680</v>
       </c>
@@ -51421,7 +51421,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="106" spans="1:72">
+    <row r="106" spans="1:72" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>497</v>
       </c>
@@ -51495,7 +51495,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="107" spans="1:72">
+    <row r="107" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>681</v>
       </c>
@@ -51533,7 +51533,7 @@
         <v>0.3</v>
       </c>
       <c r="M107" t="s">
-        <v>7186</v>
+        <v>7162</v>
       </c>
       <c r="Q107">
         <v>0.2</v>
@@ -51545,7 +51545,7 @@
         <v>0.3</v>
       </c>
       <c r="W107" t="s">
-        <v>7186</v>
+        <v>7162</v>
       </c>
       <c r="AA107">
         <v>0.2</v>
@@ -51578,7 +51578,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="108" spans="1:72">
+    <row r="108" spans="1:72" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>498</v>
       </c>
@@ -51613,7 +51613,7 @@
         <v>0.3</v>
       </c>
       <c r="M108" t="s">
-        <v>7187</v>
+        <v>7163</v>
       </c>
       <c r="Q108">
         <v>0.2</v>
@@ -51625,7 +51625,7 @@
         <v>0.3</v>
       </c>
       <c r="W108" t="s">
-        <v>7187</v>
+        <v>7163</v>
       </c>
       <c r="AA108">
         <v>0.2</v>
@@ -51658,7 +51658,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="109" spans="1:72">
+    <row r="109" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>682</v>
       </c>
@@ -51681,7 +51681,7 @@
         <v>1017</v>
       </c>
       <c r="H109" t="s">
-        <v>7185</v>
+        <v>7161</v>
       </c>
       <c r="I109" t="s">
         <v>381</v>
@@ -51711,7 +51711,7 @@
         <v>0.25</v>
       </c>
       <c r="R109" t="s">
-        <v>7185</v>
+        <v>7161</v>
       </c>
       <c r="S109" t="s">
         <v>381</v>
@@ -51726,7 +51726,7 @@
         <v>0.15</v>
       </c>
       <c r="W109" s="3" t="s">
-        <v>7198</v>
+        <v>7174</v>
       </c>
       <c r="AA109">
         <v>0.3</v>
@@ -51759,7 +51759,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="110" spans="1:72">
+    <row r="110" spans="1:72" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>499</v>
       </c>
@@ -51779,7 +51779,7 @@
         <v>381</v>
       </c>
       <c r="H110" t="s">
-        <v>7185</v>
+        <v>7161</v>
       </c>
       <c r="I110" t="s">
         <v>381</v>
@@ -51809,7 +51809,7 @@
         <v>0.25</v>
       </c>
       <c r="R110" t="s">
-        <v>7185</v>
+        <v>7161</v>
       </c>
       <c r="S110" t="s">
         <v>381</v>
@@ -51824,7 +51824,7 @@
         <v>0.15</v>
       </c>
       <c r="W110" s="3" t="s">
-        <v>7199</v>
+        <v>7175</v>
       </c>
       <c r="AA110">
         <v>0.3</v>
@@ -51857,7 +51857,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="111" spans="1:72">
+    <row r="111" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>683</v>
       </c>
@@ -51880,7 +51880,7 @@
         <v>1018</v>
       </c>
       <c r="H111" t="s">
-        <v>7185</v>
+        <v>7161</v>
       </c>
       <c r="I111" t="s">
         <v>381</v>
@@ -51910,7 +51910,7 @@
         <v>0.22500000000000001</v>
       </c>
       <c r="R111" t="s">
-        <v>7185</v>
+        <v>7161</v>
       </c>
       <c r="S111" t="s">
         <v>381</v>
@@ -51925,7 +51925,7 @@
         <v>0.125</v>
       </c>
       <c r="W111" s="3" t="s">
-        <v>7198</v>
+        <v>7174</v>
       </c>
       <c r="Y111" t="s">
         <v>381</v>
@@ -51937,7 +51937,7 @@
         <v>0.16250000000000001</v>
       </c>
       <c r="AB111" s="3" t="s">
-        <v>7200</v>
+        <v>7176</v>
       </c>
       <c r="AF111">
         <v>0.21249999999999999</v>
@@ -51967,7 +51967,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="112" spans="1:72">
+    <row r="112" spans="1:72" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>500</v>
       </c>
@@ -51987,7 +51987,7 @@
         <v>381</v>
       </c>
       <c r="H112" t="s">
-        <v>7185</v>
+        <v>7161</v>
       </c>
       <c r="I112" t="s">
         <v>381</v>
@@ -52017,7 +52017,7 @@
         <v>0.22500000000000001</v>
       </c>
       <c r="R112" t="s">
-        <v>7185</v>
+        <v>7161</v>
       </c>
       <c r="S112" t="s">
         <v>381</v>
@@ -52032,7 +52032,7 @@
         <v>0.125</v>
       </c>
       <c r="W112" s="3" t="s">
-        <v>7199</v>
+        <v>7175</v>
       </c>
       <c r="Y112" t="s">
         <v>381</v>
@@ -52044,7 +52044,7 @@
         <v>0.16250000000000001</v>
       </c>
       <c r="AB112" s="3" t="s">
-        <v>7201</v>
+        <v>7177</v>
       </c>
       <c r="AF112">
         <v>0.21249999999999999</v>
@@ -52074,7 +52074,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="113" spans="1:72">
+    <row r="113" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>684</v>
       </c>
@@ -52112,7 +52112,7 @@
         <v>0.4</v>
       </c>
       <c r="M113" t="s">
-        <v>7191</v>
+        <v>7167</v>
       </c>
       <c r="Q113">
         <v>0.1</v>
@@ -52124,7 +52124,7 @@
         <v>0.4</v>
       </c>
       <c r="W113" t="s">
-        <v>7191</v>
+        <v>7167</v>
       </c>
       <c r="AA113">
         <v>0.1</v>
@@ -52157,7 +52157,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="114" spans="1:72">
+    <row r="114" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>685</v>
       </c>
@@ -52180,7 +52180,7 @@
         <v>1020</v>
       </c>
       <c r="H114" t="s">
-        <v>7202</v>
+        <v>7178</v>
       </c>
       <c r="I114" t="s">
         <v>381</v>
@@ -52210,7 +52210,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="R114" t="s">
-        <v>7193</v>
+        <v>7169</v>
       </c>
       <c r="S114" t="s">
         <v>381</v>
@@ -52300,7 +52300,7 @@
         <v>0.125</v>
       </c>
       <c r="AV114" t="s">
-        <v>7193</v>
+        <v>7169</v>
       </c>
       <c r="AW114" t="s">
         <v>381</v>
@@ -52330,7 +52330,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="115" spans="1:72">
+    <row r="115" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>686</v>
       </c>
@@ -52353,7 +52353,7 @@
         <v>1021</v>
       </c>
       <c r="H115" t="s">
-        <v>7202</v>
+        <v>7178</v>
       </c>
       <c r="I115" t="s">
         <v>381</v>
@@ -52383,7 +52383,7 @@
         <v>0.1</v>
       </c>
       <c r="R115" t="s">
-        <v>7193</v>
+        <v>7169</v>
       </c>
       <c r="S115" t="s">
         <v>381</v>
@@ -52443,7 +52443,7 @@
         <v>0.15</v>
       </c>
       <c r="AL115" t="s">
-        <v>7193</v>
+        <v>7169</v>
       </c>
       <c r="AM115" t="s">
         <v>381</v>
@@ -52479,7 +52479,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="116" spans="1:72">
+    <row r="116" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>687</v>
       </c>
@@ -52556,7 +52556,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="117" spans="1:72">
+    <row r="117" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>688</v>
       </c>
@@ -52681,7 +52681,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="118" spans="1:72">
+    <row r="118" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>689</v>
       </c>
@@ -52755,7 +52755,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="119" spans="1:72">
+    <row r="119" spans="1:72" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>506</v>
       </c>
@@ -52829,7 +52829,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="120" spans="1:72">
+    <row r="120" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>690</v>
       </c>
@@ -52906,7 +52906,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="121" spans="1:72">
+    <row r="121" spans="1:72" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>507</v>
       </c>
@@ -52980,7 +52980,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="122" spans="1:72">
+    <row r="122" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>691</v>
       </c>
@@ -53057,7 +53057,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="123" spans="1:72">
+    <row r="123" spans="1:72" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
         <v>508</v>
       </c>
@@ -53131,7 +53131,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="124" spans="1:72">
+    <row r="124" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>692</v>
       </c>
@@ -53184,7 +53184,7 @@
         <v>0.32500000000000001</v>
       </c>
       <c r="R124" t="s">
-        <v>7185</v>
+        <v>7161</v>
       </c>
       <c r="S124" t="s">
         <v>381</v>
@@ -53199,7 +53199,7 @@
         <v>0.17499999999999999</v>
       </c>
       <c r="W124" t="s">
-        <v>7197</v>
+        <v>7173</v>
       </c>
       <c r="AA124">
         <v>0.17499999999999999</v>
@@ -53232,7 +53232,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="125" spans="1:72">
+    <row r="125" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>693</v>
       </c>
@@ -53309,7 +53309,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="126" spans="1:72">
+    <row r="126" spans="1:72" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
         <v>510</v>
       </c>
@@ -53383,7 +53383,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="127" spans="1:72">
+    <row r="127" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>694</v>
       </c>
@@ -53472,7 +53472,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="128" spans="1:72">
+    <row r="128" spans="1:72" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
         <v>511</v>
       </c>
@@ -53558,7 +53558,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="129" spans="1:72">
+    <row r="129" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>695</v>
       </c>
@@ -53692,7 +53692,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="130" spans="1:72">
+    <row r="130" spans="1:72" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>512</v>
       </c>
@@ -53763,7 +53763,7 @@
         <v>0.17499999999999996</v>
       </c>
     </row>
-    <row r="131" spans="1:72">
+    <row r="131" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>696</v>
       </c>
@@ -53888,7 +53888,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="132" spans="1:72">
+    <row r="132" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>697</v>
       </c>
@@ -53965,7 +53965,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="133" spans="1:72">
+    <row r="133" spans="1:72" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
         <v>514</v>
       </c>
@@ -54039,7 +54039,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="134" spans="1:72">
+    <row r="134" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>698</v>
       </c>
@@ -54077,7 +54077,7 @@
         <v>0.4</v>
       </c>
       <c r="M134" t="s">
-        <v>7191</v>
+        <v>7167</v>
       </c>
       <c r="Q134">
         <v>0.1</v>
@@ -54089,7 +54089,7 @@
         <v>0.4</v>
       </c>
       <c r="W134" t="s">
-        <v>7191</v>
+        <v>7167</v>
       </c>
       <c r="AA134">
         <v>0.1</v>
@@ -54122,7 +54122,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="135" spans="1:72">
+    <row r="135" spans="1:72" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
         <v>515</v>
       </c>
@@ -54157,7 +54157,7 @@
         <v>0.4</v>
       </c>
       <c r="M135" t="s">
-        <v>7191</v>
+        <v>7167</v>
       </c>
       <c r="Q135">
         <v>0.1</v>
@@ -54169,7 +54169,7 @@
         <v>0.4</v>
       </c>
       <c r="W135" t="s">
-        <v>7191</v>
+        <v>7167</v>
       </c>
       <c r="AA135">
         <v>0.1</v>
@@ -54202,7 +54202,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="136" spans="1:72">
+    <row r="136" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>699</v>
       </c>
@@ -54369,7 +54369,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="137" spans="1:72">
+    <row r="137" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>700</v>
       </c>
@@ -54536,7 +54536,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="138" spans="1:72">
+    <row r="138" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>701</v>
       </c>
@@ -54559,7 +54559,7 @@
         <v>1036</v>
       </c>
       <c r="H138" t="s">
-        <v>7202</v>
+        <v>7178</v>
       </c>
       <c r="I138" t="s">
         <v>381</v>
@@ -54589,7 +54589,7 @@
         <v>6.8250000000000005E-2</v>
       </c>
       <c r="R138" t="s">
-        <v>7193</v>
+        <v>7169</v>
       </c>
       <c r="S138" t="s">
         <v>381</v>
@@ -54709,7 +54709,7 @@
         <v>0.11375</v>
       </c>
       <c r="BF138" t="s">
-        <v>7193</v>
+        <v>7169</v>
       </c>
       <c r="BG138" t="s">
         <v>381</v>
@@ -54733,7 +54733,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="139" spans="1:72">
+    <row r="139" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>702</v>
       </c>
@@ -54810,7 +54810,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="140" spans="1:72">
+    <row r="140" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>703</v>
       </c>
@@ -54833,7 +54833,7 @@
         <v>1038</v>
       </c>
       <c r="H140" t="s">
-        <v>7185</v>
+        <v>7161</v>
       </c>
       <c r="I140" t="s">
         <v>381</v>
@@ -54977,7 +54977,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="141" spans="1:72">
+    <row r="141" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>704</v>
       </c>
@@ -55054,7 +55054,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="142" spans="1:72">
+    <row r="142" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>705</v>
       </c>
@@ -55131,7 +55131,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="143" spans="1:72">
+    <row r="143" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>706</v>
       </c>
@@ -55208,7 +55208,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="144" spans="1:72">
+    <row r="144" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>707</v>
       </c>
@@ -55285,7 +55285,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="145" spans="1:82">
+    <row r="145" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>708</v>
       </c>
@@ -55362,7 +55362,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="146" spans="1:82">
+    <row r="146" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>709</v>
       </c>
@@ -55439,7 +55439,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="147" spans="1:82">
+    <row r="147" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>710</v>
       </c>
@@ -55564,7 +55564,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="148" spans="1:82">
+    <row r="148" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>711</v>
       </c>
@@ -55731,7 +55731,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="149" spans="1:82">
+    <row r="149" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>712</v>
       </c>
@@ -55898,7 +55898,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="150" spans="1:82">
+    <row r="150" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>713</v>
       </c>
@@ -56065,12 +56065,12 @@
         <v>381</v>
       </c>
     </row>
-    <row r="151" spans="1:82">
+    <row r="151" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>7209</v>
+        <v>7183</v>
       </c>
       <c r="B151" t="s">
-        <v>7203</v>
+        <v>7179</v>
       </c>
       <c r="C151">
         <v>13</v>
@@ -56082,7 +56082,7 @@
         <v>536</v>
       </c>
       <c r="G151" t="s">
-        <v>7208</v>
+        <v>7182</v>
       </c>
       <c r="H151" t="s">
         <v>170</v>
@@ -56310,12 +56310,12 @@
         <v>381</v>
       </c>
     </row>
-    <row r="152" spans="1:82">
+    <row r="152" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>7210</v>
+        <v>7184</v>
       </c>
       <c r="B152" t="s">
-        <v>7204</v>
+        <v>7180</v>
       </c>
       <c r="C152">
         <v>10</v>
@@ -56327,7 +56327,7 @@
         <v>536</v>
       </c>
       <c r="G152" t="s">
-        <v>7207</v>
+        <v>7181</v>
       </c>
       <c r="H152" t="s">
         <v>170</v>
@@ -56556,7 +56556,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:DC150"/>
+  <autoFilter ref="A2:DC150" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="20">
     <mergeCell ref="CT1:CX1"/>
     <mergeCell ref="CY1:DC1"/>
@@ -57643,7 +57643,7 @@
         <v>0.21</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>7196</v>
+        <v>7172</v>
       </c>
       <c r="M30">
         <v>0.21</v>
@@ -57675,7 +57675,7 @@
         <v>0.21</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>7196</v>
+        <v>7172</v>
       </c>
       <c r="M31">
         <v>0.21</v>
@@ -57961,7 +57961,7 @@
         <v>0.33300000000000002</v>
       </c>
       <c r="H42" t="s">
-        <v>7179</v>
+        <v>7155</v>
       </c>
       <c r="I42">
         <v>0.66700000000000004</v>
@@ -57987,7 +57987,7 @@
         <v>0.3</v>
       </c>
       <c r="H43" t="s">
-        <v>7181</v>
+        <v>7157</v>
       </c>
       <c r="I43">
         <v>0.2</v>
@@ -58013,7 +58013,7 @@
         <v>0.3</v>
       </c>
       <c r="H44" t="s">
-        <v>7182</v>
+        <v>7158</v>
       </c>
       <c r="I44">
         <v>0.2</v>
@@ -58508,21 +58508,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7DE52F0-FA25-3147-9398-011447F75847}">
   <dimension ref="A1:I158"/>
   <sheetViews>
-    <sheetView topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="A157" sqref="A157"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="C159" sqref="C159"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col bestFit="true" customWidth="true" max="1" min="1" width="25.375"/>
-    <col bestFit="true" customWidth="true" max="2" min="2" width="41.125"/>
-    <col bestFit="true" customWidth="true" max="4" min="4" width="16.875"/>
-    <col customWidth="true" max="7" min="7" width="20.875"/>
-    <col customWidth="true" max="8" min="8" width="23.125"/>
-    <col bestFit="true" customWidth="true" max="23" min="23" width="120.625"/>
+    <col min="1" max="1" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.875" customWidth="1"/>
+    <col min="8" max="8" width="23.125" customWidth="1"/>
+    <col min="23" max="23" width="120.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -58539,7 +58539,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>765</v>
       </c>
@@ -58559,7 +58559,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>766</v>
       </c>
@@ -58579,7 +58579,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>767</v>
       </c>
@@ -58599,7 +58599,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>768</v>
       </c>
@@ -58619,7 +58619,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>769</v>
       </c>
@@ -58639,7 +58639,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>770</v>
       </c>
@@ -58659,7 +58659,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>771</v>
       </c>
@@ -58679,7 +58679,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>772</v>
       </c>
@@ -58699,7 +58699,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>773</v>
       </c>
@@ -58719,7 +58719,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>774</v>
       </c>
@@ -58739,7 +58739,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>775</v>
       </c>
@@ -58759,7 +58759,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>776</v>
       </c>
@@ -58779,7 +58779,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>777</v>
       </c>
@@ -58799,7 +58799,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>778</v>
       </c>
@@ -58819,7 +58819,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>779</v>
       </c>
@@ -58839,7 +58839,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>780</v>
       </c>
@@ -58859,7 +58859,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>781</v>
       </c>
@@ -58879,7 +58879,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>782</v>
       </c>
@@ -58899,7 +58899,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>783</v>
       </c>
@@ -58919,7 +58919,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>784</v>
       </c>
@@ -58939,7 +58939,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>785</v>
       </c>
@@ -58959,7 +58959,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>786</v>
       </c>
@@ -58979,7 +58979,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>787</v>
       </c>
@@ -58999,7 +58999,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>788</v>
       </c>
@@ -59019,7 +59019,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>789</v>
       </c>
@@ -59039,7 +59039,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>790</v>
       </c>
@@ -59059,7 +59059,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>791</v>
       </c>
@@ -59079,7 +59079,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>792</v>
       </c>
@@ -59099,7 +59099,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>793</v>
       </c>
@@ -59119,7 +59119,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>794</v>
       </c>
@@ -59139,7 +59139,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>795</v>
       </c>
@@ -59159,7 +59159,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>796</v>
       </c>
@@ -59179,7 +59179,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>797</v>
       </c>
@@ -59199,7 +59199,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>798</v>
       </c>
@@ -59219,7 +59219,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>799</v>
       </c>
@@ -59239,7 +59239,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>800</v>
       </c>
@@ -59259,7 +59259,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>801</v>
       </c>
@@ -59279,7 +59279,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>802</v>
       </c>
@@ -59299,7 +59299,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>803</v>
       </c>
@@ -59319,7 +59319,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>804</v>
       </c>
@@ -59339,7 +59339,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>805</v>
       </c>
@@ -59359,7 +59359,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>806</v>
       </c>
@@ -59379,7 +59379,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>807</v>
       </c>
@@ -59399,7 +59399,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>808</v>
       </c>
@@ -59419,7 +59419,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>809</v>
       </c>
@@ -59439,7 +59439,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>810</v>
       </c>
@@ -59459,7 +59459,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>811</v>
       </c>
@@ -59479,7 +59479,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>812</v>
       </c>
@@ -59499,7 +59499,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>813</v>
       </c>
@@ -59519,7 +59519,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>814</v>
       </c>
@@ -59539,7 +59539,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>815</v>
       </c>
@@ -59559,7 +59559,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>816</v>
       </c>
@@ -59579,7 +59579,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>817</v>
       </c>
@@ -59587,7 +59587,7 @@
         <v>428</v>
       </c>
       <c r="C54" t="s">
-        <v>7178</v>
+        <v>7154</v>
       </c>
       <c r="D54" t="s">
         <v>609</v>
@@ -59599,7 +59599,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>818</v>
       </c>
@@ -59619,7 +59619,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>819</v>
       </c>
@@ -59639,7 +59639,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>820</v>
       </c>
@@ -59659,7 +59659,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>821</v>
       </c>
@@ -59679,7 +59679,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>822</v>
       </c>
@@ -59699,7 +59699,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>823</v>
       </c>
@@ -59719,7 +59719,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>824</v>
       </c>
@@ -59739,7 +59739,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>825</v>
       </c>
@@ -59759,7 +59759,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>826</v>
       </c>
@@ -59779,7 +59779,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>827</v>
       </c>
@@ -59799,7 +59799,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>828</v>
       </c>
@@ -59819,7 +59819,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>829</v>
       </c>
@@ -59839,7 +59839,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>830</v>
       </c>
@@ -59859,7 +59859,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>831</v>
       </c>
@@ -59879,7 +59879,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>832</v>
       </c>
@@ -59899,7 +59899,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>833</v>
       </c>
@@ -59919,7 +59919,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>834</v>
       </c>
@@ -59939,7 +59939,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>835</v>
       </c>
@@ -59959,7 +59959,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>836</v>
       </c>
@@ -59979,7 +59979,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>837</v>
       </c>
@@ -59999,7 +59999,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>838</v>
       </c>
@@ -60019,7 +60019,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>839</v>
       </c>
@@ -60039,7 +60039,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>840</v>
       </c>
@@ -60059,7 +60059,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>841</v>
       </c>
@@ -60079,7 +60079,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>842</v>
       </c>
@@ -60099,7 +60099,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>843</v>
       </c>
@@ -60119,7 +60119,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>844</v>
       </c>
@@ -60139,7 +60139,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>845</v>
       </c>
@@ -60159,7 +60159,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>846</v>
       </c>
@@ -60179,7 +60179,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>847</v>
       </c>
@@ -60199,7 +60199,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>848</v>
       </c>
@@ -60219,7 +60219,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>849</v>
       </c>
@@ -60239,7 +60239,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>850</v>
       </c>
@@ -60259,7 +60259,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>851</v>
       </c>
@@ -60279,7 +60279,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>852</v>
       </c>
@@ -60299,7 +60299,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>853</v>
       </c>
@@ -60319,7 +60319,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>854</v>
       </c>
@@ -60339,7 +60339,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>855</v>
       </c>
@@ -60359,7 +60359,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>856</v>
       </c>
@@ -60379,7 +60379,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>857</v>
       </c>
@@ -60399,7 +60399,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>858</v>
       </c>
@@ -60419,7 +60419,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>859</v>
       </c>
@@ -60439,7 +60439,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>860</v>
       </c>
@@ -60447,7 +60447,7 @@
         <v>471</v>
       </c>
       <c r="C97" t="s">
-        <v>7118</v>
+        <v>7187</v>
       </c>
       <c r="D97" t="s">
         <v>609</v>
@@ -60459,7 +60459,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>861</v>
       </c>
@@ -60467,7 +60467,7 @@
         <v>472</v>
       </c>
       <c r="C98" t="s">
-        <v>7119</v>
+        <v>7188</v>
       </c>
       <c r="D98" t="s">
         <v>609</v>
@@ -60479,7 +60479,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>862</v>
       </c>
@@ -60487,7 +60487,7 @@
         <v>473</v>
       </c>
       <c r="C99" t="s">
-        <v>7120</v>
+        <v>7189</v>
       </c>
       <c r="D99" t="s">
         <v>609</v>
@@ -60499,7 +60499,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>863</v>
       </c>
@@ -60507,7 +60507,7 @@
         <v>474</v>
       </c>
       <c r="C100" t="s">
-        <v>7121</v>
+        <v>7190</v>
       </c>
       <c r="D100" t="s">
         <v>609</v>
@@ -60519,7 +60519,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>864</v>
       </c>
@@ -60527,7 +60527,7 @@
         <v>475</v>
       </c>
       <c r="C101" t="s">
-        <v>7122</v>
+        <v>7191</v>
       </c>
       <c r="D101" t="s">
         <v>609</v>
@@ -60539,7 +60539,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>865</v>
       </c>
@@ -60547,7 +60547,7 @@
         <v>476</v>
       </c>
       <c r="C102" t="s">
-        <v>7123</v>
+        <v>7192</v>
       </c>
       <c r="D102" t="s">
         <v>609</v>
@@ -60559,7 +60559,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>866</v>
       </c>
@@ -60567,7 +60567,7 @@
         <v>477</v>
       </c>
       <c r="C103" t="s">
-        <v>7124</v>
+        <v>7193</v>
       </c>
       <c r="D103" t="s">
         <v>609</v>
@@ -60579,7 +60579,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>867</v>
       </c>
@@ -60587,7 +60587,7 @@
         <v>478</v>
       </c>
       <c r="C104" t="s">
-        <v>7125</v>
+        <v>7194</v>
       </c>
       <c r="D104" t="s">
         <v>609</v>
@@ -60599,7 +60599,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>868</v>
       </c>
@@ -60607,7 +60607,7 @@
         <v>479</v>
       </c>
       <c r="C105" t="s">
-        <v>7126</v>
+        <v>7195</v>
       </c>
       <c r="D105" t="s">
         <v>609</v>
@@ -60619,7 +60619,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>869</v>
       </c>
@@ -60627,7 +60627,7 @@
         <v>480</v>
       </c>
       <c r="C106" t="s">
-        <v>7127</v>
+        <v>7196</v>
       </c>
       <c r="D106" t="s">
         <v>609</v>
@@ -60639,7 +60639,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>870</v>
       </c>
@@ -60647,7 +60647,7 @@
         <v>481</v>
       </c>
       <c r="C107" t="s">
-        <v>7128</v>
+        <v>7197</v>
       </c>
       <c r="D107" t="s">
         <v>609</v>
@@ -60659,7 +60659,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>871</v>
       </c>
@@ -60667,7 +60667,7 @@
         <v>482</v>
       </c>
       <c r="C108" t="s">
-        <v>7129</v>
+        <v>7118</v>
       </c>
       <c r="D108" t="s">
         <v>609</v>
@@ -60679,7 +60679,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>872</v>
       </c>
@@ -60687,7 +60687,7 @@
         <v>483</v>
       </c>
       <c r="C109" t="s">
-        <v>7130</v>
+        <v>7119</v>
       </c>
       <c r="D109" t="s">
         <v>609</v>
@@ -60699,7 +60699,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>873</v>
       </c>
@@ -60707,7 +60707,7 @@
         <v>484</v>
       </c>
       <c r="C110" t="s">
-        <v>7131</v>
+        <v>7198</v>
       </c>
       <c r="D110" t="s">
         <v>609</v>
@@ -60719,7 +60719,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>874</v>
       </c>
@@ -60727,7 +60727,7 @@
         <v>485</v>
       </c>
       <c r="C111" t="s">
-        <v>7132</v>
+        <v>7120</v>
       </c>
       <c r="D111" t="s">
         <v>609</v>
@@ -60739,7 +60739,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>875</v>
       </c>
@@ -60747,7 +60747,7 @@
         <v>486</v>
       </c>
       <c r="C112" t="s">
-        <v>7133</v>
+        <v>7121</v>
       </c>
       <c r="D112" t="s">
         <v>609</v>
@@ -60759,7 +60759,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>876</v>
       </c>
@@ -60767,7 +60767,7 @@
         <v>487</v>
       </c>
       <c r="C113" t="s">
-        <v>7134</v>
+        <v>7122</v>
       </c>
       <c r="D113" t="s">
         <v>609</v>
@@ -60779,7 +60779,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>877</v>
       </c>
@@ -60787,7 +60787,7 @@
         <v>488</v>
       </c>
       <c r="C114" t="s">
-        <v>7135</v>
+        <v>7123</v>
       </c>
       <c r="D114" t="s">
         <v>609</v>
@@ -60799,7 +60799,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>878</v>
       </c>
@@ -60807,7 +60807,7 @@
         <v>489</v>
       </c>
       <c r="C115" t="s">
-        <v>7136</v>
+        <v>7124</v>
       </c>
       <c r="D115" t="s">
         <v>609</v>
@@ -60819,7 +60819,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>879</v>
       </c>
@@ -60827,7 +60827,7 @@
         <v>490</v>
       </c>
       <c r="C116" t="s">
-        <v>7137</v>
+        <v>7125</v>
       </c>
       <c r="D116" t="s">
         <v>609</v>
@@ -60839,7 +60839,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>880</v>
       </c>
@@ -60847,7 +60847,7 @@
         <v>491</v>
       </c>
       <c r="C117" t="s">
-        <v>7138</v>
+        <v>7126</v>
       </c>
       <c r="D117" t="s">
         <v>609</v>
@@ -60859,7 +60859,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>881</v>
       </c>
@@ -60867,7 +60867,7 @@
         <v>492</v>
       </c>
       <c r="C118" t="s">
-        <v>7139</v>
+        <v>7127</v>
       </c>
       <c r="D118" t="s">
         <v>609</v>
@@ -60879,7 +60879,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>882</v>
       </c>
@@ -60887,7 +60887,7 @@
         <v>493</v>
       </c>
       <c r="C119" t="s">
-        <v>7140</v>
+        <v>7128</v>
       </c>
       <c r="D119" t="s">
         <v>609</v>
@@ -60899,7 +60899,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>883</v>
       </c>
@@ -60907,7 +60907,7 @@
         <v>494</v>
       </c>
       <c r="C120" t="s">
-        <v>7141</v>
+        <v>7129</v>
       </c>
       <c r="D120" t="s">
         <v>609</v>
@@ -60919,7 +60919,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>884</v>
       </c>
@@ -60927,7 +60927,7 @@
         <v>495</v>
       </c>
       <c r="C121" t="s">
-        <v>7142</v>
+        <v>7130</v>
       </c>
       <c r="D121" t="s">
         <v>609</v>
@@ -60939,7 +60939,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>885</v>
       </c>
@@ -60947,7 +60947,7 @@
         <v>496</v>
       </c>
       <c r="C122" t="s">
-        <v>7143</v>
+        <v>7131</v>
       </c>
       <c r="D122" t="s">
         <v>609</v>
@@ -60959,7 +60959,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>886</v>
       </c>
@@ -60967,7 +60967,7 @@
         <v>497</v>
       </c>
       <c r="C123" t="s">
-        <v>7144</v>
+        <v>7132</v>
       </c>
       <c r="D123" t="s">
         <v>609</v>
@@ -60979,7 +60979,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>887</v>
       </c>
@@ -60987,7 +60987,7 @@
         <v>498</v>
       </c>
       <c r="C124" t="s">
-        <v>7145</v>
+        <v>7133</v>
       </c>
       <c r="D124" t="s">
         <v>609</v>
@@ -60999,7 +60999,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>888</v>
       </c>
@@ -61007,7 +61007,7 @@
         <v>499</v>
       </c>
       <c r="C125" t="s">
-        <v>7146</v>
+        <v>7134</v>
       </c>
       <c r="D125" t="s">
         <v>609</v>
@@ -61019,7 +61019,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>889</v>
       </c>
@@ -61027,7 +61027,7 @@
         <v>500</v>
       </c>
       <c r="C126" t="s">
-        <v>7147</v>
+        <v>7135</v>
       </c>
       <c r="D126" t="s">
         <v>609</v>
@@ -61039,7 +61039,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>890</v>
       </c>
@@ -61047,7 +61047,7 @@
         <v>501</v>
       </c>
       <c r="C127" t="s">
-        <v>7148</v>
+        <v>7136</v>
       </c>
       <c r="D127" t="s">
         <v>609</v>
@@ -61059,7 +61059,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>891</v>
       </c>
@@ -61067,7 +61067,7 @@
         <v>502</v>
       </c>
       <c r="C128" t="s">
-        <v>7149</v>
+        <v>7199</v>
       </c>
       <c r="D128" t="s">
         <v>609</v>
@@ -61079,7 +61079,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>892</v>
       </c>
@@ -61087,7 +61087,7 @@
         <v>503</v>
       </c>
       <c r="C129" t="s">
-        <v>7150</v>
+        <v>7137</v>
       </c>
       <c r="D129" t="s">
         <v>609</v>
@@ -61099,7 +61099,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>893</v>
       </c>
@@ -61107,7 +61107,7 @@
         <v>504</v>
       </c>
       <c r="C130" t="s">
-        <v>7151</v>
+        <v>7138</v>
       </c>
       <c r="D130" t="s">
         <v>609</v>
@@ -61119,7 +61119,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>894</v>
       </c>
@@ -61127,7 +61127,7 @@
         <v>505</v>
       </c>
       <c r="C131" t="s">
-        <v>7152</v>
+        <v>7200</v>
       </c>
       <c r="D131" t="s">
         <v>609</v>
@@ -61139,7 +61139,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>895</v>
       </c>
@@ -61147,7 +61147,7 @@
         <v>506</v>
       </c>
       <c r="C132" t="s">
-        <v>7153</v>
+        <v>7139</v>
       </c>
       <c r="D132" t="s">
         <v>609</v>
@@ -61159,7 +61159,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>896</v>
       </c>
@@ -61167,7 +61167,7 @@
         <v>507</v>
       </c>
       <c r="C133" t="s">
-        <v>7154</v>
+        <v>7140</v>
       </c>
       <c r="D133" t="s">
         <v>609</v>
@@ -61179,7 +61179,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>897</v>
       </c>
@@ -61187,7 +61187,7 @@
         <v>508</v>
       </c>
       <c r="C134" t="s">
-        <v>7155</v>
+        <v>7201</v>
       </c>
       <c r="D134" t="s">
         <v>609</v>
@@ -61199,7 +61199,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>898</v>
       </c>
@@ -61207,7 +61207,7 @@
         <v>509</v>
       </c>
       <c r="C135" t="s">
-        <v>7156</v>
+        <v>7141</v>
       </c>
       <c r="D135" t="s">
         <v>609</v>
@@ -61219,7 +61219,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>899</v>
       </c>
@@ -61227,7 +61227,7 @@
         <v>510</v>
       </c>
       <c r="C136" t="s">
-        <v>7157</v>
+        <v>7142</v>
       </c>
       <c r="D136" t="s">
         <v>609</v>
@@ -61239,7 +61239,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>900</v>
       </c>
@@ -61247,7 +61247,7 @@
         <v>511</v>
       </c>
       <c r="C137" t="s">
-        <v>7158</v>
+        <v>7143</v>
       </c>
       <c r="D137" t="s">
         <v>609</v>
@@ -61259,7 +61259,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>901</v>
       </c>
@@ -61267,7 +61267,7 @@
         <v>512</v>
       </c>
       <c r="C138" t="s">
-        <v>7159</v>
+        <v>7144</v>
       </c>
       <c r="D138" t="s">
         <v>609</v>
@@ -61279,7 +61279,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>902</v>
       </c>
@@ -61287,7 +61287,7 @@
         <v>513</v>
       </c>
       <c r="C139" t="s">
-        <v>7160</v>
+        <v>7145</v>
       </c>
       <c r="D139" t="s">
         <v>609</v>
@@ -61299,7 +61299,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>903</v>
       </c>
@@ -61307,7 +61307,7 @@
         <v>514</v>
       </c>
       <c r="C140" t="s">
-        <v>7161</v>
+        <v>7146</v>
       </c>
       <c r="D140" t="s">
         <v>609</v>
@@ -61319,7 +61319,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>904</v>
       </c>
@@ -61327,7 +61327,7 @@
         <v>515</v>
       </c>
       <c r="C141" t="s">
-        <v>7162</v>
+        <v>7147</v>
       </c>
       <c r="D141" t="s">
         <v>609</v>
@@ -61339,7 +61339,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>905</v>
       </c>
@@ -61347,7 +61347,7 @@
         <v>516</v>
       </c>
       <c r="C142" t="s">
-        <v>7163</v>
+        <v>7148</v>
       </c>
       <c r="D142" t="s">
         <v>609</v>
@@ -61359,7 +61359,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>906</v>
       </c>
@@ -61367,7 +61367,7 @@
         <v>517</v>
       </c>
       <c r="C143" t="s">
-        <v>7164</v>
+        <v>7149</v>
       </c>
       <c r="D143" t="s">
         <v>609</v>
@@ -61379,7 +61379,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>907</v>
       </c>
@@ -61387,7 +61387,7 @@
         <v>518</v>
       </c>
       <c r="C144" t="s">
-        <v>7165</v>
+        <v>7202</v>
       </c>
       <c r="D144" t="s">
         <v>609</v>
@@ -61399,7 +61399,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>908</v>
       </c>
@@ -61407,7 +61407,7 @@
         <v>519</v>
       </c>
       <c r="C145" t="s">
-        <v>7166</v>
+        <v>7203</v>
       </c>
       <c r="D145" t="s">
         <v>609</v>
@@ -61419,7 +61419,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>909</v>
       </c>
@@ -61427,7 +61427,7 @@
         <v>520</v>
       </c>
       <c r="C146" t="s">
-        <v>7167</v>
+        <v>7150</v>
       </c>
       <c r="D146" t="s">
         <v>609</v>
@@ -61439,7 +61439,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>910</v>
       </c>
@@ -61447,7 +61447,7 @@
         <v>521</v>
       </c>
       <c r="C147" t="s">
-        <v>7168</v>
+        <v>7204</v>
       </c>
       <c r="D147" t="s">
         <v>609</v>
@@ -61459,7 +61459,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>911</v>
       </c>
@@ -61467,7 +61467,7 @@
         <v>522</v>
       </c>
       <c r="C148" t="s">
-        <v>7169</v>
+        <v>7205</v>
       </c>
       <c r="D148" t="s">
         <v>609</v>
@@ -61479,7 +61479,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>912</v>
       </c>
@@ -61487,7 +61487,7 @@
         <v>523</v>
       </c>
       <c r="C149" t="s">
-        <v>7170</v>
+        <v>7206</v>
       </c>
       <c r="D149" t="s">
         <v>609</v>
@@ -61499,7 +61499,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="150" spans="1:9">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>913</v>
       </c>
@@ -61507,7 +61507,7 @@
         <v>524</v>
       </c>
       <c r="C150" t="s">
-        <v>7171</v>
+        <v>7207</v>
       </c>
       <c r="D150" t="s">
         <v>609</v>
@@ -61519,7 +61519,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>914</v>
       </c>
@@ -61527,7 +61527,7 @@
         <v>525</v>
       </c>
       <c r="C151" t="s">
-        <v>7172</v>
+        <v>7208</v>
       </c>
       <c r="D151" t="s">
         <v>609</v>
@@ -61539,7 +61539,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>915</v>
       </c>
@@ -61547,7 +61547,7 @@
         <v>526</v>
       </c>
       <c r="C152" t="s">
-        <v>7173</v>
+        <v>7209</v>
       </c>
       <c r="D152" t="s">
         <v>609</v>
@@ -61559,7 +61559,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>916</v>
       </c>
@@ -61567,7 +61567,7 @@
         <v>527</v>
       </c>
       <c r="C153" t="s">
-        <v>7174</v>
+        <v>7210</v>
       </c>
       <c r="D153" t="s">
         <v>609</v>
@@ -61579,7 +61579,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>917</v>
       </c>
@@ -61587,7 +61587,7 @@
         <v>528</v>
       </c>
       <c r="C154" t="s">
-        <v>7175</v>
+        <v>7151</v>
       </c>
       <c r="D154" t="s">
         <v>609</v>
@@ -61599,7 +61599,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>918</v>
       </c>
@@ -61607,7 +61607,7 @@
         <v>529</v>
       </c>
       <c r="C155" t="s">
-        <v>7176</v>
+        <v>7152</v>
       </c>
       <c r="D155" t="s">
         <v>609</v>
@@ -61619,7 +61619,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>919</v>
       </c>
@@ -61627,7 +61627,7 @@
         <v>530</v>
       </c>
       <c r="C156" t="s">
-        <v>7177</v>
+        <v>7153</v>
       </c>
       <c r="D156" t="s">
         <v>609</v>
@@ -61639,15 +61639,15 @@
         <v>554</v>
       </c>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
+        <v>7185</v>
+      </c>
+      <c r="B157" t="s">
+        <v>7179</v>
+      </c>
+      <c r="C157" t="s">
         <v>7211</v>
-      </c>
-      <c r="B157" t="s">
-        <v>7203</v>
-      </c>
-      <c r="C157" t="s">
-        <v>7206</v>
       </c>
       <c r="D157" t="s">
         <v>609</v>
@@ -61656,15 +61656,15 @@
         <v>6.875</v>
       </c>
     </row>
-    <row r="158" spans="1:9">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
+        <v>7186</v>
+      </c>
+      <c r="B158" t="s">
+        <v>7180</v>
+      </c>
+      <c r="C158" t="s">
         <v>7212</v>
-      </c>
-      <c r="B158" t="s">
-        <v>7204</v>
-      </c>
-      <c r="C158" t="s">
-        <v>7205</v>
       </c>
       <c r="D158" t="s">
         <v>609</v>

--- a/assets/posesaxl.xlsx
+++ b/assets/posesaxl.xlsx
@@ -8,8 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demet\go\i9posesa\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17EBB3FD-3211-409B-9E20-96F2DBF9BAAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ImageSets" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
     <sheet name="Transitions" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName hidden="true" localSheetId="1" name="_xlnm._FilterDatabase">Exercises!$A$2:$DC$150</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Exercises!$A$2:$DC$150</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12786" uniqueCount="7213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12856" uniqueCount="7235">
   <si>
     <t>ID</t>
   </si>
@@ -21682,13 +21683,79 @@
   </si>
   <si>
     <t>Start: Standing Up Straight&lt;br&gt;Crouch down so that your hands are on the ground slightly in front of you. Step your right leg, then left leg back so that you are in pushup position.&lt;br&gt;Step your left leg forward, then right leg while keeping your hands on the ground, so you are in a crouched position. Rise back up to the standing position and repeat.&lt;br&gt;Primary Body Parts Used: Left Quad, Right Quad, Abs, Lower Back</t>
+  </si>
+  <si>
+    <t>Moving Kneel Twists</t>
+  </si>
+  <si>
+    <t>Moving Bicep Stretch</t>
+  </si>
+  <si>
+    <t>Reach Thrus</t>
+  </si>
+  <si>
+    <t>Kneel Twist Stretch</t>
+  </si>
+  <si>
+    <t>Seal Stretch</t>
+  </si>
+  <si>
+    <t>Squat Stance Stretch</t>
+  </si>
+  <si>
+    <t>Bicep Stretch</t>
+  </si>
+  <si>
+    <t>Kneeling on Knee - Twisted Left Arm Up</t>
+  </si>
+  <si>
+    <t>Kneeling on Knee - Twisted Right Arm Up</t>
+  </si>
+  <si>
+    <t>Bicep Stretch - Left</t>
+  </si>
+  <si>
+    <t>Bicep Stretch - Right</t>
+  </si>
+  <si>
+    <t>Standing Bicep Out - Left</t>
+  </si>
+  <si>
+    <t>Standing Bicep Out - Right</t>
+  </si>
+  <si>
+    <t>Kneeling on Knee - Right Arm Reach</t>
+  </si>
+  <si>
+    <t>Kneeling on Knee - Left Arm Reach</t>
+  </si>
+  <si>
+    <t>Start: Kneeling on Left Knee&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Start: Squatting Down Low&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Start: Kneeling on Left Knee&lt;br&gt;Keeping both of your arms straight, twist at your lower back and reach your left hand to the ground. Reach your right arm to the sky as high as you can and hold.&lt;br&gt;Return to lunge position and do the same on the other side.&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Start: Kneeling on Left Knee&lt;br&gt;Keeping both of your arms straight, twist at your lower back and reach your left hand to the ground. Reach your right arm to the sky as high as you can and hold very briefly.&lt;br&gt;Keeping both of your arms straight, reach your left arm through your legs (between your right knee and left foot) as far as you can, twisting further at the back. Hold briefly.&lt;br&gt;Return to lunge position and do the same on the other side.&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Start: Standing Up Straight&lt;br&gt;Keeping your hands around hip-height, grab a wall or other stabilizing object with your left hand. Twist your torso away from your left hand, to the right. Keep your left hand on the wall and push your palm away from your body, stretching your bicep.&lt;br&gt;Hold briefly, then return to standing position and do the same with the other side.&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Start: Standing Up Straight&lt;br&gt;Keeping your hands around hip-height, grab a wall or other stabilizing object with your left hand. Twist your torso away from your left hand, to the right. Keep your left hand on the wall and push your palm away from your body, stretching your bicep.&lt;br&gt;Hold, then return to standing position and do the same with the other side.&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Start: In Crawl Position&lt;br&gt;Keeping your hands on the ground, straighten out your legs and bring your hips as close to your hands as you can, while still keeping your torso upright. You should be bending primarily at the lower back.&lt;br&gt;Hold, then return to initial position.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -21732,10 +21799,10 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -21754,7 +21821,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -21767,7 +21834,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -22063,10 +22130,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0C6FEDB-7242-034A-A2CD-5F1C567957CE}">
-  <dimension ref="A1:AA265"/>
+  <dimension ref="A1:AA274"/>
   <sheetViews>
-    <sheetView topLeftCell="A233" workbookViewId="0">
-      <selection activeCell="B266" sqref="B266"/>
+    <sheetView topLeftCell="A242" workbookViewId="0">
+      <selection activeCell="B275" sqref="B275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -41522,7 +41589,7 @@
         <v>7165</v>
       </c>
       <c r="C252" t="str">
-        <f t="shared" ref="C252:C265" si="1">LOWER(SUBSTITUTE(SUBSTITUTE(B252," ","-"),"---","-"))</f>
+        <f t="shared" ref="C252:C274" si="1">LOWER(SUBSTITUTE(SUBSTITUTE(B252," ","-"),"---","-"))</f>
         <v>jumping-jack-half</v>
       </c>
     </row>
@@ -41641,6 +41708,87 @@
       <c r="C265" t="str">
         <f t="shared" si="1"/>
         <v>downward-walkout</v>
+      </c>
+    </row>
+    <row r="266" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B266" t="s">
+        <v>7224</v>
+      </c>
+      <c r="C266" t="str">
+        <f t="shared" si="1"/>
+        <v>standing-bicep-out-left</v>
+      </c>
+    </row>
+    <row r="267" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B267" t="s">
+        <v>7225</v>
+      </c>
+      <c r="C267" t="str">
+        <f t="shared" si="1"/>
+        <v>standing-bicep-out-right</v>
+      </c>
+    </row>
+    <row r="268" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B268" t="s">
+        <v>7222</v>
+      </c>
+      <c r="C268" t="str">
+        <f t="shared" si="1"/>
+        <v>bicep-stretch-left</v>
+      </c>
+    </row>
+    <row r="269" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B269" t="s">
+        <v>7223</v>
+      </c>
+      <c r="C269" t="str">
+        <f t="shared" si="1"/>
+        <v>bicep-stretch-right</v>
+      </c>
+    </row>
+    <row r="270" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B270" t="s">
+        <v>7220</v>
+      </c>
+      <c r="C270" t="str">
+        <f t="shared" si="1"/>
+        <v>kneeling-on-knee-twisted-left-arm-up</v>
+      </c>
+    </row>
+    <row r="271" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B271" t="s">
+        <v>7221</v>
+      </c>
+      <c r="C271" t="str">
+        <f t="shared" si="1"/>
+        <v>kneeling-on-knee-twisted-right-arm-up</v>
+      </c>
+    </row>
+    <row r="272" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B272" t="s">
+        <v>7226</v>
+      </c>
+      <c r="C272" t="str">
+        <f t="shared" si="1"/>
+        <v>kneeling-on-knee-right-arm-reach</v>
+      </c>
+    </row>
+    <row r="273" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B273" t="s">
+        <v>7227</v>
+      </c>
+      <c r="C273" t="str">
+        <f t="shared" si="1"/>
+        <v>kneeling-on-knee-left-arm-reach</v>
+      </c>
+    </row>
+    <row r="274" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B274" t="s">
+        <v>7217</v>
+      </c>
+      <c r="C274" t="str">
+        <f t="shared" si="1"/>
+        <v>seal-stretch</v>
       </c>
     </row>
   </sheetData>
@@ -56585,10 +56733,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899AC92B-5D4B-8E46-9E29-8D79D673E29D}">
-  <dimension ref="A1:BC44"/>
+  <dimension ref="A1:BC50"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -56601,7 +56749,7 @@
     <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="45.125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="30.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.5" bestFit="1" customWidth="1"/>
@@ -57455,7 +57603,7 @@
         <v>412</v>
       </c>
       <c r="C23">
-        <v>0.67500000000000004</v>
+        <v>0.75</v>
       </c>
       <c r="E23" t="s">
         <v>1062</v>
@@ -57619,7 +57767,10 @@
         <v>416</v>
       </c>
       <c r="C30">
-        <v>2.5</v>
+        <v>2</v>
+      </c>
+      <c r="D30" t="b">
+        <v>1</v>
       </c>
       <c r="E30" t="s">
         <v>1066</v>
@@ -57653,6 +57804,9 @@
       <c r="B31" t="s">
         <v>416</v>
       </c>
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
       <c r="E31" t="s">
         <v>381</v>
       </c>
@@ -58023,6 +58177,189 @@
       </c>
       <c r="K44">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>7213</v>
+      </c>
+      <c r="C45">
+        <v>3.5</v>
+      </c>
+      <c r="F45" t="s">
+        <v>7172</v>
+      </c>
+      <c r="G45">
+        <v>0.2</v>
+      </c>
+      <c r="H45" t="s">
+        <v>50</v>
+      </c>
+      <c r="I45">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="J45" t="s">
+        <v>7220</v>
+      </c>
+      <c r="K45">
+        <v>0.35</v>
+      </c>
+      <c r="L45" t="s">
+        <v>50</v>
+      </c>
+      <c r="M45">
+        <v>0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>7213</v>
+      </c>
+      <c r="F46" t="s">
+        <v>7172</v>
+      </c>
+      <c r="G46">
+        <v>0.2</v>
+      </c>
+      <c r="H46" t="s">
+        <v>52</v>
+      </c>
+      <c r="I46">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="J46" t="s">
+        <v>7221</v>
+      </c>
+      <c r="K46">
+        <v>0.35</v>
+      </c>
+      <c r="L46" t="s">
+        <v>52</v>
+      </c>
+      <c r="M46">
+        <v>0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>7214</v>
+      </c>
+      <c r="C47">
+        <v>2.5</v>
+      </c>
+      <c r="F47" t="s">
+        <v>7224</v>
+      </c>
+      <c r="G47">
+        <v>0.375</v>
+      </c>
+      <c r="H47" t="s">
+        <v>7222</v>
+      </c>
+      <c r="I47">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>7214</v>
+      </c>
+      <c r="F48" t="s">
+        <v>7225</v>
+      </c>
+      <c r="G48">
+        <v>0.375</v>
+      </c>
+      <c r="H48" t="s">
+        <v>7223</v>
+      </c>
+      <c r="I48">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>7215</v>
+      </c>
+      <c r="C49">
+        <v>4.75</v>
+      </c>
+      <c r="F49" t="s">
+        <v>7172</v>
+      </c>
+      <c r="G49">
+        <v>0.14285714285714288</v>
+      </c>
+      <c r="H49" t="s">
+        <v>50</v>
+      </c>
+      <c r="I49">
+        <v>0.16071428571428573</v>
+      </c>
+      <c r="J49" t="s">
+        <v>7220</v>
+      </c>
+      <c r="K49">
+        <v>0.14285714285714288</v>
+      </c>
+      <c r="L49" t="s">
+        <v>7226</v>
+      </c>
+      <c r="M49">
+        <v>0.25</v>
+      </c>
+      <c r="N49" t="s">
+        <v>7220</v>
+      </c>
+      <c r="O49">
+        <v>0.14285714285714288</v>
+      </c>
+      <c r="P49" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q49">
+        <v>0.16071428571428573</v>
+      </c>
+    </row>
+    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>7215</v>
+      </c>
+      <c r="F50" t="s">
+        <v>7172</v>
+      </c>
+      <c r="G50">
+        <v>0.14285714285714288</v>
+      </c>
+      <c r="H50" t="s">
+        <v>52</v>
+      </c>
+      <c r="I50">
+        <v>0.16071428571428573</v>
+      </c>
+      <c r="J50" t="s">
+        <v>7221</v>
+      </c>
+      <c r="K50">
+        <v>0.14285714285714288</v>
+      </c>
+      <c r="L50" t="s">
+        <v>7227</v>
+      </c>
+      <c r="M50">
+        <v>0.25</v>
+      </c>
+      <c r="N50" t="s">
+        <v>7221</v>
+      </c>
+      <c r="O50">
+        <v>0.14285714285714288</v>
+      </c>
+      <c r="P50" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q50">
+        <v>0.16071428571428573</v>
       </c>
     </row>
   </sheetData>
@@ -58059,18 +58396,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{304959ED-A486-4F41-869E-BF049F6253A9}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B26" sqref="B26:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -58497,6 +58834,44 @@
       </c>
       <c r="E25" t="s">
         <v>944</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>7216</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7220</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7221</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>7217</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7217</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>7218</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7155</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>7219</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7222</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7223</v>
       </c>
     </row>
   </sheetData>
@@ -58506,10 +58881,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7DE52F0-FA25-3147-9398-011447F75847}">
-  <dimension ref="A1:I158"/>
+  <dimension ref="A1:I165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="C159" sqref="C159"/>
+    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="B162" sqref="B162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -61671,6 +62046,104 @@
       </c>
       <c r="E158">
         <v>5.875</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B159" t="s">
+        <v>7213</v>
+      </c>
+      <c r="C159" t="s">
+        <v>7228</v>
+      </c>
+      <c r="D159" t="s">
+        <v>540</v>
+      </c>
+      <c r="E159">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B160" t="s">
+        <v>7214</v>
+      </c>
+      <c r="C160" t="s">
+        <v>7232</v>
+      </c>
+      <c r="D160" t="s">
+        <v>540</v>
+      </c>
+      <c r="E160">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B161" t="s">
+        <v>7215</v>
+      </c>
+      <c r="C161" t="s">
+        <v>7231</v>
+      </c>
+      <c r="D161" t="s">
+        <v>540</v>
+      </c>
+      <c r="E161">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B162" t="s">
+        <v>7216</v>
+      </c>
+      <c r="C162" t="s">
+        <v>7230</v>
+      </c>
+      <c r="D162" t="s">
+        <v>539</v>
+      </c>
+      <c r="E162">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B163" t="s">
+        <v>7217</v>
+      </c>
+      <c r="C163" t="s">
+        <v>7234</v>
+      </c>
+      <c r="D163" t="s">
+        <v>539</v>
+      </c>
+      <c r="E163">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B164" t="s">
+        <v>7218</v>
+      </c>
+      <c r="C164" t="s">
+        <v>7229</v>
+      </c>
+      <c r="D164" t="s">
+        <v>539</v>
+      </c>
+      <c r="E164">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B165" t="s">
+        <v>7219</v>
+      </c>
+      <c r="C165" t="s">
+        <v>7233</v>
+      </c>
+      <c r="D165" t="s">
+        <v>539</v>
+      </c>
+      <c r="E165">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/assets/posesaxl.xlsx
+++ b/assets/posesaxl.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demet\go\i9posesa\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jam/go/i9posesa/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17EBB3FD-3211-409B-9E20-96F2DBF9BAAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20260" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ImageSets" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
     <sheet name="Transitions" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Exercises!$A$2:$DC$150</definedName>
+    <definedName hidden="true" localSheetId="1" name="_xlnm._FilterDatabase">Exercises!$A$2:$DC$150</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12856" uniqueCount="7235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7256" uniqueCount="7256">
   <si>
     <t>ID</t>
   </si>
@@ -21730,32 +21729,95 @@
     <t>Kneeling on Knee - Left Arm Reach</t>
   </si>
   <si>
-    <t>Start: Kneeling on Left Knee&lt;br&gt;</t>
-  </si>
-  <si>
-    <t>Start: Squatting Down Low&lt;br&gt;</t>
-  </si>
-  <si>
-    <t>Start: Kneeling on Left Knee&lt;br&gt;Keeping both of your arms straight, twist at your lower back and reach your left hand to the ground. Reach your right arm to the sky as high as you can and hold.&lt;br&gt;Return to lunge position and do the same on the other side.&lt;br&gt;</t>
-  </si>
-  <si>
-    <t>Start: Kneeling on Left Knee&lt;br&gt;Keeping both of your arms straight, twist at your lower back and reach your left hand to the ground. Reach your right arm to the sky as high as you can and hold very briefly.&lt;br&gt;Keeping both of your arms straight, reach your left arm through your legs (between your right knee and left foot) as far as you can, twisting further at the back. Hold briefly.&lt;br&gt;Return to lunge position and do the same on the other side.&lt;br&gt;</t>
-  </si>
-  <si>
-    <t>Start: Standing Up Straight&lt;br&gt;Keeping your hands around hip-height, grab a wall or other stabilizing object with your left hand. Twist your torso away from your left hand, to the right. Keep your left hand on the wall and push your palm away from your body, stretching your bicep.&lt;br&gt;Hold briefly, then return to standing position and do the same with the other side.&lt;br&gt;</t>
-  </si>
-  <si>
-    <t>Start: Standing Up Straight&lt;br&gt;Keeping your hands around hip-height, grab a wall or other stabilizing object with your left hand. Twist your torso away from your left hand, to the right. Keep your left hand on the wall and push your palm away from your body, stretching your bicep.&lt;br&gt;Hold, then return to standing position and do the same with the other side.&lt;br&gt;</t>
-  </si>
-  <si>
-    <t>Start: In Crawl Position&lt;br&gt;Keeping your hands on the ground, straighten out your legs and bring your hips as close to your hands as you can, while still keeping your torso upright. You should be bending primarily at the lower back.&lt;br&gt;Hold, then return to initial position.</t>
+    <t>Start: Kneeling on Left Knee&lt;br&gt;Keeping both of your arms straight, twist at your lower back and reach your left hand to the ground. Reach your right arm to the sky as high as you can and hold briefly.&lt;br&gt;Return to lunge position and do the same on the other side.&lt;br&gt;Primary Body Parts Used: Glutes, Left Hip, Right Hip, Left Quad, Right Quad, Lower Back</t>
+  </si>
+  <si>
+    <t>Start: Standing Up Straight&lt;br&gt;Keeping your hands around hip-height, grab a wall or other stabilizing object with your left hand. Twist your torso away from your left hand, to the right. Keep your left hand on the wall and push your palm away from your body, stretching your bicep.&lt;br&gt;Hold briefly, then return to standing position and do the same with the other side.&lt;br&gt;Primary Body Parts Used: Left Bicep, Right Bicep</t>
+  </si>
+  <si>
+    <t>Start: Kneeling on Left Knee&lt;br&gt;Keeping both of your arms straight, twist at your lower back and reach your left hand to the ground. Reach your right arm to the sky as high as you can and hold very briefly.&lt;br&gt;Keeping both of your arms straight, reach your left arm through your legs (between your right knee and left foot) as far as you can, twisting further at the back. Hold briefly.&lt;br&gt;Return to lunge position and do the same on the other side.&lt;br&gt;Primary Body Parts Used: Glutes, Left Hip, Right Hip, Left Quad, Right Quad, Lower Back</t>
+  </si>
+  <si>
+    <t>Start: Kneeling on Left Knee&lt;br&gt;Keeping both of your arms straight, twist at your lower back and reach your left hand to the ground. Reach your right arm to the sky as high as you can and hold.&lt;br&gt;Return to lunge position and do the same on the other side.&lt;br&gt;Primary Body Parts Used: Glutes, Left Hip, Right Hip, Left Quad, Right Quad, Lower Back</t>
+  </si>
+  <si>
+    <t>Start: In Crawl Position&lt;br&gt;Keeping your hands on the ground, straighten out your legs and bring your hips as close to your hands as you can, while still keeping your torso upright. You should be bending primarily at the lower back.&lt;br&gt;Hold, then return to initial position.Primary Body Parts Used: Glutes, Abs, Lower Back</t>
+  </si>
+  <si>
+    <t>Start: Squatting Down Low&lt;br&gt;Squat as lower as you are able to, using your elbows to push out your knees and stretch your groin area.&lt;br&gt;Hold, then return to comfortable position.&lt;br&gt;Primary Body Parts Used: Left Hamstring, Right Hamstring, Abs, Lower Back, Left Hip, Right Hip</t>
+  </si>
+  <si>
+    <t>Start: Standing Up Straight&lt;br&gt;Keeping your hands around hip-height, grab a wall or other stabilizing object with your left hand. Twist your torso away from your left hand, to the right. Keep your left hand on the wall and push your palm away from your body, stretching your bicep.&lt;br&gt;Hold, then return to standing position and do the same with the other side.&lt;br&gt;Primary Body Parts Used: Left Bicep, Right Bicep</t>
+  </si>
+  <si>
+    <t>667cd55c52e83b24dbfe229a</t>
+  </si>
+  <si>
+    <t>667cd55d52e83b24dbfe229b</t>
+  </si>
+  <si>
+    <t>667cd55d52e83b24dbfe229c</t>
+  </si>
+  <si>
+    <t>667cd55d52e83b24dbfe229d</t>
+  </si>
+  <si>
+    <t>667cd55d52e83b24dbfe229e</t>
+  </si>
+  <si>
+    <t>667cd55d52e83b24dbfe229f</t>
+  </si>
+  <si>
+    <t>667cd55d52e83b24dbfe22a0</t>
+  </si>
+  <si>
+    <t>667cd969579bc293d888bdc9</t>
+  </si>
+  <si>
+    <t>667cd969579bc293d888bdca</t>
+  </si>
+  <si>
+    <t>667cd96a579bc293d888bdcb</t>
+  </si>
+  <si>
+    <t>667cd96b579bc293d888bdcc</t>
+  </si>
+  <si>
+    <t>667cd96b579bc293d888bdcd</t>
+  </si>
+  <si>
+    <t>667cd96b579bc293d888bdce</t>
+  </si>
+  <si>
+    <t>667cd96b579bc293d888bdcf</t>
+  </si>
+  <si>
+    <t>667cd985579bc293d888bdd0</t>
+  </si>
+  <si>
+    <t>667cd985579bc293d888bdd1</t>
+  </si>
+  <si>
+    <t>667cd985579bc293d888bdd2</t>
+  </si>
+  <si>
+    <t>667cd985579bc293d888bdd3</t>
+  </si>
+  <si>
+    <t>667cd985579bc293d888bdd4</t>
+  </si>
+  <si>
+    <t>667cd985579bc293d888bdd5</t>
+  </si>
+  <si>
+    <t>667cd985579bc293d888bdd6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -21799,10 +21861,10 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -21821,7 +21883,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -21834,7 +21896,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office 2013 - 2022 Theme">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -22136,18 +22198,18 @@
       <selection activeCell="B275" sqref="B275"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.125" customWidth="1"/>
+    <col min="1" max="1" width="43.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.1640625" customWidth="1"/>
     <col min="4" max="9" width="54" bestFit="1" customWidth="1"/>
-    <col min="10" max="15" width="54.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="15" width="54.1640625" bestFit="1" customWidth="1"/>
     <col min="16" max="21" width="54.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="27" width="57.125" bestFit="1" customWidth="1"/>
+    <col min="22" max="27" width="57.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D1" t="s">
         <v>2</v>
       </c>
@@ -22221,7 +22283,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -22304,7 +22366,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>6</v>
       </c>
@@ -22384,7 +22446,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>16</v>
       </c>
@@ -22464,7 +22526,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>17</v>
       </c>
@@ -22544,7 +22606,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>18</v>
       </c>
@@ -22624,7 +22686,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>19</v>
       </c>
@@ -22704,7 +22766,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>20</v>
       </c>
@@ -22784,7 +22846,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>27</v>
       </c>
@@ -22864,7 +22926,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>28</v>
       </c>
@@ -22944,7 +23006,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>38</v>
       </c>
@@ -23024,7 +23086,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>48</v>
       </c>
@@ -23104,7 +23166,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>49</v>
       </c>
@@ -23184,7 +23246,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>54</v>
       </c>
@@ -23264,7 +23326,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>55</v>
       </c>
@@ -23344,7 +23406,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>66</v>
       </c>
@@ -23424,7 +23486,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
         <v>67</v>
       </c>
@@ -23504,7 +23566,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>68</v>
       </c>
@@ -23584,7 +23646,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>69</v>
       </c>
@@ -23664,7 +23726,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>70</v>
       </c>
@@ -23744,7 +23806,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>71</v>
       </c>
@@ -23824,7 +23886,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>150</v>
       </c>
@@ -23904,7 +23966,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="23" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
         <v>151</v>
       </c>
@@ -23984,7 +24046,7 @@
         <v>1581</v>
       </c>
     </row>
-    <row r="24" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>152</v>
       </c>
@@ -24064,7 +24126,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="25" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>153</v>
       </c>
@@ -24144,7 +24206,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="26" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>154</v>
       </c>
@@ -24224,7 +24286,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="27" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>155</v>
       </c>
@@ -24304,7 +24366,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>159</v>
       </c>
@@ -24384,7 +24446,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="29" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>160</v>
       </c>
@@ -24464,7 +24526,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="30" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>170</v>
       </c>
@@ -24544,7 +24606,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="31" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B31" s="3" t="s">
         <v>171</v>
       </c>
@@ -24624,7 +24686,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="32" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>172</v>
       </c>
@@ -24704,7 +24766,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>173</v>
       </c>
@@ -24784,7 +24846,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>174</v>
       </c>
@@ -24864,7 +24926,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>175</v>
       </c>
@@ -24944,7 +25006,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="36" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>176</v>
       </c>
@@ -25024,7 +25086,7 @@
         <v>1893</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="3" t="s">
         <v>177</v>
       </c>
@@ -25104,7 +25166,7 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>178</v>
       </c>
@@ -25184,7 +25246,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>179</v>
       </c>
@@ -25264,7 +25326,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>180</v>
       </c>
@@ -25344,7 +25406,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>181</v>
       </c>
@@ -25424,7 +25486,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>182</v>
       </c>
@@ -25504,7 +25566,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>183</v>
       </c>
@@ -25584,7 +25646,7 @@
         <v>2061</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>184</v>
       </c>
@@ -25664,7 +25726,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>185</v>
       </c>
@@ -25744,7 +25806,7 @@
         <v>2109</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>186</v>
       </c>
@@ -25824,7 +25886,7 @@
         <v>2133</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>187</v>
       </c>
@@ -25904,7 +25966,7 @@
         <v>2157</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>188</v>
       </c>
@@ -25984,7 +26046,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="49" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>189</v>
       </c>
@@ -26064,7 +26126,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="50" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>191</v>
       </c>
@@ -26144,7 +26206,7 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="51" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>192</v>
       </c>
@@ -26224,7 +26286,7 @@
         <v>2253</v>
       </c>
     </row>
-    <row r="52" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>193</v>
       </c>
@@ -26304,7 +26366,7 @@
         <v>2277</v>
       </c>
     </row>
-    <row r="53" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>194</v>
       </c>
@@ -26384,7 +26446,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="54" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>198</v>
       </c>
@@ -26464,7 +26526,7 @@
         <v>2325</v>
       </c>
     </row>
-    <row r="55" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>200</v>
       </c>
@@ -26544,7 +26606,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="56" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>545</v>
       </c>
@@ -26624,7 +26686,7 @@
         <v>2373</v>
       </c>
     </row>
-    <row r="57" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>547</v>
       </c>
@@ -26704,7 +26766,7 @@
         <v>2397</v>
       </c>
     </row>
-    <row r="58" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>201</v>
       </c>
@@ -26784,7 +26846,7 @@
         <v>2421</v>
       </c>
     </row>
-    <row r="59" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>202</v>
       </c>
@@ -26864,7 +26926,7 @@
         <v>2445</v>
       </c>
     </row>
-    <row r="60" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>203</v>
       </c>
@@ -26944,7 +27006,7 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="61" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>206</v>
       </c>
@@ -27024,7 +27086,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="62" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>207</v>
       </c>
@@ -27104,7 +27166,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="63" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>209</v>
       </c>
@@ -27184,7 +27246,7 @@
         <v>2541</v>
       </c>
     </row>
-    <row r="64" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>210</v>
       </c>
@@ -27264,7 +27326,7 @@
         <v>2565</v>
       </c>
     </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>211</v>
       </c>
@@ -27344,7 +27406,7 @@
         <v>2589</v>
       </c>
     </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>212</v>
       </c>
@@ -27424,7 +27486,7 @@
         <v>2613</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>216</v>
       </c>
@@ -27504,7 +27566,7 @@
         <v>2637</v>
       </c>
     </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>217</v>
       </c>
@@ -27584,7 +27646,7 @@
         <v>2661</v>
       </c>
     </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>218</v>
       </c>
@@ -27664,7 +27726,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>219</v>
       </c>
@@ -27744,7 +27806,7 @@
         <v>2709</v>
       </c>
     </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>220</v>
       </c>
@@ -27824,7 +27886,7 @@
         <v>2733</v>
       </c>
     </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>221</v>
       </c>
@@ -27904,7 +27966,7 @@
         <v>2757</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>222</v>
       </c>
@@ -27984,7 +28046,7 @@
         <v>2781</v>
       </c>
     </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>223</v>
       </c>
@@ -28064,7 +28126,7 @@
         <v>2805</v>
       </c>
     </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>426</v>
       </c>
@@ -28144,7 +28206,7 @@
         <v>2829</v>
       </c>
     </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>224</v>
       </c>
@@ -28224,7 +28286,7 @@
         <v>2853</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>230</v>
       </c>
@@ -28304,7 +28366,7 @@
         <v>2877</v>
       </c>
     </row>
-    <row r="78" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>231</v>
       </c>
@@ -28384,7 +28446,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="3" t="s">
         <v>47</v>
       </c>
@@ -28464,7 +28526,7 @@
         <v>2925</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>72</v>
       </c>
@@ -28544,7 +28606,7 @@
         <v>2949</v>
       </c>
     </row>
-    <row r="81" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>73</v>
       </c>
@@ -28624,7 +28686,7 @@
         <v>2973</v>
       </c>
     </row>
-    <row r="82" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>156</v>
       </c>
@@ -28704,7 +28766,7 @@
         <v>2997</v>
       </c>
     </row>
-    <row r="83" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>157</v>
       </c>
@@ -28784,7 +28846,7 @@
         <v>3021</v>
       </c>
     </row>
-    <row r="84" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>195</v>
       </c>
@@ -28864,7 +28926,7 @@
         <v>3045</v>
       </c>
     </row>
-    <row r="85" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>196</v>
       </c>
@@ -28944,7 +29006,7 @@
         <v>3069</v>
       </c>
     </row>
-    <row r="86" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>208</v>
       </c>
@@ -29024,7 +29086,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="87" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>37</v>
       </c>
@@ -29104,7 +29166,7 @@
         <v>3117</v>
       </c>
     </row>
-    <row r="88" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>41</v>
       </c>
@@ -29184,7 +29246,7 @@
         <v>3141</v>
       </c>
     </row>
-    <row r="89" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B89" s="3" t="s">
         <v>168</v>
       </c>
@@ -29264,7 +29326,7 @@
         <v>3165</v>
       </c>
     </row>
-    <row r="90" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B90" s="3" t="s">
         <v>169</v>
       </c>
@@ -29344,7 +29406,7 @@
         <v>3189</v>
       </c>
     </row>
-    <row r="91" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>215</v>
       </c>
@@ -29424,7 +29486,7 @@
         <v>3213</v>
       </c>
     </row>
-    <row r="92" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>232</v>
       </c>
@@ -29504,7 +29566,7 @@
         <v>3237</v>
       </c>
     </row>
-    <row r="93" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
         <v>233</v>
       </c>
@@ -29584,7 +29646,7 @@
         <v>3261</v>
       </c>
     </row>
-    <row r="94" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B94" s="3" t="s">
         <v>78</v>
       </c>
@@ -29664,7 +29726,7 @@
         <v>3285</v>
       </c>
     </row>
-    <row r="95" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
         <v>79</v>
       </c>
@@ -29744,7 +29806,7 @@
         <v>3309</v>
       </c>
     </row>
-    <row r="96" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B96" s="3" t="s">
         <v>544</v>
       </c>
@@ -29824,7 +29886,7 @@
         <v>3333</v>
       </c>
     </row>
-    <row r="97" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
         <v>541</v>
       </c>
@@ -29904,7 +29966,7 @@
         <v>3357</v>
       </c>
     </row>
-    <row r="98" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
         <v>543</v>
       </c>
@@ -29984,7 +30046,7 @@
         <v>3381</v>
       </c>
     </row>
-    <row r="99" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
         <v>542</v>
       </c>
@@ -30064,7 +30126,7 @@
         <v>3405</v>
       </c>
     </row>
-    <row r="100" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
         <v>80</v>
       </c>
@@ -30144,7 +30206,7 @@
         <v>3429</v>
       </c>
     </row>
-    <row r="101" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
         <v>81</v>
       </c>
@@ -30224,7 +30286,7 @@
         <v>3453</v>
       </c>
     </row>
-    <row r="102" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B102" s="3" t="s">
         <v>546</v>
       </c>
@@ -30304,7 +30366,7 @@
         <v>3477</v>
       </c>
     </row>
-    <row r="103" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B103" s="3" t="s">
         <v>549</v>
       </c>
@@ -30384,7 +30446,7 @@
         <v>3501</v>
       </c>
     </row>
-    <row r="104" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B104" s="3" t="s">
         <v>550</v>
       </c>
@@ -30464,7 +30526,7 @@
         <v>3525</v>
       </c>
     </row>
-    <row r="105" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B105" s="3" t="s">
         <v>548</v>
       </c>
@@ -30544,7 +30606,7 @@
         <v>3549</v>
       </c>
     </row>
-    <row r="106" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
         <v>197</v>
       </c>
@@ -30624,7 +30686,7 @@
         <v>3573</v>
       </c>
     </row>
-    <row r="107" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
         <v>199</v>
       </c>
@@ -30704,7 +30766,7 @@
         <v>3597</v>
       </c>
     </row>
-    <row r="108" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
         <v>204</v>
       </c>
@@ -30784,7 +30846,7 @@
         <v>3621</v>
       </c>
     </row>
-    <row r="109" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
         <v>205</v>
       </c>
@@ -30864,7 +30926,7 @@
         <v>3645</v>
       </c>
     </row>
-    <row r="110" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
         <v>7</v>
       </c>
@@ -30944,7 +31006,7 @@
         <v>3669</v>
       </c>
     </row>
-    <row r="111" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
         <v>8</v>
       </c>
@@ -31024,7 +31086,7 @@
         <v>3693</v>
       </c>
     </row>
-    <row r="112" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
         <v>9</v>
       </c>
@@ -31104,7 +31166,7 @@
         <v>3717</v>
       </c>
     </row>
-    <row r="113" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
         <v>10</v>
       </c>
@@ -31184,7 +31246,7 @@
         <v>3741</v>
       </c>
     </row>
-    <row r="114" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B114" s="3" t="s">
         <v>11</v>
       </c>
@@ -31264,7 +31326,7 @@
         <v>3765</v>
       </c>
     </row>
-    <row r="115" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B115" s="3" t="s">
         <v>12</v>
       </c>
@@ -31344,7 +31406,7 @@
         <v>3789</v>
       </c>
     </row>
-    <row r="116" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B116" s="3" t="s">
         <v>13</v>
       </c>
@@ -31424,7 +31486,7 @@
         <v>3813</v>
       </c>
     </row>
-    <row r="117" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
         <v>190</v>
       </c>
@@ -31504,7 +31566,7 @@
         <v>3837</v>
       </c>
     </row>
-    <row r="118" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B118" s="3" t="s">
         <v>29</v>
       </c>
@@ -31584,7 +31646,7 @@
         <v>3861</v>
       </c>
     </row>
-    <row r="119" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B119" s="3" t="s">
         <v>30</v>
       </c>
@@ -31664,7 +31726,7 @@
         <v>3885</v>
       </c>
     </row>
-    <row r="120" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
         <v>31</v>
       </c>
@@ -31744,7 +31806,7 @@
         <v>3909</v>
       </c>
     </row>
-    <row r="121" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
         <v>82</v>
       </c>
@@ -31824,7 +31886,7 @@
         <v>3933</v>
       </c>
     </row>
-    <row r="122" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
         <v>83</v>
       </c>
@@ -31904,7 +31966,7 @@
         <v>3957</v>
       </c>
     </row>
-    <row r="123" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
         <v>84</v>
       </c>
@@ -31984,7 +32046,7 @@
         <v>3981</v>
       </c>
     </row>
-    <row r="124" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
         <v>85</v>
       </c>
@@ -32064,7 +32126,7 @@
         <v>4005</v>
       </c>
     </row>
-    <row r="125" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B125" s="3" t="s">
         <v>86</v>
       </c>
@@ -32144,7 +32206,7 @@
         <v>4029</v>
       </c>
     </row>
-    <row r="126" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
         <v>87</v>
       </c>
@@ -32224,7 +32286,7 @@
         <v>4053</v>
       </c>
     </row>
-    <row r="127" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
         <v>88</v>
       </c>
@@ -32304,7 +32366,7 @@
         <v>4077</v>
       </c>
     </row>
-    <row r="128" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
         <v>89</v>
       </c>
@@ -32384,7 +32446,7 @@
         <v>4101</v>
       </c>
     </row>
-    <row r="129" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
         <v>90</v>
       </c>
@@ -32464,7 +32526,7 @@
         <v>4125</v>
       </c>
     </row>
-    <row r="130" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
         <v>105</v>
       </c>
@@ -32544,7 +32606,7 @@
         <v>4149</v>
       </c>
     </row>
-    <row r="131" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
         <v>127</v>
       </c>
@@ -32624,7 +32686,7 @@
         <v>4173</v>
       </c>
     </row>
-    <row r="132" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
         <v>129</v>
       </c>
@@ -32704,7 +32766,7 @@
         <v>4197</v>
       </c>
     </row>
-    <row r="133" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
         <v>130</v>
       </c>
@@ -32784,7 +32846,7 @@
         <v>4221</v>
       </c>
     </row>
-    <row r="134" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
         <v>132</v>
       </c>
@@ -32864,7 +32926,7 @@
         <v>4245</v>
       </c>
     </row>
-    <row r="135" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
         <v>133</v>
       </c>
@@ -32944,7 +33006,7 @@
         <v>4269</v>
       </c>
     </row>
-    <row r="136" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
         <v>134</v>
       </c>
@@ -33024,7 +33086,7 @@
         <v>4293</v>
       </c>
     </row>
-    <row r="137" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
         <v>135</v>
       </c>
@@ -33104,7 +33166,7 @@
         <v>4317</v>
       </c>
     </row>
-    <row r="138" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
         <v>136</v>
       </c>
@@ -33184,7 +33246,7 @@
         <v>4341</v>
       </c>
     </row>
-    <row r="139" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
         <v>137</v>
       </c>
@@ -33264,7 +33326,7 @@
         <v>4365</v>
       </c>
     </row>
-    <row r="140" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
         <v>138</v>
       </c>
@@ -33344,7 +33406,7 @@
         <v>4389</v>
       </c>
     </row>
-    <row r="141" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
         <v>139</v>
       </c>
@@ -33424,7 +33486,7 @@
         <v>4413</v>
       </c>
     </row>
-    <row r="142" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
         <v>140</v>
       </c>
@@ -33504,7 +33566,7 @@
         <v>4437</v>
       </c>
     </row>
-    <row r="143" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
         <v>141</v>
       </c>
@@ -33584,7 +33646,7 @@
         <v>4461</v>
       </c>
     </row>
-    <row r="144" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
         <v>142</v>
       </c>
@@ -33664,7 +33726,7 @@
         <v>4485</v>
       </c>
     </row>
-    <row r="145" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
         <v>143</v>
       </c>
@@ -33744,7 +33806,7 @@
         <v>4509</v>
       </c>
     </row>
-    <row r="146" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
         <v>144</v>
       </c>
@@ -33824,7 +33886,7 @@
         <v>4533</v>
       </c>
     </row>
-    <row r="147" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
         <v>145</v>
       </c>
@@ -33904,7 +33966,7 @@
         <v>4557</v>
       </c>
     </row>
-    <row r="148" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
         <v>146</v>
       </c>
@@ -33984,7 +34046,7 @@
         <v>4581</v>
       </c>
     </row>
-    <row r="149" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
         <v>147</v>
       </c>
@@ -34064,7 +34126,7 @@
         <v>4605</v>
       </c>
     </row>
-    <row r="150" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B150" t="s">
         <v>148</v>
       </c>
@@ -34144,7 +34206,7 @@
         <v>4629</v>
       </c>
     </row>
-    <row r="151" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
         <v>128</v>
       </c>
@@ -34224,7 +34286,7 @@
         <v>4653</v>
       </c>
     </row>
-    <row r="152" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
         <v>149</v>
       </c>
@@ -34304,7 +34366,7 @@
         <v>4677</v>
       </c>
     </row>
-    <row r="153" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
         <v>106</v>
       </c>
@@ -34384,7 +34446,7 @@
         <v>4701</v>
       </c>
     </row>
-    <row r="154" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
         <v>131</v>
       </c>
@@ -34464,7 +34526,7 @@
         <v>4725</v>
       </c>
     </row>
-    <row r="155" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
         <v>107</v>
       </c>
@@ -34544,7 +34606,7 @@
         <v>4749</v>
       </c>
     </row>
-    <row r="156" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B156" t="s">
         <v>108</v>
       </c>
@@ -34624,7 +34686,7 @@
         <v>4773</v>
       </c>
     </row>
-    <row r="157" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
         <v>109</v>
       </c>
@@ -34704,7 +34766,7 @@
         <v>4797</v>
       </c>
     </row>
-    <row r="158" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
         <v>110</v>
       </c>
@@ -34784,7 +34846,7 @@
         <v>4821</v>
       </c>
     </row>
-    <row r="159" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
         <v>111</v>
       </c>
@@ -34864,7 +34926,7 @@
         <v>4845</v>
       </c>
     </row>
-    <row r="160" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B160" s="3" t="s">
         <v>112</v>
       </c>
@@ -34944,7 +35006,7 @@
         <v>4869</v>
       </c>
     </row>
-    <row r="161" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
         <v>113</v>
       </c>
@@ -35024,7 +35086,7 @@
         <v>4893</v>
       </c>
     </row>
-    <row r="162" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B162" t="s">
         <v>114</v>
       </c>
@@ -35104,7 +35166,7 @@
         <v>4917</v>
       </c>
     </row>
-    <row r="163" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
         <v>115</v>
       </c>
@@ -35184,7 +35246,7 @@
         <v>4941</v>
       </c>
     </row>
-    <row r="164" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B164" t="s">
         <v>116</v>
       </c>
@@ -35264,7 +35326,7 @@
         <v>4965</v>
       </c>
     </row>
-    <row r="165" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
         <v>117</v>
       </c>
@@ -35344,7 +35406,7 @@
         <v>4989</v>
       </c>
     </row>
-    <row r="166" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B166" t="s">
         <v>118</v>
       </c>
@@ -35424,7 +35486,7 @@
         <v>5013</v>
       </c>
     </row>
-    <row r="167" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B167" t="s">
         <v>119</v>
       </c>
@@ -35504,7 +35566,7 @@
         <v>5037</v>
       </c>
     </row>
-    <row r="168" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B168" t="s">
         <v>120</v>
       </c>
@@ -35584,7 +35646,7 @@
         <v>5061</v>
       </c>
     </row>
-    <row r="169" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B169" t="s">
         <v>121</v>
       </c>
@@ -35664,7 +35726,7 @@
         <v>5085</v>
       </c>
     </row>
-    <row r="170" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B170" t="s">
         <v>122</v>
       </c>
@@ -35744,7 +35806,7 @@
         <v>5109</v>
       </c>
     </row>
-    <row r="171" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B171" t="s">
         <v>123</v>
       </c>
@@ -35824,7 +35886,7 @@
         <v>5133</v>
       </c>
     </row>
-    <row r="172" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B172" t="s">
         <v>124</v>
       </c>
@@ -35904,7 +35966,7 @@
         <v>5157</v>
       </c>
     </row>
-    <row r="173" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B173" t="s">
         <v>125</v>
       </c>
@@ -35984,7 +36046,7 @@
         <v>5181</v>
       </c>
     </row>
-    <row r="174" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B174" t="s">
         <v>126</v>
       </c>
@@ -36064,7 +36126,7 @@
         <v>5205</v>
       </c>
     </row>
-    <row r="175" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B175" s="3" t="s">
         <v>32</v>
       </c>
@@ -36144,7 +36206,7 @@
         <v>5229</v>
       </c>
     </row>
-    <row r="176" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B176" s="3" t="s">
         <v>33</v>
       </c>
@@ -36224,7 +36286,7 @@
         <v>5253</v>
       </c>
     </row>
-    <row r="177" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B177" t="s">
         <v>34</v>
       </c>
@@ -36304,7 +36366,7 @@
         <v>5277</v>
       </c>
     </row>
-    <row r="178" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B178" t="s">
         <v>35</v>
       </c>
@@ -36384,7 +36446,7 @@
         <v>5301</v>
       </c>
     </row>
-    <row r="179" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B179" t="s">
         <v>36</v>
       </c>
@@ -36464,7 +36526,7 @@
         <v>5325</v>
       </c>
     </row>
-    <row r="180" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B180" t="s">
         <v>161</v>
       </c>
@@ -36544,7 +36606,7 @@
         <v>5349</v>
       </c>
     </row>
-    <row r="181" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B181" t="s">
         <v>162</v>
       </c>
@@ -36624,7 +36686,7 @@
         <v>5373</v>
       </c>
     </row>
-    <row r="182" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B182" t="s">
         <v>551</v>
       </c>
@@ -36704,7 +36766,7 @@
         <v>5397</v>
       </c>
     </row>
-    <row r="183" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B183" t="s">
         <v>97</v>
       </c>
@@ -36784,7 +36846,7 @@
         <v>5421</v>
       </c>
     </row>
-    <row r="184" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B184" t="s">
         <v>98</v>
       </c>
@@ -36864,7 +36926,7 @@
         <v>5445</v>
       </c>
     </row>
-    <row r="185" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B185" t="s">
         <v>99</v>
       </c>
@@ -36944,7 +37006,7 @@
         <v>5469</v>
       </c>
     </row>
-    <row r="186" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B186" t="s">
         <v>100</v>
       </c>
@@ -37024,7 +37086,7 @@
         <v>5493</v>
       </c>
     </row>
-    <row r="187" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B187" t="s">
         <v>101</v>
       </c>
@@ -37104,7 +37166,7 @@
         <v>5517</v>
       </c>
     </row>
-    <row r="188" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B188" t="s">
         <v>21</v>
       </c>
@@ -37184,7 +37246,7 @@
         <v>5541</v>
       </c>
     </row>
-    <row r="189" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B189" t="s">
         <v>22</v>
       </c>
@@ -37264,7 +37326,7 @@
         <v>5565</v>
       </c>
     </row>
-    <row r="190" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B190" t="s">
         <v>23</v>
       </c>
@@ -37344,7 +37406,7 @@
         <v>5589</v>
       </c>
     </row>
-    <row r="191" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B191" t="s">
         <v>24</v>
       </c>
@@ -37424,7 +37486,7 @@
         <v>5613</v>
       </c>
     </row>
-    <row r="192" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B192" t="s">
         <v>25</v>
       </c>
@@ -37504,7 +37566,7 @@
         <v>5637</v>
       </c>
     </row>
-    <row r="193" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B193" t="s">
         <v>26</v>
       </c>
@@ -37584,7 +37646,7 @@
         <v>5661</v>
       </c>
     </row>
-    <row r="194" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B194" t="s">
         <v>50</v>
       </c>
@@ -37664,7 +37726,7 @@
         <v>5685</v>
       </c>
     </row>
-    <row r="195" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B195" t="s">
         <v>51</v>
       </c>
@@ -37744,7 +37806,7 @@
         <v>5709</v>
       </c>
     </row>
-    <row r="196" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B196" t="s">
         <v>52</v>
       </c>
@@ -37824,7 +37886,7 @@
         <v>5733</v>
       </c>
     </row>
-    <row r="197" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B197" t="s">
         <v>53</v>
       </c>
@@ -37904,7 +37966,7 @@
         <v>5757</v>
       </c>
     </row>
-    <row r="198" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B198" t="s">
         <v>102</v>
       </c>
@@ -37984,7 +38046,7 @@
         <v>5781</v>
       </c>
     </row>
-    <row r="199" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B199" t="s">
         <v>14</v>
       </c>
@@ -38064,7 +38126,7 @@
         <v>5805</v>
       </c>
     </row>
-    <row r="200" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B200" t="s">
         <v>15</v>
       </c>
@@ -38144,7 +38206,7 @@
         <v>5829</v>
       </c>
     </row>
-    <row r="201" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B201" t="s">
         <v>103</v>
       </c>
@@ -38224,7 +38286,7 @@
         <v>5853</v>
       </c>
     </row>
-    <row r="202" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B202" t="s">
         <v>104</v>
       </c>
@@ -38304,7 +38366,7 @@
         <v>5877</v>
       </c>
     </row>
-    <row r="203" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B203" t="s">
         <v>163</v>
       </c>
@@ -38384,7 +38446,7 @@
         <v>5901</v>
       </c>
     </row>
-    <row r="204" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B204" t="s">
         <v>164</v>
       </c>
@@ -38464,7 +38526,7 @@
         <v>5925</v>
       </c>
     </row>
-    <row r="205" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B205" t="s">
         <v>165</v>
       </c>
@@ -38544,7 +38606,7 @@
         <v>5949</v>
       </c>
     </row>
-    <row r="206" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B206" t="s">
         <v>166</v>
       </c>
@@ -38624,7 +38686,7 @@
         <v>5973</v>
       </c>
     </row>
-    <row r="207" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B207" t="s">
         <v>167</v>
       </c>
@@ -38704,7 +38766,7 @@
         <v>5997</v>
       </c>
     </row>
-    <row r="208" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B208" t="s">
         <v>213</v>
       </c>
@@ -38784,7 +38846,7 @@
         <v>6021</v>
       </c>
     </row>
-    <row r="209" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B209" s="3" t="s">
         <v>214</v>
       </c>
@@ -38864,7 +38926,7 @@
         <v>6045</v>
       </c>
     </row>
-    <row r="210" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B210" s="3" t="s">
         <v>42</v>
       </c>
@@ -38944,7 +39006,7 @@
         <v>6069</v>
       </c>
     </row>
-    <row r="211" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B211" s="3" t="s">
         <v>43</v>
       </c>
@@ -39024,7 +39086,7 @@
         <v>6093</v>
       </c>
     </row>
-    <row r="212" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B212" s="3" t="s">
         <v>44</v>
       </c>
@@ -39104,7 +39166,7 @@
         <v>6117</v>
       </c>
     </row>
-    <row r="213" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B213" t="s">
         <v>45</v>
       </c>
@@ -39184,7 +39246,7 @@
         <v>6141</v>
       </c>
     </row>
-    <row r="214" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B214" t="s">
         <v>46</v>
       </c>
@@ -39264,7 +39326,7 @@
         <v>6165</v>
       </c>
     </row>
-    <row r="215" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B215" t="s">
         <v>56</v>
       </c>
@@ -39344,7 +39406,7 @@
         <v>6189</v>
       </c>
     </row>
-    <row r="216" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B216" t="s">
         <v>57</v>
       </c>
@@ -39424,7 +39486,7 @@
         <v>6213</v>
       </c>
     </row>
-    <row r="217" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B217" t="s">
         <v>58</v>
       </c>
@@ -39504,7 +39566,7 @@
         <v>6237</v>
       </c>
     </row>
-    <row r="218" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B218" t="s">
         <v>59</v>
       </c>
@@ -39584,7 +39646,7 @@
         <v>6261</v>
       </c>
     </row>
-    <row r="219" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B219" t="s">
         <v>60</v>
       </c>
@@ -39664,7 +39726,7 @@
         <v>6285</v>
       </c>
     </row>
-    <row r="220" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B220" t="s">
         <v>61</v>
       </c>
@@ -39744,7 +39806,7 @@
         <v>6309</v>
       </c>
     </row>
-    <row r="221" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B221" t="s">
         <v>62</v>
       </c>
@@ -39824,7 +39886,7 @@
         <v>6333</v>
       </c>
     </row>
-    <row r="222" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B222" t="s">
         <v>552</v>
       </c>
@@ -39904,7 +39966,7 @@
         <v>6357</v>
       </c>
     </row>
-    <row r="223" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B223" t="s">
         <v>158</v>
       </c>
@@ -39984,7 +40046,7 @@
         <v>6381</v>
       </c>
     </row>
-    <row r="224" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B224" t="s">
         <v>63</v>
       </c>
@@ -40064,7 +40126,7 @@
         <v>6405</v>
       </c>
     </row>
-    <row r="225" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B225" t="s">
         <v>64</v>
       </c>
@@ -40144,7 +40206,7 @@
         <v>6429</v>
       </c>
     </row>
-    <row r="226" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B226" t="s">
         <v>65</v>
       </c>
@@ -40224,7 +40286,7 @@
         <v>6453</v>
       </c>
     </row>
-    <row r="227" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B227" t="s">
         <v>74</v>
       </c>
@@ -40304,7 +40366,7 @@
         <v>6477</v>
       </c>
     </row>
-    <row r="228" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B228" t="s">
         <v>75</v>
       </c>
@@ -40384,7 +40446,7 @@
         <v>6501</v>
       </c>
     </row>
-    <row r="229" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B229" t="s">
         <v>76</v>
       </c>
@@ -40464,7 +40526,7 @@
         <v>6525</v>
       </c>
     </row>
-    <row r="230" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B230" t="s">
         <v>77</v>
       </c>
@@ -40544,7 +40606,7 @@
         <v>6549</v>
       </c>
     </row>
-    <row r="231" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B231" t="s">
         <v>91</v>
       </c>
@@ -40624,7 +40686,7 @@
         <v>6573</v>
       </c>
     </row>
-    <row r="232" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B232" t="s">
         <v>92</v>
       </c>
@@ -40704,7 +40766,7 @@
         <v>6597</v>
       </c>
     </row>
-    <row r="233" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B233" t="s">
         <v>93</v>
       </c>
@@ -40784,7 +40846,7 @@
         <v>6621</v>
       </c>
     </row>
-    <row r="234" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B234" t="s">
         <v>94</v>
       </c>
@@ -40864,7 +40926,7 @@
         <v>6645</v>
       </c>
     </row>
-    <row r="235" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B235" t="s">
         <v>95</v>
       </c>
@@ -40944,7 +41006,7 @@
         <v>6669</v>
       </c>
     </row>
-    <row r="236" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B236" t="s">
         <v>96</v>
       </c>
@@ -41024,7 +41086,7 @@
         <v>6693</v>
       </c>
     </row>
-    <row r="237" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B237" t="s">
         <v>225</v>
       </c>
@@ -41104,7 +41166,7 @@
         <v>6717</v>
       </c>
     </row>
-    <row r="238" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B238" t="s">
         <v>226</v>
       </c>
@@ -41184,7 +41246,7 @@
         <v>6741</v>
       </c>
     </row>
-    <row r="239" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B239" t="s">
         <v>227</v>
       </c>
@@ -41264,7 +41326,7 @@
         <v>6765</v>
       </c>
     </row>
-    <row r="240" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B240" t="s">
         <v>228</v>
       </c>
@@ -41344,7 +41406,7 @@
         <v>6789</v>
       </c>
     </row>
-    <row r="241" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B241" t="s">
         <v>229</v>
       </c>
@@ -41424,7 +41486,7 @@
         <v>6813</v>
       </c>
     </row>
-    <row r="242" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B242" t="s">
         <v>553</v>
       </c>
@@ -41504,7 +41566,7 @@
         <v>6837</v>
       </c>
     </row>
-    <row r="243" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B243" s="3" t="s">
         <v>7155</v>
       </c>
@@ -41512,7 +41574,7 @@
         <v>7156</v>
       </c>
     </row>
-    <row r="244" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B244" s="3" t="s">
         <v>7157</v>
       </c>
@@ -41521,7 +41583,7 @@
         <v>left-high-knee-stretch</v>
       </c>
     </row>
-    <row r="245" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B245" s="3" t="s">
         <v>7158</v>
       </c>
@@ -41530,7 +41592,7 @@
         <v>right-high-knee-stretch</v>
       </c>
     </row>
-    <row r="246" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B246" s="3" t="s">
         <v>7159</v>
       </c>
@@ -41539,7 +41601,7 @@
         <v>lunge-out-left</v>
       </c>
     </row>
-    <row r="247" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B247" s="3" t="s">
         <v>7160</v>
       </c>
@@ -41548,7 +41610,7 @@
         <v>lunge-out-right</v>
       </c>
     </row>
-    <row r="248" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B248" s="3" t="s">
         <v>7161</v>
       </c>
@@ -41557,7 +41619,7 @@
         <v>squat-stance</v>
       </c>
     </row>
-    <row r="249" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B249" s="3" t="s">
         <v>7162</v>
       </c>
@@ -41566,7 +41628,7 @@
         <v>side-plank-half-left</v>
       </c>
     </row>
-    <row r="250" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B250" s="3" t="s">
         <v>7163</v>
       </c>
@@ -41575,7 +41637,7 @@
         <v>side-plank-half-right</v>
       </c>
     </row>
-    <row r="251" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B251" s="3" t="s">
         <v>7164</v>
       </c>
@@ -41584,7 +41646,7 @@
         <v>mountain-climber-half-jump</v>
       </c>
     </row>
-    <row r="252" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B252" s="3" t="s">
         <v>7165</v>
       </c>
@@ -41593,7 +41655,7 @@
         <v>jumping-jack-half</v>
       </c>
     </row>
-    <row r="253" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B253" s="3" t="s">
         <v>7166</v>
       </c>
@@ -41602,7 +41664,7 @@
         <v>jumping-jack-front-half</v>
       </c>
     </row>
-    <row r="254" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B254" s="3" t="s">
         <v>7167</v>
       </c>
@@ -41611,7 +41673,7 @@
         <v>pushup-position-legs-apart-jumped</v>
       </c>
     </row>
-    <row r="255" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B255" s="3" t="s">
         <v>7168</v>
       </c>
@@ -41620,7 +41682,7 @@
         <v>standing-legs-half-apart</v>
       </c>
     </row>
-    <row r="256" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B256" s="3" t="s">
         <v>7169</v>
       </c>
@@ -41629,7 +41691,7 @@
         <v>plank-walkout-half-way</v>
       </c>
     </row>
-    <row r="257" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B257" s="3" t="s">
         <v>7170</v>
       </c>
@@ -41638,7 +41700,7 @@
         <v>standing-t-pose-squat-stance</v>
       </c>
     </row>
-    <row r="258" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B258" s="3" t="s">
         <v>7171</v>
       </c>
@@ -41647,7 +41709,7 @@
         <v>forearm-plank-hips-up</v>
       </c>
     </row>
-    <row r="259" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B259" s="3" t="s">
         <v>7172</v>
       </c>
@@ -41656,7 +41718,7 @@
         <v>kneeling-on-knee-both</v>
       </c>
     </row>
-    <row r="260" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B260" s="3" t="s">
         <v>7173</v>
       </c>
@@ -41665,7 +41727,7 @@
         <v>squat-stance-toes</v>
       </c>
     </row>
-    <row r="261" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B261" s="3" t="s">
         <v>7174</v>
       </c>
@@ -41674,7 +41736,7 @@
         <v>squat-stance-left-high-knee</v>
       </c>
     </row>
-    <row r="262" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B262" s="3" t="s">
         <v>7175</v>
       </c>
@@ -41683,7 +41745,7 @@
         <v>squat-stance-right-high-knee</v>
       </c>
     </row>
-    <row r="263" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B263" s="3" t="s">
         <v>7176</v>
       </c>
@@ -41692,7 +41754,7 @@
         <v>squat-stance-left-high-knee-out</v>
       </c>
     </row>
-    <row r="264" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B264" s="3" t="s">
         <v>7177</v>
       </c>
@@ -41701,7 +41763,7 @@
         <v>squat-stance-right-high-knee-out</v>
       </c>
     </row>
-    <row r="265" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B265" s="3" t="s">
         <v>7178</v>
       </c>
@@ -41710,7 +41772,7 @@
         <v>downward-walkout</v>
       </c>
     </row>
-    <row r="266" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B266" t="s">
         <v>7224</v>
       </c>
@@ -41719,7 +41781,7 @@
         <v>standing-bicep-out-left</v>
       </c>
     </row>
-    <row r="267" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B267" t="s">
         <v>7225</v>
       </c>
@@ -41728,7 +41790,7 @@
         <v>standing-bicep-out-right</v>
       </c>
     </row>
-    <row r="268" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B268" t="s">
         <v>7222</v>
       </c>
@@ -41737,7 +41799,7 @@
         <v>bicep-stretch-left</v>
       </c>
     </row>
-    <row r="269" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B269" t="s">
         <v>7223</v>
       </c>
@@ -41746,7 +41808,7 @@
         <v>bicep-stretch-right</v>
       </c>
     </row>
-    <row r="270" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B270" t="s">
         <v>7220</v>
       </c>
@@ -41755,7 +41817,7 @@
         <v>kneeling-on-knee-twisted-left-arm-up</v>
       </c>
     </row>
-    <row r="271" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B271" t="s">
         <v>7221</v>
       </c>
@@ -41764,7 +41826,7 @@
         <v>kneeling-on-knee-twisted-right-arm-up</v>
       </c>
     </row>
-    <row r="272" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B272" t="s">
         <v>7226</v>
       </c>
@@ -41773,7 +41835,7 @@
         <v>kneeling-on-knee-right-arm-reach</v>
       </c>
     </row>
-    <row r="273" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B273" t="s">
         <v>7227</v>
       </c>
@@ -41782,7 +41844,7 @@
         <v>kneeling-on-knee-left-arm-reach</v>
       </c>
     </row>
-    <row r="274" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B274" t="s">
         <v>7217</v>
       </c>
@@ -41811,118 +41873,118 @@
       <selection pane="bottomRight" activeCell="B151" sqref="B151"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.5" customWidth="1"/>
     <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="41" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="41.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="41.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="40" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="37.375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="37.33203125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="28.375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="37.375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="37.33203125" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="30.375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="30.33203125" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="37.375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="37.33203125" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="25" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="28.875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="28.83203125" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="25" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="64" max="64" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="69" max="69" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="74" max="74" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="79" max="79" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="84" max="84" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="89" max="89" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="94" max="94" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="99" max="99" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="104" max="104" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:107" x14ac:dyDescent="0.2">
       <c r="F1" t="s">
         <v>380</v>
       </c>
@@ -42067,7 +42129,7 @@
       <c r="DB1" s="4"/>
       <c r="DC1" s="4"/>
     </row>
-    <row r="2" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -42390,7 +42452,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="3" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>610</v>
       </c>
@@ -42455,7 +42517,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="4" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:107" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>427</v>
       </c>
@@ -42517,7 +42579,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="5" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>611</v>
       </c>
@@ -42594,7 +42656,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="6" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:107" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>428</v>
       </c>
@@ -42668,7 +42730,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="7" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>612</v>
       </c>
@@ -42736,7 +42798,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="8" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:107" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>429</v>
       </c>
@@ -42801,7 +42863,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="9" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>613</v>
       </c>
@@ -42878,7 +42940,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="10" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>614</v>
       </c>
@@ -42955,7 +43017,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="11" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:107" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>431</v>
       </c>
@@ -43029,7 +43091,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="12" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>615</v>
       </c>
@@ -43106,7 +43168,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="13" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:107" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>432</v>
       </c>
@@ -43180,7 +43242,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="14" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>616</v>
       </c>
@@ -43245,7 +43307,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="15" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:107" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>433</v>
       </c>
@@ -43307,7 +43369,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="16" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>617</v>
       </c>
@@ -43372,7 +43434,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="17" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:72" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>434</v>
       </c>
@@ -43434,7 +43496,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="18" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>618</v>
       </c>
@@ -43523,7 +43585,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="19" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:72" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>435</v>
       </c>
@@ -43606,7 +43668,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="20" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>619</v>
       </c>
@@ -43695,7 +43757,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="21" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:72" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>436</v>
       </c>
@@ -43778,7 +43840,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="22" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>620</v>
       </c>
@@ -43855,7 +43917,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="23" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>621</v>
       </c>
@@ -43932,7 +43994,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="24" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>622</v>
       </c>
@@ -44009,7 +44071,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="25" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>623</v>
       </c>
@@ -44086,7 +44148,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="26" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>624</v>
       </c>
@@ -44163,7 +44225,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="27" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:72" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>441</v>
       </c>
@@ -44237,7 +44299,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="28" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>625</v>
       </c>
@@ -44314,7 +44376,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="29" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:72" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>442</v>
       </c>
@@ -44385,7 +44447,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="30" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>626</v>
       </c>
@@ -44480,7 +44542,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="31" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:72" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>443</v>
       </c>
@@ -44569,7 +44631,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="32" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>627</v>
       </c>
@@ -44652,7 +44714,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="33" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:77" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>444</v>
       </c>
@@ -44729,7 +44791,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="34" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>628</v>
       </c>
@@ -44830,7 +44892,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="35" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:77" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>445</v>
       </c>
@@ -44925,7 +44987,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="36" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>629</v>
       </c>
@@ -45047,7 +45109,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="37" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:77" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>446</v>
       </c>
@@ -45166,7 +45228,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="38" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>630</v>
       </c>
@@ -45288,7 +45350,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="39" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:77" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>447</v>
       </c>
@@ -45404,7 +45466,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="40" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>631</v>
       </c>
@@ -45550,7 +45612,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="41" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:77" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>448</v>
       </c>
@@ -45690,7 +45752,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="42" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>632</v>
       </c>
@@ -45767,7 +45829,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="43" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:77" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>449</v>
       </c>
@@ -45841,7 +45903,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="44" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>633</v>
       </c>
@@ -45924,7 +45986,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="45" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>634</v>
       </c>
@@ -46007,7 +46069,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="46" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>635</v>
       </c>
@@ -46090,7 +46152,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="47" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:77" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>452</v>
       </c>
@@ -46167,7 +46229,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="48" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>636</v>
       </c>
@@ -46256,7 +46318,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="49" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>637</v>
       </c>
@@ -46345,7 +46407,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="50" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:72" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>454</v>
       </c>
@@ -46428,7 +46490,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="51" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>638</v>
       </c>
@@ -46505,7 +46567,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="52" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>639</v>
       </c>
@@ -46591,7 +46653,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="53" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>640</v>
       </c>
@@ -46668,7 +46730,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="54" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>641</v>
       </c>
@@ -46745,7 +46807,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="55" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>642</v>
       </c>
@@ -46822,7 +46884,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="56" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>643</v>
       </c>
@@ -46923,7 +46985,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="57" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>644</v>
       </c>
@@ -47048,7 +47110,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="58" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>645</v>
       </c>
@@ -47134,7 +47196,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="59" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:72" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>462</v>
       </c>
@@ -47214,7 +47276,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="60" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>646</v>
       </c>
@@ -47357,7 +47419,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="61" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>647</v>
       </c>
@@ -47506,7 +47568,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="62" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>648</v>
       </c>
@@ -47625,7 +47687,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="63" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>649</v>
       </c>
@@ -47768,7 +47830,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="64" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>650</v>
       </c>
@@ -47911,7 +47973,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="65" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>651</v>
       </c>
@@ -48054,7 +48116,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="66" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>652</v>
       </c>
@@ -48197,7 +48259,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="67" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>653</v>
       </c>
@@ -48364,7 +48426,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="68" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>654</v>
       </c>
@@ -48441,7 +48503,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="69" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>655</v>
       </c>
@@ -48533,7 +48595,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="70" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>656</v>
       </c>
@@ -48610,7 +48672,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="71" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>657</v>
       </c>
@@ -48687,7 +48749,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="72" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>658</v>
       </c>
@@ -48764,7 +48826,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="73" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>659</v>
       </c>
@@ -48841,7 +48903,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="74" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>660</v>
       </c>
@@ -48936,7 +48998,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="75" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>661</v>
       </c>
@@ -49037,7 +49099,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="76" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:72" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>478</v>
       </c>
@@ -49132,7 +49194,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="77" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>662</v>
       </c>
@@ -49209,7 +49271,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="78" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:72" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>479</v>
       </c>
@@ -49280,7 +49342,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="79" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>663</v>
       </c>
@@ -49357,7 +49419,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="80" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>664</v>
       </c>
@@ -49434,7 +49496,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="81" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>665</v>
       </c>
@@ -49511,7 +49573,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="82" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>666</v>
       </c>
@@ -49588,7 +49650,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="83" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:72" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>483</v>
       </c>
@@ -49659,7 +49721,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="84" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>667</v>
       </c>
@@ -49760,7 +49822,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="85" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>668</v>
       </c>
@@ -49837,7 +49899,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="86" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:72" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>485</v>
       </c>
@@ -49911,7 +49973,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="87" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>669</v>
       </c>
@@ -50012,7 +50074,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="88" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:72" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>486</v>
       </c>
@@ -50110,7 +50172,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="89" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>670</v>
       </c>
@@ -50187,7 +50249,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="90" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:72" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
         <v>487</v>
       </c>
@@ -50261,7 +50323,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="91" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>671</v>
       </c>
@@ -50338,7 +50400,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="92" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:72" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>488</v>
       </c>
@@ -50412,7 +50474,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="93" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>672</v>
       </c>
@@ -50495,7 +50557,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="94" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>673</v>
       </c>
@@ -50572,7 +50634,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="95" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:72" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
         <v>490</v>
       </c>
@@ -50646,7 +50708,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="96" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>674</v>
       </c>
@@ -50744,7 +50806,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="97" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:72" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
         <v>491</v>
       </c>
@@ -50839,7 +50901,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="98" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>675</v>
       </c>
@@ -50916,7 +50978,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="99" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>676</v>
       </c>
@@ -50993,7 +51055,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="100" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:72" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
         <v>493</v>
       </c>
@@ -51067,7 +51129,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="101" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>677</v>
       </c>
@@ -51192,7 +51254,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="102" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:72" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
         <v>494</v>
       </c>
@@ -51314,7 +51376,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="103" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>678</v>
       </c>
@@ -51415,7 +51477,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="104" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>679</v>
       </c>
@@ -51492,7 +51554,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="105" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>680</v>
       </c>
@@ -51569,7 +51631,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="106" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:72" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
         <v>497</v>
       </c>
@@ -51643,7 +51705,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="107" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>681</v>
       </c>
@@ -51726,7 +51788,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="108" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:72" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
         <v>498</v>
       </c>
@@ -51806,7 +51868,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="109" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>682</v>
       </c>
@@ -51907,7 +51969,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="110" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:72" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
         <v>499</v>
       </c>
@@ -52005,7 +52067,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="111" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>683</v>
       </c>
@@ -52115,7 +52177,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="112" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:72" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
         <v>500</v>
       </c>
@@ -52222,7 +52284,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="113" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>684</v>
       </c>
@@ -52305,7 +52367,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="114" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>685</v>
       </c>
@@ -52478,7 +52540,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="115" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>686</v>
       </c>
@@ -52627,7 +52689,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="116" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>687</v>
       </c>
@@ -52704,7 +52766,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="117" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>688</v>
       </c>
@@ -52829,7 +52891,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="118" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>689</v>
       </c>
@@ -52903,7 +52965,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="119" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:72" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
         <v>506</v>
       </c>
@@ -52977,7 +53039,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="120" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>690</v>
       </c>
@@ -53054,7 +53116,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="121" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:72" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
         <v>507</v>
       </c>
@@ -53128,7 +53190,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="122" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>691</v>
       </c>
@@ -53205,7 +53267,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="123" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:72" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
         <v>508</v>
       </c>
@@ -53279,7 +53341,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="124" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>692</v>
       </c>
@@ -53380,7 +53442,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="125" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>693</v>
       </c>
@@ -53457,7 +53519,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="126" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:72" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
         <v>510</v>
       </c>
@@ -53531,7 +53593,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="127" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>694</v>
       </c>
@@ -53620,7 +53682,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="128" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:72" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
         <v>511</v>
       </c>
@@ -53706,7 +53768,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="129" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>695</v>
       </c>
@@ -53840,7 +53902,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="130" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:72" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
         <v>512</v>
       </c>
@@ -53911,7 +53973,7 @@
         <v>0.17499999999999996</v>
       </c>
     </row>
-    <row r="131" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>696</v>
       </c>
@@ -54036,7 +54098,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="132" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>697</v>
       </c>
@@ -54113,7 +54175,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="133" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:72" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
         <v>514</v>
       </c>
@@ -54187,7 +54249,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="134" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>698</v>
       </c>
@@ -54270,7 +54332,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="135" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:72" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
         <v>515</v>
       </c>
@@ -54350,7 +54412,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="136" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>699</v>
       </c>
@@ -54517,7 +54579,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="137" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>700</v>
       </c>
@@ -54684,7 +54746,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="138" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>701</v>
       </c>
@@ -54881,7 +54943,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="139" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>702</v>
       </c>
@@ -54958,7 +55020,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="140" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>703</v>
       </c>
@@ -55125,7 +55187,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="141" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>704</v>
       </c>
@@ -55202,7 +55264,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="142" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>705</v>
       </c>
@@ -55279,7 +55341,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="143" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>706</v>
       </c>
@@ -55356,7 +55418,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="144" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>707</v>
       </c>
@@ -55433,7 +55495,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="145" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>708</v>
       </c>
@@ -55510,7 +55572,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="146" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>709</v>
       </c>
@@ -55587,7 +55649,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="147" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>710</v>
       </c>
@@ -55712,7 +55774,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="148" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>711</v>
       </c>
@@ -55879,7 +55941,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="149" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>712</v>
       </c>
@@ -56046,7 +56108,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="150" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>713</v>
       </c>
@@ -56213,7 +56275,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="151" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>7183</v>
       </c>
@@ -56458,7 +56520,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="152" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>7184</v>
       </c>
@@ -56706,14 +56768,6 @@
   </sheetData>
   <autoFilter ref="A2:DC150" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="20">
-    <mergeCell ref="CT1:CX1"/>
-    <mergeCell ref="CY1:DC1"/>
-    <mergeCell ref="BP1:BT1"/>
-    <mergeCell ref="BU1:BY1"/>
-    <mergeCell ref="BZ1:CD1"/>
-    <mergeCell ref="CE1:CI1"/>
-    <mergeCell ref="CJ1:CN1"/>
-    <mergeCell ref="CO1:CS1"/>
     <mergeCell ref="BK1:BO1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
@@ -56726,6 +56780,14 @@
     <mergeCell ref="AV1:AZ1"/>
     <mergeCell ref="BA1:BE1"/>
     <mergeCell ref="BF1:BJ1"/>
+    <mergeCell ref="CT1:CX1"/>
+    <mergeCell ref="CY1:DC1"/>
+    <mergeCell ref="BP1:BT1"/>
+    <mergeCell ref="BU1:BY1"/>
+    <mergeCell ref="BZ1:CD1"/>
+    <mergeCell ref="CE1:CI1"/>
+    <mergeCell ref="CJ1:CN1"/>
+    <mergeCell ref="CO1:CS1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -56735,30 +56797,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899AC92B-5D4B-8E46-9E29-8D79D673E29D}">
   <dimension ref="A1:BC50"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="24.375" customWidth="1"/>
-    <col min="2" max="2" width="42.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="35.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="45.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="31" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="105" width="15" customWidth="1"/>
+    <col customWidth="true" max="1" min="1" width="24.33203125"/>
+    <col bestFit="true" customWidth="true" max="2" min="2" width="42.33203125"/>
+    <col customWidth="true" max="3" min="3" width="20"/>
+    <col customWidth="true" max="4" min="4" width="15.6640625"/>
+    <col bestFit="true" customWidth="true" max="5" min="5" width="25"/>
+    <col bestFit="true" customWidth="true" max="6" min="6" width="35.6640625"/>
+    <col bestFit="true" customWidth="true" max="7" min="7" width="11.5"/>
+    <col bestFit="true" customWidth="true" max="8" min="8" width="45.1640625"/>
+    <col bestFit="true" customWidth="true" max="9" min="9" width="11.5"/>
+    <col bestFit="true" customWidth="true" max="10" min="10" width="34.83203125"/>
+    <col bestFit="true" customWidth="true" max="11" min="11" width="11.5"/>
+    <col bestFit="true" customWidth="true" max="12" min="12" width="30.5"/>
+    <col bestFit="true" customWidth="true" max="13" min="13" width="11.5"/>
+    <col bestFit="true" customWidth="true" max="14" min="14" width="31"/>
+    <col bestFit="true" customWidth="true" max="15" min="15" width="11.5"/>
+    <col customWidth="true" max="105" min="16" width="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:55">
       <c r="F1" s="4" t="s">
         <v>243</v>
       </c>
@@ -56860,7 +56923,7 @@
       </c>
       <c r="BC1" s="4"/>
     </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:55">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -57027,7 +57090,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:55">
       <c r="A3" t="s">
         <v>714</v>
       </c>
@@ -57065,7 +57128,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:55">
       <c r="A4" t="s">
         <v>715</v>
       </c>
@@ -57103,7 +57166,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:55">
       <c r="A5" t="s">
         <v>716</v>
       </c>
@@ -57129,7 +57192,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:55">
       <c r="B6" t="s">
         <v>402</v>
       </c>
@@ -57149,7 +57212,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:55">
       <c r="A7" t="s">
         <v>717</v>
       </c>
@@ -57190,7 +57253,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:55">
       <c r="B8" t="s">
         <v>403</v>
       </c>
@@ -57225,7 +57288,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:55">
       <c r="A9" t="s">
         <v>718</v>
       </c>
@@ -57266,7 +57329,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:55">
       <c r="B10" t="s">
         <v>404</v>
       </c>
@@ -57301,7 +57364,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:55">
       <c r="A11" t="s">
         <v>719</v>
       </c>
@@ -57327,7 +57390,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:55">
       <c r="B12" t="s">
         <v>405</v>
       </c>
@@ -57347,7 +57410,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:55">
       <c r="A13" t="s">
         <v>720</v>
       </c>
@@ -57385,7 +57448,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:55">
       <c r="A14" t="s">
         <v>721</v>
       </c>
@@ -57411,7 +57474,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:55">
       <c r="A15" t="s">
         <v>722</v>
       </c>
@@ -57437,7 +57500,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:55">
       <c r="B16" t="s">
         <v>408</v>
       </c>
@@ -57457,7 +57520,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>723</v>
       </c>
@@ -57483,7 +57546,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13">
       <c r="B18" t="s">
         <v>409</v>
       </c>
@@ -57503,7 +57566,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>724</v>
       </c>
@@ -57529,7 +57592,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13">
       <c r="B20" t="s">
         <v>410</v>
       </c>
@@ -57549,7 +57612,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
         <v>725</v>
       </c>
@@ -57575,7 +57638,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13">
       <c r="B22" t="s">
         <v>411</v>
       </c>
@@ -57595,7 +57658,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
         <v>726</v>
       </c>
@@ -57621,7 +57684,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13">
       <c r="B24" t="s">
         <v>412</v>
       </c>
@@ -57641,7 +57704,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>727</v>
       </c>
@@ -57667,7 +57730,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
         <v>728</v>
       </c>
@@ -57693,7 +57756,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13">
       <c r="B27" t="s">
         <v>414</v>
       </c>
@@ -57713,7 +57776,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>729</v>
       </c>
@@ -57739,7 +57802,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13">
       <c r="B29" t="s">
         <v>415</v>
       </c>
@@ -57759,7 +57822,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
         <v>730</v>
       </c>
@@ -57800,7 +57863,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13">
       <c r="B31" t="s">
         <v>416</v>
       </c>
@@ -57835,7 +57898,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
         <v>731</v>
       </c>
@@ -57861,7 +57924,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13">
       <c r="A33" t="s">
         <v>732</v>
       </c>
@@ -57899,7 +57962,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13">
       <c r="A34" t="s">
         <v>733</v>
       </c>
@@ -57925,7 +57988,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13">
       <c r="B35" t="s">
         <v>1049</v>
       </c>
@@ -57945,7 +58008,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13">
       <c r="A36" t="s">
         <v>734</v>
       </c>
@@ -57971,7 +58034,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13">
       <c r="A37" t="s">
         <v>735</v>
       </c>
@@ -57997,7 +58060,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13">
       <c r="A38" t="s">
         <v>736</v>
       </c>
@@ -58023,7 +58086,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13">
       <c r="B39" t="s">
         <v>421</v>
       </c>
@@ -58043,7 +58106,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13">
       <c r="A40" t="s">
         <v>737</v>
       </c>
@@ -58069,7 +58132,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13">
       <c r="A41" t="s">
         <v>738</v>
       </c>
@@ -58095,7 +58158,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13">
       <c r="A42" t="s">
         <v>739</v>
       </c>
@@ -58121,7 +58184,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13">
       <c r="A43" t="s">
         <v>740</v>
       </c>
@@ -58153,13 +58216,10 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13">
       <c r="B44" t="s">
         <v>425</v>
       </c>
-      <c r="E44" t="s">
-        <v>381</v>
-      </c>
       <c r="F44" t="s">
         <v>170</v>
       </c>
@@ -58179,13 +58239,19 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13">
+      <c r="A45" t="s">
+        <v>7242</v>
+      </c>
       <c r="B45" t="s">
         <v>7213</v>
       </c>
       <c r="C45">
         <v>3.5</v>
       </c>
+      <c r="E45" t="s">
+        <v>7235</v>
+      </c>
       <c r="F45" t="s">
         <v>7172</v>
       </c>
@@ -58211,7 +58277,7 @@
         <v>0.22500000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13">
       <c r="B46" t="s">
         <v>7213</v>
       </c>
@@ -58240,13 +58306,19 @@
         <v>0.22500000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13">
+      <c r="A47" t="s">
+        <v>7243</v>
+      </c>
       <c r="B47" t="s">
         <v>7214</v>
       </c>
       <c r="C47">
         <v>2.5</v>
       </c>
+      <c r="E47" t="s">
+        <v>7236</v>
+      </c>
       <c r="F47" t="s">
         <v>7224</v>
       </c>
@@ -58260,7 +58332,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13">
       <c r="B48" t="s">
         <v>7214</v>
       </c>
@@ -58277,13 +58349,19 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:17">
+      <c r="A49" t="s">
+        <v>7244</v>
+      </c>
       <c r="B49" t="s">
         <v>7215</v>
       </c>
       <c r="C49">
         <v>4.75</v>
       </c>
+      <c r="E49" t="s">
+        <v>7237</v>
+      </c>
       <c r="F49" t="s">
         <v>7172</v>
       </c>
@@ -58321,7 +58399,7 @@
         <v>0.16071428571428573</v>
       </c>
     </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:17">
       <c r="B50" t="s">
         <v>7215</v>
       </c>
@@ -58364,6 +58442,20 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="AP1:AQ1"/>
+    <mergeCell ref="AR1:AS1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
     <mergeCell ref="AV1:AW1"/>
     <mergeCell ref="AX1:AY1"/>
     <mergeCell ref="AZ1:BA1"/>
@@ -58375,20 +58467,6 @@
     <mergeCell ref="AJ1:AK1"/>
     <mergeCell ref="AL1:AM1"/>
     <mergeCell ref="AT1:AU1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="AN1:AO1"/>
-    <mergeCell ref="AP1:AQ1"/>
-    <mergeCell ref="AR1:AS1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -58398,20 +58476,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{304959ED-A486-4F41-869E-BF049F6253A9}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:B29"/>
+    <sheetView tabSelected="true" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="25.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
+    <col bestFit="true" customWidth="true" max="1" min="1" width="25.33203125"/>
+    <col bestFit="true" customWidth="true" max="2" min="2" width="29.33203125"/>
+    <col bestFit="true" customWidth="true" max="3" min="3" width="36.83203125"/>
+    <col bestFit="true" customWidth="true" max="4" min="4" width="34.83203125"/>
+    <col bestFit="true" customWidth="true" max="5" min="5" width="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -58428,7 +58506,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>741</v>
       </c>
@@ -58445,7 +58523,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>742</v>
       </c>
@@ -58462,7 +58540,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>743</v>
       </c>
@@ -58479,7 +58557,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>744</v>
       </c>
@@ -58496,7 +58574,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>745</v>
       </c>
@@ -58513,7 +58591,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>746</v>
       </c>
@@ -58530,7 +58608,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>747</v>
       </c>
@@ -58547,7 +58625,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>748</v>
       </c>
@@ -58564,7 +58642,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>749</v>
       </c>
@@ -58581,7 +58659,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>750</v>
       </c>
@@ -58598,7 +58676,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>751</v>
       </c>
@@ -58615,7 +58693,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>752</v>
       </c>
@@ -58632,7 +58710,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>753</v>
       </c>
@@ -58649,7 +58727,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>754</v>
       </c>
@@ -58666,7 +58744,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>755</v>
       </c>
@@ -58683,7 +58761,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>756</v>
       </c>
@@ -58700,7 +58778,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>757</v>
       </c>
@@ -58717,7 +58795,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>758</v>
       </c>
@@ -58734,7 +58812,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>759</v>
       </c>
@@ -58751,7 +58829,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>760</v>
       </c>
@@ -58768,7 +58846,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>761</v>
       </c>
@@ -58785,7 +58863,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>762</v>
       </c>
@@ -58802,7 +58880,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>763</v>
       </c>
@@ -58819,7 +58897,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>764</v>
       </c>
@@ -58836,7 +58914,10 @@
         <v>944</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>7245</v>
+      </c>
       <c r="B26" t="s">
         <v>7216</v>
       </c>
@@ -58846,24 +58927,42 @@
       <c r="D26" t="s">
         <v>7221</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>7238</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>7246</v>
+      </c>
       <c r="B27" t="s">
         <v>7217</v>
       </c>
       <c r="C27" t="s">
         <v>7217</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>7239</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>7247</v>
+      </c>
       <c r="B28" t="s">
         <v>7218</v>
       </c>
       <c r="C28" t="s">
         <v>7155</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>7240</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>7248</v>
+      </c>
       <c r="B29" t="s">
         <v>7219</v>
       </c>
@@ -58872,6 +58971,9 @@
       </c>
       <c r="D29" t="s">
         <v>7223</v>
+      </c>
+      <c r="E29" t="s">
+        <v>7241</v>
       </c>
     </row>
   </sheetData>
@@ -58883,21 +58985,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7DE52F0-FA25-3147-9398-011447F75847}">
   <dimension ref="A1:I165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="B162" sqref="B162"/>
+    <sheetView topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="C180" sqref="C180"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="25.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.875" customWidth="1"/>
-    <col min="8" max="8" width="23.125" customWidth="1"/>
-    <col min="23" max="23" width="120.625" bestFit="1" customWidth="1"/>
+    <col bestFit="true" customWidth="true" max="1" min="1" width="25.33203125"/>
+    <col bestFit="true" customWidth="true" max="2" min="2" width="41.1640625"/>
+    <col bestFit="true" customWidth="true" max="4" min="4" width="16.83203125"/>
+    <col customWidth="true" max="7" min="7" width="20.83203125"/>
+    <col customWidth="true" max="8" min="8" width="23.1640625"/>
+    <col bestFit="true" customWidth="true" max="23" min="23" width="120.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -58914,7 +59016,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>765</v>
       </c>
@@ -58934,7 +59036,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>766</v>
       </c>
@@ -58954,7 +59056,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>767</v>
       </c>
@@ -58974,7 +59076,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>768</v>
       </c>
@@ -58994,7 +59096,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>769</v>
       </c>
@@ -59014,7 +59116,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>770</v>
       </c>
@@ -59034,7 +59136,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>771</v>
       </c>
@@ -59054,7 +59156,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>772</v>
       </c>
@@ -59074,7 +59176,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>773</v>
       </c>
@@ -59094,7 +59196,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>774</v>
       </c>
@@ -59114,7 +59216,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>775</v>
       </c>
@@ -59134,7 +59236,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>776</v>
       </c>
@@ -59154,7 +59256,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>777</v>
       </c>
@@ -59174,7 +59276,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>778</v>
       </c>
@@ -59194,7 +59296,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>779</v>
       </c>
@@ -59214,7 +59316,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>780</v>
       </c>
@@ -59234,7 +59336,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>781</v>
       </c>
@@ -59254,7 +59356,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>782</v>
       </c>
@@ -59274,7 +59376,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>783</v>
       </c>
@@ -59294,7 +59396,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>784</v>
       </c>
@@ -59314,7 +59416,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>785</v>
       </c>
@@ -59334,7 +59436,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>786</v>
       </c>
@@ -59354,7 +59456,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>787</v>
       </c>
@@ -59374,7 +59476,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>788</v>
       </c>
@@ -59394,7 +59496,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>789</v>
       </c>
@@ -59414,7 +59516,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>790</v>
       </c>
@@ -59434,7 +59536,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
         <v>791</v>
       </c>
@@ -59454,7 +59556,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>792</v>
       </c>
@@ -59474,7 +59576,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
         <v>793</v>
       </c>
@@ -59494,7 +59596,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>794</v>
       </c>
@@ -59514,7 +59616,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
         <v>795</v>
       </c>
@@ -59534,7 +59636,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
         <v>796</v>
       </c>
@@ -59554,7 +59656,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
         <v>797</v>
       </c>
@@ -59574,7 +59676,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
         <v>798</v>
       </c>
@@ -59594,7 +59696,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
         <v>799</v>
       </c>
@@ -59614,7 +59716,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
         <v>800</v>
       </c>
@@ -59634,7 +59736,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
         <v>801</v>
       </c>
@@ -59654,7 +59756,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
         <v>802</v>
       </c>
@@ -59674,7 +59776,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
         <v>803</v>
       </c>
@@ -59694,7 +59796,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
         <v>804</v>
       </c>
@@ -59714,7 +59816,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
         <v>805</v>
       </c>
@@ -59734,7 +59836,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
         <v>806</v>
       </c>
@@ -59754,7 +59856,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
         <v>807</v>
       </c>
@@ -59774,7 +59876,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
         <v>808</v>
       </c>
@@ -59794,7 +59896,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
         <v>809</v>
       </c>
@@ -59814,7 +59916,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
         <v>810</v>
       </c>
@@ -59834,7 +59936,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
         <v>811</v>
       </c>
@@ -59854,7 +59956,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
         <v>812</v>
       </c>
@@ -59874,7 +59976,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
         <v>813</v>
       </c>
@@ -59894,7 +59996,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
         <v>814</v>
       </c>
@@ -59914,7 +60016,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
         <v>815</v>
       </c>
@@ -59934,7 +60036,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
         <v>816</v>
       </c>
@@ -59954,7 +60056,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
         <v>817</v>
       </c>
@@ -59974,7 +60076,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9">
       <c r="A55" t="s">
         <v>818</v>
       </c>
@@ -59994,7 +60096,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
         <v>819</v>
       </c>
@@ -60014,7 +60116,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
         <v>820</v>
       </c>
@@ -60034,7 +60136,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9">
       <c r="A58" t="s">
         <v>821</v>
       </c>
@@ -60054,7 +60156,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9">
       <c r="A59" t="s">
         <v>822</v>
       </c>
@@ -60074,7 +60176,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
         <v>823</v>
       </c>
@@ -60094,7 +60196,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9">
       <c r="A61" t="s">
         <v>824</v>
       </c>
@@ -60114,7 +60216,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9">
       <c r="A62" t="s">
         <v>825</v>
       </c>
@@ -60134,7 +60236,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9">
       <c r="A63" t="s">
         <v>826</v>
       </c>
@@ -60154,7 +60256,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9">
       <c r="A64" t="s">
         <v>827</v>
       </c>
@@ -60174,7 +60276,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
         <v>828</v>
       </c>
@@ -60194,7 +60296,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9">
       <c r="A66" t="s">
         <v>829</v>
       </c>
@@ -60214,7 +60316,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9">
       <c r="A67" t="s">
         <v>830</v>
       </c>
@@ -60234,7 +60336,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9">
       <c r="A68" t="s">
         <v>831</v>
       </c>
@@ -60254,7 +60356,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9">
       <c r="A69" t="s">
         <v>832</v>
       </c>
@@ -60274,7 +60376,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9">
       <c r="A70" t="s">
         <v>833</v>
       </c>
@@ -60294,7 +60396,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9">
       <c r="A71" t="s">
         <v>834</v>
       </c>
@@ -60314,7 +60416,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9">
       <c r="A72" t="s">
         <v>835</v>
       </c>
@@ -60334,7 +60436,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9">
       <c r="A73" t="s">
         <v>836</v>
       </c>
@@ -60354,7 +60456,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9">
       <c r="A74" t="s">
         <v>837</v>
       </c>
@@ -60374,7 +60476,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9">
       <c r="A75" t="s">
         <v>838</v>
       </c>
@@ -60394,7 +60496,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9">
       <c r="A76" t="s">
         <v>839</v>
       </c>
@@ -60414,7 +60516,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9">
       <c r="A77" t="s">
         <v>840</v>
       </c>
@@ -60434,7 +60536,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9">
       <c r="A78" t="s">
         <v>841</v>
       </c>
@@ -60454,7 +60556,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9">
       <c r="A79" t="s">
         <v>842</v>
       </c>
@@ -60474,7 +60576,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9">
       <c r="A80" t="s">
         <v>843</v>
       </c>
@@ -60494,7 +60596,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9">
       <c r="A81" t="s">
         <v>844</v>
       </c>
@@ -60514,7 +60616,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9">
       <c r="A82" t="s">
         <v>845</v>
       </c>
@@ -60534,7 +60636,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9">
       <c r="A83" t="s">
         <v>846</v>
       </c>
@@ -60554,7 +60656,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9">
       <c r="A84" t="s">
         <v>847</v>
       </c>
@@ -60574,7 +60676,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9">
       <c r="A85" t="s">
         <v>848</v>
       </c>
@@ -60594,7 +60696,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9">
       <c r="A86" t="s">
         <v>849</v>
       </c>
@@ -60614,7 +60716,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9">
       <c r="A87" t="s">
         <v>850</v>
       </c>
@@ -60634,7 +60736,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9">
       <c r="A88" t="s">
         <v>851</v>
       </c>
@@ -60654,7 +60756,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9">
       <c r="A89" t="s">
         <v>852</v>
       </c>
@@ -60674,7 +60776,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9">
       <c r="A90" t="s">
         <v>853</v>
       </c>
@@ -60694,7 +60796,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9">
       <c r="A91" t="s">
         <v>854</v>
       </c>
@@ -60714,7 +60816,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9">
       <c r="A92" t="s">
         <v>855</v>
       </c>
@@ -60734,7 +60836,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9">
       <c r="A93" t="s">
         <v>856</v>
       </c>
@@ -60754,7 +60856,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9">
       <c r="A94" t="s">
         <v>857</v>
       </c>
@@ -60774,7 +60876,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9">
       <c r="A95" t="s">
         <v>858</v>
       </c>
@@ -60794,7 +60896,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9">
       <c r="A96" t="s">
         <v>859</v>
       </c>
@@ -60814,7 +60916,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9">
       <c r="A97" t="s">
         <v>860</v>
       </c>
@@ -60834,7 +60936,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9">
       <c r="A98" t="s">
         <v>861</v>
       </c>
@@ -60854,7 +60956,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9">
       <c r="A99" t="s">
         <v>862</v>
       </c>
@@ -60874,7 +60976,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9">
       <c r="A100" t="s">
         <v>863</v>
       </c>
@@ -60894,7 +60996,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9">
       <c r="A101" t="s">
         <v>864</v>
       </c>
@@ -60914,7 +61016,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9">
       <c r="A102" t="s">
         <v>865</v>
       </c>
@@ -60934,7 +61036,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9">
       <c r="A103" t="s">
         <v>866</v>
       </c>
@@ -60954,7 +61056,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9">
       <c r="A104" t="s">
         <v>867</v>
       </c>
@@ -60974,7 +61076,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9">
       <c r="A105" t="s">
         <v>868</v>
       </c>
@@ -60994,7 +61096,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9">
       <c r="A106" t="s">
         <v>869</v>
       </c>
@@ -61014,7 +61116,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9">
       <c r="A107" t="s">
         <v>870</v>
       </c>
@@ -61034,7 +61136,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9">
       <c r="A108" t="s">
         <v>871</v>
       </c>
@@ -61054,7 +61156,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9">
       <c r="A109" t="s">
         <v>872</v>
       </c>
@@ -61074,7 +61176,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9">
       <c r="A110" s="2" t="s">
         <v>873</v>
       </c>
@@ -61094,7 +61196,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9">
       <c r="A111" t="s">
         <v>874</v>
       </c>
@@ -61114,7 +61216,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9">
       <c r="A112" t="s">
         <v>875</v>
       </c>
@@ -61134,7 +61236,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9">
       <c r="A113" t="s">
         <v>876</v>
       </c>
@@ -61154,7 +61256,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9">
       <c r="A114" t="s">
         <v>877</v>
       </c>
@@ -61174,7 +61276,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9">
       <c r="A115" t="s">
         <v>878</v>
       </c>
@@ -61194,7 +61296,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9">
       <c r="A116" t="s">
         <v>879</v>
       </c>
@@ -61214,7 +61316,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9">
       <c r="A117" t="s">
         <v>880</v>
       </c>
@@ -61234,7 +61336,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9">
       <c r="A118" t="s">
         <v>881</v>
       </c>
@@ -61254,7 +61356,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9">
       <c r="A119" t="s">
         <v>882</v>
       </c>
@@ -61274,7 +61376,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9">
       <c r="A120" t="s">
         <v>883</v>
       </c>
@@ -61294,7 +61396,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9">
       <c r="A121" t="s">
         <v>884</v>
       </c>
@@ -61314,7 +61416,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9">
       <c r="A122" t="s">
         <v>885</v>
       </c>
@@ -61334,7 +61436,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9">
       <c r="A123" t="s">
         <v>886</v>
       </c>
@@ -61354,7 +61456,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9">
       <c r="A124" t="s">
         <v>887</v>
       </c>
@@ -61374,7 +61476,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9">
       <c r="A125" t="s">
         <v>888</v>
       </c>
@@ -61394,7 +61496,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9">
       <c r="A126" t="s">
         <v>889</v>
       </c>
@@ -61414,7 +61516,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9">
       <c r="A127" t="s">
         <v>890</v>
       </c>
@@ -61434,7 +61536,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9">
       <c r="A128" t="s">
         <v>891</v>
       </c>
@@ -61454,7 +61556,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9">
       <c r="A129" t="s">
         <v>892</v>
       </c>
@@ -61474,7 +61576,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9">
       <c r="A130" t="s">
         <v>893</v>
       </c>
@@ -61494,7 +61596,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9">
       <c r="A131" t="s">
         <v>894</v>
       </c>
@@ -61514,7 +61616,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9">
       <c r="A132" t="s">
         <v>895</v>
       </c>
@@ -61534,7 +61636,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9">
       <c r="A133" t="s">
         <v>896</v>
       </c>
@@ -61554,7 +61656,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9">
       <c r="A134" t="s">
         <v>897</v>
       </c>
@@ -61574,7 +61676,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9">
       <c r="A135" t="s">
         <v>898</v>
       </c>
@@ -61594,7 +61696,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9">
       <c r="A136" t="s">
         <v>899</v>
       </c>
@@ -61614,7 +61716,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9">
       <c r="A137" t="s">
         <v>900</v>
       </c>
@@ -61634,7 +61736,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9">
       <c r="A138" t="s">
         <v>901</v>
       </c>
@@ -61654,7 +61756,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9">
       <c r="A139" t="s">
         <v>902</v>
       </c>
@@ -61674,7 +61776,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9">
       <c r="A140" t="s">
         <v>903</v>
       </c>
@@ -61694,7 +61796,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9">
       <c r="A141" t="s">
         <v>904</v>
       </c>
@@ -61714,7 +61816,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9">
       <c r="A142" t="s">
         <v>905</v>
       </c>
@@ -61734,7 +61836,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9">
       <c r="A143" t="s">
         <v>906</v>
       </c>
@@ -61754,7 +61856,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9">
       <c r="A144" t="s">
         <v>907</v>
       </c>
@@ -61774,7 +61876,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9">
       <c r="A145" t="s">
         <v>908</v>
       </c>
@@ -61794,7 +61896,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9">
       <c r="A146" t="s">
         <v>909</v>
       </c>
@@ -61814,7 +61916,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9">
       <c r="A147" t="s">
         <v>910</v>
       </c>
@@ -61834,7 +61936,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9">
       <c r="A148" t="s">
         <v>911</v>
       </c>
@@ -61854,7 +61956,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9">
       <c r="A149" t="s">
         <v>912</v>
       </c>
@@ -61874,7 +61976,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9">
       <c r="A150" t="s">
         <v>913</v>
       </c>
@@ -61894,7 +61996,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9">
       <c r="A151" t="s">
         <v>914</v>
       </c>
@@ -61914,7 +62016,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9">
       <c r="A152" t="s">
         <v>915</v>
       </c>
@@ -61934,7 +62036,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9">
       <c r="A153" t="s">
         <v>916</v>
       </c>
@@ -61954,7 +62056,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9">
       <c r="A154" t="s">
         <v>917</v>
       </c>
@@ -61974,7 +62076,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9">
       <c r="A155" t="s">
         <v>918</v>
       </c>
@@ -61994,7 +62096,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9">
       <c r="A156" t="s">
         <v>919</v>
       </c>
@@ -62014,7 +62116,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9">
       <c r="A157" t="s">
         <v>7185</v>
       </c>
@@ -62031,7 +62133,7 @@
         <v>6.875</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9">
       <c r="A158" t="s">
         <v>7186</v>
       </c>
@@ -62048,7 +62150,10 @@
         <v>5.875</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9">
+      <c r="A159" t="s">
+        <v>7249</v>
+      </c>
       <c r="B159" t="s">
         <v>7213</v>
       </c>
@@ -62062,12 +62167,15 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9">
+      <c r="A160" t="s">
+        <v>7250</v>
+      </c>
       <c r="B160" t="s">
         <v>7214</v>
       </c>
       <c r="C160" t="s">
-        <v>7232</v>
+        <v>7229</v>
       </c>
       <c r="D160" t="s">
         <v>540</v>
@@ -62076,12 +62184,15 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:5">
+      <c r="A161" t="s">
+        <v>7251</v>
+      </c>
       <c r="B161" t="s">
         <v>7215</v>
       </c>
       <c r="C161" t="s">
-        <v>7231</v>
+        <v>7230</v>
       </c>
       <c r="D161" t="s">
         <v>540</v>
@@ -62090,12 +62201,15 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:5">
+      <c r="A162" t="s">
+        <v>7252</v>
+      </c>
       <c r="B162" t="s">
         <v>7216</v>
       </c>
       <c r="C162" t="s">
-        <v>7230</v>
+        <v>7231</v>
       </c>
       <c r="D162" t="s">
         <v>539</v>
@@ -62104,12 +62218,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:5">
+      <c r="A163" t="s">
+        <v>7253</v>
+      </c>
       <c r="B163" t="s">
         <v>7217</v>
       </c>
       <c r="C163" t="s">
-        <v>7234</v>
+        <v>7232</v>
       </c>
       <c r="D163" t="s">
         <v>539</v>
@@ -62118,12 +62235,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:5">
+      <c r="A164" t="s">
+        <v>7254</v>
+      </c>
       <c r="B164" t="s">
         <v>7218</v>
       </c>
       <c r="C164" t="s">
-        <v>7229</v>
+        <v>7233</v>
       </c>
       <c r="D164" t="s">
         <v>539</v>
@@ -62132,12 +62252,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:5">
+      <c r="A165" t="s">
+        <v>7255</v>
+      </c>
       <c r="B165" t="s">
         <v>7219</v>
       </c>
       <c r="C165" t="s">
-        <v>7233</v>
+        <v>7234</v>
       </c>
       <c r="D165" t="s">
         <v>539</v>
@@ -62159,40 +62282,40 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="7.125" customWidth="1"/>
+    <col min="1" max="2" width="7.1640625" customWidth="1"/>
     <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="24.375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="51.5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="9" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>377</v>
       </c>
@@ -62230,7 +62353,7 @@
       <c r="V1" s="4"/>
       <c r="W1" s="4"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>370</v>
       </c>
@@ -62301,7 +62424,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
@@ -62360,7 +62483,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0</v>
       </c>
@@ -62425,7 +62548,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0</v>
       </c>
@@ -62490,7 +62613,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0</v>
       </c>
@@ -62555,7 +62678,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0</v>
       </c>
@@ -62620,7 +62743,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0</v>
       </c>
@@ -62682,7 +62805,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0</v>
       </c>
@@ -62750,7 +62873,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0</v>
       </c>
@@ -62818,7 +62941,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0</v>
       </c>
@@ -62883,7 +63006,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0</v>
       </c>
@@ -62945,7 +63068,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0</v>
       </c>
@@ -63007,7 +63130,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1</v>
       </c>
@@ -63072,7 +63195,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1</v>
       </c>
@@ -63131,7 +63254,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1</v>
       </c>
@@ -63190,7 +63313,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1</v>
       </c>
@@ -63249,7 +63372,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1</v>
       </c>
@@ -63308,7 +63431,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1</v>
       </c>
@@ -63373,7 +63496,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1</v>
       </c>
@@ -63441,7 +63564,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1</v>
       </c>
@@ -63509,7 +63632,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1</v>
       </c>
@@ -63568,7 +63691,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1</v>
       </c>
@@ -63636,7 +63759,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1</v>
       </c>
@@ -63704,7 +63827,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2</v>
       </c>
@@ -63769,7 +63892,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2</v>
       </c>
@@ -63828,7 +63951,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2</v>
       </c>
@@ -63887,7 +64010,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2</v>
       </c>
@@ -63946,7 +64069,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2</v>
       </c>
@@ -64005,7 +64128,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2</v>
       </c>
@@ -64070,7 +64193,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2</v>
       </c>
@@ -64138,7 +64261,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2</v>
       </c>
@@ -64206,7 +64329,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2</v>
       </c>
@@ -64265,7 +64388,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2</v>
       </c>
@@ -64333,7 +64456,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2</v>
       </c>
@@ -64401,7 +64524,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>3</v>
       </c>
@@ -64466,7 +64589,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>3</v>
       </c>
@@ -64525,7 +64648,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>3</v>
       </c>
@@ -64584,7 +64707,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>3</v>
       </c>
@@ -64643,7 +64766,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>3</v>
       </c>
@@ -64702,7 +64825,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>3</v>
       </c>
@@ -64767,7 +64890,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>3</v>
       </c>
@@ -64835,7 +64958,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>3</v>
       </c>
@@ -64903,7 +65026,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>3</v>
       </c>
@@ -64962,7 +65085,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>3</v>
       </c>
@@ -65030,7 +65153,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>3</v>
       </c>
@@ -65098,7 +65221,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>4</v>
       </c>
@@ -65163,7 +65286,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>4</v>
       </c>
@@ -65222,7 +65345,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>4</v>
       </c>
@@ -65281,7 +65404,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>4</v>
       </c>
@@ -65340,7 +65463,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>4</v>
       </c>
@@ -65399,7 +65522,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>4</v>
       </c>
@@ -65464,7 +65587,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>4</v>
       </c>
@@ -65532,7 +65655,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>4</v>
       </c>
@@ -65600,7 +65723,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>4</v>
       </c>
@@ -65659,7 +65782,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>4</v>
       </c>
@@ -65727,7 +65850,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>4</v>
       </c>
@@ -65795,7 +65918,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>5</v>
       </c>
@@ -65857,7 +65980,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>5</v>
       </c>
@@ -65922,7 +66045,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>5</v>
       </c>
@@ -65987,7 +66110,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>5</v>
       </c>
@@ -66052,7 +66175,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>5</v>
       </c>
@@ -66117,7 +66240,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>5</v>
       </c>
@@ -66176,7 +66299,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>5</v>
       </c>
@@ -66244,7 +66367,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>5</v>
       </c>
@@ -66312,7 +66435,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>5</v>
       </c>
@@ -66377,7 +66500,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>5</v>
       </c>
@@ -66442,7 +66565,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>5</v>
       </c>
@@ -66507,7 +66630,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>6</v>
       </c>
@@ -66575,7 +66698,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>6</v>
       </c>
@@ -66643,7 +66766,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>6</v>
       </c>
@@ -66711,7 +66834,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>6</v>
       </c>
@@ -66779,7 +66902,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>6</v>
       </c>
@@ -66847,7 +66970,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>6</v>
       </c>
@@ -66915,7 +67038,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>6</v>
       </c>
@@ -66974,7 +67097,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>6</v>
       </c>
@@ -67033,7 +67156,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>6</v>
       </c>
@@ -67101,7 +67224,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>6</v>
       </c>
@@ -67172,7 +67295,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>6</v>
       </c>
@@ -67243,7 +67366,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>7</v>
       </c>
@@ -67311,7 +67434,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>7</v>
       </c>
@@ -67379,7 +67502,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>7</v>
       </c>
@@ -67447,7 +67570,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>7</v>
       </c>
@@ -67515,7 +67638,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>7</v>
       </c>
@@ -67583,7 +67706,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>7</v>
       </c>
@@ -67651,7 +67774,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>7</v>
       </c>
@@ -67710,7 +67833,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>7</v>
       </c>
@@ -67769,7 +67892,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>7</v>
       </c>
@@ -67837,7 +67960,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>7</v>
       </c>
@@ -67908,7 +68031,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>7</v>
       </c>
@@ -67979,7 +68102,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>8</v>
       </c>
@@ -68044,7 +68167,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>8</v>
       </c>
@@ -68103,7 +68226,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>8</v>
       </c>
@@ -68162,7 +68285,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>8</v>
       </c>
@@ -68221,7 +68344,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>8</v>
       </c>
@@ -68280,7 +68403,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>8</v>
       </c>
@@ -68345,7 +68468,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>8</v>
       </c>
@@ -68413,7 +68536,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>8</v>
       </c>
@@ -68481,7 +68604,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>8</v>
       </c>
@@ -68540,7 +68663,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>8</v>
       </c>
@@ -68608,7 +68731,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>8</v>
       </c>
@@ -68676,7 +68799,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>9</v>
       </c>
@@ -68735,7 +68858,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>9</v>
       </c>
@@ -68800,7 +68923,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>9</v>
       </c>
@@ -68865,7 +68988,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>9</v>
       </c>
@@ -68930,7 +69053,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>9</v>
       </c>
@@ -68995,7 +69118,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>9</v>
       </c>
@@ -69057,7 +69180,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>9</v>
       </c>
@@ -69125,7 +69248,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>9</v>
       </c>
@@ -69193,7 +69316,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>9</v>
       </c>
@@ -69258,7 +69381,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>9</v>
       </c>
@@ -69317,7 +69440,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>9</v>
       </c>
@@ -69376,7 +69499,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>10</v>
       </c>
@@ -69438,7 +69561,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>10</v>
       </c>
@@ -69506,7 +69629,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>10</v>
       </c>
@@ -69574,7 +69697,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>10</v>
       </c>
@@ -69642,7 +69765,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>10</v>
       </c>
@@ -69710,7 +69833,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>10</v>
       </c>
@@ -69775,7 +69898,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>10</v>
       </c>
@@ -69846,7 +69969,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>10</v>
       </c>
@@ -69917,7 +70040,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>10</v>
       </c>
@@ -69985,7 +70108,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>10</v>
       </c>
@@ -70047,7 +70170,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>10</v>
       </c>

--- a/assets/posesaxl.xlsx
+++ b/assets/posesaxl.xlsx
@@ -8,8 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jam/go/i9posesa/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3DCA70F-381C-AF41-99CA-B2A87C686B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20260" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ImageSets" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
     <sheet name="Transitions" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName hidden="true" localSheetId="1" name="_xlnm._FilterDatabase">Exercises!$A$2:$DC$150</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Exercises!$A$2:$DC$150</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7256" uniqueCount="7256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12872" uniqueCount="7256">
   <si>
     <t>ID</t>
   </si>
@@ -21816,8 +21817,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -21861,10 +21862,10 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -21883,7 +21884,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -21896,7 +21897,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -41866,11 +41867,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9B5179E-762C-124B-A240-3A035CE5971A}">
   <dimension ref="A1:DC152"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C124" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C67" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B151" sqref="B151"/>
+      <selection pane="bottomRight" activeCell="F91" sqref="F91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -49981,10 +49982,10 @@
         <v>486</v>
       </c>
       <c r="C87">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D87">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="E87" t="s">
         <v>535</v>
@@ -56768,6 +56769,14 @@
   </sheetData>
   <autoFilter ref="A2:DC150" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="20">
+    <mergeCell ref="CT1:CX1"/>
+    <mergeCell ref="CY1:DC1"/>
+    <mergeCell ref="BP1:BT1"/>
+    <mergeCell ref="BU1:BY1"/>
+    <mergeCell ref="BZ1:CD1"/>
+    <mergeCell ref="CE1:CI1"/>
+    <mergeCell ref="CJ1:CN1"/>
+    <mergeCell ref="CO1:CS1"/>
     <mergeCell ref="BK1:BO1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
@@ -56780,14 +56789,6 @@
     <mergeCell ref="AV1:AZ1"/>
     <mergeCell ref="BA1:BE1"/>
     <mergeCell ref="BF1:BJ1"/>
-    <mergeCell ref="CT1:CX1"/>
-    <mergeCell ref="CY1:DC1"/>
-    <mergeCell ref="BP1:BT1"/>
-    <mergeCell ref="BU1:BY1"/>
-    <mergeCell ref="BZ1:CD1"/>
-    <mergeCell ref="CE1:CI1"/>
-    <mergeCell ref="CJ1:CN1"/>
-    <mergeCell ref="CO1:CS1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -56797,31 +56798,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899AC92B-5D4B-8E46-9E29-8D79D673E29D}">
   <dimension ref="A1:BC50"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="true" max="1" min="1" width="24.33203125"/>
-    <col bestFit="true" customWidth="true" max="2" min="2" width="42.33203125"/>
-    <col customWidth="true" max="3" min="3" width="20"/>
-    <col customWidth="true" max="4" min="4" width="15.6640625"/>
-    <col bestFit="true" customWidth="true" max="5" min="5" width="25"/>
-    <col bestFit="true" customWidth="true" max="6" min="6" width="35.6640625"/>
-    <col bestFit="true" customWidth="true" max="7" min="7" width="11.5"/>
-    <col bestFit="true" customWidth="true" max="8" min="8" width="45.1640625"/>
-    <col bestFit="true" customWidth="true" max="9" min="9" width="11.5"/>
-    <col bestFit="true" customWidth="true" max="10" min="10" width="34.83203125"/>
-    <col bestFit="true" customWidth="true" max="11" min="11" width="11.5"/>
-    <col bestFit="true" customWidth="true" max="12" min="12" width="30.5"/>
-    <col bestFit="true" customWidth="true" max="13" min="13" width="11.5"/>
-    <col bestFit="true" customWidth="true" max="14" min="14" width="31"/>
-    <col bestFit="true" customWidth="true" max="15" min="15" width="11.5"/>
-    <col customWidth="true" max="105" min="16" width="15"/>
+    <col min="1" max="1" width="24.33203125" customWidth="1"/>
+    <col min="2" max="2" width="42.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="45.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="105" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.2">
       <c r="F1" s="4" t="s">
         <v>243</v>
       </c>
@@ -56923,7 +56924,7 @@
       </c>
       <c r="BC1" s="4"/>
     </row>
-    <row r="2" spans="1:55">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -57090,7 +57091,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="3" spans="1:55">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>714</v>
       </c>
@@ -57128,7 +57129,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:55">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>715</v>
       </c>
@@ -57166,7 +57167,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:55">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>716</v>
       </c>
@@ -57192,7 +57193,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="6" spans="1:55">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>402</v>
       </c>
@@ -57212,7 +57213,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="7" spans="1:55">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>717</v>
       </c>
@@ -57253,7 +57254,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="8" spans="1:55">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>403</v>
       </c>
@@ -57288,7 +57289,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="9" spans="1:55">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>718</v>
       </c>
@@ -57329,7 +57330,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="10" spans="1:55">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>404</v>
       </c>
@@ -57364,7 +57365,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="11" spans="1:55">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>719</v>
       </c>
@@ -57390,7 +57391,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:55">
+    <row r="12" spans="1:55" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>405</v>
       </c>
@@ -57410,7 +57411,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:55">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>720</v>
       </c>
@@ -57448,7 +57449,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:55">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>721</v>
       </c>
@@ -57474,7 +57475,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="15" spans="1:55">
+    <row r="15" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>722</v>
       </c>
@@ -57482,7 +57483,7 @@
         <v>408</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" t="s">
         <v>1058</v>
@@ -57500,7 +57501,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="16" spans="1:55">
+    <row r="16" spans="1:55" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>408</v>
       </c>
@@ -57520,7 +57521,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>723</v>
       </c>
@@ -57546,7 +57547,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>409</v>
       </c>
@@ -57566,7 +57567,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>724</v>
       </c>
@@ -57592,7 +57593,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>410</v>
       </c>
@@ -57612,7 +57613,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>725</v>
       </c>
@@ -57638,7 +57639,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>411</v>
       </c>
@@ -57658,7 +57659,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>726</v>
       </c>
@@ -57684,7 +57685,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>412</v>
       </c>
@@ -57704,7 +57705,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>727</v>
       </c>
@@ -57730,7 +57731,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>728</v>
       </c>
@@ -57756,7 +57757,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>414</v>
       </c>
@@ -57776,7 +57777,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>729</v>
       </c>
@@ -57802,7 +57803,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>415</v>
       </c>
@@ -57822,7 +57823,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>730</v>
       </c>
@@ -57842,28 +57843,17 @@
         <v>50</v>
       </c>
       <c r="G30">
-        <v>0.21</v>
+        <v>0.375</v>
       </c>
       <c r="H30" t="s">
         <v>51</v>
       </c>
       <c r="I30">
-        <v>0.37</v>
-      </c>
-      <c r="J30" t="s">
-        <v>50</v>
-      </c>
-      <c r="K30">
-        <v>0.21</v>
-      </c>
-      <c r="L30" s="3" t="s">
-        <v>7172</v>
-      </c>
-      <c r="M30">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>0.625</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>416</v>
       </c>
@@ -57877,28 +57867,17 @@
         <v>52</v>
       </c>
       <c r="G31">
-        <v>0.21</v>
+        <v>0.375</v>
       </c>
       <c r="H31" t="s">
         <v>53</v>
       </c>
       <c r="I31">
-        <v>0.37</v>
-      </c>
-      <c r="J31" t="s">
-        <v>52</v>
-      </c>
-      <c r="K31">
-        <v>0.21</v>
-      </c>
-      <c r="L31" s="3" t="s">
-        <v>7172</v>
-      </c>
-      <c r="M31">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>0.625</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>731</v>
       </c>
@@ -57924,7 +57903,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>732</v>
       </c>
@@ -57962,7 +57941,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>733</v>
       </c>
@@ -57988,7 +57967,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>1049</v>
       </c>
@@ -58008,7 +57987,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>734</v>
       </c>
@@ -58034,7 +58013,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>735</v>
       </c>
@@ -58060,7 +58039,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>736</v>
       </c>
@@ -58086,7 +58065,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>421</v>
       </c>
@@ -58106,7 +58085,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>737</v>
       </c>
@@ -58132,7 +58111,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>738</v>
       </c>
@@ -58158,7 +58137,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>739</v>
       </c>
@@ -58184,7 +58163,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>740</v>
       </c>
@@ -58216,7 +58195,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>425</v>
       </c>
@@ -58239,7 +58218,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>7242</v>
       </c>
@@ -58277,7 +58256,7 @@
         <v>0.22500000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>7213</v>
       </c>
@@ -58306,7 +58285,7 @@
         <v>0.22500000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>7243</v>
       </c>
@@ -58332,7 +58311,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>7214</v>
       </c>
@@ -58349,7 +58328,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="49" spans="2:17">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>7244</v>
       </c>
@@ -58399,7 +58378,7 @@
         <v>0.16071428571428573</v>
       </c>
     </row>
-    <row r="50" spans="2:17">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>7215</v>
       </c>
@@ -58442,20 +58421,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="AN1:AO1"/>
-    <mergeCell ref="AP1:AQ1"/>
-    <mergeCell ref="AR1:AS1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:O1"/>
     <mergeCell ref="AV1:AW1"/>
     <mergeCell ref="AX1:AY1"/>
     <mergeCell ref="AZ1:BA1"/>
@@ -58467,6 +58432,20 @@
     <mergeCell ref="AJ1:AK1"/>
     <mergeCell ref="AL1:AM1"/>
     <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="AP1:AQ1"/>
+    <mergeCell ref="AR1:AS1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -58476,20 +58455,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{304959ED-A486-4F41-869E-BF049F6253A9}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col bestFit="true" customWidth="true" max="1" min="1" width="25.33203125"/>
-    <col bestFit="true" customWidth="true" max="2" min="2" width="29.33203125"/>
-    <col bestFit="true" customWidth="true" max="3" min="3" width="36.83203125"/>
-    <col bestFit="true" customWidth="true" max="4" min="4" width="34.83203125"/>
-    <col bestFit="true" customWidth="true" max="5" min="5" width="25"/>
+    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -58506,7 +58485,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>741</v>
       </c>
@@ -58523,7 +58502,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>742</v>
       </c>
@@ -58540,7 +58519,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>743</v>
       </c>
@@ -58557,7 +58536,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>744</v>
       </c>
@@ -58574,7 +58553,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>745</v>
       </c>
@@ -58591,7 +58570,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>746</v>
       </c>
@@ -58608,7 +58587,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>747</v>
       </c>
@@ -58625,7 +58604,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>748</v>
       </c>
@@ -58642,7 +58621,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>749</v>
       </c>
@@ -58659,7 +58638,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>750</v>
       </c>
@@ -58676,7 +58655,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>751</v>
       </c>
@@ -58693,7 +58672,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>752</v>
       </c>
@@ -58710,7 +58689,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>753</v>
       </c>
@@ -58727,7 +58706,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>754</v>
       </c>
@@ -58744,7 +58723,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>755</v>
       </c>
@@ -58761,7 +58740,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>756</v>
       </c>
@@ -58778,7 +58757,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>757</v>
       </c>
@@ -58795,7 +58774,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>758</v>
       </c>
@@ -58812,7 +58791,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>759</v>
       </c>
@@ -58829,7 +58808,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>760</v>
       </c>
@@ -58846,7 +58825,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>761</v>
       </c>
@@ -58863,7 +58842,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>762</v>
       </c>
@@ -58880,7 +58859,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>763</v>
       </c>
@@ -58897,7 +58876,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>764</v>
       </c>
@@ -58914,7 +58893,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>7245</v>
       </c>
@@ -58931,7 +58910,7 @@
         <v>7238</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>7246</v>
       </c>
@@ -58945,7 +58924,7 @@
         <v>7239</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>7247</v>
       </c>
@@ -58959,7 +58938,7 @@
         <v>7240</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>7248</v>
       </c>
@@ -58985,21 +58964,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7DE52F0-FA25-3147-9398-011447F75847}">
   <dimension ref="A1:I165"/>
   <sheetViews>
-    <sheetView topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="C180" sqref="C180"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col bestFit="true" customWidth="true" max="1" min="1" width="25.33203125"/>
-    <col bestFit="true" customWidth="true" max="2" min="2" width="41.1640625"/>
-    <col bestFit="true" customWidth="true" max="4" min="4" width="16.83203125"/>
-    <col customWidth="true" max="7" min="7" width="20.83203125"/>
-    <col customWidth="true" max="8" min="8" width="23.1640625"/>
-    <col bestFit="true" customWidth="true" max="23" min="23" width="120.6640625"/>
+    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" customWidth="1"/>
+    <col min="7" max="7" width="20.83203125" customWidth="1"/>
+    <col min="8" max="8" width="23.1640625" customWidth="1"/>
+    <col min="23" max="23" width="120.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -59016,7 +58995,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>765</v>
       </c>
@@ -59036,7 +59015,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>766</v>
       </c>
@@ -59056,7 +59035,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>767</v>
       </c>
@@ -59076,7 +59055,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>768</v>
       </c>
@@ -59096,7 +59075,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>769</v>
       </c>
@@ -59116,7 +59095,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>770</v>
       </c>
@@ -59136,7 +59115,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>771</v>
       </c>
@@ -59156,7 +59135,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>772</v>
       </c>
@@ -59176,7 +59155,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>773</v>
       </c>
@@ -59196,7 +59175,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>774</v>
       </c>
@@ -59216,7 +59195,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>775</v>
       </c>
@@ -59236,7 +59215,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>776</v>
       </c>
@@ -59256,7 +59235,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>777</v>
       </c>
@@ -59276,7 +59255,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>778</v>
       </c>
@@ -59296,7 +59275,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>779</v>
       </c>
@@ -59316,7 +59295,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>780</v>
       </c>
@@ -59336,7 +59315,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>781</v>
       </c>
@@ -59356,7 +59335,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>782</v>
       </c>
@@ -59376,7 +59355,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>783</v>
       </c>
@@ -59396,7 +59375,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>784</v>
       </c>
@@ -59416,7 +59395,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>785</v>
       </c>
@@ -59436,7 +59415,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>786</v>
       </c>
@@ -59456,7 +59435,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>787</v>
       </c>
@@ -59476,7 +59455,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>788</v>
       </c>
@@ -59496,7 +59475,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>789</v>
       </c>
@@ -59516,7 +59495,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>790</v>
       </c>
@@ -59536,7 +59515,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>791</v>
       </c>
@@ -59556,7 +59535,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>792</v>
       </c>
@@ -59576,7 +59555,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>793</v>
       </c>
@@ -59596,7 +59575,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>794</v>
       </c>
@@ -59616,7 +59595,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>795</v>
       </c>
@@ -59636,7 +59615,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>796</v>
       </c>
@@ -59656,7 +59635,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>797</v>
       </c>
@@ -59676,7 +59655,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>798</v>
       </c>
@@ -59696,7 +59675,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>799</v>
       </c>
@@ -59716,7 +59695,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>800</v>
       </c>
@@ -59736,7 +59715,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>801</v>
       </c>
@@ -59756,7 +59735,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>802</v>
       </c>
@@ -59776,7 +59755,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>803</v>
       </c>
@@ -59796,7 +59775,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>804</v>
       </c>
@@ -59816,7 +59795,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>805</v>
       </c>
@@ -59836,7 +59815,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>806</v>
       </c>
@@ -59856,7 +59835,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>807</v>
       </c>
@@ -59876,7 +59855,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>808</v>
       </c>
@@ -59896,7 +59875,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>809</v>
       </c>
@@ -59916,7 +59895,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>810</v>
       </c>
@@ -59936,7 +59915,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>811</v>
       </c>
@@ -59956,7 +59935,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>812</v>
       </c>
@@ -59976,7 +59955,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>813</v>
       </c>
@@ -59996,7 +59975,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>814</v>
       </c>
@@ -60016,7 +59995,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>815</v>
       </c>
@@ -60036,7 +60015,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>816</v>
       </c>
@@ -60056,7 +60035,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>817</v>
       </c>
@@ -60076,7 +60055,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>818</v>
       </c>
@@ -60096,7 +60075,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>819</v>
       </c>
@@ -60116,7 +60095,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>820</v>
       </c>
@@ -60136,7 +60115,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>821</v>
       </c>
@@ -60156,7 +60135,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>822</v>
       </c>
@@ -60176,7 +60155,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>823</v>
       </c>
@@ -60196,7 +60175,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>824</v>
       </c>
@@ -60216,7 +60195,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>825</v>
       </c>
@@ -60236,7 +60215,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>826</v>
       </c>
@@ -60256,7 +60235,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>827</v>
       </c>
@@ -60276,7 +60255,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>828</v>
       </c>
@@ -60296,7 +60275,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>829</v>
       </c>
@@ -60316,7 +60295,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>830</v>
       </c>
@@ -60336,7 +60315,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>831</v>
       </c>
@@ -60356,7 +60335,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>832</v>
       </c>
@@ -60376,7 +60355,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>833</v>
       </c>
@@ -60396,7 +60375,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>834</v>
       </c>
@@ -60416,7 +60395,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>835</v>
       </c>
@@ -60436,7 +60415,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>836</v>
       </c>
@@ -60456,7 +60435,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>837</v>
       </c>
@@ -60476,7 +60455,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>838</v>
       </c>
@@ -60496,7 +60475,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>839</v>
       </c>
@@ -60516,7 +60495,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>840</v>
       </c>
@@ -60536,7 +60515,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>841</v>
       </c>
@@ -60556,7 +60535,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>842</v>
       </c>
@@ -60576,7 +60555,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>843</v>
       </c>
@@ -60596,7 +60575,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>844</v>
       </c>
@@ -60616,7 +60595,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>845</v>
       </c>
@@ -60636,7 +60615,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>846</v>
       </c>
@@ -60656,7 +60635,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>847</v>
       </c>
@@ -60676,7 +60655,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>848</v>
       </c>
@@ -60696,7 +60675,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>849</v>
       </c>
@@ -60716,7 +60695,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>850</v>
       </c>
@@ -60736,7 +60715,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>851</v>
       </c>
@@ -60756,7 +60735,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>852</v>
       </c>
@@ -60776,7 +60755,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>853</v>
       </c>
@@ -60796,7 +60775,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>854</v>
       </c>
@@ -60816,7 +60795,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>855</v>
       </c>
@@ -60836,7 +60815,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>856</v>
       </c>
@@ -60856,7 +60835,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>857</v>
       </c>
@@ -60876,7 +60855,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>858</v>
       </c>
@@ -60896,7 +60875,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>859</v>
       </c>
@@ -60916,7 +60895,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>860</v>
       </c>
@@ -60936,7 +60915,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>861</v>
       </c>
@@ -60956,7 +60935,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>862</v>
       </c>
@@ -60976,7 +60955,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>863</v>
       </c>
@@ -60996,7 +60975,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>864</v>
       </c>
@@ -61016,7 +60995,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>865</v>
       </c>
@@ -61036,7 +61015,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>866</v>
       </c>
@@ -61056,7 +61035,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>867</v>
       </c>
@@ -61076,7 +61055,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>868</v>
       </c>
@@ -61096,7 +61075,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>869</v>
       </c>
@@ -61116,7 +61095,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>870</v>
       </c>
@@ -61136,7 +61115,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>871</v>
       </c>
@@ -61156,7 +61135,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>872</v>
       </c>
@@ -61176,7 +61155,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>873</v>
       </c>
@@ -61196,7 +61175,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>874</v>
       </c>
@@ -61216,7 +61195,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>875</v>
       </c>
@@ -61236,7 +61215,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>876</v>
       </c>
@@ -61256,7 +61235,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>877</v>
       </c>
@@ -61276,7 +61255,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>878</v>
       </c>
@@ -61296,7 +61275,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>879</v>
       </c>
@@ -61316,7 +61295,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>880</v>
       </c>
@@ -61336,7 +61315,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>881</v>
       </c>
@@ -61356,7 +61335,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>882</v>
       </c>
@@ -61376,7 +61355,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>883</v>
       </c>
@@ -61396,7 +61375,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>884</v>
       </c>
@@ -61416,7 +61395,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>885</v>
       </c>
@@ -61436,7 +61415,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>886</v>
       </c>
@@ -61456,7 +61435,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>887</v>
       </c>
@@ -61476,7 +61455,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>888</v>
       </c>
@@ -61496,7 +61475,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>889</v>
       </c>
@@ -61516,7 +61495,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>890</v>
       </c>
@@ -61536,7 +61515,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>891</v>
       </c>
@@ -61556,7 +61535,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>892</v>
       </c>
@@ -61576,7 +61555,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>893</v>
       </c>
@@ -61596,7 +61575,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>894</v>
       </c>
@@ -61616,7 +61595,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>895</v>
       </c>
@@ -61636,7 +61615,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>896</v>
       </c>
@@ -61656,7 +61635,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>897</v>
       </c>
@@ -61676,7 +61655,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>898</v>
       </c>
@@ -61696,7 +61675,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>899</v>
       </c>
@@ -61716,7 +61695,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>900</v>
       </c>
@@ -61736,7 +61715,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>901</v>
       </c>
@@ -61756,7 +61735,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>902</v>
       </c>
@@ -61776,7 +61755,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>903</v>
       </c>
@@ -61796,7 +61775,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>904</v>
       </c>
@@ -61816,7 +61795,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>905</v>
       </c>
@@ -61836,7 +61815,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>906</v>
       </c>
@@ -61856,7 +61835,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>907</v>
       </c>
@@ -61876,7 +61855,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>908</v>
       </c>
@@ -61896,7 +61875,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>909</v>
       </c>
@@ -61916,7 +61895,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>910</v>
       </c>
@@ -61936,7 +61915,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>911</v>
       </c>
@@ -61956,7 +61935,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>912</v>
       </c>
@@ -61976,7 +61955,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="150" spans="1:9">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>913</v>
       </c>
@@ -61996,7 +61975,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>914</v>
       </c>
@@ -62016,7 +61995,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>915</v>
       </c>
@@ -62036,7 +62015,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>916</v>
       </c>
@@ -62056,7 +62035,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>917</v>
       </c>
@@ -62076,7 +62055,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>918</v>
       </c>
@@ -62096,7 +62075,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>919</v>
       </c>
@@ -62116,7 +62095,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>7185</v>
       </c>
@@ -62133,7 +62112,7 @@
         <v>6.875</v>
       </c>
     </row>
-    <row r="158" spans="1:9">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>7186</v>
       </c>
@@ -62150,7 +62129,7 @@
         <v>5.875</v>
       </c>
     </row>
-    <row r="159" spans="1:9">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>7249</v>
       </c>
@@ -62167,7 +62146,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="160" spans="1:9">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>7250</v>
       </c>
@@ -62184,7 +62163,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="161" spans="2:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>7251</v>
       </c>
@@ -62201,7 +62180,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="162" spans="2:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>7252</v>
       </c>
@@ -62218,7 +62197,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="163" spans="2:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>7253</v>
       </c>
@@ -62235,7 +62214,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="2:5">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>7254</v>
       </c>
@@ -62252,7 +62231,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="2:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>7255</v>
       </c>

--- a/assets/posesaxl.xlsx
+++ b/assets/posesaxl.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jam/go/i9posesa/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3DCA70F-381C-AF41-99CA-B2A87C686B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF31B9F-F88B-2746-85B0-FADD4E80F9C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ImageSets" sheetId="1" r:id="rId1"/>
@@ -22195,8 +22195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0C6FEDB-7242-034A-A2CD-5F1C567957CE}">
   <dimension ref="A1:AA274"/>
   <sheetViews>
-    <sheetView topLeftCell="A242" workbookViewId="0">
-      <selection activeCell="B275" sqref="B275"/>
+    <sheetView tabSelected="1" topLeftCell="A242" workbookViewId="0">
+      <selection activeCell="C243" sqref="C243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -41774,7 +41774,7 @@
       </c>
     </row>
     <row r="266" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B266" t="s">
+      <c r="B266" s="3" t="s">
         <v>7224</v>
       </c>
       <c r="C266" t="str">
@@ -41783,7 +41783,7 @@
       </c>
     </row>
     <row r="267" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B267" t="s">
+      <c r="B267" s="3" t="s">
         <v>7225</v>
       </c>
       <c r="C267" t="str">
@@ -41792,7 +41792,7 @@
       </c>
     </row>
     <row r="268" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B268" t="s">
+      <c r="B268" s="3" t="s">
         <v>7222</v>
       </c>
       <c r="C268" t="str">
@@ -41801,7 +41801,7 @@
       </c>
     </row>
     <row r="269" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B269" t="s">
+      <c r="B269" s="3" t="s">
         <v>7223</v>
       </c>
       <c r="C269" t="str">
@@ -41810,7 +41810,7 @@
       </c>
     </row>
     <row r="270" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B270" t="s">
+      <c r="B270" s="3" t="s">
         <v>7220</v>
       </c>
       <c r="C270" t="str">
@@ -41819,7 +41819,7 @@
       </c>
     </row>
     <row r="271" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B271" t="s">
+      <c r="B271" s="3" t="s">
         <v>7221</v>
       </c>
       <c r="C271" t="str">
@@ -41828,7 +41828,7 @@
       </c>
     </row>
     <row r="272" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B272" t="s">
+      <c r="B272" s="3" t="s">
         <v>7226</v>
       </c>
       <c r="C272" t="str">
@@ -41837,7 +41837,7 @@
       </c>
     </row>
     <row r="273" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B273" t="s">
+      <c r="B273" s="3" t="s">
         <v>7227</v>
       </c>
       <c r="C273" t="str">
@@ -41846,7 +41846,7 @@
       </c>
     </row>
     <row r="274" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B274" t="s">
+      <c r="B274" s="3" t="s">
         <v>7217</v>
       </c>
       <c r="C274" t="str">
@@ -41867,8 +41867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9B5179E-762C-124B-A240-3A035CE5971A}">
   <dimension ref="A1:DC152"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C67" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C91" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="F91" sqref="F91"/>
@@ -56769,14 +56769,6 @@
   </sheetData>
   <autoFilter ref="A2:DC150" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="20">
-    <mergeCell ref="CT1:CX1"/>
-    <mergeCell ref="CY1:DC1"/>
-    <mergeCell ref="BP1:BT1"/>
-    <mergeCell ref="BU1:BY1"/>
-    <mergeCell ref="BZ1:CD1"/>
-    <mergeCell ref="CE1:CI1"/>
-    <mergeCell ref="CJ1:CN1"/>
-    <mergeCell ref="CO1:CS1"/>
     <mergeCell ref="BK1:BO1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
@@ -56789,6 +56781,14 @@
     <mergeCell ref="AV1:AZ1"/>
     <mergeCell ref="BA1:BE1"/>
     <mergeCell ref="BF1:BJ1"/>
+    <mergeCell ref="CT1:CX1"/>
+    <mergeCell ref="CY1:DC1"/>
+    <mergeCell ref="BP1:BT1"/>
+    <mergeCell ref="BU1:BY1"/>
+    <mergeCell ref="BZ1:CD1"/>
+    <mergeCell ref="CE1:CI1"/>
+    <mergeCell ref="CJ1:CN1"/>
+    <mergeCell ref="CO1:CS1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -56798,8 +56798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899AC92B-5D4B-8E46-9E29-8D79D673E29D}">
   <dimension ref="A1:BC50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="E19" workbookViewId="0">
+      <selection activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -58421,6 +58421,20 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="AP1:AQ1"/>
+    <mergeCell ref="AR1:AS1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
     <mergeCell ref="AV1:AW1"/>
     <mergeCell ref="AX1:AY1"/>
     <mergeCell ref="AZ1:BA1"/>
@@ -58432,20 +58446,6 @@
     <mergeCell ref="AJ1:AK1"/>
     <mergeCell ref="AL1:AM1"/>
     <mergeCell ref="AT1:AU1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="AN1:AO1"/>
-    <mergeCell ref="AP1:AQ1"/>
-    <mergeCell ref="AR1:AS1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/posesaxl.xlsx
+++ b/assets/posesaxl.xlsx
@@ -8,9 +8,8 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jam/go/i9posesa/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF31B9F-F88B-2746-85B0-FADD4E80F9C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ImageSets" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
     <sheet name="Transitions" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Exercises!$A$2:$DC$150</definedName>
+    <definedName hidden="true" localSheetId="1" name="_xlnm._FilterDatabase">Exercises!$A$2:$DC$150</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12872" uniqueCount="7256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12871" uniqueCount="7256">
   <si>
     <t>ID</t>
   </si>
@@ -21817,8 +21816,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -21862,10 +21861,10 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -21884,7 +21883,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -21897,7 +21896,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office 2013 - 2022 Theme">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -22195,7 +22194,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0C6FEDB-7242-034A-A2CD-5F1C567957CE}">
   <dimension ref="A1:AA274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A242" workbookViewId="0">
+    <sheetView topLeftCell="A242" workbookViewId="0">
       <selection activeCell="C243" sqref="C243"/>
     </sheetView>
   </sheetViews>
@@ -41867,11 +41866,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9B5179E-762C-124B-A240-3A035CE5971A}">
   <dimension ref="A1:DC152"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C91" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C111" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F91" sqref="F91"/>
+      <selection pane="bottomRight" activeCell="F138" sqref="F138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -54258,16 +54257,13 @@
         <v>515</v>
       </c>
       <c r="C134">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D134">
-        <v>0.25</v>
+        <v>0.67</v>
       </c>
       <c r="E134" t="s">
         <v>538</v>
-      </c>
-      <c r="F134" t="s">
-        <v>381</v>
       </c>
       <c r="G134" t="s">
         <v>1033</v>
@@ -56769,6 +56765,14 @@
   </sheetData>
   <autoFilter ref="A2:DC150" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="20">
+    <mergeCell ref="CT1:CX1"/>
+    <mergeCell ref="CY1:DC1"/>
+    <mergeCell ref="BP1:BT1"/>
+    <mergeCell ref="BU1:BY1"/>
+    <mergeCell ref="BZ1:CD1"/>
+    <mergeCell ref="CE1:CI1"/>
+    <mergeCell ref="CJ1:CN1"/>
+    <mergeCell ref="CO1:CS1"/>
     <mergeCell ref="BK1:BO1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
@@ -56781,14 +56785,6 @@
     <mergeCell ref="AV1:AZ1"/>
     <mergeCell ref="BA1:BE1"/>
     <mergeCell ref="BF1:BJ1"/>
-    <mergeCell ref="CT1:CX1"/>
-    <mergeCell ref="CY1:DC1"/>
-    <mergeCell ref="BP1:BT1"/>
-    <mergeCell ref="BU1:BY1"/>
-    <mergeCell ref="BZ1:CD1"/>
-    <mergeCell ref="CE1:CI1"/>
-    <mergeCell ref="CJ1:CN1"/>
-    <mergeCell ref="CO1:CS1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -58421,20 +58417,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="AN1:AO1"/>
-    <mergeCell ref="AP1:AQ1"/>
-    <mergeCell ref="AR1:AS1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:O1"/>
     <mergeCell ref="AV1:AW1"/>
     <mergeCell ref="AX1:AY1"/>
     <mergeCell ref="AZ1:BA1"/>
@@ -58446,6 +58428,20 @@
     <mergeCell ref="AJ1:AK1"/>
     <mergeCell ref="AL1:AM1"/>
     <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="AP1:AQ1"/>
+    <mergeCell ref="AR1:AS1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -58964,8 +58960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7DE52F0-FA25-3147-9398-011447F75847}">
   <dimension ref="A1:I165"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="B112" sqref="B112"/>
+    <sheetView topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="E141" sqref="E141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
